--- a/BackTest/2019-10-19 BackTest REP.xlsx
+++ b/BackTest/2019-10-19 BackTest REP.xlsx
@@ -961,7 +961,9 @@
       <c r="J12" t="n">
         <v>115</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-47.82608695652174</v>
+      </c>
       <c r="L12" t="n">
         <v>9820.5</v>
       </c>
@@ -1012,7 +1014,9 @@
       <c r="J13" t="n">
         <v>140</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>4.761904761904762</v>
+      </c>
       <c r="L13" t="n">
         <v>9817.5</v>
       </c>
@@ -1063,7 +1067,9 @@
       <c r="J14" t="n">
         <v>145</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
       <c r="L14" t="n">
         <v>9817.5</v>
       </c>
@@ -1114,7 +1120,9 @@
       <c r="J15" t="n">
         <v>165</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-25</v>
+      </c>
       <c r="L15" t="n">
         <v>9815.5</v>
       </c>
@@ -1165,7 +1173,9 @@
       <c r="J16" t="n">
         <v>165</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-10</v>
+      </c>
       <c r="L16" t="n">
         <v>9812.5</v>
       </c>
@@ -1216,7 +1226,9 @@
       <c r="J17" t="n">
         <v>165</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-37.5</v>
+      </c>
       <c r="L17" t="n">
         <v>9811.5</v>
       </c>
@@ -1267,7 +1279,9 @@
       <c r="J18" t="n">
         <v>165</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-37.5</v>
+      </c>
       <c r="L18" t="n">
         <v>9808.5</v>
       </c>
@@ -1318,7 +1332,9 @@
       <c r="J19" t="n">
         <v>165</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-16.66666666666666</v>
+      </c>
       <c r="L19" t="n">
         <v>9805.5</v>
       </c>
@@ -1369,7 +1385,9 @@
       <c r="J20" t="n">
         <v>165</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
       <c r="L20" t="n">
         <v>9804.5</v>
       </c>
@@ -1420,7 +1438,9 @@
       <c r="J21" t="n">
         <v>190</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L21" t="n">
         <v>9807</v>
       </c>
@@ -1473,7 +1493,9 @@
       <c r="J22" t="n">
         <v>215</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L22" t="n">
         <v>9807</v>
       </c>
@@ -1527,7 +1549,7 @@
         <v>235</v>
       </c>
       <c r="K23" t="n">
-        <v>-14.8936170212766</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>9806.5</v>
@@ -1582,7 +1604,7 @@
         <v>250</v>
       </c>
       <c r="K24" t="n">
-        <v>-6.976744186046512</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L24" t="n">
         <v>9805</v>
@@ -1637,7 +1659,7 @@
         <v>255</v>
       </c>
       <c r="K25" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>9805</v>
@@ -1692,7 +1714,7 @@
         <v>295</v>
       </c>
       <c r="K26" t="n">
-        <v>-28</v>
+        <v>-30.76923076923077</v>
       </c>
       <c r="L26" t="n">
         <v>9801</v>
@@ -1747,7 +1769,7 @@
         <v>310</v>
       </c>
       <c r="K27" t="n">
-        <v>-14.28571428571428</v>
+        <v>-17.24137931034483</v>
       </c>
       <c r="L27" t="n">
         <v>9798.5</v>
@@ -1802,7 +1824,7 @@
         <v>345</v>
       </c>
       <c r="K28" t="n">
-        <v>-34.61538461538461</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L28" t="n">
         <v>9792.5</v>
@@ -1857,7 +1879,7 @@
         <v>380</v>
       </c>
       <c r="K29" t="n">
-        <v>-18.64406779661017</v>
+        <v>-11.62790697674419</v>
       </c>
       <c r="L29" t="n">
         <v>9790</v>
@@ -1912,7 +1934,7 @@
         <v>385</v>
       </c>
       <c r="K30" t="n">
-        <v>-10.71428571428571</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L30" t="n">
         <v>9788</v>
@@ -1961,7 +1983,7 @@
         <v>395</v>
       </c>
       <c r="K31" t="n">
-        <v>-10.71428571428571</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L31" t="n">
         <v>9782.5</v>
@@ -2012,7 +2034,7 @@
         <v>405</v>
       </c>
       <c r="K32" t="n">
-        <v>-13.79310344827586</v>
+        <v>-35.29411764705883</v>
       </c>
       <c r="L32" t="n">
         <v>9778.5</v>
@@ -2063,7 +2085,7 @@
         <v>415</v>
       </c>
       <c r="K33" t="n">
-        <v>-20</v>
+        <v>-21.21212121212121</v>
       </c>
       <c r="L33" t="n">
         <v>9773.5</v>
@@ -2114,7 +2136,7 @@
         <v>415</v>
       </c>
       <c r="K34" t="n">
-        <v>-18.51851851851852</v>
+        <v>-18.75</v>
       </c>
       <c r="L34" t="n">
         <v>9770</v>
@@ -2165,7 +2187,7 @@
         <v>420</v>
       </c>
       <c r="K35" t="n">
-        <v>-9.803921568627452</v>
+        <v>12</v>
       </c>
       <c r="L35" t="n">
         <v>9767.5</v>
@@ -2216,7 +2238,7 @@
         <v>425</v>
       </c>
       <c r="K36" t="n">
-        <v>-11.53846153846154</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L36" t="n">
         <v>9768.5</v>
@@ -2267,7 +2289,7 @@
         <v>450</v>
       </c>
       <c r="K37" t="n">
-        <v>-19.29824561403509</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L37" t="n">
         <v>9765.5</v>
@@ -2318,7 +2340,7 @@
         <v>460</v>
       </c>
       <c r="K38" t="n">
-        <v>-22.03389830508474</v>
+        <v>-50</v>
       </c>
       <c r="L38" t="n">
         <v>9765</v>
@@ -2369,7 +2391,7 @@
         <v>460</v>
       </c>
       <c r="K39" t="n">
-        <v>-22.03389830508474</v>
+        <v>-60</v>
       </c>
       <c r="L39" t="n">
         <v>9761</v>
@@ -2420,7 +2442,7 @@
         <v>460</v>
       </c>
       <c r="K40" t="n">
-        <v>-22.03389830508474</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L40" t="n">
         <v>9756.5</v>
@@ -2471,7 +2493,7 @@
         <v>465</v>
       </c>
       <c r="K41" t="n">
-        <v>-34.54545454545455</v>
+        <v>-50</v>
       </c>
       <c r="L41" t="n">
         <v>9752.5</v>
@@ -2522,7 +2544,7 @@
         <v>480</v>
       </c>
       <c r="K42" t="n">
-        <v>-20.75471698113208</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L42" t="n">
         <v>9751</v>
@@ -2573,7 +2595,7 @@
         <v>495</v>
       </c>
       <c r="K43" t="n">
-        <v>-23.07692307692308</v>
+        <v>-12.5</v>
       </c>
       <c r="L43" t="n">
         <v>9750</v>
@@ -2624,7 +2646,7 @@
         <v>500</v>
       </c>
       <c r="K44" t="n">
-        <v>-16</v>
+        <v>-12.5</v>
       </c>
       <c r="L44" t="n">
         <v>9749.5</v>
@@ -2675,7 +2697,7 @@
         <v>500</v>
       </c>
       <c r="K45" t="n">
-        <v>-14.28571428571428</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L45" t="n">
         <v>9748.5</v>
@@ -2726,7 +2748,7 @@
         <v>515</v>
       </c>
       <c r="K46" t="n">
-        <v>-4.545454545454546</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L46" t="n">
         <v>9746.5</v>
@@ -2777,7 +2799,7 @@
         <v>555</v>
       </c>
       <c r="K47" t="n">
-        <v>-26.53061224489796</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L47" t="n">
         <v>9743</v>
@@ -2828,7 +2850,7 @@
         <v>560</v>
       </c>
       <c r="K48" t="n">
-        <v>-11.62790697674419</v>
+        <v>-20</v>
       </c>
       <c r="L48" t="n">
         <v>9741</v>
@@ -2879,7 +2901,7 @@
         <v>585</v>
       </c>
       <c r="K49" t="n">
-        <v>-17.07317073170732</v>
+        <v>4</v>
       </c>
       <c r="L49" t="n">
         <v>9741.5</v>
@@ -2930,7 +2952,7 @@
         <v>595</v>
       </c>
       <c r="K50" t="n">
-        <v>-14.28571428571428</v>
+        <v>15.38461538461539</v>
       </c>
       <c r="L50" t="n">
         <v>9743</v>
@@ -2981,7 +3003,7 @@
         <v>605</v>
       </c>
       <c r="K51" t="n">
-        <v>-14.28571428571428</v>
+        <v>-4</v>
       </c>
       <c r="L51" t="n">
         <v>9744</v>
@@ -3032,7 +3054,7 @@
         <v>605</v>
       </c>
       <c r="K52" t="n">
-        <v>-10</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L52" t="n">
         <v>9743.5</v>
@@ -3083,7 +3105,7 @@
         <v>620</v>
       </c>
       <c r="K53" t="n">
-        <v>-7.317073170731707</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L53" t="n">
         <v>9743</v>
@@ -3134,7 +3156,7 @@
         <v>630</v>
       </c>
       <c r="K54" t="n">
-        <v>-11.62790697674419</v>
+        <v>-15.38461538461539</v>
       </c>
       <c r="L54" t="n">
         <v>9741</v>
@@ -3185,7 +3207,7 @@
         <v>650</v>
       </c>
       <c r="K55" t="n">
-        <v>-4.347826086956522</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L55" t="n">
         <v>9741</v>
@@ -3236,7 +3258,7 @@
         <v>685</v>
       </c>
       <c r="K56" t="n">
-        <v>-15.38461538461539</v>
+        <v>15.38461538461539</v>
       </c>
       <c r="L56" t="n">
         <v>9739</v>
@@ -3287,7 +3309,7 @@
         <v>725</v>
       </c>
       <c r="K57" t="n">
-        <v>9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L57" t="n">
         <v>9745</v>
@@ -3338,7 +3360,7 @@
         <v>725</v>
       </c>
       <c r="K58" t="n">
-        <v>13.20754716981132</v>
+        <v>21.42857142857143</v>
       </c>
       <c r="L58" t="n">
         <v>9750.5</v>
@@ -3389,7 +3411,7 @@
         <v>745</v>
       </c>
       <c r="K59" t="n">
-        <v>19.29824561403509</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="L59" t="n">
         <v>9755.5</v>
@@ -3440,7 +3462,7 @@
         <v>745</v>
       </c>
       <c r="K60" t="n">
-        <v>19.29824561403509</v>
+        <v>35.71428571428572</v>
       </c>
       <c r="L60" t="n">
         <v>9759.5</v>
@@ -3491,7 +3513,7 @@
         <v>745</v>
       </c>
       <c r="K61" t="n">
-        <v>21.42857142857143</v>
+        <v>35.71428571428572</v>
       </c>
       <c r="L61" t="n">
         <v>9764.5</v>
@@ -3542,7 +3564,7 @@
         <v>755</v>
       </c>
       <c r="K62" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L62" t="n">
         <v>9770.5</v>
@@ -3593,7 +3615,7 @@
         <v>765</v>
       </c>
       <c r="K63" t="n">
-        <v>18.51851851851852</v>
+        <v>48.14814814814815</v>
       </c>
       <c r="L63" t="n">
         <v>9776</v>
@@ -3644,7 +3666,7 @@
         <v>770</v>
       </c>
       <c r="K64" t="n">
-        <v>14.81481481481481</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L64" t="n">
         <v>9782</v>
@@ -3695,7 +3717,7 @@
         <v>790</v>
       </c>
       <c r="K65" t="n">
-        <v>20.68965517241379</v>
+        <v>90.47619047619048</v>
       </c>
       <c r="L65" t="n">
         <v>9788</v>
@@ -3746,7 +3768,7 @@
         <v>810</v>
       </c>
       <c r="K66" t="n">
-        <v>18.64406779661017</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L66" t="n">
         <v>9795.5</v>
@@ -3797,7 +3819,7 @@
         <v>830</v>
       </c>
       <c r="K67" t="n">
-        <v>41.81818181818181</v>
+        <v>52.38095238095239</v>
       </c>
       <c r="L67" t="n">
         <v>9801</v>
@@ -3848,7 +3870,7 @@
         <v>840</v>
       </c>
       <c r="K68" t="n">
-        <v>35.71428571428572</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L68" t="n">
         <v>9805.5</v>
@@ -3899,7 +3921,7 @@
         <v>850</v>
       </c>
       <c r="K69" t="n">
-        <v>32.0754716981132</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L69" t="n">
         <v>9809</v>
@@ -3950,7 +3972,7 @@
         <v>855</v>
       </c>
       <c r="K70" t="n">
-        <v>26.92307692307692</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L70" t="n">
         <v>9812</v>
@@ -4001,7 +4023,7 @@
         <v>880</v>
       </c>
       <c r="K71" t="n">
-        <v>20</v>
+        <v>-4</v>
       </c>
       <c r="L71" t="n">
         <v>9812.5</v>
@@ -4052,7 +4074,7 @@
         <v>895</v>
       </c>
       <c r="K72" t="n">
-        <v>24.13793103448276</v>
+        <v>0</v>
       </c>
       <c r="L72" t="n">
         <v>9813.5</v>
@@ -4103,7 +4125,7 @@
         <v>915</v>
       </c>
       <c r="K73" t="n">
-        <v>11.86440677966102</v>
+        <v>-10.3448275862069</v>
       </c>
       <c r="L73" t="n">
         <v>9811.5</v>
@@ -4154,7 +4176,7 @@
         <v>920</v>
       </c>
       <c r="K74" t="n">
-        <v>13.79310344827586</v>
+        <v>-30.76923076923077</v>
       </c>
       <c r="L74" t="n">
         <v>9809.5</v>
@@ -4205,7 +4227,7 @@
         <v>955</v>
       </c>
       <c r="K75" t="n">
-        <v>18.0327868852459</v>
+        <v>10.3448275862069</v>
       </c>
       <c r="L75" t="n">
         <v>9809</v>
@@ -4256,7 +4278,7 @@
         <v>955</v>
       </c>
       <c r="K76" t="n">
-        <v>33.33333333333333</v>
+        <v>-4</v>
       </c>
       <c r="L76" t="n">
         <v>9810.5</v>
@@ -4307,7 +4329,7 @@
         <v>970</v>
       </c>
       <c r="K77" t="n">
-        <v>14.28571428571428</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L77" t="n">
         <v>9808.5</v>
@@ -4358,7 +4380,7 @@
         <v>990</v>
       </c>
       <c r="K78" t="n">
-        <v>20.75471698113208</v>
+        <v>0</v>
       </c>
       <c r="L78" t="n">
         <v>9809.5</v>
@@ -4409,7 +4431,7 @@
         <v>990</v>
       </c>
       <c r="K79" t="n">
-        <v>14.28571428571428</v>
+        <v>3.703703703703703</v>
       </c>
       <c r="L79" t="n">
         <v>9809.5</v>
@@ -4460,7 +4482,7 @@
         <v>995</v>
       </c>
       <c r="K80" t="n">
-        <v>16</v>
+        <v>30.43478260869566</v>
       </c>
       <c r="L80" t="n">
         <v>9810.5</v>
@@ -4511,7 +4533,7 @@
         <v>1015</v>
       </c>
       <c r="K81" t="n">
-        <v>7.407407407407407</v>
+        <v>0</v>
       </c>
       <c r="L81" t="n">
         <v>9812</v>
@@ -4562,7 +4584,7 @@
         <v>1015</v>
       </c>
       <c r="K82" t="n">
-        <v>3.846153846153846</v>
+        <v>20</v>
       </c>
       <c r="L82" t="n">
         <v>9812</v>
@@ -4613,7 +4635,7 @@
         <v>1035</v>
       </c>
       <c r="K83" t="n">
-        <v>7.407407407407407</v>
+        <v>39.1304347826087</v>
       </c>
       <c r="L83" t="n">
         <v>9816</v>
@@ -4664,7 +4686,7 @@
         <v>1040</v>
       </c>
       <c r="K84" t="n">
-        <v>11.11111111111111</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L84" t="n">
         <v>9821</v>
@@ -4715,7 +4737,7 @@
         <v>1040</v>
       </c>
       <c r="K85" t="n">
-        <v>4</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L85" t="n">
         <v>9822.5</v>
@@ -4766,7 +4788,7 @@
         <v>1040</v>
       </c>
       <c r="K86" t="n">
-        <v>13.04347826086956</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L86" t="n">
         <v>9824</v>
@@ -4817,7 +4839,7 @@
         <v>1055</v>
       </c>
       <c r="K87" t="n">
-        <v>-2.222222222222222</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L87" t="n">
         <v>9825.5</v>
@@ -4868,7 +4890,7 @@
         <v>1055</v>
       </c>
       <c r="K88" t="n">
-        <v>2.325581395348837</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L88" t="n">
         <v>9825</v>
@@ -4919,7 +4941,7 @@
         <v>1055</v>
       </c>
       <c r="K89" t="n">
-        <v>-2.439024390243902</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L89" t="n">
         <v>9824.5</v>
@@ -4970,7 +4992,7 @@
         <v>1065</v>
       </c>
       <c r="K90" t="n">
-        <v>4.761904761904762</v>
+        <v>40</v>
       </c>
       <c r="L90" t="n">
         <v>9824.5</v>
@@ -5021,7 +5043,7 @@
         <v>1075</v>
       </c>
       <c r="K91" t="n">
-        <v>12.82051282051282</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L91" t="n">
         <v>9825.5</v>
@@ -5072,7 +5094,7 @@
         <v>1075</v>
       </c>
       <c r="K92" t="n">
-        <v>5.555555555555555</v>
+        <v>-25</v>
       </c>
       <c r="L92" t="n">
         <v>9826.5</v>
@@ -5123,7 +5145,7 @@
         <v>1075</v>
       </c>
       <c r="K93" t="n">
-        <v>18.75</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L93" t="n">
         <v>9825.5</v>
@@ -5174,7 +5196,7 @@
         <v>1090</v>
       </c>
       <c r="K94" t="n">
-        <v>29.41176470588236</v>
+        <v>0</v>
       </c>
       <c r="L94" t="n">
         <v>9825.5</v>
@@ -5225,7 +5247,7 @@
         <v>1090</v>
       </c>
       <c r="K95" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L95" t="n">
         <v>9825.5</v>
@@ -5276,7 +5298,7 @@
         <v>1090</v>
       </c>
       <c r="K96" t="n">
-        <v>11.11111111111111</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L96" t="n">
         <v>9825.5</v>
@@ -5327,7 +5349,7 @@
         <v>1095</v>
       </c>
       <c r="K97" t="n">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="L97" t="n">
         <v>9827.5</v>
@@ -5378,7 +5400,7 @@
         <v>1095</v>
       </c>
       <c r="K98" t="n">
-        <v>14.28571428571428</v>
+        <v>50</v>
       </c>
       <c r="L98" t="n">
         <v>9829.5</v>
@@ -5429,7 +5451,7 @@
         <v>1100</v>
       </c>
       <c r="K99" t="n">
-        <v>9.090909090909092</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L99" t="n">
         <v>9831</v>
@@ -5480,7 +5502,7 @@
         <v>1130</v>
       </c>
       <c r="K100" t="n">
-        <v>-18.51851851851852</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L100" t="n">
         <v>9828.5</v>
@@ -5531,7 +5553,7 @@
         <v>1135</v>
       </c>
       <c r="K101" t="n">
-        <v>-8.333333333333332</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L101" t="n">
         <v>9826.5</v>
@@ -5582,7 +5604,7 @@
         <v>1135</v>
       </c>
       <c r="K102" t="n">
-        <v>-8.333333333333332</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L102" t="n">
         <v>9824.5</v>
@@ -5633,7 +5655,7 @@
         <v>1135</v>
       </c>
       <c r="K103" t="n">
-        <v>-30</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L103" t="n">
         <v>9822.5</v>
@@ -5684,7 +5706,7 @@
         <v>1200</v>
       </c>
       <c r="K104" t="n">
-        <v>-62.5</v>
+        <v>-90.90909090909091</v>
       </c>
       <c r="L104" t="n">
         <v>9812.5</v>
@@ -5735,7 +5757,7 @@
         <v>1250</v>
       </c>
       <c r="K105" t="n">
-        <v>-23.80952380952381</v>
+        <v>-31.25</v>
       </c>
       <c r="L105" t="n">
         <v>9807.5</v>
@@ -5786,7 +5808,7 @@
         <v>1260</v>
       </c>
       <c r="K106" t="n">
-        <v>-18.18181818181818</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L106" t="n">
         <v>9803.5</v>
@@ -5837,7 +5859,7 @@
         <v>1280</v>
       </c>
       <c r="K107" t="n">
-        <v>-20</v>
+        <v>-35.13513513513514</v>
       </c>
       <c r="L107" t="n">
         <v>9797</v>
@@ -5888,7 +5910,7 @@
         <v>1325</v>
       </c>
       <c r="K108" t="n">
-        <v>-33.33333333333333</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L108" t="n">
         <v>9786</v>
@@ -5939,7 +5961,7 @@
         <v>1325</v>
       </c>
       <c r="K109" t="n">
-        <v>-33.33333333333333</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L109" t="n">
         <v>9775.5</v>
@@ -5990,7 +6012,7 @@
         <v>1340</v>
       </c>
       <c r="K110" t="n">
-        <v>-30.90909090909091</v>
+        <v>-26.82926829268293</v>
       </c>
       <c r="L110" t="n">
         <v>9769.5</v>
@@ -6041,7 +6063,7 @@
         <v>1370</v>
       </c>
       <c r="K111" t="n">
-        <v>-15.25423728813559</v>
+        <v>-10.63829787234043</v>
       </c>
       <c r="L111" t="n">
         <v>9767</v>
@@ -6092,7 +6114,7 @@
         <v>1425</v>
       </c>
       <c r="K112" t="n">
-        <v>-28.57142857142857</v>
+        <v>-27.58620689655172</v>
       </c>
       <c r="L112" t="n">
         <v>9759</v>
@@ -6143,7 +6165,7 @@
         <v>1425</v>
       </c>
       <c r="K113" t="n">
-        <v>-28.57142857142857</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L113" t="n">
         <v>9751</v>
@@ -6194,7 +6216,7 @@
         <v>1485</v>
       </c>
       <c r="K114" t="n">
-        <v>-13.92405063291139</v>
+        <v>-2.127659574468085</v>
       </c>
       <c r="L114" t="n">
         <v>9755.5</v>
@@ -6245,7 +6267,7 @@
         <v>1490</v>
       </c>
       <c r="K115" t="n">
-        <v>-15</v>
+        <v>-8.695652173913043</v>
       </c>
       <c r="L115" t="n">
         <v>9754.5</v>
@@ -6296,7 +6318,7 @@
         <v>1490</v>
       </c>
       <c r="K116" t="n">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="L116" t="n">
         <v>9752.5</v>
@@ -6347,7 +6369,7 @@
         <v>1535</v>
       </c>
       <c r="K117" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="L117" t="n">
         <v>9748</v>
@@ -6398,7 +6420,7 @@
         <v>1590</v>
       </c>
       <c r="K118" t="n">
-        <v>-11.11111111111111</v>
+        <v>20.75471698113208</v>
       </c>
       <c r="L118" t="n">
         <v>9753.5</v>
@@ -6449,7 +6471,7 @@
         <v>1655</v>
       </c>
       <c r="K119" t="n">
-        <v>-20.72072072072072</v>
+        <v>-7.936507936507936</v>
       </c>
       <c r="L119" t="n">
         <v>9752.5</v>
@@ -6500,7 +6522,7 @@
         <v>1675</v>
       </c>
       <c r="K120" t="n">
-        <v>-19.26605504587156</v>
+        <v>-24.59016393442623</v>
       </c>
       <c r="L120" t="n">
         <v>9748</v>
@@ -6551,7 +6573,7 @@
         <v>1675</v>
       </c>
       <c r="K121" t="n">
-        <v>-18.51851851851852</v>
+        <v>-8</v>
       </c>
       <c r="L121" t="n">
         <v>9740.5</v>
@@ -6602,7 +6624,7 @@
         <v>1675</v>
       </c>
       <c r="K122" t="n">
-        <v>-18.51851851851852</v>
+        <v>-8</v>
       </c>
       <c r="L122" t="n">
         <v>9738.5</v>
@@ -6653,7 +6675,7 @@
         <v>1680</v>
       </c>
       <c r="K123" t="n">
-        <v>-19.26605504587156</v>
+        <v>-43.58974358974359</v>
       </c>
       <c r="L123" t="n">
         <v>9736</v>
@@ -6704,7 +6726,7 @@
         <v>1690</v>
       </c>
       <c r="K124" t="n">
-        <v>-6.122448979591836</v>
+        <v>-35</v>
       </c>
       <c r="L124" t="n">
         <v>9728.5</v>
@@ -6755,7 +6777,7 @@
         <v>1690</v>
       </c>
       <c r="K125" t="n">
-        <v>-18.18181818181818</v>
+        <v>-35</v>
       </c>
       <c r="L125" t="n">
         <v>9721.5</v>
@@ -6806,7 +6828,7 @@
         <v>1695</v>
       </c>
       <c r="K126" t="n">
-        <v>-21.83908045977012</v>
+        <v>-18.75</v>
       </c>
       <c r="L126" t="n">
         <v>9714</v>
@@ -6857,7 +6879,7 @@
         <v>1700</v>
       </c>
       <c r="K127" t="n">
-        <v>-16.66666666666666</v>
+        <v>-72.72727272727273</v>
       </c>
       <c r="L127" t="n">
         <v>9711.5</v>
@@ -6908,7 +6930,7 @@
         <v>1700</v>
       </c>
       <c r="K128" t="n">
-        <v>-6.666666666666667</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L128" t="n">
         <v>9703.5</v>
@@ -6959,7 +6981,7 @@
         <v>1700</v>
       </c>
       <c r="K129" t="n">
-        <v>-6.666666666666667</v>
+        <v>20</v>
       </c>
       <c r="L129" t="n">
         <v>9702</v>
@@ -7010,7 +7032,7 @@
         <v>1700</v>
       </c>
       <c r="K130" t="n">
-        <v>-11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L130" t="n">
         <v>9702.5</v>
@@ -7061,7 +7083,7 @@
         <v>1705</v>
       </c>
       <c r="K131" t="n">
-        <v>-22.38805970149254</v>
+        <v>0</v>
       </c>
       <c r="L131" t="n">
         <v>9702.5</v>
@@ -7112,7 +7134,7 @@
         <v>1710</v>
       </c>
       <c r="K132" t="n">
-        <v>-8.771929824561402</v>
+        <v>0</v>
       </c>
       <c r="L132" t="n">
         <v>9702</v>
@@ -7163,7 +7185,7 @@
         <v>1710</v>
       </c>
       <c r="K133" t="n">
-        <v>-8.771929824561402</v>
+        <v>-50</v>
       </c>
       <c r="L133" t="n">
         <v>9702</v>
@@ -7214,7 +7236,7 @@
         <v>1720</v>
       </c>
       <c r="K134" t="n">
-        <v>-31.91489361702128</v>
+        <v>0</v>
       </c>
       <c r="L134" t="n">
         <v>9702</v>

--- a/BackTest/2019-10-19 BackTest REP.xlsx
+++ b/BackTest/2019-10-19 BackTest REP.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S134"/>
+  <dimension ref="A1:M113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,60 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>closegap_abs_cumsum</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>MA5</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>BuyPrice</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>bprelay</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -483,17 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -525,18 +491,10 @@
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -563,27 +521,15 @@
         <v>9811.333333333334</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>-35</v>
-      </c>
-      <c r="J4" t="n">
-        <v>35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="n">
-        <v>9855</v>
-      </c>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="n">
-        <v>9855</v>
-      </c>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -613,26 +559,12 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>-35</v>
-      </c>
-      <c r="J5" t="n">
-        <v>35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q5" t="n">
-        <v>9855</v>
-      </c>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -662,26 +594,12 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-25</v>
-      </c>
-      <c r="J6" t="n">
-        <v>45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q6" t="n">
-        <v>9855</v>
-      </c>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -711,26 +629,12 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>-45</v>
-      </c>
-      <c r="J7" t="n">
-        <v>65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q7" t="n">
-        <v>9855</v>
-      </c>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -760,26 +664,12 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>-25</v>
-      </c>
-      <c r="J8" t="n">
-        <v>85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q8" t="n">
-        <v>9855</v>
-      </c>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -809,26 +699,12 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>-25</v>
-      </c>
-      <c r="J9" t="n">
-        <v>85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q9" t="n">
-        <v>9855</v>
-      </c>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -858,26 +734,12 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>-45</v>
-      </c>
-      <c r="J10" t="n">
-        <v>105</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q10" t="n">
-        <v>9855</v>
-      </c>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -907,26 +769,12 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-55</v>
-      </c>
-      <c r="J11" t="n">
-        <v>115</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>9826</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="n">
-        <v>10190</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>9855</v>
-      </c>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -956,30 +804,12 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>-55</v>
-      </c>
-      <c r="J12" t="n">
-        <v>115</v>
-      </c>
-      <c r="K12" t="n">
-        <v>-47.82608695652174</v>
-      </c>
-      <c r="L12" t="n">
-        <v>9820.5</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="n">
-        <v>9855</v>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1009,30 +839,12 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-30</v>
-      </c>
-      <c r="J13" t="n">
-        <v>140</v>
-      </c>
-      <c r="K13" t="n">
-        <v>4.761904761904762</v>
-      </c>
-      <c r="L13" t="n">
-        <v>9817.5</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="n">
-        <v>9855</v>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1062,30 +874,12 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-35</v>
-      </c>
-      <c r="J14" t="n">
-        <v>145</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>9817.5</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="n">
-        <v>9855</v>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1115,30 +909,12 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>-55</v>
-      </c>
-      <c r="J15" t="n">
-        <v>165</v>
-      </c>
-      <c r="K15" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L15" t="n">
-        <v>9815.5</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="n">
-        <v>9855</v>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1168,30 +944,12 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>-55</v>
-      </c>
-      <c r="J16" t="n">
-        <v>165</v>
-      </c>
-      <c r="K16" t="n">
-        <v>-10</v>
-      </c>
-      <c r="L16" t="n">
-        <v>9812.5</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="n">
-        <v>9855</v>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1221,30 +979,12 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-55</v>
-      </c>
-      <c r="J17" t="n">
-        <v>165</v>
-      </c>
-      <c r="K17" t="n">
-        <v>-37.5</v>
-      </c>
-      <c r="L17" t="n">
-        <v>9811.5</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="n">
-        <v>9855</v>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,30 +1014,12 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>-55</v>
-      </c>
-      <c r="J18" t="n">
-        <v>165</v>
-      </c>
-      <c r="K18" t="n">
-        <v>-37.5</v>
-      </c>
-      <c r="L18" t="n">
-        <v>9808.5</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="n">
-        <v>9855</v>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1327,30 +1049,12 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>-55</v>
-      </c>
-      <c r="J19" t="n">
-        <v>165</v>
-      </c>
-      <c r="K19" t="n">
-        <v>-16.66666666666666</v>
-      </c>
-      <c r="L19" t="n">
-        <v>9805.5</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="n">
-        <v>9855</v>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1380,30 +1084,12 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-55</v>
-      </c>
-      <c r="J20" t="n">
-        <v>165</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>9804.5</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="n">
-        <v>9855</v>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1433,32 +1119,12 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>-30</v>
-      </c>
-      <c r="J21" t="n">
-        <v>190</v>
-      </c>
-      <c r="K21" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L21" t="n">
-        <v>9807</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>9816.5</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="n">
-        <v>9855</v>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1488,32 +1154,12 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>-55</v>
-      </c>
-      <c r="J22" t="n">
-        <v>215</v>
-      </c>
-      <c r="K22" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L22" t="n">
-        <v>9807</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>9813.75</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="n">
-        <v>9855</v>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1543,32 +1189,12 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>-35</v>
-      </c>
-      <c r="J23" t="n">
-        <v>235</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>9806.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>9812</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="n">
-        <v>9855</v>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1598,32 +1224,12 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>-50</v>
-      </c>
-      <c r="J24" t="n">
-        <v>250</v>
-      </c>
-      <c r="K24" t="n">
-        <v>5.88235294117647</v>
-      </c>
-      <c r="L24" t="n">
-        <v>9805</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>9811.25</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="n">
-        <v>9855</v>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1653,32 +1259,12 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>-55</v>
-      </c>
-      <c r="J25" t="n">
-        <v>255</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>9805</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>9810.25</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="n">
-        <v>9855</v>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,32 +1294,12 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>-95</v>
-      </c>
-      <c r="J26" t="n">
-        <v>295</v>
-      </c>
-      <c r="K26" t="n">
-        <v>-30.76923076923077</v>
-      </c>
-      <c r="L26" t="n">
-        <v>9801</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>9806.75</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="n">
-        <v>9855</v>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1763,32 +1329,12 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>-80</v>
-      </c>
-      <c r="J27" t="n">
-        <v>310</v>
-      </c>
-      <c r="K27" t="n">
-        <v>-17.24137931034483</v>
-      </c>
-      <c r="L27" t="n">
-        <v>9798.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>9805</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="n">
-        <v>9855</v>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1818,32 +1364,12 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>-115</v>
-      </c>
-      <c r="J28" t="n">
-        <v>345</v>
-      </c>
-      <c r="K28" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L28" t="n">
-        <v>9792.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>9800.5</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="n">
-        <v>9855</v>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1873,33 +1399,13 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>-80</v>
-      </c>
-      <c r="J29" t="n">
-        <v>380</v>
-      </c>
-      <c r="K29" t="n">
-        <v>-11.62790697674419</v>
-      </c>
-      <c r="L29" t="n">
-        <v>9790</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>9797.75</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="n">
-        <v>9855</v>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>이탈 완료</t>
-        </is>
-      </c>
-      <c r="S29" t="n">
-        <v>0.9868822932521563</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1928,26 +1434,12 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>-75</v>
-      </c>
-      <c r="J30" t="n">
-        <v>385</v>
-      </c>
-      <c r="K30" t="n">
-        <v>-23.07692307692308</v>
-      </c>
-      <c r="L30" t="n">
-        <v>9788</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>9796.25</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1977,28 +1469,12 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>-85</v>
-      </c>
-      <c r="J31" t="n">
-        <v>395</v>
-      </c>
-      <c r="K31" t="n">
-        <v>-16.66666666666666</v>
-      </c>
-      <c r="L31" t="n">
-        <v>9782.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
-        <v>9794.75</v>
-      </c>
-      <c r="N31" t="n">
-        <v>9805.166666666666</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2028,28 +1504,12 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>-95</v>
-      </c>
-      <c r="J32" t="n">
-        <v>405</v>
-      </c>
-      <c r="K32" t="n">
-        <v>-35.29411764705883</v>
-      </c>
-      <c r="L32" t="n">
-        <v>9778.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>9792.75</v>
-      </c>
-      <c r="N32" t="n">
-        <v>9802</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2079,28 +1539,12 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>-85</v>
-      </c>
-      <c r="J33" t="n">
-        <v>415</v>
-      </c>
-      <c r="K33" t="n">
-        <v>-21.21212121212121</v>
-      </c>
-      <c r="L33" t="n">
-        <v>9773.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>9790</v>
-      </c>
-      <c r="N33" t="n">
-        <v>9799.166666666666</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2130,28 +1574,12 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-85</v>
-      </c>
-      <c r="J34" t="n">
-        <v>415</v>
-      </c>
-      <c r="K34" t="n">
-        <v>-18.75</v>
-      </c>
-      <c r="L34" t="n">
-        <v>9770</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>9787.5</v>
-      </c>
-      <c r="N34" t="n">
-        <v>9797.5</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2181,28 +1609,12 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>-80</v>
-      </c>
-      <c r="J35" t="n">
-        <v>420</v>
-      </c>
-      <c r="K35" t="n">
-        <v>12</v>
-      </c>
-      <c r="L35" t="n">
-        <v>9767.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
-        <v>9786.25</v>
-      </c>
-      <c r="N35" t="n">
-        <v>9796</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2232,28 +1644,12 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>-85</v>
-      </c>
-      <c r="J36" t="n">
-        <v>425</v>
-      </c>
-      <c r="K36" t="n">
-        <v>-4.347826086956522</v>
-      </c>
-      <c r="L36" t="n">
-        <v>9768.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
-        <v>9784.75</v>
-      </c>
-      <c r="N36" t="n">
-        <v>9794</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2283,28 +1679,12 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>-110</v>
-      </c>
-      <c r="J37" t="n">
-        <v>450</v>
-      </c>
-      <c r="K37" t="n">
-        <v>4.761904761904762</v>
-      </c>
-      <c r="L37" t="n">
-        <v>9765.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
-        <v>9782</v>
-      </c>
-      <c r="N37" t="n">
-        <v>9791.833333333334</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2334,28 +1714,12 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>-120</v>
-      </c>
-      <c r="J38" t="n">
-        <v>460</v>
-      </c>
-      <c r="K38" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L38" t="n">
-        <v>9765</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
-        <v>9778.75</v>
-      </c>
-      <c r="N38" t="n">
-        <v>9788.666666666666</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2385,28 +1749,12 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>-120</v>
-      </c>
-      <c r="J39" t="n">
-        <v>460</v>
-      </c>
-      <c r="K39" t="n">
-        <v>-60</v>
-      </c>
-      <c r="L39" t="n">
-        <v>9761</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
-        <v>9775.5</v>
-      </c>
-      <c r="N39" t="n">
-        <v>9785.5</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2436,28 +1784,12 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>-120</v>
-      </c>
-      <c r="J40" t="n">
-        <v>460</v>
-      </c>
-      <c r="K40" t="n">
-        <v>-53.84615384615385</v>
-      </c>
-      <c r="L40" t="n">
-        <v>9756.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
-        <v>9772.25</v>
-      </c>
-      <c r="N40" t="n">
-        <v>9783</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2487,28 +1819,12 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>-125</v>
-      </c>
-      <c r="J41" t="n">
-        <v>465</v>
-      </c>
-      <c r="K41" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L41" t="n">
-        <v>9752.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>9767.5</v>
-      </c>
-      <c r="N41" t="n">
-        <v>9780.666666666666</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2538,28 +1854,12 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>-110</v>
-      </c>
-      <c r="J42" t="n">
-        <v>480</v>
-      </c>
-      <c r="K42" t="n">
-        <v>-38.46153846153847</v>
-      </c>
-      <c r="L42" t="n">
-        <v>9751</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
-        <v>9764.75</v>
-      </c>
-      <c r="N42" t="n">
-        <v>9778.833333333334</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2589,28 +1889,12 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>-95</v>
-      </c>
-      <c r="J43" t="n">
-        <v>495</v>
-      </c>
-      <c r="K43" t="n">
-        <v>-12.5</v>
-      </c>
-      <c r="L43" t="n">
-        <v>9750</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
-        <v>9761.75</v>
-      </c>
-      <c r="N43" t="n">
-        <v>9776.666666666666</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2640,28 +1924,12 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>-90</v>
-      </c>
-      <c r="J44" t="n">
-        <v>500</v>
-      </c>
-      <c r="K44" t="n">
-        <v>-12.5</v>
-      </c>
-      <c r="L44" t="n">
-        <v>9749.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
-        <v>9759.75</v>
-      </c>
-      <c r="N44" t="n">
-        <v>9774.833333333334</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2691,28 +1959,12 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>-90</v>
-      </c>
-      <c r="J45" t="n">
-        <v>500</v>
-      </c>
-      <c r="K45" t="n">
-        <v>-6.666666666666667</v>
-      </c>
-      <c r="L45" t="n">
-        <v>9748.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
-        <v>9758</v>
-      </c>
-      <c r="N45" t="n">
-        <v>9773.666666666666</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2742,28 +1994,12 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>-105</v>
-      </c>
-      <c r="J46" t="n">
-        <v>515</v>
-      </c>
-      <c r="K46" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="L46" t="n">
-        <v>9746.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
-        <v>9757.5</v>
-      </c>
-      <c r="N46" t="n">
-        <v>9772</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,28 +2029,12 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>-145</v>
-      </c>
-      <c r="J47" t="n">
-        <v>555</v>
-      </c>
-      <c r="K47" t="n">
-        <v>-26.31578947368421</v>
-      </c>
-      <c r="L47" t="n">
-        <v>9743</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
-        <v>9754.25</v>
-      </c>
-      <c r="N47" t="n">
-        <v>9769</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2844,28 +2064,12 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>-140</v>
-      </c>
-      <c r="J48" t="n">
-        <v>560</v>
-      </c>
-      <c r="K48" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L48" t="n">
-        <v>9741</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
-        <v>9753</v>
-      </c>
-      <c r="N48" t="n">
-        <v>9766.166666666666</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2892,31 +2096,21 @@
         <v>9796.75</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>-115</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>585</v>
-      </c>
-      <c r="K49" t="n">
-        <v>4</v>
-      </c>
-      <c r="L49" t="n">
-        <v>9741.5</v>
+        <v>9735</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M49" t="n">
-        <v>9751.25</v>
-      </c>
-      <c r="N49" t="n">
-        <v>9764.166666666666</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2943,31 +2137,21 @@
         <v>9794.5</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>-105</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>595</v>
-      </c>
-      <c r="K50" t="n">
-        <v>15.38461538461539</v>
-      </c>
-      <c r="L50" t="n">
-        <v>9743</v>
+        <v>9750</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M50" t="n">
-        <v>9749.75</v>
-      </c>
-      <c r="N50" t="n">
-        <v>9762.5</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2994,31 +2178,21 @@
         <v>9792.416666666666</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>-115</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>605</v>
-      </c>
-      <c r="K51" t="n">
-        <v>-4</v>
-      </c>
-      <c r="L51" t="n">
-        <v>9744</v>
+        <v>9740</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M51" t="n">
-        <v>9748.25</v>
-      </c>
-      <c r="N51" t="n">
-        <v>9759.666666666666</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3045,31 +2219,21 @@
         <v>9790.416666666666</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
-        <v>-115</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>605</v>
-      </c>
-      <c r="K52" t="n">
-        <v>-18.18181818181818</v>
-      </c>
-      <c r="L52" t="n">
-        <v>9743.5</v>
+        <v>9740</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M52" t="n">
-        <v>9747.25</v>
-      </c>
-      <c r="N52" t="n">
-        <v>9757.666666666666</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3096,31 +2260,21 @@
         <v>9788.666666666666</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>620</v>
-      </c>
-      <c r="K53" t="n">
-        <v>-8.333333333333332</v>
-      </c>
-      <c r="L53" t="n">
-        <v>9743</v>
+        <v>9755</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M53" t="n">
-        <v>9746.5</v>
-      </c>
-      <c r="N53" t="n">
-        <v>9755.5</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3147,31 +2301,21 @@
         <v>9786.75</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>-110</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>630</v>
-      </c>
-      <c r="K54" t="n">
-        <v>-15.38461538461539</v>
-      </c>
-      <c r="L54" t="n">
-        <v>9741</v>
+        <v>9750</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M54" t="n">
-        <v>9745.25</v>
-      </c>
-      <c r="N54" t="n">
-        <v>9753.5</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3198,31 +2342,21 @@
         <v>9785.166666666666</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>-90</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>650</v>
-      </c>
-      <c r="K55" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L55" t="n">
-        <v>9741</v>
+        <v>9765</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M55" t="n">
-        <v>9744.75</v>
-      </c>
-      <c r="N55" t="n">
-        <v>9752.333333333334</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3249,31 +2383,21 @@
         <v>9783</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>-125</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>685</v>
-      </c>
-      <c r="K56" t="n">
-        <v>15.38461538461539</v>
-      </c>
-      <c r="L56" t="n">
-        <v>9739</v>
+        <v>9730</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M56" t="n">
-        <v>9742.75</v>
-      </c>
-      <c r="N56" t="n">
-        <v>9751.333333333334</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3300,31 +2424,21 @@
         <v>9781.75</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
-        <v>-85</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>725</v>
-      </c>
-      <c r="K57" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L57" t="n">
-        <v>9745</v>
+        <v>9770</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M57" t="n">
-        <v>9744</v>
-      </c>
-      <c r="N57" t="n">
-        <v>9751.166666666666</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3351,31 +2465,21 @@
         <v>9781.083333333334</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>-85</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>725</v>
-      </c>
-      <c r="K58" t="n">
-        <v>21.42857142857143</v>
-      </c>
-      <c r="L58" t="n">
-        <v>9750.5</v>
+        <v>9770</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M58" t="n">
-        <v>9745.75</v>
-      </c>
-      <c r="N58" t="n">
-        <v>9752.166666666666</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3402,31 +2506,21 @@
         <v>9780.583333333334</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>-65</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>745</v>
-      </c>
-      <c r="K59" t="n">
-        <v>26.66666666666667</v>
-      </c>
-      <c r="L59" t="n">
-        <v>9755.5</v>
+        <v>9790</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M59" t="n">
-        <v>9748.5</v>
-      </c>
-      <c r="N59" t="n">
-        <v>9752.666666666666</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3453,31 +2547,21 @@
         <v>9780</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>-65</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>745</v>
-      </c>
-      <c r="K60" t="n">
-        <v>35.71428571428572</v>
-      </c>
-      <c r="L60" t="n">
-        <v>9759.5</v>
+        <v>9790</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M60" t="n">
-        <v>9751.25</v>
-      </c>
-      <c r="N60" t="n">
-        <v>9753</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3507,28 +2591,16 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>-65</v>
-      </c>
-      <c r="J61" t="n">
-        <v>745</v>
-      </c>
-      <c r="K61" t="n">
-        <v>35.71428571428572</v>
-      </c>
-      <c r="L61" t="n">
-        <v>9764.5</v>
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M61" t="n">
-        <v>9754.25</v>
-      </c>
-      <c r="N61" t="n">
-        <v>9753.666666666666</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3558,28 +2630,16 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>-55</v>
-      </c>
-      <c r="J62" t="n">
-        <v>755</v>
-      </c>
-      <c r="K62" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L62" t="n">
-        <v>9770.5</v>
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M62" t="n">
-        <v>9757</v>
-      </c>
-      <c r="N62" t="n">
-        <v>9755</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3609,28 +2669,16 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>-45</v>
-      </c>
-      <c r="J63" t="n">
-        <v>765</v>
-      </c>
-      <c r="K63" t="n">
-        <v>48.14814814814815</v>
-      </c>
-      <c r="L63" t="n">
-        <v>9776</v>
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M63" t="n">
-        <v>9759.5</v>
-      </c>
-      <c r="N63" t="n">
-        <v>9756.333333333334</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3660,28 +2708,16 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>-50</v>
-      </c>
-      <c r="J64" t="n">
-        <v>770</v>
-      </c>
-      <c r="K64" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L64" t="n">
-        <v>9782</v>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M64" t="n">
-        <v>9761.5</v>
-      </c>
-      <c r="N64" t="n">
-        <v>9757.5</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3711,28 +2747,16 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>-30</v>
-      </c>
-      <c r="J65" t="n">
-        <v>790</v>
-      </c>
-      <c r="K65" t="n">
-        <v>90.47619047619048</v>
-      </c>
-      <c r="L65" t="n">
-        <v>9788</v>
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M65" t="n">
-        <v>9764.5</v>
-      </c>
-      <c r="N65" t="n">
-        <v>9759.166666666666</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3762,28 +2786,16 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>-50</v>
-      </c>
-      <c r="J66" t="n">
-        <v>810</v>
-      </c>
-      <c r="K66" t="n">
-        <v>41.17647058823529</v>
-      </c>
-      <c r="L66" t="n">
-        <v>9795.5</v>
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M66" t="n">
-        <v>9767.25</v>
-      </c>
-      <c r="N66" t="n">
-        <v>9760.333333333334</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3813,28 +2825,16 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>-30</v>
-      </c>
-      <c r="J67" t="n">
-        <v>830</v>
-      </c>
-      <c r="K67" t="n">
-        <v>52.38095238095239</v>
-      </c>
-      <c r="L67" t="n">
-        <v>9801</v>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M67" t="n">
-        <v>9773</v>
-      </c>
-      <c r="N67" t="n">
-        <v>9763</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3864,28 +2864,16 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>-40</v>
-      </c>
-      <c r="J68" t="n">
-        <v>840</v>
-      </c>
-      <c r="K68" t="n">
-        <v>26.31578947368421</v>
-      </c>
-      <c r="L68" t="n">
-        <v>9805.5</v>
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M68" t="n">
-        <v>9778</v>
-      </c>
-      <c r="N68" t="n">
-        <v>9765.666666666666</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3915,28 +2903,16 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>-30</v>
-      </c>
-      <c r="J69" t="n">
-        <v>850</v>
-      </c>
-      <c r="K69" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L69" t="n">
-        <v>9809</v>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M69" t="n">
-        <v>9782.25</v>
-      </c>
-      <c r="N69" t="n">
-        <v>9768.666666666666</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3966,28 +2942,16 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>-35</v>
-      </c>
-      <c r="J70" t="n">
-        <v>855</v>
-      </c>
-      <c r="K70" t="n">
-        <v>27.27272727272727</v>
-      </c>
-      <c r="L70" t="n">
-        <v>9812</v>
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M70" t="n">
-        <v>9785.75</v>
-      </c>
-      <c r="N70" t="n">
-        <v>9771.5</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4017,28 +2981,16 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>-60</v>
-      </c>
-      <c r="J71" t="n">
-        <v>880</v>
-      </c>
-      <c r="K71" t="n">
-        <v>-4</v>
-      </c>
-      <c r="L71" t="n">
-        <v>9812.5</v>
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M71" t="n">
-        <v>9788.5</v>
-      </c>
-      <c r="N71" t="n">
-        <v>9773.666666666666</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4068,28 +3020,16 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>-45</v>
-      </c>
-      <c r="J72" t="n">
-        <v>895</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0</v>
-      </c>
-      <c r="L72" t="n">
-        <v>9813.5</v>
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M72" t="n">
-        <v>9792</v>
-      </c>
-      <c r="N72" t="n">
-        <v>9775.833333333334</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4119,28 +3059,16 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>-65</v>
-      </c>
-      <c r="J73" t="n">
-        <v>915</v>
-      </c>
-      <c r="K73" t="n">
-        <v>-10.3448275862069</v>
-      </c>
-      <c r="L73" t="n">
-        <v>9811.5</v>
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M73" t="n">
-        <v>9793.75</v>
-      </c>
-      <c r="N73" t="n">
-        <v>9776.833333333334</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4170,28 +3098,16 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>-70</v>
-      </c>
-      <c r="J74" t="n">
-        <v>920</v>
-      </c>
-      <c r="K74" t="n">
-        <v>-30.76923076923077</v>
-      </c>
-      <c r="L74" t="n">
-        <v>9809.5</v>
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M74" t="n">
-        <v>9795.75</v>
-      </c>
-      <c r="N74" t="n">
-        <v>9777.5</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4221,28 +3137,16 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>-35</v>
-      </c>
-      <c r="J75" t="n">
-        <v>955</v>
-      </c>
-      <c r="K75" t="n">
-        <v>10.3448275862069</v>
-      </c>
-      <c r="L75" t="n">
-        <v>9809</v>
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M75" t="n">
-        <v>9798.5</v>
-      </c>
-      <c r="N75" t="n">
-        <v>9779.333333333334</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4272,28 +3176,16 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>-35</v>
-      </c>
-      <c r="J76" t="n">
-        <v>955</v>
-      </c>
-      <c r="K76" t="n">
-        <v>-4</v>
-      </c>
-      <c r="L76" t="n">
-        <v>9810.5</v>
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M76" t="n">
-        <v>9803</v>
-      </c>
-      <c r="N76" t="n">
-        <v>9781.666666666666</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4323,28 +3215,16 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>-50</v>
-      </c>
-      <c r="J77" t="n">
-        <v>970</v>
-      </c>
-      <c r="K77" t="n">
-        <v>-7.692307692307693</v>
-      </c>
-      <c r="L77" t="n">
-        <v>9808.5</v>
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M77" t="n">
-        <v>9804.75</v>
-      </c>
-      <c r="N77" t="n">
-        <v>9784.833333333334</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4374,28 +3254,16 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>-30</v>
-      </c>
-      <c r="J78" t="n">
-        <v>990</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0</v>
-      </c>
-      <c r="L78" t="n">
-        <v>9809.5</v>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M78" t="n">
-        <v>9807.5</v>
-      </c>
-      <c r="N78" t="n">
-        <v>9788.5</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4425,28 +3293,16 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>-30</v>
-      </c>
-      <c r="J79" t="n">
-        <v>990</v>
-      </c>
-      <c r="K79" t="n">
-        <v>3.703703703703703</v>
-      </c>
-      <c r="L79" t="n">
-        <v>9809.5</v>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M79" t="n">
-        <v>9809.25</v>
-      </c>
-      <c r="N79" t="n">
-        <v>9791.333333333334</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4476,28 +3332,16 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>-25</v>
-      </c>
-      <c r="J80" t="n">
-        <v>995</v>
-      </c>
-      <c r="K80" t="n">
-        <v>30.43478260869566</v>
-      </c>
-      <c r="L80" t="n">
-        <v>9810.5</v>
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M80" t="n">
-        <v>9811.25</v>
-      </c>
-      <c r="N80" t="n">
-        <v>9794</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4527,28 +3371,16 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>-45</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1015</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0</v>
-      </c>
-      <c r="L81" t="n">
-        <v>9812</v>
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M81" t="n">
-        <v>9812.25</v>
-      </c>
-      <c r="N81" t="n">
-        <v>9796.333333333334</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,28 +3410,16 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>-45</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1015</v>
-      </c>
-      <c r="K82" t="n">
-        <v>20</v>
-      </c>
-      <c r="L82" t="n">
-        <v>9812</v>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M82" t="n">
-        <v>9812.75</v>
-      </c>
-      <c r="N82" t="n">
-        <v>9798.666666666666</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4629,28 +3449,16 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>-25</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1035</v>
-      </c>
-      <c r="K83" t="n">
-        <v>39.1304347826087</v>
-      </c>
-      <c r="L83" t="n">
-        <v>9816</v>
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M83" t="n">
-        <v>9813.75</v>
-      </c>
-      <c r="N83" t="n">
-        <v>9801.166666666666</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4680,28 +3488,16 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>-20</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1040</v>
-      </c>
-      <c r="K84" t="n">
-        <v>17.64705882352941</v>
-      </c>
-      <c r="L84" t="n">
-        <v>9821</v>
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M84" t="n">
-        <v>9815.25</v>
-      </c>
-      <c r="N84" t="n">
-        <v>9804.166666666666</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4731,28 +3527,16 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>-20</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1040</v>
-      </c>
-      <c r="K85" t="n">
-        <v>17.64705882352941</v>
-      </c>
-      <c r="L85" t="n">
-        <v>9822.5</v>
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M85" t="n">
-        <v>9815.75</v>
-      </c>
-      <c r="N85" t="n">
-        <v>9806.5</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4782,28 +3566,16 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>-20</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1040</v>
-      </c>
-      <c r="K86" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L86" t="n">
-        <v>9824</v>
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M86" t="n">
-        <v>9817.25</v>
-      </c>
-      <c r="N86" t="n">
-        <v>9810</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4833,28 +3605,16 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>-35</v>
-      </c>
-      <c r="J87" t="n">
-        <v>1055</v>
-      </c>
-      <c r="K87" t="n">
-        <v>-7.692307692307693</v>
-      </c>
-      <c r="L87" t="n">
-        <v>9825.5</v>
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M87" t="n">
-        <v>9817</v>
-      </c>
-      <c r="N87" t="n">
-        <v>9811.666666666666</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4884,28 +3644,16 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>-35</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1055</v>
-      </c>
-      <c r="K88" t="n">
-        <v>-7.692307692307693</v>
-      </c>
-      <c r="L88" t="n">
-        <v>9825</v>
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M88" t="n">
-        <v>9817.25</v>
-      </c>
-      <c r="N88" t="n">
-        <v>9813.333333333334</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4935,28 +3683,16 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>-35</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1055</v>
-      </c>
-      <c r="K89" t="n">
-        <v>-16.66666666666666</v>
-      </c>
-      <c r="L89" t="n">
-        <v>9824.5</v>
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M89" t="n">
-        <v>9817</v>
-      </c>
-      <c r="N89" t="n">
-        <v>9814.333333333334</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4986,28 +3722,16 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>-25</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1065</v>
-      </c>
-      <c r="K90" t="n">
-        <v>40</v>
-      </c>
-      <c r="L90" t="n">
-        <v>9824.5</v>
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M90" t="n">
-        <v>9817.5</v>
-      </c>
-      <c r="N90" t="n">
-        <v>9815.666666666666</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5037,28 +3761,16 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>-35</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1075</v>
-      </c>
-      <c r="K91" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L91" t="n">
-        <v>9825.5</v>
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M91" t="n">
-        <v>9818.75</v>
-      </c>
-      <c r="N91" t="n">
-        <v>9816.666666666666</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5088,28 +3800,16 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>-35</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1075</v>
-      </c>
-      <c r="K92" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L92" t="n">
-        <v>9826.5</v>
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M92" t="n">
-        <v>9819.25</v>
-      </c>
-      <c r="N92" t="n">
-        <v>9817.333333333334</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5139,28 +3839,16 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>-35</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1075</v>
-      </c>
-      <c r="K93" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L93" t="n">
-        <v>9825.5</v>
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M93" t="n">
-        <v>9820.75</v>
-      </c>
-      <c r="N93" t="n">
-        <v>9817.666666666666</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5190,28 +3878,16 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>-20</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1090</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0</v>
-      </c>
-      <c r="L94" t="n">
-        <v>9825.5</v>
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M94" t="n">
-        <v>9823.25</v>
-      </c>
-      <c r="N94" t="n">
-        <v>9818.666666666666</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5241,28 +3917,16 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>-20</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1090</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0</v>
-      </c>
-      <c r="L95" t="n">
-        <v>9825.5</v>
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M95" t="n">
-        <v>9824</v>
-      </c>
-      <c r="N95" t="n">
-        <v>9819</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5292,28 +3956,16 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>-20</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1090</v>
-      </c>
-      <c r="K96" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L96" t="n">
-        <v>9825.5</v>
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M96" t="n">
-        <v>9824.75</v>
-      </c>
-      <c r="N96" t="n">
-        <v>9820</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5343,28 +3995,16 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>-15</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1095</v>
-      </c>
-      <c r="K97" t="n">
-        <v>50</v>
-      </c>
-      <c r="L97" t="n">
-        <v>9827.5</v>
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M97" t="n">
-        <v>9826.5</v>
-      </c>
-      <c r="N97" t="n">
-        <v>9820.5</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5394,30 +4034,16 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>-15</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1095</v>
-      </c>
-      <c r="K98" t="n">
-        <v>50</v>
-      </c>
-      <c r="L98" t="n">
-        <v>9829.5</v>
-      </c>
-      <c r="M98" t="n">
-        <v>9827.25</v>
-      </c>
-      <c r="N98" t="n">
-        <v>9821.333333333334</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -5445,28 +4071,12 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>-20</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1100</v>
-      </c>
-      <c r="K99" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L99" t="n">
-        <v>9831</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
-        <v>9827.75</v>
-      </c>
-      <c r="N99" t="n">
-        <v>9821.666666666666</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5496,28 +4106,12 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>-50</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1130</v>
-      </c>
-      <c r="K100" t="n">
-        <v>-27.27272727272727</v>
-      </c>
-      <c r="L100" t="n">
-        <v>9828.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
-        <v>9826.5</v>
-      </c>
-      <c r="N100" t="n">
-        <v>9821.166666666666</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5547,28 +4141,12 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>-55</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1135</v>
-      </c>
-      <c r="K101" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L101" t="n">
-        <v>9826.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
-        <v>9826</v>
-      </c>
-      <c r="N101" t="n">
-        <v>9821.333333333334</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5598,28 +4176,12 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>-55</v>
-      </c>
-      <c r="J102" t="n">
-        <v>1135</v>
-      </c>
-      <c r="K102" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L102" t="n">
-        <v>9824.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
-        <v>9825.5</v>
-      </c>
-      <c r="N102" t="n">
-        <v>9821</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5649,28 +4211,12 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>-55</v>
-      </c>
-      <c r="J103" t="n">
-        <v>1135</v>
-      </c>
-      <c r="K103" t="n">
-        <v>-77.77777777777779</v>
-      </c>
-      <c r="L103" t="n">
-        <v>9822.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
-        <v>9824</v>
-      </c>
-      <c r="N103" t="n">
-        <v>9821.333333333334</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5700,28 +4246,12 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>-120</v>
-      </c>
-      <c r="J104" t="n">
-        <v>1200</v>
-      </c>
-      <c r="K104" t="n">
-        <v>-90.90909090909091</v>
-      </c>
-      <c r="L104" t="n">
-        <v>9812.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
-        <v>9819</v>
-      </c>
-      <c r="N104" t="n">
-        <v>9819.666666666666</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5751,28 +4281,12 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>-70</v>
-      </c>
-      <c r="J105" t="n">
-        <v>1250</v>
-      </c>
-      <c r="K105" t="n">
-        <v>-31.25</v>
-      </c>
-      <c r="L105" t="n">
-        <v>9807.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
-        <v>9816.5</v>
-      </c>
-      <c r="N105" t="n">
-        <v>9818.5</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5802,28 +4316,12 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>-60</v>
-      </c>
-      <c r="J106" t="n">
-        <v>1260</v>
-      </c>
-      <c r="K106" t="n">
-        <v>-27.27272727272727</v>
-      </c>
-      <c r="L106" t="n">
-        <v>9803.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
-        <v>9814.5</v>
-      </c>
-      <c r="N106" t="n">
-        <v>9817.666666666666</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5853,28 +4351,12 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>-80</v>
-      </c>
-      <c r="J107" t="n">
-        <v>1280</v>
-      </c>
-      <c r="K107" t="n">
-        <v>-35.13513513513514</v>
-      </c>
-      <c r="L107" t="n">
-        <v>9797</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
-        <v>9812.25</v>
-      </c>
-      <c r="N107" t="n">
-        <v>9816.666666666666</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5904,28 +4386,12 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>-125</v>
-      </c>
-      <c r="J108" t="n">
-        <v>1325</v>
-      </c>
-      <c r="K108" t="n">
-        <v>-46.66666666666666</v>
-      </c>
-      <c r="L108" t="n">
-        <v>9786</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
-        <v>9807.75</v>
-      </c>
-      <c r="N108" t="n">
-        <v>9813.5</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5955,28 +4421,12 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>-125</v>
-      </c>
-      <c r="J109" t="n">
-        <v>1325</v>
-      </c>
-      <c r="K109" t="n">
-        <v>-38.46153846153847</v>
-      </c>
-      <c r="L109" t="n">
-        <v>9775.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
-        <v>9803.25</v>
-      </c>
-      <c r="N109" t="n">
-        <v>9810.333333333334</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6006,28 +4456,12 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>-110</v>
-      </c>
-      <c r="J110" t="n">
-        <v>1340</v>
-      </c>
-      <c r="K110" t="n">
-        <v>-26.82926829268293</v>
-      </c>
-      <c r="L110" t="n">
-        <v>9769.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
-        <v>9799</v>
-      </c>
-      <c r="N110" t="n">
-        <v>9807.5</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6057,28 +4491,12 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>-80</v>
-      </c>
-      <c r="J111" t="n">
-        <v>1370</v>
-      </c>
-      <c r="K111" t="n">
-        <v>-10.63829787234043</v>
-      </c>
-      <c r="L111" t="n">
-        <v>9767</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
-        <v>9796.75</v>
-      </c>
-      <c r="N111" t="n">
-        <v>9806.333333333334</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6108,28 +4526,12 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>-135</v>
-      </c>
-      <c r="J112" t="n">
-        <v>1425</v>
-      </c>
-      <c r="K112" t="n">
-        <v>-27.58620689655172</v>
-      </c>
-      <c r="L112" t="n">
-        <v>9759</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
-        <v>9791.75</v>
-      </c>
-      <c r="N112" t="n">
-        <v>9803.333333333334</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6159,1099 +4561,12 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>-135</v>
-      </c>
-      <c r="J113" t="n">
-        <v>1425</v>
-      </c>
-      <c r="K113" t="n">
-        <v>-6.666666666666667</v>
-      </c>
-      <c r="L113" t="n">
-        <v>9751</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
-        <v>9786.75</v>
-      </c>
-      <c r="N113" t="n">
-        <v>9799.666666666666</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>9780</v>
-      </c>
-      <c r="C114" t="n">
-        <v>9780</v>
-      </c>
-      <c r="D114" t="n">
-        <v>9780</v>
-      </c>
-      <c r="E114" t="n">
-        <v>9780</v>
-      </c>
-      <c r="F114" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G114" t="n">
-        <v>9801</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>-75</v>
-      </c>
-      <c r="J114" t="n">
-        <v>1485</v>
-      </c>
-      <c r="K114" t="n">
-        <v>-2.127659574468085</v>
-      </c>
-      <c r="L114" t="n">
-        <v>9755.5</v>
-      </c>
-      <c r="M114" t="n">
-        <v>9784</v>
-      </c>
-      <c r="N114" t="n">
-        <v>9797.833333333334</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>9775</v>
-      </c>
-      <c r="C115" t="n">
-        <v>9775</v>
-      </c>
-      <c r="D115" t="n">
-        <v>9775</v>
-      </c>
-      <c r="E115" t="n">
-        <v>9775</v>
-      </c>
-      <c r="F115" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G115" t="n">
-        <v>9801.166666666666</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>-80</v>
-      </c>
-      <c r="J115" t="n">
-        <v>1490</v>
-      </c>
-      <c r="K115" t="n">
-        <v>-8.695652173913043</v>
-      </c>
-      <c r="L115" t="n">
-        <v>9754.5</v>
-      </c>
-      <c r="M115" t="n">
-        <v>9781</v>
-      </c>
-      <c r="N115" t="n">
-        <v>9795.833333333334</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>9775</v>
-      </c>
-      <c r="C116" t="n">
-        <v>9775</v>
-      </c>
-      <c r="D116" t="n">
-        <v>9775</v>
-      </c>
-      <c r="E116" t="n">
-        <v>9775</v>
-      </c>
-      <c r="F116" t="n">
-        <v>49.9999</v>
-      </c>
-      <c r="G116" t="n">
-        <v>9801.916666666666</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>-80</v>
-      </c>
-      <c r="J116" t="n">
-        <v>1490</v>
-      </c>
-      <c r="K116" t="n">
-        <v>0</v>
-      </c>
-      <c r="L116" t="n">
-        <v>9752.5</v>
-      </c>
-      <c r="M116" t="n">
-        <v>9778</v>
-      </c>
-      <c r="N116" t="n">
-        <v>9793.833333333334</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>9730</v>
-      </c>
-      <c r="C117" t="n">
-        <v>9730</v>
-      </c>
-      <c r="D117" t="n">
-        <v>9730</v>
-      </c>
-      <c r="E117" t="n">
-        <v>9730</v>
-      </c>
-      <c r="F117" t="n">
-        <v>1.1642</v>
-      </c>
-      <c r="G117" t="n">
-        <v>9801.25</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>-125</v>
-      </c>
-      <c r="J117" t="n">
-        <v>1535</v>
-      </c>
-      <c r="K117" t="n">
-        <v>0</v>
-      </c>
-      <c r="L117" t="n">
-        <v>9748</v>
-      </c>
-      <c r="M117" t="n">
-        <v>9772.5</v>
-      </c>
-      <c r="N117" t="n">
-        <v>9790.833333333334</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>9775</v>
-      </c>
-      <c r="C118" t="n">
-        <v>9785</v>
-      </c>
-      <c r="D118" t="n">
-        <v>9785</v>
-      </c>
-      <c r="E118" t="n">
-        <v>9775</v>
-      </c>
-      <c r="F118" t="n">
-        <v>102.2360879918242</v>
-      </c>
-      <c r="G118" t="n">
-        <v>9801.5</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>-70</v>
-      </c>
-      <c r="J118" t="n">
-        <v>1590</v>
-      </c>
-      <c r="K118" t="n">
-        <v>20.75471698113208</v>
-      </c>
-      <c r="L118" t="n">
-        <v>9753.5</v>
-      </c>
-      <c r="M118" t="n">
-        <v>9769.75</v>
-      </c>
-      <c r="N118" t="n">
-        <v>9789.666666666666</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>9720</v>
-      </c>
-      <c r="C119" t="n">
-        <v>9720</v>
-      </c>
-      <c r="D119" t="n">
-        <v>9720</v>
-      </c>
-      <c r="E119" t="n">
-        <v>9720</v>
-      </c>
-      <c r="F119" t="n">
-        <v>2.1902</v>
-      </c>
-      <c r="G119" t="n">
-        <v>9800.333333333334</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>-135</v>
-      </c>
-      <c r="J119" t="n">
-        <v>1655</v>
-      </c>
-      <c r="K119" t="n">
-        <v>-7.936507936507936</v>
-      </c>
-      <c r="L119" t="n">
-        <v>9752.5</v>
-      </c>
-      <c r="M119" t="n">
-        <v>9764</v>
-      </c>
-      <c r="N119" t="n">
-        <v>9786.333333333334</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>9700</v>
-      </c>
-      <c r="C120" t="n">
-        <v>9700</v>
-      </c>
-      <c r="D120" t="n">
-        <v>9700</v>
-      </c>
-      <c r="E120" t="n">
-        <v>9700</v>
-      </c>
-      <c r="F120" t="n">
-        <v>61.2007</v>
-      </c>
-      <c r="G120" t="n">
-        <v>9798.833333333334</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>-155</v>
-      </c>
-      <c r="J120" t="n">
-        <v>1675</v>
-      </c>
-      <c r="K120" t="n">
-        <v>-24.59016393442623</v>
-      </c>
-      <c r="L120" t="n">
-        <v>9748</v>
-      </c>
-      <c r="M120" t="n">
-        <v>9758.75</v>
-      </c>
-      <c r="N120" t="n">
-        <v>9782</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>9700</v>
-      </c>
-      <c r="C121" t="n">
-        <v>9700</v>
-      </c>
-      <c r="D121" t="n">
-        <v>9700</v>
-      </c>
-      <c r="E121" t="n">
-        <v>9700</v>
-      </c>
-      <c r="F121" t="n">
-        <v>35.3545</v>
-      </c>
-      <c r="G121" t="n">
-        <v>9797.333333333334</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>-155</v>
-      </c>
-      <c r="J121" t="n">
-        <v>1675</v>
-      </c>
-      <c r="K121" t="n">
-        <v>-8</v>
-      </c>
-      <c r="L121" t="n">
-        <v>9740.5</v>
-      </c>
-      <c r="M121" t="n">
-        <v>9753.75</v>
-      </c>
-      <c r="N121" t="n">
-        <v>9778</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>9700</v>
-      </c>
-      <c r="C122" t="n">
-        <v>9700</v>
-      </c>
-      <c r="D122" t="n">
-        <v>9700</v>
-      </c>
-      <c r="E122" t="n">
-        <v>9700</v>
-      </c>
-      <c r="F122" t="n">
-        <v>17.8801</v>
-      </c>
-      <c r="G122" t="n">
-        <v>9795.666666666666</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>-155</v>
-      </c>
-      <c r="J122" t="n">
-        <v>1675</v>
-      </c>
-      <c r="K122" t="n">
-        <v>-8</v>
-      </c>
-      <c r="L122" t="n">
-        <v>9738.5</v>
-      </c>
-      <c r="M122" t="n">
-        <v>9748.75</v>
-      </c>
-      <c r="N122" t="n">
-        <v>9774</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>9695</v>
-      </c>
-      <c r="C123" t="n">
-        <v>9695</v>
-      </c>
-      <c r="D123" t="n">
-        <v>9695</v>
-      </c>
-      <c r="E123" t="n">
-        <v>9695</v>
-      </c>
-      <c r="F123" t="n">
-        <v>7.0939</v>
-      </c>
-      <c r="G123" t="n">
-        <v>9793.75</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>-160</v>
-      </c>
-      <c r="J123" t="n">
-        <v>1680</v>
-      </c>
-      <c r="K123" t="n">
-        <v>-43.58974358974359</v>
-      </c>
-      <c r="L123" t="n">
-        <v>9736</v>
-      </c>
-      <c r="M123" t="n">
-        <v>9743.5</v>
-      </c>
-      <c r="N123" t="n">
-        <v>9769.833333333334</v>
-      </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>9705</v>
-      </c>
-      <c r="C124" t="n">
-        <v>9705</v>
-      </c>
-      <c r="D124" t="n">
-        <v>9705</v>
-      </c>
-      <c r="E124" t="n">
-        <v>9705</v>
-      </c>
-      <c r="F124" t="n">
-        <v>26.6558</v>
-      </c>
-      <c r="G124" t="n">
-        <v>9792.083333333334</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>-150</v>
-      </c>
-      <c r="J124" t="n">
-        <v>1690</v>
-      </c>
-      <c r="K124" t="n">
-        <v>-35</v>
-      </c>
-      <c r="L124" t="n">
-        <v>9728.5</v>
-      </c>
-      <c r="M124" t="n">
-        <v>9742</v>
-      </c>
-      <c r="N124" t="n">
-        <v>9765.5</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>9705</v>
-      </c>
-      <c r="C125" t="n">
-        <v>9705</v>
-      </c>
-      <c r="D125" t="n">
-        <v>9705</v>
-      </c>
-      <c r="E125" t="n">
-        <v>9705</v>
-      </c>
-      <c r="F125" t="n">
-        <v>0.1763</v>
-      </c>
-      <c r="G125" t="n">
-        <v>9790.083333333334</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>-150</v>
-      </c>
-      <c r="J125" t="n">
-        <v>1690</v>
-      </c>
-      <c r="K125" t="n">
-        <v>-35</v>
-      </c>
-      <c r="L125" t="n">
-        <v>9721.5</v>
-      </c>
-      <c r="M125" t="n">
-        <v>9738</v>
-      </c>
-      <c r="N125" t="n">
-        <v>9761.166666666666</v>
-      </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>9700</v>
-      </c>
-      <c r="C126" t="n">
-        <v>9700</v>
-      </c>
-      <c r="D126" t="n">
-        <v>9700</v>
-      </c>
-      <c r="E126" t="n">
-        <v>9700</v>
-      </c>
-      <c r="F126" t="n">
-        <v>0.512</v>
-      </c>
-      <c r="G126" t="n">
-        <v>9788.333333333334</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>-155</v>
-      </c>
-      <c r="J126" t="n">
-        <v>1695</v>
-      </c>
-      <c r="K126" t="n">
-        <v>-18.75</v>
-      </c>
-      <c r="L126" t="n">
-        <v>9714</v>
-      </c>
-      <c r="M126" t="n">
-        <v>9733.25</v>
-      </c>
-      <c r="N126" t="n">
-        <v>9756.666666666666</v>
-      </c>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>9705</v>
-      </c>
-      <c r="C127" t="n">
-        <v>9705</v>
-      </c>
-      <c r="D127" t="n">
-        <v>9705</v>
-      </c>
-      <c r="E127" t="n">
-        <v>9705</v>
-      </c>
-      <c r="F127" t="n">
-        <v>10.299</v>
-      </c>
-      <c r="G127" t="n">
-        <v>9786.333333333334</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>-150</v>
-      </c>
-      <c r="J127" t="n">
-        <v>1700</v>
-      </c>
-      <c r="K127" t="n">
-        <v>-72.72727272727273</v>
-      </c>
-      <c r="L127" t="n">
-        <v>9711.5</v>
-      </c>
-      <c r="M127" t="n">
-        <v>9729.75</v>
-      </c>
-      <c r="N127" t="n">
-        <v>9752.166666666666</v>
-      </c>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>9705</v>
-      </c>
-      <c r="C128" t="n">
-        <v>9705</v>
-      </c>
-      <c r="D128" t="n">
-        <v>9705</v>
-      </c>
-      <c r="E128" t="n">
-        <v>9700</v>
-      </c>
-      <c r="F128" t="n">
-        <v>7.2973</v>
-      </c>
-      <c r="G128" t="n">
-        <v>9784.5</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>-150</v>
-      </c>
-      <c r="J128" t="n">
-        <v>1700</v>
-      </c>
-      <c r="K128" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L128" t="n">
-        <v>9703.5</v>
-      </c>
-      <c r="M128" t="n">
-        <v>9728.5</v>
-      </c>
-      <c r="N128" t="n">
-        <v>9747.666666666666</v>
-      </c>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>9705</v>
-      </c>
-      <c r="C129" t="n">
-        <v>9705</v>
-      </c>
-      <c r="D129" t="n">
-        <v>9705</v>
-      </c>
-      <c r="E129" t="n">
-        <v>9705</v>
-      </c>
-      <c r="F129" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="G129" t="n">
-        <v>9782.5</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>-150</v>
-      </c>
-      <c r="J129" t="n">
-        <v>1700</v>
-      </c>
-      <c r="K129" t="n">
-        <v>20</v>
-      </c>
-      <c r="L129" t="n">
-        <v>9702</v>
-      </c>
-      <c r="M129" t="n">
-        <v>9727.25</v>
-      </c>
-      <c r="N129" t="n">
-        <v>9743.333333333334</v>
-      </c>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>9705</v>
-      </c>
-      <c r="C130" t="n">
-        <v>9705</v>
-      </c>
-      <c r="D130" t="n">
-        <v>9705</v>
-      </c>
-      <c r="E130" t="n">
-        <v>9700</v>
-      </c>
-      <c r="F130" t="n">
-        <v>35.3838</v>
-      </c>
-      <c r="G130" t="n">
-        <v>9780.583333333334</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>-150</v>
-      </c>
-      <c r="J130" t="n">
-        <v>1700</v>
-      </c>
-      <c r="K130" t="n">
-        <v>20</v>
-      </c>
-      <c r="L130" t="n">
-        <v>9702.5</v>
-      </c>
-      <c r="M130" t="n">
-        <v>9725.25</v>
-      </c>
-      <c r="N130" t="n">
-        <v>9740</v>
-      </c>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>9700</v>
-      </c>
-      <c r="C131" t="n">
-        <v>9700</v>
-      </c>
-      <c r="D131" t="n">
-        <v>9700</v>
-      </c>
-      <c r="E131" t="n">
-        <v>9700</v>
-      </c>
-      <c r="F131" t="n">
-        <v>136.39</v>
-      </c>
-      <c r="G131" t="n">
-        <v>9779</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>-155</v>
-      </c>
-      <c r="J131" t="n">
-        <v>1705</v>
-      </c>
-      <c r="K131" t="n">
-        <v>0</v>
-      </c>
-      <c r="L131" t="n">
-        <v>9702.5</v>
-      </c>
-      <c r="M131" t="n">
-        <v>9721.5</v>
-      </c>
-      <c r="N131" t="n">
-        <v>9736.666666666666</v>
-      </c>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>9695</v>
-      </c>
-      <c r="C132" t="n">
-        <v>9695</v>
-      </c>
-      <c r="D132" t="n">
-        <v>9695</v>
-      </c>
-      <c r="E132" t="n">
-        <v>9695</v>
-      </c>
-      <c r="F132" t="n">
-        <v>94.6148</v>
-      </c>
-      <c r="G132" t="n">
-        <v>9777.083333333334</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>-160</v>
-      </c>
-      <c r="J132" t="n">
-        <v>1710</v>
-      </c>
-      <c r="K132" t="n">
-        <v>0</v>
-      </c>
-      <c r="L132" t="n">
-        <v>9702</v>
-      </c>
-      <c r="M132" t="n">
-        <v>9720.25</v>
-      </c>
-      <c r="N132" t="n">
-        <v>9733.166666666666</v>
-      </c>
-      <c r="O132" t="inlineStr"/>
-      <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>9695</v>
-      </c>
-      <c r="C133" t="n">
-        <v>9695</v>
-      </c>
-      <c r="D133" t="n">
-        <v>9695</v>
-      </c>
-      <c r="E133" t="n">
-        <v>9695</v>
-      </c>
-      <c r="F133" t="n">
-        <v>32.0909</v>
-      </c>
-      <c r="G133" t="n">
-        <v>9775.5</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>-160</v>
-      </c>
-      <c r="J133" t="n">
-        <v>1710</v>
-      </c>
-      <c r="K133" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L133" t="n">
-        <v>9702</v>
-      </c>
-      <c r="M133" t="n">
-        <v>9719</v>
-      </c>
-      <c r="N133" t="n">
-        <v>9729.666666666666</v>
-      </c>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>9705</v>
-      </c>
-      <c r="C134" t="n">
-        <v>9705</v>
-      </c>
-      <c r="D134" t="n">
-        <v>9705</v>
-      </c>
-      <c r="E134" t="n">
-        <v>9705</v>
-      </c>
-      <c r="F134" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="G134" t="n">
-        <v>9774.166666666666</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>-150</v>
-      </c>
-      <c r="J134" t="n">
-        <v>1720</v>
-      </c>
-      <c r="K134" t="n">
-        <v>0</v>
-      </c>
-      <c r="L134" t="n">
-        <v>9702</v>
-      </c>
-      <c r="M134" t="n">
-        <v>9715.25</v>
-      </c>
-      <c r="N134" t="n">
-        <v>9728.666666666666</v>
-      </c>
-      <c r="O134" t="inlineStr"/>
-      <c r="P134" t="inlineStr"/>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-19 BackTest REP.xlsx
+++ b/BackTest/2019-10-19 BackTest REP.xlsx
@@ -1886,13 +1886,17 @@
         <v>9806.833333333334</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>9745</v>
+      </c>
+      <c r="K43" t="n">
+        <v>9745</v>
+      </c>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
@@ -1927,8 +1931,14 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>9745</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1962,8 +1972,14 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>9745</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -1997,8 +2013,14 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>9745</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2032,8 +2054,14 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>9745</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2067,8 +2095,14 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>9745</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2096,18 +2130,18 @@
         <v>9796.75</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>9735</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>9745</v>
+      </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M49" t="n">
@@ -2137,15 +2171,15 @@
         <v>9794.5</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>9750</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>9745</v>
+      </c>
       <c r="L50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2178,15 +2212,15 @@
         <v>9792.416666666666</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>9740</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>9745</v>
+      </c>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2219,15 +2253,15 @@
         <v>9790.416666666666</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>9740</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>9745</v>
+      </c>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2260,15 +2294,15 @@
         <v>9788.666666666666</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>9755</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>9745</v>
+      </c>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2301,15 +2335,15 @@
         <v>9786.75</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>9750</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>9745</v>
+      </c>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2342,15 +2376,15 @@
         <v>9785.166666666666</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>9765</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>9745</v>
+      </c>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2383,15 +2417,15 @@
         <v>9783</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>9730</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>9745</v>
+      </c>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2424,15 +2458,15 @@
         <v>9781.75</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>9770</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>9745</v>
+      </c>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2465,15 +2499,15 @@
         <v>9781.083333333334</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>9770</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>9745</v>
+      </c>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2506,15 +2540,15 @@
         <v>9780.583333333334</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>9790</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>9745</v>
+      </c>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2547,15 +2581,15 @@
         <v>9780</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>9790</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>9745</v>
+      </c>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2594,7 +2628,9 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>9745</v>
+      </c>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2633,7 +2669,9 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>9745</v>
+      </c>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2672,7 +2710,9 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>9745</v>
+      </c>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2711,7 +2751,9 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>9745</v>
+      </c>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2750,7 +2792,9 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>9745</v>
+      </c>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2789,7 +2833,9 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>9745</v>
+      </c>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2828,7 +2874,9 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>9745</v>
+      </c>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2867,7 +2915,9 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>9745</v>
+      </c>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2906,7 +2956,9 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>9745</v>
+      </c>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2945,7 +2997,9 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>9745</v>
+      </c>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2981,17 +3035,19 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>9745</v>
+      </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>1</v>
+        <v>1.000130836326321</v>
       </c>
     </row>
     <row r="72">
@@ -3024,11 +3080,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3063,11 +3115,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3102,11 +3150,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3141,11 +3185,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3180,11 +3220,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3219,11 +3255,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3258,11 +3290,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3297,11 +3325,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3336,11 +3360,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3375,11 +3395,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3414,11 +3430,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3453,11 +3465,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3492,11 +3500,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3531,11 +3535,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3570,11 +3570,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3609,11 +3605,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3648,11 +3640,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3687,11 +3675,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3726,11 +3710,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3765,11 +3745,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3804,11 +3780,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3843,11 +3815,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3882,11 +3850,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3921,11 +3885,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3960,11 +3920,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3999,11 +3955,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4034,16 +3986,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4106,7 +4056,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -4141,7 +4091,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>

--- a/BackTest/2019-10-19 BackTest REP.xlsx
+++ b/BackTest/2019-10-19 BackTest REP.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M113"/>
+  <dimension ref="A1:M114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9855</v>
+        <v>9825</v>
       </c>
       <c r="C2" t="n">
-        <v>9855</v>
+        <v>9825</v>
       </c>
       <c r="D2" t="n">
-        <v>9855</v>
+        <v>9825</v>
       </c>
       <c r="E2" t="n">
-        <v>9855</v>
+        <v>9825</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1383</v>
+        <v>611.1058</v>
       </c>
       <c r="G2" t="n">
-        <v>9810.333333333334</v>
+        <v>9810</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,7 +468,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9825</v>
+        <v>9855</v>
       </c>
       <c r="C3" t="n">
         <v>9855</v>
@@ -477,13 +477,13 @@
         <v>9855</v>
       </c>
       <c r="E3" t="n">
-        <v>9825</v>
+        <v>9855</v>
       </c>
       <c r="F3" t="n">
-        <v>12.3068</v>
+        <v>0.1383</v>
       </c>
       <c r="G3" t="n">
-        <v>9810.666666666666</v>
+        <v>9810.333333333334</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9820</v>
+        <v>9825</v>
       </c>
       <c r="C4" t="n">
-        <v>9820</v>
+        <v>9855</v>
       </c>
       <c r="D4" t="n">
-        <v>9820</v>
+        <v>9855</v>
       </c>
       <c r="E4" t="n">
-        <v>9820</v>
+        <v>9825</v>
       </c>
       <c r="F4" t="n">
-        <v>31.5641</v>
+        <v>12.3068</v>
       </c>
       <c r="G4" t="n">
-        <v>9811.333333333334</v>
+        <v>9810.666666666666</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>9820</v>
       </c>
       <c r="F5" t="n">
-        <v>6.4136</v>
+        <v>31.5641</v>
       </c>
       <c r="G5" t="n">
-        <v>9812.166666666666</v>
+        <v>9811.333333333334</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9830</v>
+        <v>9820</v>
       </c>
       <c r="C6" t="n">
-        <v>9830</v>
+        <v>9820</v>
       </c>
       <c r="D6" t="n">
-        <v>9830</v>
+        <v>9820</v>
       </c>
       <c r="E6" t="n">
-        <v>9830</v>
+        <v>9820</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1251</v>
+        <v>6.4136</v>
       </c>
       <c r="G6" t="n">
-        <v>9813.166666666666</v>
+        <v>9812.166666666666</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>9810</v>
+        <v>9830</v>
       </c>
       <c r="C7" t="n">
-        <v>9810</v>
+        <v>9830</v>
       </c>
       <c r="D7" t="n">
-        <v>9810</v>
+        <v>9830</v>
       </c>
       <c r="E7" t="n">
-        <v>9810</v>
+        <v>9830</v>
       </c>
       <c r="F7" t="n">
-        <v>4.965</v>
+        <v>0.1251</v>
       </c>
       <c r="G7" t="n">
-        <v>9813.833333333334</v>
+        <v>9813.166666666666</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9830</v>
+        <v>9810</v>
       </c>
       <c r="C8" t="n">
-        <v>9830</v>
+        <v>9810</v>
       </c>
       <c r="D8" t="n">
-        <v>9830</v>
+        <v>9810</v>
       </c>
       <c r="E8" t="n">
-        <v>9830</v>
+        <v>9810</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1269</v>
+        <v>4.965</v>
       </c>
       <c r="G8" t="n">
-        <v>9815</v>
+        <v>9813.833333333334</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>9830</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3173</v>
+        <v>0.1269</v>
       </c>
       <c r="G9" t="n">
-        <v>9816.25</v>
+        <v>9815</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9810</v>
+        <v>9830</v>
       </c>
       <c r="C10" t="n">
-        <v>9810</v>
+        <v>9830</v>
       </c>
       <c r="D10" t="n">
-        <v>9810</v>
+        <v>9830</v>
       </c>
       <c r="E10" t="n">
-        <v>9810</v>
+        <v>9830</v>
       </c>
       <c r="F10" t="n">
-        <v>9.4779</v>
+        <v>0.3173</v>
       </c>
       <c r="G10" t="n">
-        <v>9817.25</v>
+        <v>9816.25</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9805</v>
+        <v>9810</v>
       </c>
       <c r="C11" t="n">
-        <v>9800</v>
+        <v>9810</v>
       </c>
       <c r="D11" t="n">
-        <v>9805</v>
+        <v>9810</v>
       </c>
       <c r="E11" t="n">
-        <v>9800</v>
+        <v>9810</v>
       </c>
       <c r="F11" t="n">
-        <v>135.2402</v>
+        <v>9.4779</v>
       </c>
       <c r="G11" t="n">
-        <v>9818.333333333334</v>
+        <v>9817.25</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>9800</v>
+        <v>9805</v>
       </c>
       <c r="C12" t="n">
         <v>9800</v>
       </c>
       <c r="D12" t="n">
-        <v>9800</v>
+        <v>9805</v>
       </c>
       <c r="E12" t="n">
         <v>9800</v>
       </c>
       <c r="F12" t="n">
-        <v>44.71</v>
+        <v>135.2402</v>
       </c>
       <c r="G12" t="n">
-        <v>9818.916666666666</v>
+        <v>9818.333333333334</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>9825</v>
+        <v>9800</v>
       </c>
       <c r="C13" t="n">
-        <v>9825</v>
+        <v>9800</v>
       </c>
       <c r="D13" t="n">
-        <v>9825</v>
+        <v>9800</v>
       </c>
       <c r="E13" t="n">
-        <v>9825</v>
+        <v>9800</v>
       </c>
       <c r="F13" t="n">
-        <v>1.1671</v>
+        <v>44.71</v>
       </c>
       <c r="G13" t="n">
-        <v>9819.583333333334</v>
+        <v>9818.916666666666</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>9820</v>
+        <v>9825</v>
       </c>
       <c r="C14" t="n">
-        <v>9820</v>
+        <v>9825</v>
       </c>
       <c r="D14" t="n">
-        <v>9820</v>
+        <v>9825</v>
       </c>
       <c r="E14" t="n">
-        <v>9820</v>
+        <v>9825</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1</v>
+        <v>1.1671</v>
       </c>
       <c r="G14" t="n">
-        <v>9821.166666666666</v>
+        <v>9819.583333333334</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,19 +888,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>9800</v>
+        <v>9820</v>
       </c>
       <c r="C15" t="n">
-        <v>9800</v>
+        <v>9820</v>
       </c>
       <c r="D15" t="n">
-        <v>9800</v>
+        <v>9820</v>
       </c>
       <c r="E15" t="n">
-        <v>9800</v>
+        <v>9820</v>
       </c>
       <c r="F15" t="n">
-        <v>61.7474</v>
+        <v>0.1</v>
       </c>
       <c r="G15" t="n">
         <v>9821.166666666666</v>
@@ -935,10 +935,10 @@
         <v>9800</v>
       </c>
       <c r="F16" t="n">
-        <v>21.475</v>
+        <v>61.7474</v>
       </c>
       <c r="G16" t="n">
-        <v>9821.083333333334</v>
+        <v>9821.166666666666</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -970,10 +970,10 @@
         <v>9800</v>
       </c>
       <c r="F17" t="n">
-        <v>5.7422</v>
+        <v>21.475</v>
       </c>
       <c r="G17" t="n">
-        <v>9821</v>
+        <v>9821.083333333334</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1005,10 +1005,10 @@
         <v>9800</v>
       </c>
       <c r="F18" t="n">
-        <v>4.1346</v>
+        <v>5.7422</v>
       </c>
       <c r="G18" t="n">
-        <v>9821.25</v>
+        <v>9821</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>9800</v>
       </c>
       <c r="F19" t="n">
-        <v>323.1039</v>
+        <v>4.1346</v>
       </c>
       <c r="G19" t="n">
         <v>9821.25</v>
@@ -1075,10 +1075,10 @@
         <v>9800</v>
       </c>
       <c r="F20" t="n">
-        <v>34</v>
+        <v>323.1039</v>
       </c>
       <c r="G20" t="n">
-        <v>9821.083333333334</v>
+        <v>9821.25</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>9825</v>
+        <v>9800</v>
       </c>
       <c r="C21" t="n">
-        <v>9825</v>
+        <v>9800</v>
       </c>
       <c r="D21" t="n">
-        <v>9825</v>
+        <v>9800</v>
       </c>
       <c r="E21" t="n">
-        <v>9825</v>
+        <v>9800</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2137404580152672</v>
+        <v>34</v>
       </c>
       <c r="G21" t="n">
-        <v>9821.5</v>
+        <v>9821.083333333334</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>9800</v>
+        <v>9825</v>
       </c>
       <c r="C22" t="n">
-        <v>9800</v>
+        <v>9825</v>
       </c>
       <c r="D22" t="n">
-        <v>9800</v>
+        <v>9825</v>
       </c>
       <c r="E22" t="n">
-        <v>9800</v>
+        <v>9825</v>
       </c>
       <c r="F22" t="n">
-        <v>0.15</v>
+        <v>0.2137404580152672</v>
       </c>
       <c r="G22" t="n">
-        <v>9821.416666666666</v>
+        <v>9821.5</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>9820</v>
+        <v>9800</v>
       </c>
       <c r="C23" t="n">
-        <v>9820</v>
+        <v>9800</v>
       </c>
       <c r="D23" t="n">
-        <v>9820</v>
+        <v>9800</v>
       </c>
       <c r="E23" t="n">
-        <v>9820</v>
+        <v>9800</v>
       </c>
       <c r="F23" t="n">
-        <v>4.8748</v>
+        <v>0.15</v>
       </c>
       <c r="G23" t="n">
-        <v>9821.5</v>
+        <v>9821.416666666666</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>9805</v>
+        <v>9820</v>
       </c>
       <c r="C24" t="n">
-        <v>9805</v>
+        <v>9820</v>
       </c>
       <c r="D24" t="n">
-        <v>9805</v>
+        <v>9820</v>
       </c>
       <c r="E24" t="n">
-        <v>9805</v>
+        <v>9820</v>
       </c>
       <c r="F24" t="n">
-        <v>2.45</v>
+        <v>4.8748</v>
       </c>
       <c r="G24" t="n">
-        <v>9821.25</v>
+        <v>9821.5</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>9800</v>
+        <v>9805</v>
       </c>
       <c r="C25" t="n">
-        <v>9800</v>
+        <v>9805</v>
       </c>
       <c r="D25" t="n">
-        <v>9800</v>
+        <v>9805</v>
       </c>
       <c r="E25" t="n">
-        <v>9800</v>
+        <v>9805</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2283</v>
+        <v>2.45</v>
       </c>
       <c r="G25" t="n">
-        <v>9820.75</v>
+        <v>9821.25</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>9760</v>
+        <v>9800</v>
       </c>
       <c r="C26" t="n">
-        <v>9760</v>
+        <v>9800</v>
       </c>
       <c r="D26" t="n">
-        <v>9760</v>
+        <v>9800</v>
       </c>
       <c r="E26" t="n">
-        <v>9760</v>
+        <v>9800</v>
       </c>
       <c r="F26" t="n">
-        <v>43.7945</v>
+        <v>0.2283</v>
       </c>
       <c r="G26" t="n">
-        <v>9819.583333333334</v>
+        <v>9820.75</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>9775</v>
+        <v>9760</v>
       </c>
       <c r="C27" t="n">
-        <v>9775</v>
+        <v>9760</v>
       </c>
       <c r="D27" t="n">
-        <v>9775</v>
+        <v>9760</v>
       </c>
       <c r="E27" t="n">
-        <v>9775</v>
+        <v>9760</v>
       </c>
       <c r="F27" t="n">
-        <v>1.7128</v>
+        <v>43.7945</v>
       </c>
       <c r="G27" t="n">
-        <v>9818.916666666666</v>
+        <v>9819.583333333334</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>9745</v>
+        <v>9775</v>
       </c>
       <c r="C28" t="n">
-        <v>9740</v>
+        <v>9775</v>
       </c>
       <c r="D28" t="n">
-        <v>9745</v>
+        <v>9775</v>
       </c>
       <c r="E28" t="n">
-        <v>9740</v>
+        <v>9775</v>
       </c>
       <c r="F28" t="n">
-        <v>557.5115</v>
+        <v>1.7128</v>
       </c>
       <c r="G28" t="n">
-        <v>9818.25</v>
+        <v>9818.916666666666</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>9775</v>
+        <v>9745</v>
       </c>
       <c r="C29" t="n">
-        <v>9775</v>
+        <v>9740</v>
       </c>
       <c r="D29" t="n">
-        <v>9775</v>
+        <v>9745</v>
       </c>
       <c r="E29" t="n">
-        <v>9775</v>
+        <v>9740</v>
       </c>
       <c r="F29" t="n">
-        <v>27.6191</v>
+        <v>557.5115</v>
       </c>
       <c r="G29" t="n">
-        <v>9818.333333333334</v>
+        <v>9818.25</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>9780</v>
+        <v>9775</v>
       </c>
       <c r="C30" t="n">
-        <v>9780</v>
+        <v>9775</v>
       </c>
       <c r="D30" t="n">
-        <v>9780</v>
+        <v>9775</v>
       </c>
       <c r="E30" t="n">
-        <v>9780</v>
+        <v>9775</v>
       </c>
       <c r="F30" t="n">
-        <v>2.5</v>
+        <v>27.6191</v>
       </c>
       <c r="G30" t="n">
-        <v>9818.833333333334</v>
+        <v>9818.333333333334</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>9770</v>
+        <v>9780</v>
       </c>
       <c r="C31" t="n">
-        <v>9770</v>
+        <v>9780</v>
       </c>
       <c r="D31" t="n">
-        <v>9770</v>
+        <v>9780</v>
       </c>
       <c r="E31" t="n">
-        <v>9770</v>
+        <v>9780</v>
       </c>
       <c r="F31" t="n">
-        <v>5.483</v>
+        <v>2.5</v>
       </c>
       <c r="G31" t="n">
-        <v>9818.083333333334</v>
+        <v>9818.833333333334</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>9760</v>
+        <v>9770</v>
       </c>
       <c r="C32" t="n">
-        <v>9760</v>
+        <v>9770</v>
       </c>
       <c r="D32" t="n">
-        <v>9760</v>
+        <v>9770</v>
       </c>
       <c r="E32" t="n">
-        <v>9760</v>
+        <v>9770</v>
       </c>
       <c r="F32" t="n">
-        <v>6.3906</v>
+        <v>5.483</v>
       </c>
       <c r="G32" t="n">
-        <v>9817.25</v>
+        <v>9818.083333333334</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>9765</v>
+        <v>9760</v>
       </c>
       <c r="C33" t="n">
-        <v>9770</v>
+        <v>9760</v>
       </c>
       <c r="D33" t="n">
-        <v>9770</v>
+        <v>9760</v>
       </c>
       <c r="E33" t="n">
-        <v>9765</v>
+        <v>9760</v>
       </c>
       <c r="F33" t="n">
-        <v>23.1929</v>
+        <v>6.3906</v>
       </c>
       <c r="G33" t="n">
-        <v>9816.583333333334</v>
+        <v>9817.25</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,7 +1553,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>9770</v>
+        <v>9765</v>
       </c>
       <c r="C34" t="n">
         <v>9770</v>
@@ -1562,13 +1562,13 @@
         <v>9770</v>
       </c>
       <c r="E34" t="n">
-        <v>9770</v>
+        <v>9765</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0001</v>
+        <v>23.1929</v>
       </c>
       <c r="G34" t="n">
-        <v>9815.916666666666</v>
+        <v>9816.583333333334</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>9775</v>
+        <v>9770</v>
       </c>
       <c r="C35" t="n">
-        <v>9775</v>
+        <v>9770</v>
       </c>
       <c r="D35" t="n">
-        <v>9775</v>
+        <v>9770</v>
       </c>
       <c r="E35" t="n">
-        <v>9775</v>
+        <v>9770</v>
       </c>
       <c r="F35" t="n">
-        <v>28.1455</v>
+        <v>0.0001</v>
       </c>
       <c r="G35" t="n">
-        <v>9815.333333333334</v>
+        <v>9815.916666666666</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>9770</v>
+        <v>9775</v>
       </c>
       <c r="C36" t="n">
-        <v>9770</v>
+        <v>9775</v>
       </c>
       <c r="D36" t="n">
-        <v>9770</v>
+        <v>9775</v>
       </c>
       <c r="E36" t="n">
-        <v>9770</v>
+        <v>9775</v>
       </c>
       <c r="F36" t="n">
-        <v>8.135199999999999</v>
+        <v>28.1455</v>
       </c>
       <c r="G36" t="n">
-        <v>9814.666666666666</v>
+        <v>9815.333333333334</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>9745</v>
+        <v>9770</v>
       </c>
       <c r="C37" t="n">
-        <v>9745</v>
+        <v>9770</v>
       </c>
       <c r="D37" t="n">
-        <v>9745</v>
+        <v>9770</v>
       </c>
       <c r="E37" t="n">
-        <v>9745</v>
+        <v>9770</v>
       </c>
       <c r="F37" t="n">
-        <v>11.573</v>
+        <v>8.135199999999999</v>
       </c>
       <c r="G37" t="n">
-        <v>9813.333333333334</v>
+        <v>9814.666666666666</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>9740</v>
+        <v>9745</v>
       </c>
       <c r="C38" t="n">
-        <v>9735</v>
+        <v>9745</v>
       </c>
       <c r="D38" t="n">
-        <v>9740</v>
+        <v>9745</v>
       </c>
       <c r="E38" t="n">
-        <v>9735</v>
+        <v>9745</v>
       </c>
       <c r="F38" t="n">
-        <v>56.8512</v>
+        <v>11.573</v>
       </c>
       <c r="G38" t="n">
-        <v>9812.083333333334</v>
+        <v>9813.333333333334</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>9735</v>
+        <v>9740</v>
       </c>
       <c r="C39" t="n">
         <v>9735</v>
       </c>
       <c r="D39" t="n">
-        <v>9735</v>
+        <v>9740</v>
       </c>
       <c r="E39" t="n">
         <v>9735</v>
       </c>
       <c r="F39" t="n">
-        <v>4.7852</v>
+        <v>56.8512</v>
       </c>
       <c r="G39" t="n">
-        <v>9810.833333333334</v>
+        <v>9812.083333333334</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1775,10 +1775,10 @@
         <v>9735</v>
       </c>
       <c r="F40" t="n">
-        <v>62.8512</v>
+        <v>4.7852</v>
       </c>
       <c r="G40" t="n">
-        <v>9809.583333333334</v>
+        <v>9810.833333333334</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1801,19 +1801,19 @@
         <v>9735</v>
       </c>
       <c r="C41" t="n">
-        <v>9730</v>
+        <v>9735</v>
       </c>
       <c r="D41" t="n">
         <v>9735</v>
       </c>
       <c r="E41" t="n">
-        <v>9730</v>
+        <v>9735</v>
       </c>
       <c r="F41" t="n">
-        <v>14.8354</v>
+        <v>62.8512</v>
       </c>
       <c r="G41" t="n">
-        <v>9808.416666666666</v>
+        <v>9809.583333333334</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
+        <v>9735</v>
+      </c>
+      <c r="C42" t="n">
         <v>9730</v>
       </c>
-      <c r="C42" t="n">
-        <v>9745</v>
-      </c>
       <c r="D42" t="n">
-        <v>9760</v>
+        <v>9735</v>
       </c>
       <c r="E42" t="n">
-        <v>9720</v>
+        <v>9730</v>
       </c>
       <c r="F42" t="n">
-        <v>81.7848</v>
+        <v>14.8354</v>
       </c>
       <c r="G42" t="n">
-        <v>9807.5</v>
+        <v>9808.416666666666</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,35 +1868,31 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>9760</v>
+        <v>9730</v>
       </c>
       <c r="C43" t="n">
-        <v>9760</v>
+        <v>9745</v>
       </c>
       <c r="D43" t="n">
         <v>9760</v>
       </c>
       <c r="E43" t="n">
-        <v>9760</v>
+        <v>9720</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1197</v>
+        <v>81.7848</v>
       </c>
       <c r="G43" t="n">
-        <v>9806.833333333334</v>
+        <v>9807.5</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>9745</v>
-      </c>
-      <c r="K43" t="n">
-        <v>9745</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
@@ -1907,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>9765</v>
+        <v>9760</v>
       </c>
       <c r="C44" t="n">
-        <v>9765</v>
+        <v>9760</v>
       </c>
       <c r="D44" t="n">
-        <v>9765</v>
+        <v>9760</v>
       </c>
       <c r="E44" t="n">
-        <v>9765</v>
+        <v>9760</v>
       </c>
       <c r="F44" t="n">
-        <v>9.434699999999999</v>
+        <v>0.1197</v>
       </c>
       <c r="G44" t="n">
-        <v>9805.916666666666</v>
+        <v>9806.833333333334</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1931,14 +1927,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>9745</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1948,7 +1938,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>9730</v>
+        <v>9765</v>
       </c>
       <c r="C45" t="n">
         <v>9765</v>
@@ -1957,13 +1947,13 @@
         <v>9765</v>
       </c>
       <c r="E45" t="n">
-        <v>9700</v>
+        <v>9765</v>
       </c>
       <c r="F45" t="n">
-        <v>540.5271</v>
+        <v>9.434699999999999</v>
       </c>
       <c r="G45" t="n">
-        <v>9804.75</v>
+        <v>9805.916666666666</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1972,14 +1962,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>9745</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -1989,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>9740</v>
+        <v>9730</v>
       </c>
       <c r="C46" t="n">
-        <v>9750</v>
+        <v>9765</v>
       </c>
       <c r="D46" t="n">
-        <v>9750</v>
+        <v>9765</v>
       </c>
       <c r="E46" t="n">
-        <v>9740</v>
+        <v>9700</v>
       </c>
       <c r="F46" t="n">
-        <v>50</v>
+        <v>540.5271</v>
       </c>
       <c r="G46" t="n">
-        <v>9803.666666666666</v>
+        <v>9804.75</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2013,14 +1997,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>9745</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2030,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>9715</v>
+        <v>9740</v>
       </c>
       <c r="C47" t="n">
-        <v>9710</v>
+        <v>9750</v>
       </c>
       <c r="D47" t="n">
-        <v>9715</v>
+        <v>9750</v>
       </c>
       <c r="E47" t="n">
-        <v>9710</v>
+        <v>9740</v>
       </c>
       <c r="F47" t="n">
-        <v>17.7465</v>
+        <v>50</v>
       </c>
       <c r="G47" t="n">
-        <v>9801.166666666666</v>
+        <v>9803.666666666666</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2054,14 +2032,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>9745</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2074,19 +2046,19 @@
         <v>9715</v>
       </c>
       <c r="C48" t="n">
-        <v>9715</v>
+        <v>9710</v>
       </c>
       <c r="D48" t="n">
         <v>9715</v>
       </c>
       <c r="E48" t="n">
-        <v>9715</v>
+        <v>9710</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>17.7465</v>
       </c>
       <c r="G48" t="n">
-        <v>9798.75</v>
+        <v>9801.166666666666</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2095,14 +2067,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>9745</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2112,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>9735</v>
+        <v>9715</v>
       </c>
       <c r="C49" t="n">
-        <v>9740</v>
+        <v>9715</v>
       </c>
       <c r="D49" t="n">
-        <v>9740</v>
+        <v>9715</v>
       </c>
       <c r="E49" t="n">
-        <v>9735</v>
+        <v>9715</v>
       </c>
       <c r="F49" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="G49" t="n">
-        <v>9796.75</v>
+        <v>9798.75</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2136,14 +2102,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>9745</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2153,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>9750</v>
+        <v>9735</v>
       </c>
       <c r="C50" t="n">
-        <v>9750</v>
+        <v>9740</v>
       </c>
       <c r="D50" t="n">
-        <v>9750</v>
+        <v>9740</v>
       </c>
       <c r="E50" t="n">
-        <v>9750</v>
+        <v>9735</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1</v>
+        <v>50</v>
       </c>
       <c r="G50" t="n">
-        <v>9794.5</v>
+        <v>9796.75</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2177,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>9745</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2194,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>9740</v>
+        <v>9750</v>
       </c>
       <c r="C51" t="n">
-        <v>9740</v>
+        <v>9750</v>
       </c>
       <c r="D51" t="n">
-        <v>9740</v>
+        <v>9750</v>
       </c>
       <c r="E51" t="n">
-        <v>9740</v>
+        <v>9750</v>
       </c>
       <c r="F51" t="n">
-        <v>6.2155</v>
+        <v>0.1</v>
       </c>
       <c r="G51" t="n">
-        <v>9792.416666666666</v>
+        <v>9794.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2218,14 +2172,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>9745</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2247,10 +2195,10 @@
         <v>9740</v>
       </c>
       <c r="F52" t="n">
-        <v>10.5956</v>
+        <v>6.2155</v>
       </c>
       <c r="G52" t="n">
-        <v>9790.416666666666</v>
+        <v>9792.416666666666</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2259,14 +2207,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>9745</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2276,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>9755</v>
+        <v>9740</v>
       </c>
       <c r="C53" t="n">
-        <v>9755</v>
+        <v>9740</v>
       </c>
       <c r="D53" t="n">
-        <v>9755</v>
+        <v>9740</v>
       </c>
       <c r="E53" t="n">
-        <v>9755</v>
+        <v>9740</v>
       </c>
       <c r="F53" t="n">
-        <v>2</v>
+        <v>10.5956</v>
       </c>
       <c r="G53" t="n">
-        <v>9788.666666666666</v>
+        <v>9790.416666666666</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2300,14 +2242,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>9745</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2317,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>9750</v>
+        <v>9755</v>
       </c>
       <c r="C54" t="n">
-        <v>9745</v>
+        <v>9755</v>
       </c>
       <c r="D54" t="n">
-        <v>9750</v>
+        <v>9755</v>
       </c>
       <c r="E54" t="n">
-        <v>9745</v>
+        <v>9755</v>
       </c>
       <c r="F54" t="n">
-        <v>34.2553</v>
+        <v>2</v>
       </c>
       <c r="G54" t="n">
-        <v>9786.75</v>
+        <v>9788.666666666666</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2341,14 +2277,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>9745</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2358,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>9765</v>
+        <v>9750</v>
       </c>
       <c r="C55" t="n">
-        <v>9765</v>
+        <v>9745</v>
       </c>
       <c r="D55" t="n">
-        <v>9765</v>
+        <v>9750</v>
       </c>
       <c r="E55" t="n">
-        <v>9765</v>
+        <v>9745</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1137</v>
+        <v>34.2553</v>
       </c>
       <c r="G55" t="n">
-        <v>9785.166666666666</v>
+        <v>9786.75</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2382,14 +2312,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>9745</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2399,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>9730</v>
+        <v>9765</v>
       </c>
       <c r="C56" t="n">
-        <v>9730</v>
+        <v>9765</v>
       </c>
       <c r="D56" t="n">
-        <v>9730</v>
+        <v>9765</v>
       </c>
       <c r="E56" t="n">
-        <v>9730</v>
+        <v>9765</v>
       </c>
       <c r="F56" t="n">
-        <v>13</v>
+        <v>0.1137</v>
       </c>
       <c r="G56" t="n">
-        <v>9783</v>
+        <v>9785.166666666666</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2423,14 +2347,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>9745</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2440,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>9770</v>
+        <v>9730</v>
       </c>
       <c r="C57" t="n">
-        <v>9770</v>
+        <v>9730</v>
       </c>
       <c r="D57" t="n">
-        <v>9770</v>
+        <v>9730</v>
       </c>
       <c r="E57" t="n">
-        <v>9770</v>
+        <v>9730</v>
       </c>
       <c r="F57" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G57" t="n">
-        <v>9781.75</v>
+        <v>9783</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2464,14 +2382,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>9745</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2493,10 +2405,10 @@
         <v>9770</v>
       </c>
       <c r="F58" t="n">
-        <v>6.0177</v>
+        <v>1</v>
       </c>
       <c r="G58" t="n">
-        <v>9781.083333333334</v>
+        <v>9781.75</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2505,14 +2417,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>9745</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2522,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>9790</v>
+        <v>9770</v>
       </c>
       <c r="C59" t="n">
-        <v>9790</v>
+        <v>9770</v>
       </c>
       <c r="D59" t="n">
-        <v>9790</v>
+        <v>9770</v>
       </c>
       <c r="E59" t="n">
-        <v>9790</v>
+        <v>9770</v>
       </c>
       <c r="F59" t="n">
-        <v>22.5957</v>
+        <v>6.0177</v>
       </c>
       <c r="G59" t="n">
-        <v>9780.583333333334</v>
+        <v>9781.083333333334</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2546,14 +2452,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>9745</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2575,10 +2475,10 @@
         <v>9790</v>
       </c>
       <c r="F60" t="n">
-        <v>23.197</v>
+        <v>22.5957</v>
       </c>
       <c r="G60" t="n">
-        <v>9780</v>
+        <v>9780.583333333334</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2587,14 +2487,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>9745</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2616,10 +2510,10 @@
         <v>9790</v>
       </c>
       <c r="F61" t="n">
-        <v>6.348</v>
+        <v>23.197</v>
       </c>
       <c r="G61" t="n">
-        <v>9779.416666666666</v>
+        <v>9780</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2628,14 +2522,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>9745</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2648,19 +2536,19 @@
         <v>9790</v>
       </c>
       <c r="C62" t="n">
-        <v>9800</v>
+        <v>9790</v>
       </c>
       <c r="D62" t="n">
-        <v>9800</v>
+        <v>9790</v>
       </c>
       <c r="E62" t="n">
         <v>9790</v>
       </c>
       <c r="F62" t="n">
-        <v>26.1783</v>
+        <v>6.348</v>
       </c>
       <c r="G62" t="n">
-        <v>9778.5</v>
+        <v>9779.416666666666</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2669,14 +2557,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>9745</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2686,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>9810</v>
+        <v>9790</v>
       </c>
       <c r="C63" t="n">
-        <v>9810</v>
+        <v>9800</v>
       </c>
       <c r="D63" t="n">
-        <v>9810</v>
+        <v>9800</v>
       </c>
       <c r="E63" t="n">
-        <v>9810</v>
+        <v>9790</v>
       </c>
       <c r="F63" t="n">
-        <v>0.3029561671763507</v>
+        <v>26.1783</v>
       </c>
       <c r="G63" t="n">
-        <v>9777.75</v>
+        <v>9778.5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2710,14 +2592,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>9745</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2727,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>9780</v>
+        <v>9810</v>
       </c>
       <c r="C64" t="n">
-        <v>9805</v>
+        <v>9810</v>
       </c>
       <c r="D64" t="n">
-        <v>9805</v>
+        <v>9810</v>
       </c>
       <c r="E64" t="n">
-        <v>9775</v>
+        <v>9810</v>
       </c>
       <c r="F64" t="n">
-        <v>85.62260000000001</v>
+        <v>0.3029561671763507</v>
       </c>
       <c r="G64" t="n">
-        <v>9777.5</v>
+        <v>9777.75</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2751,14 +2627,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>9745</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2768,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>9820</v>
+        <v>9780</v>
       </c>
       <c r="C65" t="n">
-        <v>9825</v>
+        <v>9805</v>
       </c>
       <c r="D65" t="n">
-        <v>9825</v>
+        <v>9805</v>
       </c>
       <c r="E65" t="n">
-        <v>9820</v>
+        <v>9775</v>
       </c>
       <c r="F65" t="n">
-        <v>128.461</v>
+        <v>85.62260000000001</v>
       </c>
       <c r="G65" t="n">
-        <v>9777.583333333334</v>
+        <v>9777.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2792,14 +2662,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>9745</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2809,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>9805</v>
+        <v>9820</v>
       </c>
       <c r="C66" t="n">
-        <v>9805</v>
+        <v>9825</v>
       </c>
       <c r="D66" t="n">
-        <v>9805</v>
+        <v>9825</v>
       </c>
       <c r="E66" t="n">
-        <v>9805</v>
+        <v>9820</v>
       </c>
       <c r="F66" t="n">
-        <v>0.3029</v>
+        <v>128.461</v>
       </c>
       <c r="G66" t="n">
-        <v>9777.166666666666</v>
+        <v>9777.583333333334</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2833,14 +2697,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>9745</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2850,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>9825</v>
+        <v>9805</v>
       </c>
       <c r="C67" t="n">
-        <v>9825</v>
+        <v>9805</v>
       </c>
       <c r="D67" t="n">
-        <v>9825</v>
+        <v>9805</v>
       </c>
       <c r="E67" t="n">
-        <v>9825</v>
+        <v>9805</v>
       </c>
       <c r="F67" t="n">
-        <v>3.704</v>
+        <v>0.3029</v>
       </c>
       <c r="G67" t="n">
-        <v>9777.416666666666</v>
+        <v>9777.166666666666</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2874,14 +2732,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>9745</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2891,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>9810</v>
+        <v>9825</v>
       </c>
       <c r="C68" t="n">
-        <v>9815</v>
+        <v>9825</v>
       </c>
       <c r="D68" t="n">
-        <v>9815</v>
+        <v>9825</v>
       </c>
       <c r="E68" t="n">
-        <v>9810</v>
+        <v>9825</v>
       </c>
       <c r="F68" t="n">
-        <v>60.845</v>
+        <v>3.704</v>
       </c>
       <c r="G68" t="n">
-        <v>9777.166666666666</v>
+        <v>9777.416666666666</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2915,14 +2767,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>9745</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2932,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>9820</v>
+        <v>9810</v>
       </c>
       <c r="C69" t="n">
-        <v>9825</v>
+        <v>9815</v>
       </c>
       <c r="D69" t="n">
-        <v>9825</v>
+        <v>9815</v>
       </c>
       <c r="E69" t="n">
-        <v>9820</v>
+        <v>9810</v>
       </c>
       <c r="F69" t="n">
-        <v>746.1</v>
+        <v>60.845</v>
       </c>
       <c r="G69" t="n">
-        <v>9777.083333333334</v>
+        <v>9777.166666666666</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2956,14 +2802,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>9745</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2976,19 +2816,19 @@
         <v>9820</v>
       </c>
       <c r="C70" t="n">
-        <v>9820</v>
+        <v>9825</v>
       </c>
       <c r="D70" t="n">
-        <v>9820</v>
+        <v>9825</v>
       </c>
       <c r="E70" t="n">
         <v>9820</v>
       </c>
       <c r="F70" t="n">
-        <v>52.3079</v>
+        <v>746.1</v>
       </c>
       <c r="G70" t="n">
-        <v>9777.25</v>
+        <v>9777.083333333334</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2997,14 +2837,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>9745</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3014,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>9795</v>
+        <v>9820</v>
       </c>
       <c r="C71" t="n">
-        <v>9795</v>
+        <v>9820</v>
       </c>
       <c r="D71" t="n">
-        <v>9795</v>
+        <v>9820</v>
       </c>
       <c r="E71" t="n">
-        <v>9795</v>
+        <v>9820</v>
       </c>
       <c r="F71" t="n">
-        <v>35</v>
+        <v>52.3079</v>
       </c>
       <c r="G71" t="n">
-        <v>9777.166666666666</v>
+        <v>9777.25</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3038,16 +2872,10 @@
         <v>1</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>9745</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
-        <v>1.000130836326321</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -3055,28 +2883,28 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>9810</v>
+        <v>9795</v>
       </c>
       <c r="C72" t="n">
-        <v>9810</v>
+        <v>9795</v>
       </c>
       <c r="D72" t="n">
-        <v>9810</v>
+        <v>9795</v>
       </c>
       <c r="E72" t="n">
-        <v>9810</v>
+        <v>9795</v>
       </c>
       <c r="F72" t="n">
-        <v>8.4</v>
+        <v>35</v>
       </c>
       <c r="G72" t="n">
-        <v>9777.333333333334</v>
+        <v>9777.166666666666</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -3090,28 +2918,28 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>9790</v>
+        <v>9810</v>
       </c>
       <c r="C73" t="n">
-        <v>9790</v>
+        <v>9810</v>
       </c>
       <c r="D73" t="n">
-        <v>9790</v>
+        <v>9810</v>
       </c>
       <c r="E73" t="n">
-        <v>9790</v>
+        <v>9810</v>
       </c>
       <c r="F73" t="n">
-        <v>25.6125</v>
+        <v>8.4</v>
       </c>
       <c r="G73" t="n">
-        <v>9776.75</v>
+        <v>9777.333333333334</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -3128,19 +2956,19 @@
         <v>9790</v>
       </c>
       <c r="C74" t="n">
-        <v>9785</v>
+        <v>9790</v>
       </c>
       <c r="D74" t="n">
         <v>9790</v>
       </c>
       <c r="E74" t="n">
-        <v>9785</v>
+        <v>9790</v>
       </c>
       <c r="F74" t="n">
-        <v>50</v>
+        <v>25.6125</v>
       </c>
       <c r="G74" t="n">
-        <v>9776.166666666666</v>
+        <v>9776.75</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3160,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>9820</v>
+        <v>9790</v>
       </c>
       <c r="C75" t="n">
-        <v>9820</v>
+        <v>9785</v>
       </c>
       <c r="D75" t="n">
-        <v>9820</v>
+        <v>9790</v>
       </c>
       <c r="E75" t="n">
-        <v>9820</v>
+        <v>9785</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1074</v>
+        <v>50</v>
       </c>
       <c r="G75" t="n">
-        <v>9776.5</v>
+        <v>9776.166666666666</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3207,10 +3035,10 @@
         <v>9820</v>
       </c>
       <c r="F76" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.1074</v>
       </c>
       <c r="G76" t="n">
-        <v>9776.833333333334</v>
+        <v>9776.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3230,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>9805</v>
+        <v>9820</v>
       </c>
       <c r="C77" t="n">
-        <v>9805</v>
+        <v>9820</v>
       </c>
       <c r="D77" t="n">
-        <v>9805</v>
+        <v>9820</v>
       </c>
       <c r="E77" t="n">
-        <v>9805</v>
+        <v>9820</v>
       </c>
       <c r="F77" t="n">
-        <v>6.8917</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G77" t="n">
-        <v>9776.916666666666</v>
+        <v>9776.833333333334</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3265,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>9820</v>
+        <v>9805</v>
       </c>
       <c r="C78" t="n">
-        <v>9825</v>
+        <v>9805</v>
       </c>
       <c r="D78" t="n">
-        <v>9825</v>
+        <v>9805</v>
       </c>
       <c r="E78" t="n">
-        <v>9820</v>
+        <v>9805</v>
       </c>
       <c r="F78" t="n">
-        <v>34.98715954198473</v>
+        <v>6.8917</v>
       </c>
       <c r="G78" t="n">
-        <v>9777.333333333334</v>
+        <v>9776.916666666666</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3300,7 +3128,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>9825</v>
+        <v>9820</v>
       </c>
       <c r="C79" t="n">
         <v>9825</v>
@@ -3309,13 +3137,13 @@
         <v>9825</v>
       </c>
       <c r="E79" t="n">
-        <v>9825</v>
+        <v>9820</v>
       </c>
       <c r="F79" t="n">
-        <v>10</v>
+        <v>34.98715954198473</v>
       </c>
       <c r="G79" t="n">
-        <v>9777.75</v>
+        <v>9777.333333333334</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3335,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>9830</v>
+        <v>9825</v>
       </c>
       <c r="C80" t="n">
-        <v>9830</v>
+        <v>9825</v>
       </c>
       <c r="D80" t="n">
-        <v>9830</v>
+        <v>9825</v>
       </c>
       <c r="E80" t="n">
-        <v>9830</v>
+        <v>9825</v>
       </c>
       <c r="F80" t="n">
-        <v>6.248</v>
+        <v>10</v>
       </c>
       <c r="G80" t="n">
-        <v>9778.25</v>
+        <v>9777.75</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3373,19 +3201,19 @@
         <v>9830</v>
       </c>
       <c r="C81" t="n">
-        <v>9810</v>
+        <v>9830</v>
       </c>
       <c r="D81" t="n">
         <v>9830</v>
       </c>
       <c r="E81" t="n">
-        <v>9810</v>
+        <v>9830</v>
       </c>
       <c r="F81" t="n">
-        <v>12.1729</v>
+        <v>6.248</v>
       </c>
       <c r="G81" t="n">
-        <v>9778</v>
+        <v>9778.25</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3405,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>9810</v>
+        <v>9830</v>
       </c>
       <c r="C82" t="n">
         <v>9810</v>
       </c>
       <c r="D82" t="n">
-        <v>9810</v>
+        <v>9830</v>
       </c>
       <c r="E82" t="n">
         <v>9810</v>
       </c>
       <c r="F82" t="n">
-        <v>8.147399999999999</v>
+        <v>12.1729</v>
       </c>
       <c r="G82" t="n">
-        <v>9778.166666666666</v>
+        <v>9778</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3440,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>9830</v>
+        <v>9810</v>
       </c>
       <c r="C83" t="n">
-        <v>9830</v>
+        <v>9810</v>
       </c>
       <c r="D83" t="n">
-        <v>9830</v>
+        <v>9810</v>
       </c>
       <c r="E83" t="n">
-        <v>9830</v>
+        <v>9810</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1019</v>
+        <v>8.147399999999999</v>
       </c>
       <c r="G83" t="n">
-        <v>9778.333333333334</v>
+        <v>9778.166666666666</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3478,19 +3306,19 @@
         <v>9830</v>
       </c>
       <c r="C84" t="n">
-        <v>9835</v>
+        <v>9830</v>
       </c>
       <c r="D84" t="n">
-        <v>9835</v>
+        <v>9830</v>
       </c>
       <c r="E84" t="n">
         <v>9830</v>
       </c>
       <c r="F84" t="n">
-        <v>51.4655</v>
+        <v>0.1019</v>
       </c>
       <c r="G84" t="n">
-        <v>9778.833333333334</v>
+        <v>9778.333333333334</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3510,7 +3338,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>9835</v>
+        <v>9830</v>
       </c>
       <c r="C85" t="n">
         <v>9835</v>
@@ -3519,13 +3347,13 @@
         <v>9835</v>
       </c>
       <c r="E85" t="n">
-        <v>9835</v>
+        <v>9830</v>
       </c>
       <c r="F85" t="n">
-        <v>17.3</v>
+        <v>51.4655</v>
       </c>
       <c r="G85" t="n">
-        <v>9779.416666666666</v>
+        <v>9778.833333333334</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3557,10 +3385,10 @@
         <v>9835</v>
       </c>
       <c r="F86" t="n">
-        <v>9.0861</v>
+        <v>17.3</v>
       </c>
       <c r="G86" t="n">
-        <v>9780.666666666666</v>
+        <v>9779.416666666666</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3580,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>9820</v>
+        <v>9835</v>
       </c>
       <c r="C87" t="n">
-        <v>9820</v>
+        <v>9835</v>
       </c>
       <c r="D87" t="n">
-        <v>9820</v>
+        <v>9835</v>
       </c>
       <c r="E87" t="n">
-        <v>9820</v>
+        <v>9835</v>
       </c>
       <c r="F87" t="n">
-        <v>9.242800000000001</v>
+        <v>9.0861</v>
       </c>
       <c r="G87" t="n">
-        <v>9781.416666666666</v>
+        <v>9780.666666666666</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3615,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>9835</v>
+        <v>9820</v>
       </c>
       <c r="C88" t="n">
         <v>9820</v>
       </c>
       <c r="D88" t="n">
-        <v>9835</v>
+        <v>9820</v>
       </c>
       <c r="E88" t="n">
         <v>9820</v>
       </c>
       <c r="F88" t="n">
-        <v>9.826000000000001</v>
+        <v>9.242800000000001</v>
       </c>
       <c r="G88" t="n">
-        <v>9782.75</v>
+        <v>9781.416666666666</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3650,22 +3478,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>9820</v>
+        <v>9835</v>
       </c>
       <c r="C89" t="n">
         <v>9820</v>
       </c>
       <c r="D89" t="n">
-        <v>9820</v>
+        <v>9835</v>
       </c>
       <c r="E89" t="n">
         <v>9820</v>
       </c>
       <c r="F89" t="n">
-        <v>8.147</v>
+        <v>9.826000000000001</v>
       </c>
       <c r="G89" t="n">
-        <v>9783.5</v>
+        <v>9782.75</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3685,22 +3513,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>9830</v>
+        <v>9820</v>
       </c>
       <c r="C90" t="n">
-        <v>9830</v>
+        <v>9820</v>
       </c>
       <c r="D90" t="n">
-        <v>9830</v>
+        <v>9820</v>
       </c>
       <c r="E90" t="n">
-        <v>9830</v>
+        <v>9820</v>
       </c>
       <c r="F90" t="n">
-        <v>13.0202</v>
+        <v>8.147</v>
       </c>
       <c r="G90" t="n">
-        <v>9784.333333333334</v>
+        <v>9783.5</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3720,22 +3548,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>9820</v>
+        <v>9830</v>
       </c>
       <c r="C91" t="n">
-        <v>9820</v>
+        <v>9830</v>
       </c>
       <c r="D91" t="n">
-        <v>9820</v>
+        <v>9830</v>
       </c>
       <c r="E91" t="n">
-        <v>9820</v>
+        <v>9830</v>
       </c>
       <c r="F91" t="n">
-        <v>27.8045</v>
+        <v>13.0202</v>
       </c>
       <c r="G91" t="n">
-        <v>9785.166666666666</v>
+        <v>9784.333333333334</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3767,10 +3595,10 @@
         <v>9820</v>
       </c>
       <c r="F92" t="n">
-        <v>4.53</v>
+        <v>27.8045</v>
       </c>
       <c r="G92" t="n">
-        <v>9786.166666666666</v>
+        <v>9785.166666666666</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3802,10 +3630,10 @@
         <v>9820</v>
       </c>
       <c r="F93" t="n">
-        <v>7.5386</v>
+        <v>4.53</v>
       </c>
       <c r="G93" t="n">
-        <v>9787</v>
+        <v>9786.166666666666</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3825,22 +3653,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>9830</v>
+        <v>9820</v>
       </c>
       <c r="C94" t="n">
-        <v>9835</v>
+        <v>9820</v>
       </c>
       <c r="D94" t="n">
-        <v>9835</v>
+        <v>9820</v>
       </c>
       <c r="E94" t="n">
-        <v>9830</v>
+        <v>9820</v>
       </c>
       <c r="F94" t="n">
-        <v>59.8086</v>
+        <v>7.5386</v>
       </c>
       <c r="G94" t="n">
-        <v>9788.083333333334</v>
+        <v>9787</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3860,7 +3688,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>9835</v>
+        <v>9830</v>
       </c>
       <c r="C95" t="n">
         <v>9835</v>
@@ -3869,13 +3697,13 @@
         <v>9835</v>
       </c>
       <c r="E95" t="n">
-        <v>9835</v>
+        <v>9830</v>
       </c>
       <c r="F95" t="n">
-        <v>7.2139</v>
+        <v>59.8086</v>
       </c>
       <c r="G95" t="n">
-        <v>9789.083333333334</v>
+        <v>9788.083333333334</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3907,10 +3735,10 @@
         <v>9835</v>
       </c>
       <c r="F96" t="n">
-        <v>73.9371</v>
+        <v>7.2139</v>
       </c>
       <c r="G96" t="n">
-        <v>9790.166666666666</v>
+        <v>9789.083333333334</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3930,22 +3758,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>9840</v>
+        <v>9835</v>
       </c>
       <c r="C97" t="n">
-        <v>9840</v>
+        <v>9835</v>
       </c>
       <c r="D97" t="n">
-        <v>9840</v>
+        <v>9835</v>
       </c>
       <c r="E97" t="n">
-        <v>9840</v>
+        <v>9835</v>
       </c>
       <c r="F97" t="n">
-        <v>11.037</v>
+        <v>73.9371</v>
       </c>
       <c r="G97" t="n">
-        <v>9791.75</v>
+        <v>9790.166666666666</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3965,7 +3793,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>9835</v>
+        <v>9840</v>
       </c>
       <c r="C98" t="n">
         <v>9840</v>
@@ -3974,13 +3802,13 @@
         <v>9840</v>
       </c>
       <c r="E98" t="n">
-        <v>9835</v>
+        <v>9840</v>
       </c>
       <c r="F98" t="n">
-        <v>119.8529</v>
+        <v>11.037</v>
       </c>
       <c r="G98" t="n">
-        <v>9793.5</v>
+        <v>9791.75</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4003,19 +3831,19 @@
         <v>9835</v>
       </c>
       <c r="C99" t="n">
-        <v>9835</v>
+        <v>9840</v>
       </c>
       <c r="D99" t="n">
-        <v>9835</v>
+        <v>9840</v>
       </c>
       <c r="E99" t="n">
         <v>9835</v>
       </c>
       <c r="F99" t="n">
-        <v>34</v>
+        <v>119.8529</v>
       </c>
       <c r="G99" t="n">
-        <v>9795.166666666666</v>
+        <v>9793.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4035,22 +3863,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>9805</v>
+        <v>9835</v>
       </c>
       <c r="C100" t="n">
-        <v>9805</v>
+        <v>9835</v>
       </c>
       <c r="D100" t="n">
-        <v>9805</v>
+        <v>9835</v>
       </c>
       <c r="E100" t="n">
-        <v>9805</v>
+        <v>9835</v>
       </c>
       <c r="F100" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="G100" t="n">
-        <v>9796.333333333334</v>
+        <v>9795.166666666666</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4073,19 +3901,19 @@
         <v>9805</v>
       </c>
       <c r="C101" t="n">
-        <v>9800</v>
+        <v>9805</v>
       </c>
       <c r="D101" t="n">
         <v>9805</v>
       </c>
       <c r="E101" t="n">
-        <v>9800</v>
+        <v>9805</v>
       </c>
       <c r="F101" t="n">
-        <v>48.0666</v>
+        <v>1</v>
       </c>
       <c r="G101" t="n">
-        <v>9797.5</v>
+        <v>9796.333333333334</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4105,22 +3933,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>9800</v>
+        <v>9805</v>
       </c>
       <c r="C102" t="n">
         <v>9800</v>
       </c>
       <c r="D102" t="n">
-        <v>9800</v>
+        <v>9805</v>
       </c>
       <c r="E102" t="n">
         <v>9800</v>
       </c>
       <c r="F102" t="n">
-        <v>1</v>
+        <v>48.0666</v>
       </c>
       <c r="G102" t="n">
-        <v>9798.416666666666</v>
+        <v>9797.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4152,10 +3980,10 @@
         <v>9800</v>
       </c>
       <c r="F103" t="n">
-        <v>53.2056</v>
+        <v>1</v>
       </c>
       <c r="G103" t="n">
-        <v>9799.083333333334</v>
+        <v>9798.416666666666</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4175,22 +4003,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>9765</v>
+        <v>9800</v>
       </c>
       <c r="C104" t="n">
-        <v>9735</v>
+        <v>9800</v>
       </c>
       <c r="D104" t="n">
-        <v>9765</v>
+        <v>9800</v>
       </c>
       <c r="E104" t="n">
-        <v>9735</v>
+        <v>9800</v>
       </c>
       <c r="F104" t="n">
-        <v>424.407</v>
+        <v>53.2056</v>
       </c>
       <c r="G104" t="n">
-        <v>9798.583333333334</v>
+        <v>9799.083333333334</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4210,22 +4038,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>9785</v>
+        <v>9765</v>
       </c>
       <c r="C105" t="n">
-        <v>9785</v>
+        <v>9735</v>
       </c>
       <c r="D105" t="n">
-        <v>9785</v>
+        <v>9765</v>
       </c>
       <c r="E105" t="n">
-        <v>9785</v>
+        <v>9735</v>
       </c>
       <c r="F105" t="n">
-        <v>6.4606</v>
+        <v>424.407</v>
       </c>
       <c r="G105" t="n">
-        <v>9798.916666666666</v>
+        <v>9798.583333333334</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4245,22 +4073,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>9790</v>
+        <v>9785</v>
       </c>
       <c r="C106" t="n">
-        <v>9795</v>
+        <v>9785</v>
       </c>
       <c r="D106" t="n">
-        <v>9795</v>
+        <v>9785</v>
       </c>
       <c r="E106" t="n">
-        <v>9790</v>
+        <v>9785</v>
       </c>
       <c r="F106" t="n">
-        <v>9.99732133741705</v>
+        <v>6.4606</v>
       </c>
       <c r="G106" t="n">
-        <v>9799.666666666666</v>
+        <v>9798.916666666666</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4280,22 +4108,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>9775</v>
+        <v>9790</v>
       </c>
       <c r="C107" t="n">
-        <v>9775</v>
+        <v>9795</v>
       </c>
       <c r="D107" t="n">
-        <v>9775</v>
+        <v>9795</v>
       </c>
       <c r="E107" t="n">
-        <v>9775</v>
+        <v>9790</v>
       </c>
       <c r="F107" t="n">
-        <v>3.6579</v>
+        <v>9.99732133741705</v>
       </c>
       <c r="G107" t="n">
-        <v>9800.75</v>
+        <v>9799.666666666666</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4315,22 +4143,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>9730</v>
+        <v>9775</v>
       </c>
       <c r="C108" t="n">
-        <v>9730</v>
+        <v>9775</v>
       </c>
       <c r="D108" t="n">
-        <v>9730</v>
+        <v>9775</v>
       </c>
       <c r="E108" t="n">
-        <v>9730</v>
+        <v>9775</v>
       </c>
       <c r="F108" t="n">
-        <v>27.2554</v>
+        <v>3.6579</v>
       </c>
       <c r="G108" t="n">
-        <v>9801</v>
+        <v>9800.75</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4362,10 +4190,10 @@
         <v>9730</v>
       </c>
       <c r="F109" t="n">
-        <v>1.1</v>
+        <v>27.2554</v>
       </c>
       <c r="G109" t="n">
-        <v>9800.833333333334</v>
+        <v>9801</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4385,22 +4213,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>9720</v>
+        <v>9730</v>
       </c>
       <c r="C110" t="n">
-        <v>9745</v>
+        <v>9730</v>
       </c>
       <c r="D110" t="n">
-        <v>9745</v>
+        <v>9730</v>
       </c>
       <c r="E110" t="n">
-        <v>9720</v>
+        <v>9730</v>
       </c>
       <c r="F110" t="n">
-        <v>21.5611</v>
+        <v>1.1</v>
       </c>
       <c r="G110" t="n">
-        <v>9800.75</v>
+        <v>9800.833333333334</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4420,22 +4248,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>9760</v>
+        <v>9720</v>
       </c>
       <c r="C111" t="n">
-        <v>9775</v>
+        <v>9745</v>
       </c>
       <c r="D111" t="n">
-        <v>9775</v>
+        <v>9745</v>
       </c>
       <c r="E111" t="n">
-        <v>9760</v>
+        <v>9720</v>
       </c>
       <c r="F111" t="n">
-        <v>29.6403</v>
+        <v>21.5611</v>
       </c>
       <c r="G111" t="n">
-        <v>9801.333333333334</v>
+        <v>9800.75</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4455,31 +4283,35 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>9725</v>
+        <v>9760</v>
       </c>
       <c r="C112" t="n">
-        <v>9720</v>
+        <v>9775</v>
       </c>
       <c r="D112" t="n">
-        <v>9725</v>
+        <v>9775</v>
       </c>
       <c r="E112" t="n">
-        <v>9720</v>
+        <v>9760</v>
       </c>
       <c r="F112" t="n">
-        <v>96.98260000000001</v>
+        <v>29.6403</v>
       </c>
       <c r="G112" t="n">
-        <v>9801</v>
+        <v>9801.333333333334</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>9745</v>
+      </c>
+      <c r="K112" t="n">
+        <v>9745</v>
+      </c>
       <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
@@ -4490,33 +4322,82 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>9720</v>
+        <v>9725</v>
       </c>
       <c r="C113" t="n">
         <v>9720</v>
       </c>
       <c r="D113" t="n">
-        <v>9720</v>
+        <v>9725</v>
       </c>
       <c r="E113" t="n">
         <v>9720</v>
       </c>
       <c r="F113" t="n">
+        <v>96.98260000000001</v>
+      </c>
+      <c r="G113" t="n">
+        <v>9801</v>
+      </c>
+      <c r="H113" t="n">
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>9775</v>
+      </c>
+      <c r="K113" t="n">
+        <v>9745</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>9720</v>
+      </c>
+      <c r="C114" t="n">
+        <v>9720</v>
+      </c>
+      <c r="D114" t="n">
+        <v>9720</v>
+      </c>
+      <c r="E114" t="n">
+        <v>9720</v>
+      </c>
+      <c r="F114" t="n">
         <v>33.915</v>
       </c>
-      <c r="G113" t="n">
+      <c r="G114" t="n">
         <v>9800.416666666666</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>9745</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-19 BackTest REP.xlsx
+++ b/BackTest/2019-10-19 BackTest REP.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M114"/>
+  <dimension ref="A1:N124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>611.1058</v>
       </c>
       <c r="G2" t="n">
+        <v>9850.333333333334</v>
+      </c>
+      <c r="H2" t="n">
         <v>9810</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>0.1383</v>
       </c>
       <c r="G3" t="n">
+        <v>9850</v>
+      </c>
+      <c r="H3" t="n">
         <v>9810.333333333334</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>12.3068</v>
       </c>
       <c r="G4" t="n">
+        <v>9849.666666666666</v>
+      </c>
+      <c r="H4" t="n">
         <v>9810.666666666666</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>31.5641</v>
       </c>
       <c r="G5" t="n">
+        <v>9847</v>
+      </c>
+      <c r="H5" t="n">
         <v>9811.333333333334</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>6.4136</v>
       </c>
       <c r="G6" t="n">
+        <v>9842.666666666666</v>
+      </c>
+      <c r="H6" t="n">
         <v>9812.166666666666</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>0.1251</v>
       </c>
       <c r="G7" t="n">
+        <v>9840.333333333334</v>
+      </c>
+      <c r="H7" t="n">
         <v>9813.166666666666</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>4.965</v>
       </c>
       <c r="G8" t="n">
+        <v>9837</v>
+      </c>
+      <c r="H8" t="n">
         <v>9813.833333333334</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>0.1269</v>
       </c>
       <c r="G9" t="n">
+        <v>9835</v>
+      </c>
+      <c r="H9" t="n">
         <v>9815</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>0.3173</v>
       </c>
       <c r="G10" t="n">
+        <v>9833</v>
+      </c>
+      <c r="H10" t="n">
         <v>9816.25</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>9.4779</v>
       </c>
       <c r="G11" t="n">
+        <v>9829.666666666666</v>
+      </c>
+      <c r="H11" t="n">
         <v>9817.25</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>135.2402</v>
       </c>
       <c r="G12" t="n">
+        <v>9825.666666666666</v>
+      </c>
+      <c r="H12" t="n">
         <v>9818.333333333334</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>44.71</v>
       </c>
       <c r="G13" t="n">
+        <v>9822.666666666666</v>
+      </c>
+      <c r="H13" t="n">
         <v>9818.916666666666</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>1.1671</v>
       </c>
       <c r="G14" t="n">
+        <v>9823.666666666666</v>
+      </c>
+      <c r="H14" t="n">
         <v>9819.583333333334</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>0.1</v>
       </c>
       <c r="G15" t="n">
+        <v>9823.666666666666</v>
+      </c>
+      <c r="H15" t="n">
         <v>9821.166666666666</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>61.7474</v>
       </c>
       <c r="G16" t="n">
+        <v>9822</v>
+      </c>
+      <c r="H16" t="n">
         <v>9821.166666666666</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>21.475</v>
       </c>
       <c r="G17" t="n">
+        <v>9820.333333333334</v>
+      </c>
+      <c r="H17" t="n">
         <v>9821.083333333334</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>5.7422</v>
       </c>
       <c r="G18" t="n">
+        <v>9816.666666666666</v>
+      </c>
+      <c r="H18" t="n">
         <v>9821</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>4.1346</v>
       </c>
       <c r="G19" t="n">
+        <v>9813</v>
+      </c>
+      <c r="H19" t="n">
         <v>9821.25</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>323.1039</v>
       </c>
       <c r="G20" t="n">
+        <v>9811.666666666666</v>
+      </c>
+      <c r="H20" t="n">
         <v>9821.25</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>34</v>
       </c>
       <c r="G21" t="n">
+        <v>9810.333333333334</v>
+      </c>
+      <c r="H21" t="n">
         <v>9821.083333333334</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>0.2137404580152672</v>
       </c>
       <c r="G22" t="n">
+        <v>9810</v>
+      </c>
+      <c r="H22" t="n">
         <v>9821.5</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>0.15</v>
       </c>
       <c r="G23" t="n">
+        <v>9809.333333333334</v>
+      </c>
+      <c r="H23" t="n">
         <v>9821.416666666666</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>4.8748</v>
       </c>
       <c r="G24" t="n">
+        <v>9808.666666666666</v>
+      </c>
+      <c r="H24" t="n">
         <v>9821.5</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>2.45</v>
       </c>
       <c r="G25" t="n">
+        <v>9807</v>
+      </c>
+      <c r="H25" t="n">
         <v>9821.25</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>0.2283</v>
       </c>
       <c r="G26" t="n">
+        <v>9806.333333333334</v>
+      </c>
+      <c r="H26" t="n">
         <v>9820.75</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>43.7945</v>
       </c>
       <c r="G27" t="n">
+        <v>9803.666666666666</v>
+      </c>
+      <c r="H27" t="n">
         <v>9819.583333333334</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>1.7128</v>
       </c>
       <c r="G28" t="n">
+        <v>9802</v>
+      </c>
+      <c r="H28" t="n">
         <v>9818.916666666666</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>557.5115</v>
       </c>
       <c r="G29" t="n">
+        <v>9796.333333333334</v>
+      </c>
+      <c r="H29" t="n">
         <v>9818.25</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>27.6191</v>
       </c>
       <c r="G30" t="n">
+        <v>9793.333333333334</v>
+      </c>
+      <c r="H30" t="n">
         <v>9818.333333333334</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>2.5</v>
       </c>
       <c r="G31" t="n">
+        <v>9792</v>
+      </c>
+      <c r="H31" t="n">
         <v>9818.833333333334</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>5.483</v>
       </c>
       <c r="G32" t="n">
+        <v>9790</v>
+      </c>
+      <c r="H32" t="n">
         <v>9818.083333333334</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>6.3906</v>
       </c>
       <c r="G33" t="n">
+        <v>9787.333333333334</v>
+      </c>
+      <c r="H33" t="n">
         <v>9817.25</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>23.1929</v>
       </c>
       <c r="G34" t="n">
+        <v>9785.333333333334</v>
+      </c>
+      <c r="H34" t="n">
         <v>9816.583333333334</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>0.0001</v>
       </c>
       <c r="G35" t="n">
+        <v>9783.333333333334</v>
+      </c>
+      <c r="H35" t="n">
         <v>9815.916666666666</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>28.1455</v>
       </c>
       <c r="G36" t="n">
+        <v>9781.666666666666</v>
+      </c>
+      <c r="H36" t="n">
         <v>9815.333333333334</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>8.135199999999999</v>
       </c>
       <c r="G37" t="n">
+        <v>9778</v>
+      </c>
+      <c r="H37" t="n">
         <v>9814.666666666666</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>11.573</v>
       </c>
       <c r="G38" t="n">
+        <v>9774.333333333334</v>
+      </c>
+      <c r="H38" t="n">
         <v>9813.333333333334</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>56.8512</v>
       </c>
       <c r="G39" t="n">
+        <v>9768.666666666666</v>
+      </c>
+      <c r="H39" t="n">
         <v>9812.083333333334</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>4.7852</v>
       </c>
       <c r="G40" t="n">
+        <v>9764</v>
+      </c>
+      <c r="H40" t="n">
         <v>9810.833333333334</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>62.8512</v>
       </c>
       <c r="G41" t="n">
+        <v>9759.666666666666</v>
+      </c>
+      <c r="H41" t="n">
         <v>9809.583333333334</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>14.8354</v>
       </c>
       <c r="G42" t="n">
+        <v>9757.666666666666</v>
+      </c>
+      <c r="H42" t="n">
         <v>9808.416666666666</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>81.7848</v>
       </c>
       <c r="G43" t="n">
+        <v>9755.666666666666</v>
+      </c>
+      <c r="H43" t="n">
         <v>9807.5</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>0.1197</v>
       </c>
       <c r="G44" t="n">
+        <v>9757</v>
+      </c>
+      <c r="H44" t="n">
         <v>9806.833333333334</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>9.434699999999999</v>
       </c>
       <c r="G45" t="n">
+        <v>9756.333333333334</v>
+      </c>
+      <c r="H45" t="n">
         <v>9805.916666666666</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>540.5271</v>
       </c>
       <c r="G46" t="n">
+        <v>9755.333333333334</v>
+      </c>
+      <c r="H46" t="n">
         <v>9804.75</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>50</v>
       </c>
       <c r="G47" t="n">
+        <v>9754</v>
+      </c>
+      <c r="H47" t="n">
         <v>9803.666666666666</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>17.7465</v>
       </c>
       <c r="G48" t="n">
+        <v>9750.666666666666</v>
+      </c>
+      <c r="H48" t="n">
         <v>9801.166666666666</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>1</v>
       </c>
       <c r="G49" t="n">
+        <v>9747</v>
+      </c>
+      <c r="H49" t="n">
         <v>9798.75</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>50</v>
       </c>
       <c r="G50" t="n">
+        <v>9745</v>
+      </c>
+      <c r="H50" t="n">
         <v>9796.75</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>0.1</v>
       </c>
       <c r="G51" t="n">
+        <v>9743.333333333334</v>
+      </c>
+      <c r="H51" t="n">
         <v>9794.5</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>6.2155</v>
       </c>
       <c r="G52" t="n">
+        <v>9741.333333333334</v>
+      </c>
+      <c r="H52" t="n">
         <v>9792.416666666666</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,25 @@
         <v>10.5956</v>
       </c>
       <c r="G53" t="n">
+        <v>9741</v>
+      </c>
+      <c r="H53" t="n">
         <v>9790.416666666666</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>9740</v>
+      </c>
+      <c r="L53" t="n">
+        <v>9740</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2433,27 @@
         <v>2</v>
       </c>
       <c r="G54" t="n">
+        <v>9742.333333333334</v>
+      </c>
+      <c r="H54" t="n">
         <v>9788.666666666666</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="L54" t="n">
+        <v>9740</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2477,27 @@
         <v>34.2553</v>
       </c>
       <c r="G55" t="n">
+        <v>9743</v>
+      </c>
+      <c r="H55" t="n">
         <v>9786.75</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="L55" t="n">
+        <v>9740</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2521,21 @@
         <v>0.1137</v>
       </c>
       <c r="G56" t="n">
+        <v>9745</v>
+      </c>
+      <c r="H56" t="n">
         <v>9785.166666666666</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2559,25 @@
         <v>13</v>
       </c>
       <c r="G57" t="n">
+        <v>9745</v>
+      </c>
+      <c r="H57" t="n">
         <v>9783</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>9765</v>
+      </c>
+      <c r="L57" t="n">
+        <v>9765</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2601,29 @@
         <v>1</v>
       </c>
       <c r="G58" t="n">
+        <v>9746.666666666666</v>
+      </c>
+      <c r="H58" t="n">
         <v>9781.75</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>9730</v>
+      </c>
+      <c r="L58" t="n">
+        <v>9765</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2647,29 @@
         <v>6.0177</v>
       </c>
       <c r="G59" t="n">
+        <v>9747.333333333334</v>
+      </c>
+      <c r="H59" t="n">
         <v>9781.083333333334</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L59" t="n">
+        <v>9765</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2693,21 @@
         <v>22.5957</v>
       </c>
       <c r="G60" t="n">
+        <v>9749</v>
+      </c>
+      <c r="H60" t="n">
         <v>9780.583333333334</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2731,21 @@
         <v>23.197</v>
       </c>
       <c r="G61" t="n">
+        <v>9750.666666666666</v>
+      </c>
+      <c r="H61" t="n">
         <v>9780</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2769,21 @@
         <v>6.348</v>
       </c>
       <c r="G62" t="n">
+        <v>9753.333333333334</v>
+      </c>
+      <c r="H62" t="n">
         <v>9779.416666666666</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2807,21 @@
         <v>26.1783</v>
       </c>
       <c r="G63" t="n">
+        <v>9759.333333333334</v>
+      </c>
+      <c r="H63" t="n">
         <v>9778.5</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2845,21 @@
         <v>0.3029561671763507</v>
       </c>
       <c r="G64" t="n">
+        <v>9765.666666666666</v>
+      </c>
+      <c r="H64" t="n">
         <v>9777.75</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2883,21 @@
         <v>85.62260000000001</v>
       </c>
       <c r="G65" t="n">
+        <v>9770</v>
+      </c>
+      <c r="H65" t="n">
         <v>9777.5</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2921,21 @@
         <v>128.461</v>
       </c>
       <c r="G66" t="n">
+        <v>9775</v>
+      </c>
+      <c r="H66" t="n">
         <v>9777.583333333334</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2959,21 @@
         <v>0.3029</v>
       </c>
       <c r="G67" t="n">
+        <v>9779.333333333334</v>
+      </c>
+      <c r="H67" t="n">
         <v>9777.166666666666</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2997,21 @@
         <v>3.704</v>
       </c>
       <c r="G68" t="n">
+        <v>9785</v>
+      </c>
+      <c r="H68" t="n">
         <v>9777.416666666666</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +3035,21 @@
         <v>60.845</v>
       </c>
       <c r="G69" t="n">
+        <v>9789</v>
+      </c>
+      <c r="H69" t="n">
         <v>9777.166666666666</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3073,21 @@
         <v>746.1</v>
       </c>
       <c r="G70" t="n">
+        <v>9794.333333333334</v>
+      </c>
+      <c r="H70" t="n">
         <v>9777.083333333334</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3111,21 @@
         <v>52.3079</v>
       </c>
       <c r="G71" t="n">
+        <v>9798</v>
+      </c>
+      <c r="H71" t="n">
         <v>9777.25</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
-        <v>1</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3149,21 @@
         <v>35</v>
       </c>
       <c r="G72" t="n">
+        <v>9802.333333333334</v>
+      </c>
+      <c r="H72" t="n">
         <v>9777.166666666666</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
-        <v>1</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3187,21 @@
         <v>8.4</v>
       </c>
       <c r="G73" t="n">
+        <v>9805</v>
+      </c>
+      <c r="H73" t="n">
         <v>9777.333333333334</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
-        <v>1</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3225,21 @@
         <v>25.6125</v>
       </c>
       <c r="G74" t="n">
+        <v>9806.333333333334</v>
+      </c>
+      <c r="H74" t="n">
         <v>9776.75</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3263,21 @@
         <v>50</v>
       </c>
       <c r="G75" t="n">
+        <v>9806</v>
+      </c>
+      <c r="H75" t="n">
         <v>9776.166666666666</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3301,21 @@
         <v>0.1074</v>
       </c>
       <c r="G76" t="n">
+        <v>9808</v>
+      </c>
+      <c r="H76" t="n">
         <v>9776.5</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3339,21 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="G77" t="n">
+        <v>9810</v>
+      </c>
+      <c r="H77" t="n">
         <v>9776.833333333334</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3377,21 @@
         <v>6.8917</v>
       </c>
       <c r="G78" t="n">
+        <v>9810.333333333334</v>
+      </c>
+      <c r="H78" t="n">
         <v>9776.916666666666</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3415,21 @@
         <v>34.98715954198473</v>
       </c>
       <c r="G79" t="n">
+        <v>9811.333333333334</v>
+      </c>
+      <c r="H79" t="n">
         <v>9777.333333333334</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3453,21 @@
         <v>10</v>
       </c>
       <c r="G80" t="n">
+        <v>9812.666666666666</v>
+      </c>
+      <c r="H80" t="n">
         <v>9777.75</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3491,21 @@
         <v>6.248</v>
       </c>
       <c r="G81" t="n">
+        <v>9813</v>
+      </c>
+      <c r="H81" t="n">
         <v>9778.25</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3529,21 @@
         <v>12.1729</v>
       </c>
       <c r="G82" t="n">
+        <v>9813.333333333334</v>
+      </c>
+      <c r="H82" t="n">
         <v>9778</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3567,21 @@
         <v>8.147399999999999</v>
       </c>
       <c r="G83" t="n">
+        <v>9812.333333333334</v>
+      </c>
+      <c r="H83" t="n">
         <v>9778.166666666666</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3605,21 @@
         <v>0.1019</v>
       </c>
       <c r="G84" t="n">
+        <v>9813.333333333334</v>
+      </c>
+      <c r="H84" t="n">
         <v>9778.333333333334</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3643,21 @@
         <v>51.4655</v>
       </c>
       <c r="G85" t="n">
+        <v>9814</v>
+      </c>
+      <c r="H85" t="n">
         <v>9778.833333333334</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3681,21 @@
         <v>17.3</v>
       </c>
       <c r="G86" t="n">
+        <v>9815</v>
+      </c>
+      <c r="H86" t="n">
         <v>9779.416666666666</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3719,21 @@
         <v>9.0861</v>
       </c>
       <c r="G87" t="n">
+        <v>9817.666666666666</v>
+      </c>
+      <c r="H87" t="n">
         <v>9780.666666666666</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3757,21 @@
         <v>9.242800000000001</v>
       </c>
       <c r="G88" t="n">
+        <v>9818.333333333334</v>
+      </c>
+      <c r="H88" t="n">
         <v>9781.416666666666</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3795,21 @@
         <v>9.826000000000001</v>
       </c>
       <c r="G89" t="n">
+        <v>9820.333333333334</v>
+      </c>
+      <c r="H89" t="n">
         <v>9782.75</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3833,21 @@
         <v>8.147</v>
       </c>
       <c r="G90" t="n">
+        <v>9822.666666666666</v>
+      </c>
+      <c r="H90" t="n">
         <v>9783.5</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3871,21 @@
         <v>13.0202</v>
       </c>
       <c r="G91" t="n">
+        <v>9823.333333333334</v>
+      </c>
+      <c r="H91" t="n">
         <v>9784.333333333334</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3909,21 @@
         <v>27.8045</v>
       </c>
       <c r="G92" t="n">
+        <v>9823.333333333334</v>
+      </c>
+      <c r="H92" t="n">
         <v>9785.166666666666</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +3947,21 @@
         <v>4.53</v>
       </c>
       <c r="G93" t="n">
+        <v>9824.333333333334</v>
+      </c>
+      <c r="H93" t="n">
         <v>9786.166666666666</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +3985,21 @@
         <v>7.5386</v>
       </c>
       <c r="G94" t="n">
+        <v>9824</v>
+      </c>
+      <c r="H94" t="n">
         <v>9787</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +4023,21 @@
         <v>59.8086</v>
       </c>
       <c r="G95" t="n">
+        <v>9824.666666666666</v>
+      </c>
+      <c r="H95" t="n">
         <v>9788.083333333334</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4061,21 @@
         <v>7.2139</v>
       </c>
       <c r="G96" t="n">
+        <v>9825</v>
+      </c>
+      <c r="H96" t="n">
         <v>9789.083333333334</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4099,21 @@
         <v>73.9371</v>
       </c>
       <c r="G97" t="n">
+        <v>9826.666666666666</v>
+      </c>
+      <c r="H97" t="n">
         <v>9790.166666666666</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4137,21 @@
         <v>11.037</v>
       </c>
       <c r="G98" t="n">
+        <v>9828.666666666666</v>
+      </c>
+      <c r="H98" t="n">
         <v>9791.75</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4175,21 @@
         <v>119.8529</v>
       </c>
       <c r="G99" t="n">
+        <v>9829.333333333334</v>
+      </c>
+      <c r="H99" t="n">
         <v>9793.5</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4213,21 @@
         <v>34</v>
       </c>
       <c r="G100" t="n">
+        <v>9829.333333333334</v>
+      </c>
+      <c r="H100" t="n">
         <v>9795.166666666666</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4251,21 @@
         <v>1</v>
       </c>
       <c r="G101" t="n">
+        <v>9827.333333333334</v>
+      </c>
+      <c r="H101" t="n">
         <v>9796.333333333334</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4289,21 @@
         <v>48.0666</v>
       </c>
       <c r="G102" t="n">
+        <v>9825</v>
+      </c>
+      <c r="H102" t="n">
         <v>9797.5</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4327,21 @@
         <v>1</v>
       </c>
       <c r="G103" t="n">
+        <v>9823.666666666666</v>
+      </c>
+      <c r="H103" t="n">
         <v>9798.416666666666</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4365,21 @@
         <v>53.2056</v>
       </c>
       <c r="G104" t="n">
+        <v>9822.333333333334</v>
+      </c>
+      <c r="H104" t="n">
         <v>9799.083333333334</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4403,21 @@
         <v>424.407</v>
       </c>
       <c r="G105" t="n">
+        <v>9816.666666666666</v>
+      </c>
+      <c r="H105" t="n">
         <v>9798.583333333334</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4441,21 @@
         <v>6.4606</v>
       </c>
       <c r="G106" t="n">
+        <v>9813.666666666666</v>
+      </c>
+      <c r="H106" t="n">
         <v>9798.916666666666</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4479,21 @@
         <v>9.99732133741705</v>
       </c>
       <c r="G107" t="n">
+        <v>9812</v>
+      </c>
+      <c r="H107" t="n">
         <v>9799.666666666666</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4517,21 @@
         <v>3.6579</v>
       </c>
       <c r="G108" t="n">
+        <v>9809</v>
+      </c>
+      <c r="H108" t="n">
         <v>9800.75</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4555,21 @@
         <v>27.2554</v>
       </c>
       <c r="G109" t="n">
+        <v>9803</v>
+      </c>
+      <c r="H109" t="n">
         <v>9801</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4593,21 @@
         <v>1.1</v>
       </c>
       <c r="G110" t="n">
+        <v>9796</v>
+      </c>
+      <c r="H110" t="n">
         <v>9800.833333333334</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +4631,21 @@
         <v>21.5611</v>
       </c>
       <c r="G111" t="n">
+        <v>9790</v>
+      </c>
+      <c r="H111" t="n">
         <v>9800.75</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,22 +4669,25 @@
         <v>29.6403</v>
       </c>
       <c r="G112" t="n">
+        <v>9786</v>
+      </c>
+      <c r="H112" t="n">
         <v>9801.333333333334</v>
       </c>
-      <c r="H112" t="n">
-        <v>1</v>
-      </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="n">
-        <v>9745</v>
+        <v>0</v>
       </c>
       <c r="K112" t="n">
         <v>9745</v>
       </c>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="L112" t="n">
+        <v>9745</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4337,26 +4711,29 @@
         <v>96.98260000000001</v>
       </c>
       <c r="G113" t="n">
+        <v>9778</v>
+      </c>
+      <c r="H113" t="n">
         <v>9801</v>
       </c>
-      <c r="H113" t="n">
-        <v>1</v>
-      </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="n">
         <v>9775</v>
       </c>
-      <c r="K113" t="n">
+      <c r="L113" t="n">
         <v>9745</v>
       </c>
-      <c r="L113" t="inlineStr">
+      <c r="M113" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M113" t="n">
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4380,24 +4757,485 @@
         <v>33.915</v>
       </c>
       <c r="G114" t="n">
+        <v>9770</v>
+      </c>
+      <c r="H114" t="n">
         <v>9800.416666666666</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="n">
+        <v>9720</v>
+      </c>
+      <c r="L114" t="n">
         <v>9745</v>
       </c>
-      <c r="L114" t="inlineStr">
+      <c r="M114" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M114" t="n">
+      <c r="N114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>9780</v>
+      </c>
+      <c r="C115" t="n">
+        <v>9780</v>
+      </c>
+      <c r="D115" t="n">
+        <v>9780</v>
+      </c>
+      <c r="E115" t="n">
+        <v>9780</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G115" t="n">
+        <v>9766.333333333334</v>
+      </c>
+      <c r="H115" t="n">
+        <v>9801</v>
+      </c>
+      <c r="I115" t="n">
+        <v>1</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="n">
+        <v>9720</v>
+      </c>
+      <c r="L115" t="n">
+        <v>9745</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>9775</v>
+      </c>
+      <c r="C116" t="n">
+        <v>9775</v>
+      </c>
+      <c r="D116" t="n">
+        <v>9775</v>
+      </c>
+      <c r="E116" t="n">
+        <v>9775</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G116" t="n">
+        <v>9764.333333333334</v>
+      </c>
+      <c r="H116" t="n">
+        <v>9801.166666666666</v>
+      </c>
+      <c r="I116" t="n">
+        <v>1</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>9780</v>
+      </c>
+      <c r="L116" t="n">
+        <v>9745</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>9775</v>
+      </c>
+      <c r="C117" t="n">
+        <v>9775</v>
+      </c>
+      <c r="D117" t="n">
+        <v>9775</v>
+      </c>
+      <c r="E117" t="n">
+        <v>9775</v>
+      </c>
+      <c r="F117" t="n">
+        <v>49.9999</v>
+      </c>
+      <c r="G117" t="n">
+        <v>9762.666666666666</v>
+      </c>
+      <c r="H117" t="n">
+        <v>9801.916666666666</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>9745</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>9730</v>
+      </c>
+      <c r="C118" t="n">
+        <v>9730</v>
+      </c>
+      <c r="D118" t="n">
+        <v>9730</v>
+      </c>
+      <c r="E118" t="n">
+        <v>9730</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1.1642</v>
+      </c>
+      <c r="G118" t="n">
+        <v>9758</v>
+      </c>
+      <c r="H118" t="n">
+        <v>9801.25</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>9745</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>9775</v>
+      </c>
+      <c r="C119" t="n">
+        <v>9785</v>
+      </c>
+      <c r="D119" t="n">
+        <v>9785</v>
+      </c>
+      <c r="E119" t="n">
+        <v>9775</v>
+      </c>
+      <c r="F119" t="n">
+        <v>102.2360879918242</v>
+      </c>
+      <c r="G119" t="n">
+        <v>9757</v>
+      </c>
+      <c r="H119" t="n">
+        <v>9801.5</v>
+      </c>
+      <c r="I119" t="n">
+        <v>1</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="n">
+        <v>9730</v>
+      </c>
+      <c r="L119" t="n">
+        <v>9745</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>9720</v>
+      </c>
+      <c r="C120" t="n">
+        <v>9720</v>
+      </c>
+      <c r="D120" t="n">
+        <v>9720</v>
+      </c>
+      <c r="E120" t="n">
+        <v>9720</v>
+      </c>
+      <c r="F120" t="n">
+        <v>2.1902</v>
+      </c>
+      <c r="G120" t="n">
+        <v>9756</v>
+      </c>
+      <c r="H120" t="n">
+        <v>9800.333333333334</v>
+      </c>
+      <c r="I120" t="n">
+        <v>1</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="n">
+        <v>9785</v>
+      </c>
+      <c r="L120" t="n">
+        <v>9745</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>9700</v>
+      </c>
+      <c r="C121" t="n">
+        <v>9700</v>
+      </c>
+      <c r="D121" t="n">
+        <v>9700</v>
+      </c>
+      <c r="E121" t="n">
+        <v>9700</v>
+      </c>
+      <c r="F121" t="n">
+        <v>61.2007</v>
+      </c>
+      <c r="G121" t="n">
+        <v>9750.333333333334</v>
+      </c>
+      <c r="H121" t="n">
+        <v>9798.833333333334</v>
+      </c>
+      <c r="I121" t="n">
+        <v>1</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="n">
+        <v>9720</v>
+      </c>
+      <c r="L121" t="n">
+        <v>9745</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>9700</v>
+      </c>
+      <c r="C122" t="n">
+        <v>9700</v>
+      </c>
+      <c r="D122" t="n">
+        <v>9700</v>
+      </c>
+      <c r="E122" t="n">
+        <v>9700</v>
+      </c>
+      <c r="F122" t="n">
+        <v>35.3545</v>
+      </c>
+      <c r="G122" t="n">
+        <v>9744</v>
+      </c>
+      <c r="H122" t="n">
+        <v>9797.333333333334</v>
+      </c>
+      <c r="I122" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="n">
+        <v>9700</v>
+      </c>
+      <c r="L122" t="n">
+        <v>9745</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>9700</v>
+      </c>
+      <c r="C123" t="n">
+        <v>9700</v>
+      </c>
+      <c r="D123" t="n">
+        <v>9700</v>
+      </c>
+      <c r="E123" t="n">
+        <v>9700</v>
+      </c>
+      <c r="F123" t="n">
+        <v>17.8801</v>
+      </c>
+      <c r="G123" t="n">
+        <v>9739</v>
+      </c>
+      <c r="H123" t="n">
+        <v>9795.666666666666</v>
+      </c>
+      <c r="I123" t="n">
+        <v>1</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="n">
+        <v>9700</v>
+      </c>
+      <c r="L123" t="n">
+        <v>9745</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>9695</v>
+      </c>
+      <c r="C124" t="n">
+        <v>9695</v>
+      </c>
+      <c r="D124" t="n">
+        <v>9695</v>
+      </c>
+      <c r="E124" t="n">
+        <v>9695</v>
+      </c>
+      <c r="F124" t="n">
+        <v>7.0939</v>
+      </c>
+      <c r="G124" t="n">
+        <v>9736.666666666666</v>
+      </c>
+      <c r="H124" t="n">
+        <v>9793.75</v>
+      </c>
+      <c r="I124" t="n">
+        <v>1</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="n">
+        <v>9700</v>
+      </c>
+      <c r="L124" t="n">
+        <v>9745</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-19 BackTest REP.xlsx
+++ b/BackTest/2019-10-19 BackTest REP.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N124"/>
+  <dimension ref="A1:M153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9825</v>
+        <v>9810</v>
       </c>
       <c r="C2" t="n">
-        <v>9825</v>
+        <v>9810</v>
       </c>
       <c r="D2" t="n">
-        <v>9825</v>
+        <v>9810</v>
       </c>
       <c r="E2" t="n">
-        <v>9825</v>
+        <v>9810</v>
       </c>
       <c r="F2" t="n">
-        <v>611.1058</v>
+        <v>35</v>
       </c>
       <c r="G2" t="n">
-        <v>9850.333333333334</v>
+        <v>-429.9479326530613</v>
       </c>
       <c r="H2" t="n">
-        <v>9810</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9855</v>
+        <v>9810</v>
       </c>
       <c r="C3" t="n">
-        <v>9855</v>
+        <v>9810</v>
       </c>
       <c r="D3" t="n">
-        <v>9855</v>
+        <v>9810</v>
       </c>
       <c r="E3" t="n">
-        <v>9855</v>
+        <v>9810</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1383</v>
+        <v>28.5821</v>
       </c>
       <c r="G3" t="n">
-        <v>9850</v>
+        <v>-429.9479326530613</v>
       </c>
       <c r="H3" t="n">
-        <v>9810.333333333334</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9825</v>
+        <v>9810</v>
       </c>
       <c r="C4" t="n">
-        <v>9855</v>
+        <v>9810</v>
       </c>
       <c r="D4" t="n">
-        <v>9855</v>
+        <v>9810</v>
       </c>
       <c r="E4" t="n">
-        <v>9825</v>
+        <v>9810</v>
       </c>
       <c r="F4" t="n">
-        <v>12.3068</v>
+        <v>15</v>
       </c>
       <c r="G4" t="n">
-        <v>9849.666666666666</v>
+        <v>-429.9479326530613</v>
       </c>
       <c r="H4" t="n">
-        <v>9810.666666666666</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9820</v>
+        <v>9810</v>
       </c>
       <c r="C5" t="n">
-        <v>9820</v>
+        <v>9810</v>
       </c>
       <c r="D5" t="n">
-        <v>9820</v>
+        <v>9810</v>
       </c>
       <c r="E5" t="n">
-        <v>9820</v>
+        <v>9810</v>
       </c>
       <c r="F5" t="n">
-        <v>31.5641</v>
+        <v>4.38</v>
       </c>
       <c r="G5" t="n">
-        <v>9847</v>
+        <v>-429.9479326530613</v>
       </c>
       <c r="H5" t="n">
-        <v>9811.333333333334</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9820</v>
+        <v>9810</v>
       </c>
       <c r="C6" t="n">
-        <v>9820</v>
+        <v>9810</v>
       </c>
       <c r="D6" t="n">
-        <v>9820</v>
+        <v>9810</v>
       </c>
       <c r="E6" t="n">
-        <v>9820</v>
+        <v>9810</v>
       </c>
       <c r="F6" t="n">
-        <v>6.4136</v>
+        <v>12.903</v>
       </c>
       <c r="G6" t="n">
-        <v>9842.666666666666</v>
+        <v>-429.9479326530613</v>
       </c>
       <c r="H6" t="n">
-        <v>9812.166666666666</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>9830</v>
+        <v>9825</v>
       </c>
       <c r="C7" t="n">
-        <v>9830</v>
+        <v>9825</v>
       </c>
       <c r="D7" t="n">
-        <v>9830</v>
+        <v>9825</v>
       </c>
       <c r="E7" t="n">
-        <v>9830</v>
+        <v>9825</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1251</v>
+        <v>7.7402</v>
       </c>
       <c r="G7" t="n">
-        <v>9840.333333333334</v>
+        <v>-422.2077326530613</v>
       </c>
       <c r="H7" t="n">
-        <v>9813.166666666666</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -678,24 +655,21 @@
         <v>9810</v>
       </c>
       <c r="F8" t="n">
-        <v>4.965</v>
+        <v>15</v>
       </c>
       <c r="G8" t="n">
-        <v>9837</v>
+        <v>-437.2077326530613</v>
       </c>
       <c r="H8" t="n">
-        <v>9813.833333333334</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>9830</v>
+        <v>9810</v>
       </c>
       <c r="C9" t="n">
-        <v>9830</v>
+        <v>9810</v>
       </c>
       <c r="D9" t="n">
-        <v>9830</v>
+        <v>9810</v>
       </c>
       <c r="E9" t="n">
-        <v>9830</v>
+        <v>9810</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1269</v>
+        <v>41.3294</v>
       </c>
       <c r="G9" t="n">
-        <v>9835</v>
+        <v>-437.2077326530613</v>
       </c>
       <c r="H9" t="n">
-        <v>9815</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9830</v>
+        <v>9810</v>
       </c>
       <c r="C10" t="n">
-        <v>9830</v>
+        <v>9810</v>
       </c>
       <c r="D10" t="n">
-        <v>9830</v>
+        <v>9810</v>
       </c>
       <c r="E10" t="n">
-        <v>9830</v>
+        <v>9810</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3173</v>
+        <v>0.0042</v>
       </c>
       <c r="G10" t="n">
-        <v>9833</v>
+        <v>-437.2077326530613</v>
       </c>
       <c r="H10" t="n">
-        <v>9816.25</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9810</v>
+        <v>9800</v>
       </c>
       <c r="C11" t="n">
-        <v>9810</v>
+        <v>9800</v>
       </c>
       <c r="D11" t="n">
-        <v>9810</v>
+        <v>9800</v>
       </c>
       <c r="E11" t="n">
-        <v>9810</v>
+        <v>9800</v>
       </c>
       <c r="F11" t="n">
-        <v>9.4779</v>
+        <v>8</v>
       </c>
       <c r="G11" t="n">
-        <v>9829.666666666666</v>
+        <v>-445.2077326530613</v>
       </c>
       <c r="H11" t="n">
-        <v>9817.25</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>9805</v>
+        <v>9800</v>
       </c>
       <c r="C12" t="n">
         <v>9800</v>
       </c>
       <c r="D12" t="n">
-        <v>9805</v>
+        <v>9800</v>
       </c>
       <c r="E12" t="n">
         <v>9800</v>
       </c>
       <c r="F12" t="n">
-        <v>135.2402</v>
+        <v>20</v>
       </c>
       <c r="G12" t="n">
-        <v>9825.666666666666</v>
+        <v>-445.2077326530613</v>
       </c>
       <c r="H12" t="n">
-        <v>9818.333333333334</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,24 +830,21 @@
         <v>9800</v>
       </c>
       <c r="F13" t="n">
-        <v>44.71</v>
+        <v>20</v>
       </c>
       <c r="G13" t="n">
-        <v>9822.666666666666</v>
+        <v>-445.2077326530613</v>
       </c>
       <c r="H13" t="n">
-        <v>9818.916666666666</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>9825</v>
+        <v>9820</v>
       </c>
       <c r="C14" t="n">
-        <v>9825</v>
+        <v>9820</v>
       </c>
       <c r="D14" t="n">
-        <v>9825</v>
+        <v>9820</v>
       </c>
       <c r="E14" t="n">
-        <v>9825</v>
+        <v>9820</v>
       </c>
       <c r="F14" t="n">
-        <v>1.1671</v>
+        <v>13.0032</v>
       </c>
       <c r="G14" t="n">
-        <v>9823.666666666666</v>
+        <v>-432.2045326530613</v>
       </c>
       <c r="H14" t="n">
-        <v>9819.583333333334</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>9820</v>
+        <v>9835</v>
       </c>
       <c r="C15" t="n">
-        <v>9820</v>
+        <v>9835</v>
       </c>
       <c r="D15" t="n">
-        <v>9820</v>
+        <v>9835</v>
       </c>
       <c r="E15" t="n">
-        <v>9820</v>
+        <v>9835</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1</v>
+        <v>1.9969</v>
       </c>
       <c r="G15" t="n">
-        <v>9823.666666666666</v>
+        <v>-430.2076326530614</v>
       </c>
       <c r="H15" t="n">
-        <v>9821.166666666666</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>9800</v>
+        <v>9845</v>
       </c>
       <c r="C16" t="n">
-        <v>9800</v>
+        <v>9815</v>
       </c>
       <c r="D16" t="n">
-        <v>9800</v>
+        <v>9855</v>
       </c>
       <c r="E16" t="n">
-        <v>9800</v>
+        <v>9815</v>
       </c>
       <c r="F16" t="n">
-        <v>61.7474</v>
+        <v>188.1449</v>
       </c>
       <c r="G16" t="n">
-        <v>9822</v>
+        <v>-618.3525326530614</v>
       </c>
       <c r="H16" t="n">
-        <v>9821.166666666666</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>9800</v>
+        <v>9855</v>
       </c>
       <c r="C17" t="n">
-        <v>9800</v>
+        <v>9860</v>
       </c>
       <c r="D17" t="n">
-        <v>9800</v>
+        <v>9860</v>
       </c>
       <c r="E17" t="n">
-        <v>9800</v>
+        <v>9855</v>
       </c>
       <c r="F17" t="n">
-        <v>21.475</v>
+        <v>52.3164</v>
       </c>
       <c r="G17" t="n">
-        <v>9820.333333333334</v>
+        <v>-566.0361326530614</v>
       </c>
       <c r="H17" t="n">
-        <v>9821.083333333334</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>9800</v>
+        <v>9850</v>
       </c>
       <c r="C18" t="n">
-        <v>9800</v>
+        <v>9860</v>
       </c>
       <c r="D18" t="n">
-        <v>9800</v>
+        <v>9860</v>
       </c>
       <c r="E18" t="n">
-        <v>9800</v>
+        <v>9850</v>
       </c>
       <c r="F18" t="n">
-        <v>5.7422</v>
+        <v>154.1977</v>
       </c>
       <c r="G18" t="n">
-        <v>9816.666666666666</v>
+        <v>-566.0361326530614</v>
       </c>
       <c r="H18" t="n">
-        <v>9821</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>9800</v>
+        <v>9860</v>
       </c>
       <c r="C19" t="n">
-        <v>9800</v>
+        <v>9860</v>
       </c>
       <c r="D19" t="n">
-        <v>9800</v>
+        <v>9860</v>
       </c>
       <c r="E19" t="n">
-        <v>9800</v>
+        <v>9860</v>
       </c>
       <c r="F19" t="n">
-        <v>4.1346</v>
+        <v>35</v>
       </c>
       <c r="G19" t="n">
-        <v>9813</v>
+        <v>-566.0361326530614</v>
       </c>
       <c r="H19" t="n">
-        <v>9821.25</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>9800</v>
+        <v>9885</v>
       </c>
       <c r="C20" t="n">
-        <v>9800</v>
+        <v>9885</v>
       </c>
       <c r="D20" t="n">
-        <v>9800</v>
+        <v>9885</v>
       </c>
       <c r="E20" t="n">
-        <v>9800</v>
+        <v>9885</v>
       </c>
       <c r="F20" t="n">
-        <v>323.1039</v>
+        <v>0.1452</v>
       </c>
       <c r="G20" t="n">
-        <v>9811.666666666666</v>
+        <v>-565.8909326530613</v>
       </c>
       <c r="H20" t="n">
-        <v>9821.25</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>9800</v>
+        <v>9885</v>
       </c>
       <c r="C21" t="n">
-        <v>9800</v>
+        <v>9865</v>
       </c>
       <c r="D21" t="n">
-        <v>9800</v>
+        <v>9885</v>
       </c>
       <c r="E21" t="n">
-        <v>9800</v>
+        <v>9865</v>
       </c>
       <c r="F21" t="n">
-        <v>34</v>
+        <v>206.1868</v>
       </c>
       <c r="G21" t="n">
-        <v>9810.333333333334</v>
+        <v>-772.0777326530613</v>
       </c>
       <c r="H21" t="n">
-        <v>9821.083333333334</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>9825</v>
+        <v>9865</v>
       </c>
       <c r="C22" t="n">
-        <v>9825</v>
+        <v>9860</v>
       </c>
       <c r="D22" t="n">
-        <v>9825</v>
+        <v>9865</v>
       </c>
       <c r="E22" t="n">
-        <v>9825</v>
+        <v>9860</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2137404580152672</v>
+        <v>186.7876</v>
       </c>
       <c r="G22" t="n">
-        <v>9810</v>
+        <v>-958.8653326530613</v>
       </c>
       <c r="H22" t="n">
-        <v>9821.5</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>9800</v>
+        <v>9860</v>
       </c>
       <c r="C23" t="n">
-        <v>9800</v>
+        <v>9860</v>
       </c>
       <c r="D23" t="n">
-        <v>9800</v>
+        <v>9860</v>
       </c>
       <c r="E23" t="n">
-        <v>9800</v>
+        <v>9860</v>
       </c>
       <c r="F23" t="n">
-        <v>0.15</v>
+        <v>38.1192</v>
       </c>
       <c r="G23" t="n">
-        <v>9809.333333333334</v>
+        <v>-958.8653326530613</v>
       </c>
       <c r="H23" t="n">
-        <v>9821.416666666666</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,36 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>9820</v>
+        <v>9860</v>
       </c>
       <c r="C24" t="n">
-        <v>9820</v>
+        <v>9860</v>
       </c>
       <c r="D24" t="n">
-        <v>9820</v>
+        <v>9860</v>
       </c>
       <c r="E24" t="n">
-        <v>9820</v>
+        <v>9860</v>
       </c>
       <c r="F24" t="n">
-        <v>4.8748</v>
+        <v>10.7055</v>
       </c>
       <c r="G24" t="n">
-        <v>9808.666666666666</v>
+        <v>-958.8653326530613</v>
       </c>
       <c r="H24" t="n">
-        <v>9821.5</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,36 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>9805</v>
+        <v>9860</v>
       </c>
       <c r="C25" t="n">
-        <v>9805</v>
+        <v>9860</v>
       </c>
       <c r="D25" t="n">
-        <v>9805</v>
+        <v>9860</v>
       </c>
       <c r="E25" t="n">
-        <v>9805</v>
+        <v>9860</v>
       </c>
       <c r="F25" t="n">
-        <v>2.45</v>
+        <v>0.129</v>
       </c>
       <c r="G25" t="n">
-        <v>9807</v>
+        <v>-958.8653326530613</v>
       </c>
       <c r="H25" t="n">
-        <v>9821.25</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,36 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>9800</v>
+        <v>9860</v>
       </c>
       <c r="C26" t="n">
-        <v>9800</v>
+        <v>9860</v>
       </c>
       <c r="D26" t="n">
-        <v>9800</v>
+        <v>9860</v>
       </c>
       <c r="E26" t="n">
-        <v>9800</v>
+        <v>9860</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2283</v>
+        <v>30.4259</v>
       </c>
       <c r="G26" t="n">
-        <v>9806.333333333334</v>
+        <v>-958.8653326530613</v>
       </c>
       <c r="H26" t="n">
-        <v>9820.75</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,36 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>9760</v>
+        <v>9845</v>
       </c>
       <c r="C27" t="n">
-        <v>9760</v>
+        <v>9845</v>
       </c>
       <c r="D27" t="n">
-        <v>9760</v>
+        <v>9845</v>
       </c>
       <c r="E27" t="n">
-        <v>9760</v>
+        <v>9845</v>
       </c>
       <c r="F27" t="n">
-        <v>43.7945</v>
+        <v>12.2578</v>
       </c>
       <c r="G27" t="n">
-        <v>9803.666666666666</v>
+        <v>-971.1231326530612</v>
       </c>
       <c r="H27" t="n">
-        <v>9819.583333333334</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>9775</v>
+        <v>9810</v>
       </c>
       <c r="C28" t="n">
-        <v>9775</v>
+        <v>9810</v>
       </c>
       <c r="D28" t="n">
-        <v>9775</v>
+        <v>9810</v>
       </c>
       <c r="E28" t="n">
-        <v>9775</v>
+        <v>9810</v>
       </c>
       <c r="F28" t="n">
-        <v>1.7128</v>
+        <v>28.3804</v>
       </c>
       <c r="G28" t="n">
-        <v>9802</v>
+        <v>-999.5035326530613</v>
       </c>
       <c r="H28" t="n">
-        <v>9818.916666666666</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,36 +1378,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>9745</v>
+        <v>9820</v>
       </c>
       <c r="C29" t="n">
-        <v>9740</v>
+        <v>9820</v>
       </c>
       <c r="D29" t="n">
-        <v>9745</v>
+        <v>9820</v>
       </c>
       <c r="E29" t="n">
-        <v>9740</v>
+        <v>9820</v>
       </c>
       <c r="F29" t="n">
-        <v>557.5115</v>
+        <v>66.9397</v>
       </c>
       <c r="G29" t="n">
-        <v>9796.333333333334</v>
+        <v>-932.5638326530612</v>
       </c>
       <c r="H29" t="n">
-        <v>9818.25</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,36 +1413,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>9775</v>
+        <v>9825</v>
       </c>
       <c r="C30" t="n">
-        <v>9775</v>
+        <v>9825</v>
       </c>
       <c r="D30" t="n">
-        <v>9775</v>
+        <v>9825</v>
       </c>
       <c r="E30" t="n">
-        <v>9775</v>
+        <v>9825</v>
       </c>
       <c r="F30" t="n">
-        <v>27.6191</v>
+        <v>154.2546</v>
       </c>
       <c r="G30" t="n">
-        <v>9793.333333333334</v>
+        <v>-778.3092326530613</v>
       </c>
       <c r="H30" t="n">
-        <v>9818.333333333334</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,36 +1448,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>9780</v>
+        <v>9825</v>
       </c>
       <c r="C31" t="n">
-        <v>9780</v>
+        <v>9825</v>
       </c>
       <c r="D31" t="n">
-        <v>9780</v>
+        <v>9825</v>
       </c>
       <c r="E31" t="n">
-        <v>9780</v>
+        <v>9825</v>
       </c>
       <c r="F31" t="n">
-        <v>2.5</v>
+        <v>611.1058</v>
       </c>
       <c r="G31" t="n">
-        <v>9792</v>
+        <v>-778.3092326530613</v>
       </c>
       <c r="H31" t="n">
-        <v>9818.833333333334</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,36 +1483,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>9770</v>
+        <v>9855</v>
       </c>
       <c r="C32" t="n">
-        <v>9770</v>
+        <v>9855</v>
       </c>
       <c r="D32" t="n">
-        <v>9770</v>
+        <v>9855</v>
       </c>
       <c r="E32" t="n">
-        <v>9770</v>
+        <v>9855</v>
       </c>
       <c r="F32" t="n">
-        <v>5.483</v>
+        <v>0.1383</v>
       </c>
       <c r="G32" t="n">
-        <v>9790</v>
+        <v>-778.1709326530613</v>
       </c>
       <c r="H32" t="n">
-        <v>9818.083333333334</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1616,36 +1518,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>9760</v>
+        <v>9825</v>
       </c>
       <c r="C33" t="n">
-        <v>9760</v>
+        <v>9855</v>
       </c>
       <c r="D33" t="n">
-        <v>9760</v>
+        <v>9855</v>
       </c>
       <c r="E33" t="n">
-        <v>9760</v>
+        <v>9825</v>
       </c>
       <c r="F33" t="n">
-        <v>6.3906</v>
+        <v>12.3068</v>
       </c>
       <c r="G33" t="n">
-        <v>9787.333333333334</v>
+        <v>-778.1709326530613</v>
       </c>
       <c r="H33" t="n">
-        <v>9817.25</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,36 +1553,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>9765</v>
+        <v>9820</v>
       </c>
       <c r="C34" t="n">
-        <v>9770</v>
+        <v>9820</v>
       </c>
       <c r="D34" t="n">
-        <v>9770</v>
+        <v>9820</v>
       </c>
       <c r="E34" t="n">
-        <v>9765</v>
+        <v>9820</v>
       </c>
       <c r="F34" t="n">
-        <v>23.1929</v>
+        <v>31.5641</v>
       </c>
       <c r="G34" t="n">
-        <v>9785.333333333334</v>
+        <v>-809.7350326530614</v>
       </c>
       <c r="H34" t="n">
-        <v>9816.583333333334</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,36 +1588,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>9770</v>
+        <v>9820</v>
       </c>
       <c r="C35" t="n">
-        <v>9770</v>
+        <v>9820</v>
       </c>
       <c r="D35" t="n">
-        <v>9770</v>
+        <v>9820</v>
       </c>
       <c r="E35" t="n">
-        <v>9770</v>
+        <v>9820</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0001</v>
+        <v>6.4136</v>
       </c>
       <c r="G35" t="n">
-        <v>9783.333333333334</v>
+        <v>-809.7350326530614</v>
       </c>
       <c r="H35" t="n">
-        <v>9815.916666666666</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,36 +1623,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>9775</v>
+        <v>9830</v>
       </c>
       <c r="C36" t="n">
-        <v>9775</v>
+        <v>9830</v>
       </c>
       <c r="D36" t="n">
-        <v>9775</v>
+        <v>9830</v>
       </c>
       <c r="E36" t="n">
-        <v>9775</v>
+        <v>9830</v>
       </c>
       <c r="F36" t="n">
-        <v>28.1455</v>
+        <v>0.1251</v>
       </c>
       <c r="G36" t="n">
-        <v>9781.666666666666</v>
+        <v>-809.6099326530614</v>
       </c>
       <c r="H36" t="n">
-        <v>9815.333333333334</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,36 +1658,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>9770</v>
+        <v>9810</v>
       </c>
       <c r="C37" t="n">
-        <v>9770</v>
+        <v>9810</v>
       </c>
       <c r="D37" t="n">
-        <v>9770</v>
+        <v>9810</v>
       </c>
       <c r="E37" t="n">
-        <v>9770</v>
+        <v>9810</v>
       </c>
       <c r="F37" t="n">
-        <v>8.135199999999999</v>
+        <v>4.965</v>
       </c>
       <c r="G37" t="n">
-        <v>9778</v>
+        <v>-814.5749326530614</v>
       </c>
       <c r="H37" t="n">
-        <v>9814.666666666666</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1806,36 +1693,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>9745</v>
+        <v>9830</v>
       </c>
       <c r="C38" t="n">
-        <v>9745</v>
+        <v>9830</v>
       </c>
       <c r="D38" t="n">
-        <v>9745</v>
+        <v>9830</v>
       </c>
       <c r="E38" t="n">
-        <v>9745</v>
+        <v>9830</v>
       </c>
       <c r="F38" t="n">
-        <v>11.573</v>
+        <v>0.1269</v>
       </c>
       <c r="G38" t="n">
-        <v>9774.333333333334</v>
+        <v>-814.4480326530614</v>
       </c>
       <c r="H38" t="n">
-        <v>9813.333333333334</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,36 +1728,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>9740</v>
+        <v>9830</v>
       </c>
       <c r="C39" t="n">
-        <v>9735</v>
+        <v>9830</v>
       </c>
       <c r="D39" t="n">
-        <v>9740</v>
+        <v>9830</v>
       </c>
       <c r="E39" t="n">
-        <v>9735</v>
+        <v>9830</v>
       </c>
       <c r="F39" t="n">
-        <v>56.8512</v>
+        <v>0.3173</v>
       </c>
       <c r="G39" t="n">
-        <v>9768.666666666666</v>
+        <v>-814.4480326530614</v>
       </c>
       <c r="H39" t="n">
-        <v>9812.083333333334</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1882,36 +1763,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>9735</v>
+        <v>9810</v>
       </c>
       <c r="C40" t="n">
-        <v>9735</v>
+        <v>9810</v>
       </c>
       <c r="D40" t="n">
-        <v>9735</v>
+        <v>9810</v>
       </c>
       <c r="E40" t="n">
-        <v>9735</v>
+        <v>9810</v>
       </c>
       <c r="F40" t="n">
-        <v>4.7852</v>
+        <v>9.4779</v>
       </c>
       <c r="G40" t="n">
-        <v>9764</v>
+        <v>-823.9259326530614</v>
       </c>
       <c r="H40" t="n">
-        <v>9810.833333333334</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1920,36 +1798,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>9735</v>
+        <v>9805</v>
       </c>
       <c r="C41" t="n">
-        <v>9735</v>
+        <v>9800</v>
       </c>
       <c r="D41" t="n">
-        <v>9735</v>
+        <v>9805</v>
       </c>
       <c r="E41" t="n">
-        <v>9735</v>
+        <v>9800</v>
       </c>
       <c r="F41" t="n">
-        <v>62.8512</v>
+        <v>135.2402</v>
       </c>
       <c r="G41" t="n">
-        <v>9759.666666666666</v>
+        <v>-959.1661326530614</v>
       </c>
       <c r="H41" t="n">
-        <v>9809.583333333334</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1958,36 +1833,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>9735</v>
+        <v>9800</v>
       </c>
       <c r="C42" t="n">
-        <v>9730</v>
+        <v>9800</v>
       </c>
       <c r="D42" t="n">
-        <v>9735</v>
+        <v>9800</v>
       </c>
       <c r="E42" t="n">
-        <v>9730</v>
+        <v>9800</v>
       </c>
       <c r="F42" t="n">
-        <v>14.8354</v>
+        <v>44.71</v>
       </c>
       <c r="G42" t="n">
-        <v>9757.666666666666</v>
+        <v>-959.1661326530614</v>
       </c>
       <c r="H42" t="n">
-        <v>9808.416666666666</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1996,36 +1868,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>9730</v>
+        <v>9825</v>
       </c>
       <c r="C43" t="n">
-        <v>9745</v>
+        <v>9825</v>
       </c>
       <c r="D43" t="n">
-        <v>9760</v>
+        <v>9825</v>
       </c>
       <c r="E43" t="n">
-        <v>9720</v>
+        <v>9825</v>
       </c>
       <c r="F43" t="n">
-        <v>81.7848</v>
+        <v>1.1671</v>
       </c>
       <c r="G43" t="n">
-        <v>9755.666666666666</v>
+        <v>-957.9990326530614</v>
       </c>
       <c r="H43" t="n">
-        <v>9807.5</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2034,36 +1903,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>9760</v>
+        <v>9820</v>
       </c>
       <c r="C44" t="n">
-        <v>9760</v>
+        <v>9820</v>
       </c>
       <c r="D44" t="n">
-        <v>9760</v>
+        <v>9820</v>
       </c>
       <c r="E44" t="n">
-        <v>9760</v>
+        <v>9820</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1197</v>
+        <v>0.1</v>
       </c>
       <c r="G44" t="n">
-        <v>9757</v>
+        <v>-958.0990326530614</v>
       </c>
       <c r="H44" t="n">
-        <v>9806.833333333334</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2072,36 +1938,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>9765</v>
+        <v>9800</v>
       </c>
       <c r="C45" t="n">
-        <v>9765</v>
+        <v>9800</v>
       </c>
       <c r="D45" t="n">
-        <v>9765</v>
+        <v>9800</v>
       </c>
       <c r="E45" t="n">
-        <v>9765</v>
+        <v>9800</v>
       </c>
       <c r="F45" t="n">
-        <v>9.434699999999999</v>
+        <v>61.7474</v>
       </c>
       <c r="G45" t="n">
-        <v>9756.333333333334</v>
+        <v>-1019.846432653061</v>
       </c>
       <c r="H45" t="n">
-        <v>9805.916666666666</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,36 +1973,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>9730</v>
+        <v>9800</v>
       </c>
       <c r="C46" t="n">
-        <v>9765</v>
+        <v>9800</v>
       </c>
       <c r="D46" t="n">
-        <v>9765</v>
+        <v>9800</v>
       </c>
       <c r="E46" t="n">
-        <v>9700</v>
+        <v>9800</v>
       </c>
       <c r="F46" t="n">
-        <v>540.5271</v>
+        <v>21.475</v>
       </c>
       <c r="G46" t="n">
-        <v>9755.333333333334</v>
+        <v>-1019.846432653061</v>
       </c>
       <c r="H46" t="n">
-        <v>9804.75</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,36 +2008,33 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>9740</v>
+        <v>9800</v>
       </c>
       <c r="C47" t="n">
-        <v>9750</v>
+        <v>9800</v>
       </c>
       <c r="D47" t="n">
-        <v>9750</v>
+        <v>9800</v>
       </c>
       <c r="E47" t="n">
-        <v>9740</v>
+        <v>9800</v>
       </c>
       <c r="F47" t="n">
-        <v>50</v>
+        <v>5.7422</v>
       </c>
       <c r="G47" t="n">
-        <v>9754</v>
+        <v>-1019.846432653061</v>
       </c>
       <c r="H47" t="n">
-        <v>9803.666666666666</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2186,36 +2043,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>9715</v>
+        <v>9800</v>
       </c>
       <c r="C48" t="n">
-        <v>9710</v>
+        <v>9800</v>
       </c>
       <c r="D48" t="n">
-        <v>9715</v>
+        <v>9800</v>
       </c>
       <c r="E48" t="n">
-        <v>9710</v>
+        <v>9800</v>
       </c>
       <c r="F48" t="n">
-        <v>17.7465</v>
+        <v>4.1346</v>
       </c>
       <c r="G48" t="n">
-        <v>9750.666666666666</v>
+        <v>-1019.846432653061</v>
       </c>
       <c r="H48" t="n">
-        <v>9801.166666666666</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,36 +2078,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>9715</v>
+        <v>9800</v>
       </c>
       <c r="C49" t="n">
-        <v>9715</v>
+        <v>9800</v>
       </c>
       <c r="D49" t="n">
-        <v>9715</v>
+        <v>9800</v>
       </c>
       <c r="E49" t="n">
-        <v>9715</v>
+        <v>9800</v>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>323.1039</v>
       </c>
       <c r="G49" t="n">
-        <v>9747</v>
+        <v>-1019.846432653061</v>
       </c>
       <c r="H49" t="n">
-        <v>9798.75</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,36 +2113,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>9735</v>
+        <v>9800</v>
       </c>
       <c r="C50" t="n">
-        <v>9740</v>
+        <v>9800</v>
       </c>
       <c r="D50" t="n">
-        <v>9740</v>
+        <v>9800</v>
       </c>
       <c r="E50" t="n">
-        <v>9735</v>
+        <v>9800</v>
       </c>
       <c r="F50" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="G50" t="n">
-        <v>9745</v>
+        <v>-1019.846432653061</v>
       </c>
       <c r="H50" t="n">
-        <v>9796.75</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2300,36 +2148,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>9750</v>
+        <v>9825</v>
       </c>
       <c r="C51" t="n">
-        <v>9750</v>
+        <v>9825</v>
       </c>
       <c r="D51" t="n">
-        <v>9750</v>
+        <v>9825</v>
       </c>
       <c r="E51" t="n">
-        <v>9750</v>
+        <v>9825</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1</v>
+        <v>0.2137404580152672</v>
       </c>
       <c r="G51" t="n">
-        <v>9743.333333333334</v>
+        <v>-1019.632692195046</v>
       </c>
       <c r="H51" t="n">
-        <v>9794.5</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,36 +2183,33 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>9740</v>
+        <v>9800</v>
       </c>
       <c r="C52" t="n">
-        <v>9740</v>
+        <v>9800</v>
       </c>
       <c r="D52" t="n">
-        <v>9740</v>
+        <v>9800</v>
       </c>
       <c r="E52" t="n">
-        <v>9740</v>
+        <v>9800</v>
       </c>
       <c r="F52" t="n">
-        <v>6.2155</v>
+        <v>0.15</v>
       </c>
       <c r="G52" t="n">
-        <v>9741.333333333334</v>
+        <v>-1019.782692195046</v>
       </c>
       <c r="H52" t="n">
-        <v>9792.416666666666</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2376,40 +2218,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>9740</v>
+        <v>9820</v>
       </c>
       <c r="C53" t="n">
-        <v>9740</v>
+        <v>9820</v>
       </c>
       <c r="D53" t="n">
-        <v>9740</v>
+        <v>9820</v>
       </c>
       <c r="E53" t="n">
-        <v>9740</v>
+        <v>9820</v>
       </c>
       <c r="F53" t="n">
-        <v>10.5956</v>
+        <v>4.8748</v>
       </c>
       <c r="G53" t="n">
-        <v>9741</v>
+        <v>-1014.907892195046</v>
       </c>
       <c r="H53" t="n">
-        <v>9790.416666666666</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" t="n">
-        <v>9740</v>
-      </c>
-      <c r="L53" t="n">
-        <v>9740</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2418,42 +2253,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>9755</v>
+        <v>9805</v>
       </c>
       <c r="C54" t="n">
-        <v>9755</v>
+        <v>9805</v>
       </c>
       <c r="D54" t="n">
-        <v>9755</v>
+        <v>9805</v>
       </c>
       <c r="E54" t="n">
-        <v>9755</v>
+        <v>9805</v>
       </c>
       <c r="F54" t="n">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="G54" t="n">
-        <v>9742.333333333334</v>
+        <v>-1017.357892195046</v>
       </c>
       <c r="H54" t="n">
-        <v>9788.666666666666</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>9740</v>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N54" t="n">
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2462,42 +2288,33 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>9750</v>
+        <v>9800</v>
       </c>
       <c r="C55" t="n">
-        <v>9745</v>
+        <v>9800</v>
       </c>
       <c r="D55" t="n">
-        <v>9750</v>
+        <v>9800</v>
       </c>
       <c r="E55" t="n">
-        <v>9745</v>
+        <v>9800</v>
       </c>
       <c r="F55" t="n">
-        <v>34.2553</v>
+        <v>0.2283</v>
       </c>
       <c r="G55" t="n">
-        <v>9743</v>
+        <v>-1017.586192195046</v>
       </c>
       <c r="H55" t="n">
-        <v>9786.75</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>9740</v>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N55" t="n">
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2506,36 +2323,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>9765</v>
+        <v>9760</v>
       </c>
       <c r="C56" t="n">
-        <v>9765</v>
+        <v>9760</v>
       </c>
       <c r="D56" t="n">
-        <v>9765</v>
+        <v>9760</v>
       </c>
       <c r="E56" t="n">
-        <v>9765</v>
+        <v>9760</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1137</v>
+        <v>43.7945</v>
       </c>
       <c r="G56" t="n">
-        <v>9745</v>
+        <v>-1061.380692195046</v>
       </c>
       <c r="H56" t="n">
-        <v>9785.166666666666</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2544,40 +2358,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>9730</v>
+        <v>9775</v>
       </c>
       <c r="C57" t="n">
-        <v>9730</v>
+        <v>9775</v>
       </c>
       <c r="D57" t="n">
-        <v>9730</v>
+        <v>9775</v>
       </c>
       <c r="E57" t="n">
-        <v>9730</v>
+        <v>9775</v>
       </c>
       <c r="F57" t="n">
-        <v>13</v>
+        <v>1.7128</v>
       </c>
       <c r="G57" t="n">
-        <v>9745</v>
+        <v>-1059.667892195046</v>
       </c>
       <c r="H57" t="n">
-        <v>9783</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="n">
-        <v>9765</v>
-      </c>
-      <c r="L57" t="n">
-        <v>9765</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2586,44 +2393,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>9770</v>
+        <v>9745</v>
       </c>
       <c r="C58" t="n">
-        <v>9770</v>
+        <v>9740</v>
       </c>
       <c r="D58" t="n">
-        <v>9770</v>
+        <v>9745</v>
       </c>
       <c r="E58" t="n">
-        <v>9770</v>
+        <v>9740</v>
       </c>
       <c r="F58" t="n">
-        <v>1</v>
+        <v>557.5115</v>
       </c>
       <c r="G58" t="n">
-        <v>9746.666666666666</v>
+        <v>-1617.179392195046</v>
       </c>
       <c r="H58" t="n">
-        <v>9781.75</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" t="n">
-        <v>9730</v>
-      </c>
-      <c r="L58" t="n">
-        <v>9765</v>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2632,44 +2428,33 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>9770</v>
+        <v>9775</v>
       </c>
       <c r="C59" t="n">
-        <v>9770</v>
+        <v>9775</v>
       </c>
       <c r="D59" t="n">
-        <v>9770</v>
+        <v>9775</v>
       </c>
       <c r="E59" t="n">
-        <v>9770</v>
+        <v>9775</v>
       </c>
       <c r="F59" t="n">
-        <v>6.0177</v>
+        <v>27.6191</v>
       </c>
       <c r="G59" t="n">
-        <v>9747.333333333334</v>
+        <v>-1589.560292195046</v>
       </c>
       <c r="H59" t="n">
-        <v>9781.083333333334</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" t="n">
-        <v>9770</v>
-      </c>
-      <c r="L59" t="n">
-        <v>9765</v>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2678,36 +2463,33 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>9790</v>
+        <v>9780</v>
       </c>
       <c r="C60" t="n">
-        <v>9790</v>
+        <v>9780</v>
       </c>
       <c r="D60" t="n">
-        <v>9790</v>
+        <v>9780</v>
       </c>
       <c r="E60" t="n">
-        <v>9790</v>
+        <v>9780</v>
       </c>
       <c r="F60" t="n">
-        <v>22.5957</v>
+        <v>2.5</v>
       </c>
       <c r="G60" t="n">
-        <v>9749</v>
+        <v>-1587.060292195046</v>
       </c>
       <c r="H60" t="n">
-        <v>9780.583333333334</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2716,36 +2498,33 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>9790</v>
+        <v>9770</v>
       </c>
       <c r="C61" t="n">
-        <v>9790</v>
+        <v>9770</v>
       </c>
       <c r="D61" t="n">
-        <v>9790</v>
+        <v>9770</v>
       </c>
       <c r="E61" t="n">
-        <v>9790</v>
+        <v>9770</v>
       </c>
       <c r="F61" t="n">
-        <v>23.197</v>
+        <v>5.483</v>
       </c>
       <c r="G61" t="n">
-        <v>9750.666666666666</v>
+        <v>-1592.543292195046</v>
       </c>
       <c r="H61" t="n">
-        <v>9780</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2754,36 +2533,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>9790</v>
+        <v>9760</v>
       </c>
       <c r="C62" t="n">
-        <v>9790</v>
+        <v>9760</v>
       </c>
       <c r="D62" t="n">
-        <v>9790</v>
+        <v>9760</v>
       </c>
       <c r="E62" t="n">
-        <v>9790</v>
+        <v>9760</v>
       </c>
       <c r="F62" t="n">
-        <v>6.348</v>
+        <v>6.3906</v>
       </c>
       <c r="G62" t="n">
-        <v>9753.333333333334</v>
+        <v>-1598.933892195046</v>
       </c>
       <c r="H62" t="n">
-        <v>9779.416666666666</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2792,36 +2568,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>9790</v>
+        <v>9765</v>
       </c>
       <c r="C63" t="n">
-        <v>9800</v>
+        <v>9770</v>
       </c>
       <c r="D63" t="n">
-        <v>9800</v>
+        <v>9770</v>
       </c>
       <c r="E63" t="n">
-        <v>9790</v>
+        <v>9765</v>
       </c>
       <c r="F63" t="n">
-        <v>26.1783</v>
+        <v>23.1929</v>
       </c>
       <c r="G63" t="n">
-        <v>9759.333333333334</v>
+        <v>-1575.740992195046</v>
       </c>
       <c r="H63" t="n">
-        <v>9778.5</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2830,36 +2603,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>9810</v>
+        <v>9770</v>
       </c>
       <c r="C64" t="n">
-        <v>9810</v>
+        <v>9770</v>
       </c>
       <c r="D64" t="n">
-        <v>9810</v>
+        <v>9770</v>
       </c>
       <c r="E64" t="n">
-        <v>9810</v>
+        <v>9770</v>
       </c>
       <c r="F64" t="n">
-        <v>0.3029561671763507</v>
+        <v>0.0001</v>
       </c>
       <c r="G64" t="n">
-        <v>9765.666666666666</v>
+        <v>-1575.740992195046</v>
       </c>
       <c r="H64" t="n">
-        <v>9777.75</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2868,36 +2638,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>9780</v>
+        <v>9775</v>
       </c>
       <c r="C65" t="n">
-        <v>9805</v>
+        <v>9775</v>
       </c>
       <c r="D65" t="n">
-        <v>9805</v>
+        <v>9775</v>
       </c>
       <c r="E65" t="n">
         <v>9775</v>
       </c>
       <c r="F65" t="n">
-        <v>85.62260000000001</v>
+        <v>28.1455</v>
       </c>
       <c r="G65" t="n">
-        <v>9770</v>
+        <v>-1547.595492195046</v>
       </c>
       <c r="H65" t="n">
-        <v>9777.5</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2906,36 +2673,33 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>9820</v>
+        <v>9770</v>
       </c>
       <c r="C66" t="n">
-        <v>9825</v>
+        <v>9770</v>
       </c>
       <c r="D66" t="n">
-        <v>9825</v>
+        <v>9770</v>
       </c>
       <c r="E66" t="n">
-        <v>9820</v>
+        <v>9770</v>
       </c>
       <c r="F66" t="n">
-        <v>128.461</v>
+        <v>8.135199999999999</v>
       </c>
       <c r="G66" t="n">
-        <v>9775</v>
+        <v>-1555.730692195046</v>
       </c>
       <c r="H66" t="n">
-        <v>9777.583333333334</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2944,36 +2708,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>9805</v>
+        <v>9745</v>
       </c>
       <c r="C67" t="n">
-        <v>9805</v>
+        <v>9745</v>
       </c>
       <c r="D67" t="n">
-        <v>9805</v>
+        <v>9745</v>
       </c>
       <c r="E67" t="n">
-        <v>9805</v>
+        <v>9745</v>
       </c>
       <c r="F67" t="n">
-        <v>0.3029</v>
+        <v>11.573</v>
       </c>
       <c r="G67" t="n">
-        <v>9779.333333333334</v>
+        <v>-1567.303692195046</v>
       </c>
       <c r="H67" t="n">
-        <v>9777.166666666666</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2982,36 +2743,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>9825</v>
+        <v>9740</v>
       </c>
       <c r="C68" t="n">
-        <v>9825</v>
+        <v>9735</v>
       </c>
       <c r="D68" t="n">
-        <v>9825</v>
+        <v>9740</v>
       </c>
       <c r="E68" t="n">
-        <v>9825</v>
+        <v>9735</v>
       </c>
       <c r="F68" t="n">
-        <v>3.704</v>
+        <v>56.8512</v>
       </c>
       <c r="G68" t="n">
-        <v>9785</v>
+        <v>-1624.154892195046</v>
       </c>
       <c r="H68" t="n">
-        <v>9777.416666666666</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3020,36 +2778,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>9810</v>
+        <v>9735</v>
       </c>
       <c r="C69" t="n">
-        <v>9815</v>
+        <v>9735</v>
       </c>
       <c r="D69" t="n">
-        <v>9815</v>
+        <v>9735</v>
       </c>
       <c r="E69" t="n">
-        <v>9810</v>
+        <v>9735</v>
       </c>
       <c r="F69" t="n">
-        <v>60.845</v>
+        <v>4.7852</v>
       </c>
       <c r="G69" t="n">
-        <v>9789</v>
+        <v>-1624.154892195046</v>
       </c>
       <c r="H69" t="n">
-        <v>9777.166666666666</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3058,36 +2813,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>9820</v>
+        <v>9735</v>
       </c>
       <c r="C70" t="n">
-        <v>9825</v>
+        <v>9735</v>
       </c>
       <c r="D70" t="n">
-        <v>9825</v>
+        <v>9735</v>
       </c>
       <c r="E70" t="n">
-        <v>9820</v>
+        <v>9735</v>
       </c>
       <c r="F70" t="n">
-        <v>746.1</v>
+        <v>62.8512</v>
       </c>
       <c r="G70" t="n">
-        <v>9794.333333333334</v>
+        <v>-1624.154892195046</v>
       </c>
       <c r="H70" t="n">
-        <v>9777.083333333334</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3096,36 +2848,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>9820</v>
+        <v>9735</v>
       </c>
       <c r="C71" t="n">
-        <v>9820</v>
+        <v>9730</v>
       </c>
       <c r="D71" t="n">
-        <v>9820</v>
+        <v>9735</v>
       </c>
       <c r="E71" t="n">
-        <v>9820</v>
+        <v>9730</v>
       </c>
       <c r="F71" t="n">
-        <v>52.3079</v>
+        <v>14.8354</v>
       </c>
       <c r="G71" t="n">
-        <v>9798</v>
+        <v>-1638.990292195046</v>
       </c>
       <c r="H71" t="n">
-        <v>9777.25</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3134,36 +2883,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>9795</v>
+        <v>9730</v>
       </c>
       <c r="C72" t="n">
-        <v>9795</v>
+        <v>9745</v>
       </c>
       <c r="D72" t="n">
-        <v>9795</v>
+        <v>9760</v>
       </c>
       <c r="E72" t="n">
-        <v>9795</v>
+        <v>9720</v>
       </c>
       <c r="F72" t="n">
-        <v>35</v>
+        <v>81.7848</v>
       </c>
       <c r="G72" t="n">
-        <v>9802.333333333334</v>
+        <v>-1557.205492195046</v>
       </c>
       <c r="H72" t="n">
-        <v>9777.166666666666</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3172,36 +2918,33 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>9810</v>
+        <v>9760</v>
       </c>
       <c r="C73" t="n">
-        <v>9810</v>
+        <v>9760</v>
       </c>
       <c r="D73" t="n">
-        <v>9810</v>
+        <v>9760</v>
       </c>
       <c r="E73" t="n">
-        <v>9810</v>
+        <v>9760</v>
       </c>
       <c r="F73" t="n">
-        <v>8.4</v>
+        <v>0.1197</v>
       </c>
       <c r="G73" t="n">
-        <v>9805</v>
+        <v>-1557.085792195046</v>
       </c>
       <c r="H73" t="n">
-        <v>9777.333333333334</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3210,36 +2953,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>9790</v>
+        <v>9765</v>
       </c>
       <c r="C74" t="n">
-        <v>9790</v>
+        <v>9765</v>
       </c>
       <c r="D74" t="n">
-        <v>9790</v>
+        <v>9765</v>
       </c>
       <c r="E74" t="n">
-        <v>9790</v>
+        <v>9765</v>
       </c>
       <c r="F74" t="n">
-        <v>25.6125</v>
+        <v>9.434699999999999</v>
       </c>
       <c r="G74" t="n">
-        <v>9806.333333333334</v>
+        <v>-1547.651092195046</v>
       </c>
       <c r="H74" t="n">
-        <v>9776.75</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,36 +2988,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>9790</v>
+        <v>9730</v>
       </c>
       <c r="C75" t="n">
-        <v>9785</v>
+        <v>9765</v>
       </c>
       <c r="D75" t="n">
-        <v>9790</v>
+        <v>9765</v>
       </c>
       <c r="E75" t="n">
-        <v>9785</v>
+        <v>9700</v>
       </c>
       <c r="F75" t="n">
-        <v>50</v>
+        <v>540.5271</v>
       </c>
       <c r="G75" t="n">
-        <v>9806</v>
+        <v>-1547.651092195046</v>
       </c>
       <c r="H75" t="n">
-        <v>9776.166666666666</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>0</v>
+        <v>9765</v>
       </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3286,36 +3029,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>9820</v>
+        <v>9740</v>
       </c>
       <c r="C76" t="n">
-        <v>9820</v>
+        <v>9750</v>
       </c>
       <c r="D76" t="n">
-        <v>9820</v>
+        <v>9750</v>
       </c>
       <c r="E76" t="n">
-        <v>9820</v>
+        <v>9740</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1074</v>
+        <v>50</v>
       </c>
       <c r="G76" t="n">
-        <v>9808</v>
+        <v>-1597.651092195046</v>
       </c>
       <c r="H76" t="n">
-        <v>9776.5</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>0</v>
+        <v>9765</v>
       </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3324,36 +3070,37 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>9820</v>
+        <v>9715</v>
       </c>
       <c r="C77" t="n">
-        <v>9820</v>
+        <v>9710</v>
       </c>
       <c r="D77" t="n">
-        <v>9820</v>
+        <v>9715</v>
       </c>
       <c r="E77" t="n">
-        <v>9820</v>
+        <v>9710</v>
       </c>
       <c r="F77" t="n">
-        <v>0.5600000000000001</v>
+        <v>17.7465</v>
       </c>
       <c r="G77" t="n">
-        <v>9810</v>
+        <v>-1615.397592195046</v>
       </c>
       <c r="H77" t="n">
-        <v>9776.833333333334</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3362,36 +3109,37 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>9805</v>
+        <v>9715</v>
       </c>
       <c r="C78" t="n">
-        <v>9805</v>
+        <v>9715</v>
       </c>
       <c r="D78" t="n">
-        <v>9805</v>
+        <v>9715</v>
       </c>
       <c r="E78" t="n">
-        <v>9805</v>
+        <v>9715</v>
       </c>
       <c r="F78" t="n">
-        <v>6.8917</v>
+        <v>1</v>
       </c>
       <c r="G78" t="n">
-        <v>9810.333333333334</v>
+        <v>-1614.397592195046</v>
       </c>
       <c r="H78" t="n">
-        <v>9776.916666666666</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3400,36 +3148,37 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>9820</v>
+        <v>9735</v>
       </c>
       <c r="C79" t="n">
-        <v>9825</v>
+        <v>9740</v>
       </c>
       <c r="D79" t="n">
-        <v>9825</v>
+        <v>9740</v>
       </c>
       <c r="E79" t="n">
-        <v>9820</v>
+        <v>9735</v>
       </c>
       <c r="F79" t="n">
-        <v>34.98715954198473</v>
+        <v>50</v>
       </c>
       <c r="G79" t="n">
-        <v>9811.333333333334</v>
+        <v>-1564.397592195046</v>
       </c>
       <c r="H79" t="n">
-        <v>9777.333333333334</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3438,36 +3187,37 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>9825</v>
+        <v>9750</v>
       </c>
       <c r="C80" t="n">
-        <v>9825</v>
+        <v>9750</v>
       </c>
       <c r="D80" t="n">
-        <v>9825</v>
+        <v>9750</v>
       </c>
       <c r="E80" t="n">
-        <v>9825</v>
+        <v>9750</v>
       </c>
       <c r="F80" t="n">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="G80" t="n">
-        <v>9812.666666666666</v>
+        <v>-1564.297592195046</v>
       </c>
       <c r="H80" t="n">
-        <v>9777.75</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3476,36 +3226,37 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>9830</v>
+        <v>9740</v>
       </c>
       <c r="C81" t="n">
-        <v>9830</v>
+        <v>9740</v>
       </c>
       <c r="D81" t="n">
-        <v>9830</v>
+        <v>9740</v>
       </c>
       <c r="E81" t="n">
-        <v>9830</v>
+        <v>9740</v>
       </c>
       <c r="F81" t="n">
-        <v>6.248</v>
+        <v>6.2155</v>
       </c>
       <c r="G81" t="n">
-        <v>9813</v>
+        <v>-1570.513092195046</v>
       </c>
       <c r="H81" t="n">
-        <v>9778.25</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3514,36 +3265,37 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>9830</v>
+        <v>9740</v>
       </c>
       <c r="C82" t="n">
-        <v>9810</v>
+        <v>9740</v>
       </c>
       <c r="D82" t="n">
-        <v>9830</v>
+        <v>9740</v>
       </c>
       <c r="E82" t="n">
-        <v>9810</v>
+        <v>9740</v>
       </c>
       <c r="F82" t="n">
-        <v>12.1729</v>
+        <v>10.5956</v>
       </c>
       <c r="G82" t="n">
-        <v>9813.333333333334</v>
+        <v>-1570.513092195046</v>
       </c>
       <c r="H82" t="n">
-        <v>9778</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3552,36 +3304,37 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>9810</v>
+        <v>9755</v>
       </c>
       <c r="C83" t="n">
-        <v>9810</v>
+        <v>9755</v>
       </c>
       <c r="D83" t="n">
-        <v>9810</v>
+        <v>9755</v>
       </c>
       <c r="E83" t="n">
-        <v>9810</v>
+        <v>9755</v>
       </c>
       <c r="F83" t="n">
-        <v>8.147399999999999</v>
+        <v>2</v>
       </c>
       <c r="G83" t="n">
-        <v>9812.333333333334</v>
+        <v>-1568.513092195046</v>
       </c>
       <c r="H83" t="n">
-        <v>9778.166666666666</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3590,36 +3343,37 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>9830</v>
+        <v>9750</v>
       </c>
       <c r="C84" t="n">
-        <v>9830</v>
+        <v>9745</v>
       </c>
       <c r="D84" t="n">
-        <v>9830</v>
+        <v>9750</v>
       </c>
       <c r="E84" t="n">
-        <v>9830</v>
+        <v>9745</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1019</v>
+        <v>34.2553</v>
       </c>
       <c r="G84" t="n">
-        <v>9813.333333333334</v>
+        <v>-1602.768392195046</v>
       </c>
       <c r="H84" t="n">
-        <v>9778.333333333334</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3628,36 +3382,37 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>9830</v>
+        <v>9765</v>
       </c>
       <c r="C85" t="n">
-        <v>9835</v>
+        <v>9765</v>
       </c>
       <c r="D85" t="n">
-        <v>9835</v>
+        <v>9765</v>
       </c>
       <c r="E85" t="n">
-        <v>9830</v>
+        <v>9765</v>
       </c>
       <c r="F85" t="n">
-        <v>51.4655</v>
+        <v>0.1137</v>
       </c>
       <c r="G85" t="n">
-        <v>9814</v>
+        <v>-1602.654692195046</v>
       </c>
       <c r="H85" t="n">
-        <v>9778.833333333334</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3666,36 +3421,37 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>9835</v>
+        <v>9730</v>
       </c>
       <c r="C86" t="n">
-        <v>9835</v>
+        <v>9730</v>
       </c>
       <c r="D86" t="n">
-        <v>9835</v>
+        <v>9730</v>
       </c>
       <c r="E86" t="n">
-        <v>9835</v>
+        <v>9730</v>
       </c>
       <c r="F86" t="n">
-        <v>17.3</v>
+        <v>13</v>
       </c>
       <c r="G86" t="n">
-        <v>9815</v>
+        <v>-1615.654692195046</v>
       </c>
       <c r="H86" t="n">
-        <v>9779.416666666666</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3704,36 +3460,37 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>9835</v>
+        <v>9770</v>
       </c>
       <c r="C87" t="n">
-        <v>9835</v>
+        <v>9770</v>
       </c>
       <c r="D87" t="n">
-        <v>9835</v>
+        <v>9770</v>
       </c>
       <c r="E87" t="n">
-        <v>9835</v>
+        <v>9770</v>
       </c>
       <c r="F87" t="n">
-        <v>9.0861</v>
+        <v>1</v>
       </c>
       <c r="G87" t="n">
-        <v>9817.666666666666</v>
+        <v>-1614.654692195046</v>
       </c>
       <c r="H87" t="n">
-        <v>9780.666666666666</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3742,36 +3499,37 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>9820</v>
+        <v>9770</v>
       </c>
       <c r="C88" t="n">
-        <v>9820</v>
+        <v>9770</v>
       </c>
       <c r="D88" t="n">
-        <v>9820</v>
+        <v>9770</v>
       </c>
       <c r="E88" t="n">
-        <v>9820</v>
+        <v>9770</v>
       </c>
       <c r="F88" t="n">
-        <v>9.242800000000001</v>
+        <v>6.0177</v>
       </c>
       <c r="G88" t="n">
-        <v>9818.333333333334</v>
+        <v>-1614.654692195046</v>
       </c>
       <c r="H88" t="n">
-        <v>9781.416666666666</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3780,36 +3538,37 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>9835</v>
+        <v>9790</v>
       </c>
       <c r="C89" t="n">
-        <v>9820</v>
+        <v>9790</v>
       </c>
       <c r="D89" t="n">
-        <v>9835</v>
+        <v>9790</v>
       </c>
       <c r="E89" t="n">
-        <v>9820</v>
+        <v>9790</v>
       </c>
       <c r="F89" t="n">
-        <v>9.826000000000001</v>
+        <v>22.5957</v>
       </c>
       <c r="G89" t="n">
-        <v>9820.333333333334</v>
+        <v>-1592.058992195046</v>
       </c>
       <c r="H89" t="n">
-        <v>9782.75</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3818,36 +3577,37 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>9820</v>
+        <v>9790</v>
       </c>
       <c r="C90" t="n">
-        <v>9820</v>
+        <v>9790</v>
       </c>
       <c r="D90" t="n">
-        <v>9820</v>
+        <v>9790</v>
       </c>
       <c r="E90" t="n">
-        <v>9820</v>
+        <v>9790</v>
       </c>
       <c r="F90" t="n">
-        <v>8.147</v>
+        <v>23.197</v>
       </c>
       <c r="G90" t="n">
-        <v>9822.666666666666</v>
+        <v>-1592.058992195046</v>
       </c>
       <c r="H90" t="n">
-        <v>9783.5</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3856,36 +3616,37 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>9830</v>
+        <v>9790</v>
       </c>
       <c r="C91" t="n">
-        <v>9830</v>
+        <v>9790</v>
       </c>
       <c r="D91" t="n">
-        <v>9830</v>
+        <v>9790</v>
       </c>
       <c r="E91" t="n">
-        <v>9830</v>
+        <v>9790</v>
       </c>
       <c r="F91" t="n">
-        <v>13.0202</v>
+        <v>6.348</v>
       </c>
       <c r="G91" t="n">
-        <v>9823.333333333334</v>
+        <v>-1592.058992195046</v>
       </c>
       <c r="H91" t="n">
-        <v>9784.333333333334</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3894,36 +3655,37 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>9820</v>
+        <v>9790</v>
       </c>
       <c r="C92" t="n">
-        <v>9820</v>
+        <v>9800</v>
       </c>
       <c r="D92" t="n">
-        <v>9820</v>
+        <v>9800</v>
       </c>
       <c r="E92" t="n">
-        <v>9820</v>
+        <v>9790</v>
       </c>
       <c r="F92" t="n">
-        <v>27.8045</v>
+        <v>26.1783</v>
       </c>
       <c r="G92" t="n">
-        <v>9823.333333333334</v>
+        <v>-1565.880692195046</v>
       </c>
       <c r="H92" t="n">
-        <v>9785.166666666666</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3932,36 +3694,37 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>9820</v>
+        <v>9810</v>
       </c>
       <c r="C93" t="n">
-        <v>9820</v>
+        <v>9810</v>
       </c>
       <c r="D93" t="n">
-        <v>9820</v>
+        <v>9810</v>
       </c>
       <c r="E93" t="n">
-        <v>9820</v>
+        <v>9810</v>
       </c>
       <c r="F93" t="n">
-        <v>4.53</v>
+        <v>0.3029561671763507</v>
       </c>
       <c r="G93" t="n">
-        <v>9824.333333333334</v>
+        <v>-1565.57773602787</v>
       </c>
       <c r="H93" t="n">
-        <v>9786.166666666666</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3970,36 +3733,37 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>9820</v>
+        <v>9780</v>
       </c>
       <c r="C94" t="n">
-        <v>9820</v>
+        <v>9805</v>
       </c>
       <c r="D94" t="n">
-        <v>9820</v>
+        <v>9805</v>
       </c>
       <c r="E94" t="n">
-        <v>9820</v>
+        <v>9775</v>
       </c>
       <c r="F94" t="n">
-        <v>7.5386</v>
+        <v>85.62260000000001</v>
       </c>
       <c r="G94" t="n">
-        <v>9824</v>
+        <v>-1651.20033602787</v>
       </c>
       <c r="H94" t="n">
-        <v>9787</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4008,36 +3772,37 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>9830</v>
+        <v>9820</v>
       </c>
       <c r="C95" t="n">
-        <v>9835</v>
+        <v>9825</v>
       </c>
       <c r="D95" t="n">
-        <v>9835</v>
+        <v>9825</v>
       </c>
       <c r="E95" t="n">
-        <v>9830</v>
+        <v>9820</v>
       </c>
       <c r="F95" t="n">
-        <v>59.8086</v>
+        <v>128.461</v>
       </c>
       <c r="G95" t="n">
-        <v>9824.666666666666</v>
+        <v>-1522.73933602787</v>
       </c>
       <c r="H95" t="n">
-        <v>9788.083333333334</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4046,36 +3811,37 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>9835</v>
+        <v>9805</v>
       </c>
       <c r="C96" t="n">
-        <v>9835</v>
+        <v>9805</v>
       </c>
       <c r="D96" t="n">
-        <v>9835</v>
+        <v>9805</v>
       </c>
       <c r="E96" t="n">
-        <v>9835</v>
+        <v>9805</v>
       </c>
       <c r="F96" t="n">
-        <v>7.2139</v>
+        <v>0.3029</v>
       </c>
       <c r="G96" t="n">
-        <v>9825</v>
+        <v>-1523.04223602787</v>
       </c>
       <c r="H96" t="n">
-        <v>9789.083333333334</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4084,36 +3850,37 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>9835</v>
+        <v>9825</v>
       </c>
       <c r="C97" t="n">
-        <v>9835</v>
+        <v>9825</v>
       </c>
       <c r="D97" t="n">
-        <v>9835</v>
+        <v>9825</v>
       </c>
       <c r="E97" t="n">
-        <v>9835</v>
+        <v>9825</v>
       </c>
       <c r="F97" t="n">
-        <v>73.9371</v>
+        <v>3.704</v>
       </c>
       <c r="G97" t="n">
-        <v>9826.666666666666</v>
+        <v>-1519.33823602787</v>
       </c>
       <c r="H97" t="n">
-        <v>9790.166666666666</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4122,36 +3889,37 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>9840</v>
+        <v>9810</v>
       </c>
       <c r="C98" t="n">
-        <v>9840</v>
+        <v>9815</v>
       </c>
       <c r="D98" t="n">
-        <v>9840</v>
+        <v>9815</v>
       </c>
       <c r="E98" t="n">
-        <v>9840</v>
+        <v>9810</v>
       </c>
       <c r="F98" t="n">
-        <v>11.037</v>
+        <v>60.845</v>
       </c>
       <c r="G98" t="n">
-        <v>9828.666666666666</v>
+        <v>-1580.18323602787</v>
       </c>
       <c r="H98" t="n">
-        <v>9791.75</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4160,36 +3928,37 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>9835</v>
+        <v>9820</v>
       </c>
       <c r="C99" t="n">
-        <v>9840</v>
+        <v>9825</v>
       </c>
       <c r="D99" t="n">
-        <v>9840</v>
+        <v>9825</v>
       </c>
       <c r="E99" t="n">
-        <v>9835</v>
+        <v>9820</v>
       </c>
       <c r="F99" t="n">
-        <v>119.8529</v>
+        <v>746.1</v>
       </c>
       <c r="G99" t="n">
-        <v>9829.333333333334</v>
+        <v>-834.0832360278697</v>
       </c>
       <c r="H99" t="n">
-        <v>9793.5</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4198,36 +3967,37 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>9835</v>
+        <v>9820</v>
       </c>
       <c r="C100" t="n">
-        <v>9835</v>
+        <v>9820</v>
       </c>
       <c r="D100" t="n">
-        <v>9835</v>
+        <v>9820</v>
       </c>
       <c r="E100" t="n">
-        <v>9835</v>
+        <v>9820</v>
       </c>
       <c r="F100" t="n">
-        <v>34</v>
+        <v>52.3079</v>
       </c>
       <c r="G100" t="n">
-        <v>9829.333333333334</v>
+        <v>-886.3911360278697</v>
       </c>
       <c r="H100" t="n">
-        <v>9795.166666666666</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4236,36 +4006,37 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>9805</v>
+        <v>9795</v>
       </c>
       <c r="C101" t="n">
-        <v>9805</v>
+        <v>9795</v>
       </c>
       <c r="D101" t="n">
-        <v>9805</v>
+        <v>9795</v>
       </c>
       <c r="E101" t="n">
-        <v>9805</v>
+        <v>9795</v>
       </c>
       <c r="F101" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="G101" t="n">
-        <v>9827.333333333334</v>
+        <v>-921.3911360278697</v>
       </c>
       <c r="H101" t="n">
-        <v>9796.333333333334</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4274,36 +4045,37 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>9805</v>
+        <v>9810</v>
       </c>
       <c r="C102" t="n">
-        <v>9800</v>
+        <v>9810</v>
       </c>
       <c r="D102" t="n">
-        <v>9805</v>
+        <v>9810</v>
       </c>
       <c r="E102" t="n">
-        <v>9800</v>
+        <v>9810</v>
       </c>
       <c r="F102" t="n">
-        <v>48.0666</v>
+        <v>8.4</v>
       </c>
       <c r="G102" t="n">
-        <v>9825</v>
+        <v>-912.9911360278697</v>
       </c>
       <c r="H102" t="n">
-        <v>9797.5</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4312,36 +4084,37 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>9800</v>
+        <v>9790</v>
       </c>
       <c r="C103" t="n">
-        <v>9800</v>
+        <v>9790</v>
       </c>
       <c r="D103" t="n">
-        <v>9800</v>
+        <v>9790</v>
       </c>
       <c r="E103" t="n">
-        <v>9800</v>
+        <v>9790</v>
       </c>
       <c r="F103" t="n">
-        <v>1</v>
+        <v>25.6125</v>
       </c>
       <c r="G103" t="n">
-        <v>9823.666666666666</v>
+        <v>-938.6036360278697</v>
       </c>
       <c r="H103" t="n">
-        <v>9798.416666666666</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4350,36 +4123,37 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>9800</v>
+        <v>9790</v>
       </c>
       <c r="C104" t="n">
-        <v>9800</v>
+        <v>9785</v>
       </c>
       <c r="D104" t="n">
-        <v>9800</v>
+        <v>9790</v>
       </c>
       <c r="E104" t="n">
-        <v>9800</v>
+        <v>9785</v>
       </c>
       <c r="F104" t="n">
-        <v>53.2056</v>
+        <v>50</v>
       </c>
       <c r="G104" t="n">
-        <v>9822.333333333334</v>
+        <v>-988.6036360278697</v>
       </c>
       <c r="H104" t="n">
-        <v>9799.083333333334</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4388,36 +4162,37 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>9765</v>
+        <v>9820</v>
       </c>
       <c r="C105" t="n">
-        <v>9735</v>
+        <v>9820</v>
       </c>
       <c r="D105" t="n">
-        <v>9765</v>
+        <v>9820</v>
       </c>
       <c r="E105" t="n">
-        <v>9735</v>
+        <v>9820</v>
       </c>
       <c r="F105" t="n">
-        <v>424.407</v>
+        <v>0.1074</v>
       </c>
       <c r="G105" t="n">
-        <v>9816.666666666666</v>
+        <v>-988.4962360278697</v>
       </c>
       <c r="H105" t="n">
-        <v>9798.583333333334</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4426,36 +4201,37 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>9785</v>
+        <v>9820</v>
       </c>
       <c r="C106" t="n">
-        <v>9785</v>
+        <v>9820</v>
       </c>
       <c r="D106" t="n">
-        <v>9785</v>
+        <v>9820</v>
       </c>
       <c r="E106" t="n">
-        <v>9785</v>
+        <v>9820</v>
       </c>
       <c r="F106" t="n">
-        <v>6.4606</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G106" t="n">
-        <v>9813.666666666666</v>
+        <v>-988.4962360278697</v>
       </c>
       <c r="H106" t="n">
-        <v>9798.916666666666</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4464,36 +4240,37 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>9790</v>
+        <v>9805</v>
       </c>
       <c r="C107" t="n">
-        <v>9795</v>
+        <v>9805</v>
       </c>
       <c r="D107" t="n">
-        <v>9795</v>
+        <v>9805</v>
       </c>
       <c r="E107" t="n">
-        <v>9790</v>
+        <v>9805</v>
       </c>
       <c r="F107" t="n">
-        <v>9.99732133741705</v>
+        <v>6.8917</v>
       </c>
       <c r="G107" t="n">
-        <v>9812</v>
+        <v>-995.3879360278697</v>
       </c>
       <c r="H107" t="n">
-        <v>9799.666666666666</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4502,36 +4279,37 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>9775</v>
+        <v>9820</v>
       </c>
       <c r="C108" t="n">
-        <v>9775</v>
+        <v>9825</v>
       </c>
       <c r="D108" t="n">
-        <v>9775</v>
+        <v>9825</v>
       </c>
       <c r="E108" t="n">
-        <v>9775</v>
+        <v>9820</v>
       </c>
       <c r="F108" t="n">
-        <v>3.6579</v>
+        <v>34.98715954198473</v>
       </c>
       <c r="G108" t="n">
-        <v>9809</v>
+        <v>-960.400776485885</v>
       </c>
       <c r="H108" t="n">
-        <v>9800.75</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4540,36 +4318,37 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>9730</v>
+        <v>9825</v>
       </c>
       <c r="C109" t="n">
-        <v>9730</v>
+        <v>9825</v>
       </c>
       <c r="D109" t="n">
-        <v>9730</v>
+        <v>9825</v>
       </c>
       <c r="E109" t="n">
-        <v>9730</v>
+        <v>9825</v>
       </c>
       <c r="F109" t="n">
-        <v>27.2554</v>
+        <v>10</v>
       </c>
       <c r="G109" t="n">
-        <v>9803</v>
+        <v>-960.400776485885</v>
       </c>
       <c r="H109" t="n">
-        <v>9801</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,36 +4357,37 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>9730</v>
+        <v>9830</v>
       </c>
       <c r="C110" t="n">
-        <v>9730</v>
+        <v>9830</v>
       </c>
       <c r="D110" t="n">
-        <v>9730</v>
+        <v>9830</v>
       </c>
       <c r="E110" t="n">
-        <v>9730</v>
+        <v>9830</v>
       </c>
       <c r="F110" t="n">
-        <v>1.1</v>
+        <v>6.248</v>
       </c>
       <c r="G110" t="n">
-        <v>9796</v>
+        <v>-954.1527764858849</v>
       </c>
       <c r="H110" t="n">
-        <v>9800.833333333334</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4616,36 +4396,37 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>9720</v>
+        <v>9830</v>
       </c>
       <c r="C111" t="n">
-        <v>9745</v>
+        <v>9810</v>
       </c>
       <c r="D111" t="n">
-        <v>9745</v>
+        <v>9830</v>
       </c>
       <c r="E111" t="n">
-        <v>9720</v>
+        <v>9810</v>
       </c>
       <c r="F111" t="n">
-        <v>21.5611</v>
+        <v>12.1729</v>
       </c>
       <c r="G111" t="n">
-        <v>9790</v>
+        <v>-966.325676485885</v>
       </c>
       <c r="H111" t="n">
-        <v>9800.75</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4654,40 +4435,37 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>9760</v>
+        <v>9810</v>
       </c>
       <c r="C112" t="n">
-        <v>9775</v>
+        <v>9810</v>
       </c>
       <c r="D112" t="n">
-        <v>9775</v>
+        <v>9810</v>
       </c>
       <c r="E112" t="n">
-        <v>9760</v>
+        <v>9810</v>
       </c>
       <c r="F112" t="n">
-        <v>29.6403</v>
+        <v>8.147399999999999</v>
       </c>
       <c r="G112" t="n">
-        <v>9786</v>
+        <v>-966.325676485885</v>
       </c>
       <c r="H112" t="n">
-        <v>9801.333333333334</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
-      </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
-      <c r="K112" t="n">
-        <v>9745</v>
-      </c>
-      <c r="L112" t="n">
-        <v>9745</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4696,44 +4474,37 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>9725</v>
+        <v>9830</v>
       </c>
       <c r="C113" t="n">
-        <v>9720</v>
+        <v>9830</v>
       </c>
       <c r="D113" t="n">
-        <v>9725</v>
+        <v>9830</v>
       </c>
       <c r="E113" t="n">
-        <v>9720</v>
+        <v>9830</v>
       </c>
       <c r="F113" t="n">
-        <v>96.98260000000001</v>
+        <v>0.1019</v>
       </c>
       <c r="G113" t="n">
-        <v>9778</v>
+        <v>-966.223776485885</v>
       </c>
       <c r="H113" t="n">
-        <v>9801</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
-      </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
-      <c r="K113" t="n">
-        <v>9775</v>
-      </c>
-      <c r="L113" t="n">
-        <v>9745</v>
-      </c>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4742,44 +4513,37 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>9720</v>
+        <v>9830</v>
       </c>
       <c r="C114" t="n">
-        <v>9720</v>
+        <v>9835</v>
       </c>
       <c r="D114" t="n">
-        <v>9720</v>
+        <v>9835</v>
       </c>
       <c r="E114" t="n">
-        <v>9720</v>
+        <v>9830</v>
       </c>
       <c r="F114" t="n">
-        <v>33.915</v>
+        <v>51.4655</v>
       </c>
       <c r="G114" t="n">
-        <v>9770</v>
+        <v>-914.7582764858849</v>
       </c>
       <c r="H114" t="n">
-        <v>9800.416666666666</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
-      </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
-      <c r="K114" t="n">
-        <v>9720</v>
-      </c>
-      <c r="L114" t="n">
-        <v>9745</v>
-      </c>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4788,44 +4552,37 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>9780</v>
+        <v>9835</v>
       </c>
       <c r="C115" t="n">
-        <v>9780</v>
+        <v>9835</v>
       </c>
       <c r="D115" t="n">
-        <v>9780</v>
+        <v>9835</v>
       </c>
       <c r="E115" t="n">
-        <v>9780</v>
+        <v>9835</v>
       </c>
       <c r="F115" t="n">
-        <v>0.1</v>
+        <v>17.3</v>
       </c>
       <c r="G115" t="n">
-        <v>9766.333333333334</v>
+        <v>-914.7582764858849</v>
       </c>
       <c r="H115" t="n">
-        <v>9801</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
-      </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
-      <c r="K115" t="n">
-        <v>9720</v>
-      </c>
-      <c r="L115" t="n">
-        <v>9745</v>
-      </c>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4834,44 +4591,37 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>9775</v>
+        <v>9835</v>
       </c>
       <c r="C116" t="n">
-        <v>9775</v>
+        <v>9835</v>
       </c>
       <c r="D116" t="n">
-        <v>9775</v>
+        <v>9835</v>
       </c>
       <c r="E116" t="n">
-        <v>9775</v>
+        <v>9835</v>
       </c>
       <c r="F116" t="n">
-        <v>0.1</v>
+        <v>9.0861</v>
       </c>
       <c r="G116" t="n">
-        <v>9764.333333333334</v>
+        <v>-914.7582764858849</v>
       </c>
       <c r="H116" t="n">
-        <v>9801.166666666666</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
-      </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
-      <c r="K116" t="n">
-        <v>9780</v>
-      </c>
-      <c r="L116" t="n">
-        <v>9745</v>
-      </c>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4880,42 +4630,37 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>9775</v>
+        <v>9820</v>
       </c>
       <c r="C117" t="n">
-        <v>9775</v>
+        <v>9820</v>
       </c>
       <c r="D117" t="n">
-        <v>9775</v>
+        <v>9820</v>
       </c>
       <c r="E117" t="n">
-        <v>9775</v>
+        <v>9820</v>
       </c>
       <c r="F117" t="n">
-        <v>49.9999</v>
+        <v>9.242800000000001</v>
       </c>
       <c r="G117" t="n">
-        <v>9762.666666666666</v>
+        <v>-924.0010764858849</v>
       </c>
       <c r="H117" t="n">
-        <v>9801.916666666666</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>9745</v>
-      </c>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N117" t="n">
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4924,42 +4669,37 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>9730</v>
+        <v>9835</v>
       </c>
       <c r="C118" t="n">
-        <v>9730</v>
+        <v>9820</v>
       </c>
       <c r="D118" t="n">
-        <v>9730</v>
+        <v>9835</v>
       </c>
       <c r="E118" t="n">
-        <v>9730</v>
+        <v>9820</v>
       </c>
       <c r="F118" t="n">
-        <v>1.1642</v>
+        <v>9.826000000000001</v>
       </c>
       <c r="G118" t="n">
-        <v>9758</v>
+        <v>-924.0010764858849</v>
       </c>
       <c r="H118" t="n">
-        <v>9801.25</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>9745</v>
-      </c>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N118" t="n">
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4968,44 +4708,37 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>9775</v>
+        <v>9820</v>
       </c>
       <c r="C119" t="n">
-        <v>9785</v>
+        <v>9820</v>
       </c>
       <c r="D119" t="n">
-        <v>9785</v>
+        <v>9820</v>
       </c>
       <c r="E119" t="n">
-        <v>9775</v>
+        <v>9820</v>
       </c>
       <c r="F119" t="n">
-        <v>102.2360879918242</v>
+        <v>8.147</v>
       </c>
       <c r="G119" t="n">
-        <v>9757</v>
+        <v>-924.0010764858849</v>
       </c>
       <c r="H119" t="n">
-        <v>9801.5</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
-      </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
-      <c r="K119" t="n">
-        <v>9730</v>
-      </c>
-      <c r="L119" t="n">
-        <v>9745</v>
-      </c>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5014,44 +4747,37 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>9720</v>
+        <v>9830</v>
       </c>
       <c r="C120" t="n">
-        <v>9720</v>
+        <v>9830</v>
       </c>
       <c r="D120" t="n">
-        <v>9720</v>
+        <v>9830</v>
       </c>
       <c r="E120" t="n">
-        <v>9720</v>
+        <v>9830</v>
       </c>
       <c r="F120" t="n">
-        <v>2.1902</v>
+        <v>13.0202</v>
       </c>
       <c r="G120" t="n">
-        <v>9756</v>
+        <v>-910.9808764858849</v>
       </c>
       <c r="H120" t="n">
-        <v>9800.333333333334</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
-      </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
-      <c r="K120" t="n">
-        <v>9785</v>
-      </c>
-      <c r="L120" t="n">
-        <v>9745</v>
-      </c>
-      <c r="M120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5060,44 +4786,37 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>9700</v>
+        <v>9820</v>
       </c>
       <c r="C121" t="n">
-        <v>9700</v>
+        <v>9820</v>
       </c>
       <c r="D121" t="n">
-        <v>9700</v>
+        <v>9820</v>
       </c>
       <c r="E121" t="n">
-        <v>9700</v>
+        <v>9820</v>
       </c>
       <c r="F121" t="n">
-        <v>61.2007</v>
+        <v>27.8045</v>
       </c>
       <c r="G121" t="n">
-        <v>9750.333333333334</v>
+        <v>-938.7853764858849</v>
       </c>
       <c r="H121" t="n">
-        <v>9798.833333333334</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
-      </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
-      <c r="K121" t="n">
-        <v>9720</v>
-      </c>
-      <c r="L121" t="n">
-        <v>9745</v>
-      </c>
-      <c r="M121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5106,44 +4825,37 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>9700</v>
+        <v>9820</v>
       </c>
       <c r="C122" t="n">
-        <v>9700</v>
+        <v>9820</v>
       </c>
       <c r="D122" t="n">
-        <v>9700</v>
+        <v>9820</v>
       </c>
       <c r="E122" t="n">
-        <v>9700</v>
+        <v>9820</v>
       </c>
       <c r="F122" t="n">
-        <v>35.3545</v>
+        <v>4.53</v>
       </c>
       <c r="G122" t="n">
-        <v>9744</v>
+        <v>-938.7853764858849</v>
       </c>
       <c r="H122" t="n">
-        <v>9797.333333333334</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
-      </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
-      <c r="K122" t="n">
-        <v>9700</v>
-      </c>
-      <c r="L122" t="n">
-        <v>9745</v>
-      </c>
-      <c r="M122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5152,44 +4864,37 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>9700</v>
+        <v>9820</v>
       </c>
       <c r="C123" t="n">
-        <v>9700</v>
+        <v>9820</v>
       </c>
       <c r="D123" t="n">
-        <v>9700</v>
+        <v>9820</v>
       </c>
       <c r="E123" t="n">
-        <v>9700</v>
+        <v>9820</v>
       </c>
       <c r="F123" t="n">
-        <v>17.8801</v>
+        <v>7.5386</v>
       </c>
       <c r="G123" t="n">
-        <v>9739</v>
+        <v>-938.7853764858849</v>
       </c>
       <c r="H123" t="n">
-        <v>9795.666666666666</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
-      </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
-      <c r="K123" t="n">
-        <v>9700</v>
-      </c>
-      <c r="L123" t="n">
-        <v>9745</v>
-      </c>
-      <c r="M123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5198,44 +4903,1186 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
+        <v>9830</v>
+      </c>
+      <c r="C124" t="n">
+        <v>9835</v>
+      </c>
+      <c r="D124" t="n">
+        <v>9835</v>
+      </c>
+      <c r="E124" t="n">
+        <v>9830</v>
+      </c>
+      <c r="F124" t="n">
+        <v>59.8086</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-878.9767764858849</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>9835</v>
+      </c>
+      <c r="C125" t="n">
+        <v>9835</v>
+      </c>
+      <c r="D125" t="n">
+        <v>9835</v>
+      </c>
+      <c r="E125" t="n">
+        <v>9835</v>
+      </c>
+      <c r="F125" t="n">
+        <v>7.2139</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-878.9767764858849</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>9835</v>
+      </c>
+      <c r="C126" t="n">
+        <v>9835</v>
+      </c>
+      <c r="D126" t="n">
+        <v>9835</v>
+      </c>
+      <c r="E126" t="n">
+        <v>9835</v>
+      </c>
+      <c r="F126" t="n">
+        <v>73.9371</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-878.9767764858849</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>9840</v>
+      </c>
+      <c r="C127" t="n">
+        <v>9840</v>
+      </c>
+      <c r="D127" t="n">
+        <v>9840</v>
+      </c>
+      <c r="E127" t="n">
+        <v>9840</v>
+      </c>
+      <c r="F127" t="n">
+        <v>11.037</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-867.9397764858849</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>9835</v>
+      </c>
+      <c r="C128" t="n">
+        <v>9840</v>
+      </c>
+      <c r="D128" t="n">
+        <v>9840</v>
+      </c>
+      <c r="E128" t="n">
+        <v>9835</v>
+      </c>
+      <c r="F128" t="n">
+        <v>119.8529</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-867.9397764858849</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>9835</v>
+      </c>
+      <c r="C129" t="n">
+        <v>9835</v>
+      </c>
+      <c r="D129" t="n">
+        <v>9835</v>
+      </c>
+      <c r="E129" t="n">
+        <v>9835</v>
+      </c>
+      <c r="F129" t="n">
+        <v>34</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-901.9397764858849</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>9805</v>
+      </c>
+      <c r="C130" t="n">
+        <v>9805</v>
+      </c>
+      <c r="D130" t="n">
+        <v>9805</v>
+      </c>
+      <c r="E130" t="n">
+        <v>9805</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-902.9397764858849</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>9805</v>
+      </c>
+      <c r="C131" t="n">
+        <v>9800</v>
+      </c>
+      <c r="D131" t="n">
+        <v>9805</v>
+      </c>
+      <c r="E131" t="n">
+        <v>9800</v>
+      </c>
+      <c r="F131" t="n">
+        <v>48.0666</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-951.0063764858849</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>9800</v>
+      </c>
+      <c r="C132" t="n">
+        <v>9800</v>
+      </c>
+      <c r="D132" t="n">
+        <v>9800</v>
+      </c>
+      <c r="E132" t="n">
+        <v>9800</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-951.0063764858849</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>9800</v>
+      </c>
+      <c r="C133" t="n">
+        <v>9800</v>
+      </c>
+      <c r="D133" t="n">
+        <v>9800</v>
+      </c>
+      <c r="E133" t="n">
+        <v>9800</v>
+      </c>
+      <c r="F133" t="n">
+        <v>53.2056</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-951.0063764858849</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>9765</v>
+      </c>
+      <c r="C134" t="n">
+        <v>9735</v>
+      </c>
+      <c r="D134" t="n">
+        <v>9765</v>
+      </c>
+      <c r="E134" t="n">
+        <v>9735</v>
+      </c>
+      <c r="F134" t="n">
+        <v>424.407</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-1375.413376485885</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>9785</v>
+      </c>
+      <c r="C135" t="n">
+        <v>9785</v>
+      </c>
+      <c r="D135" t="n">
+        <v>9785</v>
+      </c>
+      <c r="E135" t="n">
+        <v>9785</v>
+      </c>
+      <c r="F135" t="n">
+        <v>6.4606</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-1368.952776485885</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>9790</v>
+      </c>
+      <c r="C136" t="n">
+        <v>9795</v>
+      </c>
+      <c r="D136" t="n">
+        <v>9795</v>
+      </c>
+      <c r="E136" t="n">
+        <v>9790</v>
+      </c>
+      <c r="F136" t="n">
+        <v>9.99732133741705</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-1358.955455148468</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>9775</v>
+      </c>
+      <c r="C137" t="n">
+        <v>9775</v>
+      </c>
+      <c r="D137" t="n">
+        <v>9775</v>
+      </c>
+      <c r="E137" t="n">
+        <v>9775</v>
+      </c>
+      <c r="F137" t="n">
+        <v>3.6579</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-1362.613355148467</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>9730</v>
+      </c>
+      <c r="C138" t="n">
+        <v>9730</v>
+      </c>
+      <c r="D138" t="n">
+        <v>9730</v>
+      </c>
+      <c r="E138" t="n">
+        <v>9730</v>
+      </c>
+      <c r="F138" t="n">
+        <v>27.2554</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-1389.868755148467</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>9730</v>
+      </c>
+      <c r="C139" t="n">
+        <v>9730</v>
+      </c>
+      <c r="D139" t="n">
+        <v>9730</v>
+      </c>
+      <c r="E139" t="n">
+        <v>9730</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-1389.868755148467</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>9730</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>9720</v>
+      </c>
+      <c r="C140" t="n">
+        <v>9745</v>
+      </c>
+      <c r="D140" t="n">
+        <v>9745</v>
+      </c>
+      <c r="E140" t="n">
+        <v>9720</v>
+      </c>
+      <c r="F140" t="n">
+        <v>21.5611</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-1368.307655148468</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>9730</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>9760</v>
+      </c>
+      <c r="C141" t="n">
+        <v>9775</v>
+      </c>
+      <c r="D141" t="n">
+        <v>9775</v>
+      </c>
+      <c r="E141" t="n">
+        <v>9760</v>
+      </c>
+      <c r="F141" t="n">
+        <v>29.6403</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-1338.667355148468</v>
+      </c>
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>9745</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>9725</v>
+      </c>
+      <c r="C142" t="n">
+        <v>9720</v>
+      </c>
+      <c r="D142" t="n">
+        <v>9725</v>
+      </c>
+      <c r="E142" t="n">
+        <v>9720</v>
+      </c>
+      <c r="F142" t="n">
+        <v>96.98260000000001</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-1435.649955148468</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>9775</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>9720</v>
+      </c>
+      <c r="C143" t="n">
+        <v>9720</v>
+      </c>
+      <c r="D143" t="n">
+        <v>9720</v>
+      </c>
+      <c r="E143" t="n">
+        <v>9720</v>
+      </c>
+      <c r="F143" t="n">
+        <v>33.915</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-1435.649955148468</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>9720</v>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>9780</v>
+      </c>
+      <c r="C144" t="n">
+        <v>9780</v>
+      </c>
+      <c r="D144" t="n">
+        <v>9780</v>
+      </c>
+      <c r="E144" t="n">
+        <v>9780</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-1435.549955148468</v>
+      </c>
+      <c r="H144" t="n">
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>9720</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>9775</v>
+      </c>
+      <c r="C145" t="n">
+        <v>9775</v>
+      </c>
+      <c r="D145" t="n">
+        <v>9775</v>
+      </c>
+      <c r="E145" t="n">
+        <v>9775</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-1435.649955148468</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>9775</v>
+      </c>
+      <c r="C146" t="n">
+        <v>9775</v>
+      </c>
+      <c r="D146" t="n">
+        <v>9775</v>
+      </c>
+      <c r="E146" t="n">
+        <v>9775</v>
+      </c>
+      <c r="F146" t="n">
+        <v>49.9999</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-1435.649955148468</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>9730</v>
+      </c>
+      <c r="C147" t="n">
+        <v>9730</v>
+      </c>
+      <c r="D147" t="n">
+        <v>9730</v>
+      </c>
+      <c r="E147" t="n">
+        <v>9730</v>
+      </c>
+      <c r="F147" t="n">
+        <v>1.1642</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-1436.814155148468</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>9775</v>
+      </c>
+      <c r="C148" t="n">
+        <v>9785</v>
+      </c>
+      <c r="D148" t="n">
+        <v>9785</v>
+      </c>
+      <c r="E148" t="n">
+        <v>9775</v>
+      </c>
+      <c r="F148" t="n">
+        <v>102.2360879918242</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-1334.578067156643</v>
+      </c>
+      <c r="H148" t="n">
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>9730</v>
+      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>9720</v>
+      </c>
+      <c r="C149" t="n">
+        <v>9720</v>
+      </c>
+      <c r="D149" t="n">
+        <v>9720</v>
+      </c>
+      <c r="E149" t="n">
+        <v>9720</v>
+      </c>
+      <c r="F149" t="n">
+        <v>2.1902</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-1336.768267156643</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>9700</v>
+      </c>
+      <c r="C150" t="n">
+        <v>9700</v>
+      </c>
+      <c r="D150" t="n">
+        <v>9700</v>
+      </c>
+      <c r="E150" t="n">
+        <v>9700</v>
+      </c>
+      <c r="F150" t="n">
+        <v>61.2007</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-1397.968967156643</v>
+      </c>
+      <c r="H150" t="n">
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>9720</v>
+      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>9700</v>
+      </c>
+      <c r="C151" t="n">
+        <v>9700</v>
+      </c>
+      <c r="D151" t="n">
+        <v>9700</v>
+      </c>
+      <c r="E151" t="n">
+        <v>9700</v>
+      </c>
+      <c r="F151" t="n">
+        <v>35.3545</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-1397.968967156643</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>9700</v>
+      </c>
+      <c r="C152" t="n">
+        <v>9700</v>
+      </c>
+      <c r="D152" t="n">
+        <v>9700</v>
+      </c>
+      <c r="E152" t="n">
+        <v>9700</v>
+      </c>
+      <c r="F152" t="n">
+        <v>17.8801</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-1397.968967156643</v>
+      </c>
+      <c r="H152" t="n">
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>9700</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
         <v>9695</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C153" t="n">
         <v>9695</v>
       </c>
-      <c r="D124" t="n">
+      <c r="D153" t="n">
         <v>9695</v>
       </c>
-      <c r="E124" t="n">
+      <c r="E153" t="n">
         <v>9695</v>
       </c>
-      <c r="F124" t="n">
+      <c r="F153" t="n">
         <v>7.0939</v>
       </c>
-      <c r="G124" t="n">
-        <v>9736.666666666666</v>
-      </c>
-      <c r="H124" t="n">
-        <v>9793.75</v>
-      </c>
-      <c r="I124" t="n">
-        <v>1</v>
-      </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
-      <c r="K124" t="n">
-        <v>9700</v>
-      </c>
-      <c r="L124" t="n">
-        <v>9745</v>
-      </c>
-      <c r="M124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N124" t="n">
+      <c r="G153" t="n">
+        <v>-1405.062867156644</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-19 BackTest REP.xlsx
+++ b/BackTest/2019-10-19 BackTest REP.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M153"/>
+  <dimension ref="A1:N111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9810</v>
+        <v>9820</v>
       </c>
       <c r="C2" t="n">
-        <v>9810</v>
+        <v>9820</v>
       </c>
       <c r="D2" t="n">
-        <v>9810</v>
+        <v>9820</v>
       </c>
       <c r="E2" t="n">
-        <v>9810</v>
+        <v>9820</v>
       </c>
       <c r="F2" t="n">
-        <v>35</v>
+        <v>0.1</v>
       </c>
       <c r="G2" t="n">
-        <v>-429.9479326530613</v>
+        <v>-958.0990326530614</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9810</v>
+        <v>9800</v>
       </c>
       <c r="C3" t="n">
-        <v>9810</v>
+        <v>9800</v>
       </c>
       <c r="D3" t="n">
-        <v>9810</v>
+        <v>9800</v>
       </c>
       <c r="E3" t="n">
-        <v>9810</v>
+        <v>9800</v>
       </c>
       <c r="F3" t="n">
-        <v>28.5821</v>
+        <v>61.7474</v>
       </c>
       <c r="G3" t="n">
-        <v>-429.9479326530613</v>
+        <v>-1019.846432653061</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,34 +503,35 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9810</v>
+        <v>9800</v>
       </c>
       <c r="C4" t="n">
-        <v>9810</v>
+        <v>9800</v>
       </c>
       <c r="D4" t="n">
-        <v>9810</v>
+        <v>9800</v>
       </c>
       <c r="E4" t="n">
-        <v>9810</v>
+        <v>9800</v>
       </c>
       <c r="F4" t="n">
-        <v>15</v>
+        <v>21.475</v>
       </c>
       <c r="G4" t="n">
-        <v>-429.9479326530613</v>
+        <v>-1019.846432653061</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -532,34 +539,35 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9810</v>
+        <v>9800</v>
       </c>
       <c r="C5" t="n">
-        <v>9810</v>
+        <v>9800</v>
       </c>
       <c r="D5" t="n">
-        <v>9810</v>
+        <v>9800</v>
       </c>
       <c r="E5" t="n">
-        <v>9810</v>
+        <v>9800</v>
       </c>
       <c r="F5" t="n">
-        <v>4.38</v>
+        <v>5.7422</v>
       </c>
       <c r="G5" t="n">
-        <v>-429.9479326530613</v>
+        <v>-1019.846432653061</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9810</v>
+        <v>9800</v>
       </c>
       <c r="C6" t="n">
-        <v>9810</v>
+        <v>9800</v>
       </c>
       <c r="D6" t="n">
-        <v>9810</v>
+        <v>9800</v>
       </c>
       <c r="E6" t="n">
-        <v>9810</v>
+        <v>9800</v>
       </c>
       <c r="F6" t="n">
-        <v>12.903</v>
+        <v>4.1346</v>
       </c>
       <c r="G6" t="n">
-        <v>-429.9479326530613</v>
+        <v>-1019.846432653061</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,34 +611,35 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>9825</v>
+        <v>9800</v>
       </c>
       <c r="C7" t="n">
-        <v>9825</v>
+        <v>9800</v>
       </c>
       <c r="D7" t="n">
-        <v>9825</v>
+        <v>9800</v>
       </c>
       <c r="E7" t="n">
-        <v>9825</v>
+        <v>9800</v>
       </c>
       <c r="F7" t="n">
-        <v>7.7402</v>
+        <v>323.1039</v>
       </c>
       <c r="G7" t="n">
-        <v>-422.2077326530613</v>
+        <v>-1019.846432653061</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9810</v>
+        <v>9800</v>
       </c>
       <c r="C8" t="n">
-        <v>9810</v>
+        <v>9800</v>
       </c>
       <c r="D8" t="n">
-        <v>9810</v>
+        <v>9800</v>
       </c>
       <c r="E8" t="n">
-        <v>9810</v>
+        <v>9800</v>
       </c>
       <c r="F8" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="G8" t="n">
-        <v>-437.2077326530613</v>
+        <v>-1019.846432653061</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,34 +683,35 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>9810</v>
+        <v>9825</v>
       </c>
       <c r="C9" t="n">
-        <v>9810</v>
+        <v>9825</v>
       </c>
       <c r="D9" t="n">
-        <v>9810</v>
+        <v>9825</v>
       </c>
       <c r="E9" t="n">
-        <v>9810</v>
+        <v>9825</v>
       </c>
       <c r="F9" t="n">
-        <v>41.3294</v>
+        <v>0.2137404580152672</v>
       </c>
       <c r="G9" t="n">
-        <v>-437.2077326530613</v>
+        <v>-1019.632692195046</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -707,34 +719,35 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9810</v>
+        <v>9800</v>
       </c>
       <c r="C10" t="n">
-        <v>9810</v>
+        <v>9800</v>
       </c>
       <c r="D10" t="n">
-        <v>9810</v>
+        <v>9800</v>
       </c>
       <c r="E10" t="n">
-        <v>9810</v>
+        <v>9800</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0042</v>
+        <v>0.15</v>
       </c>
       <c r="G10" t="n">
-        <v>-437.2077326530613</v>
+        <v>-1019.782692195046</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -742,34 +755,35 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9800</v>
+        <v>9820</v>
       </c>
       <c r="C11" t="n">
-        <v>9800</v>
+        <v>9820</v>
       </c>
       <c r="D11" t="n">
-        <v>9800</v>
+        <v>9820</v>
       </c>
       <c r="E11" t="n">
-        <v>9800</v>
+        <v>9820</v>
       </c>
       <c r="F11" t="n">
-        <v>8</v>
+        <v>4.8748</v>
       </c>
       <c r="G11" t="n">
-        <v>-445.2077326530613</v>
+        <v>-1014.907892195046</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -777,34 +791,35 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>9800</v>
+        <v>9805</v>
       </c>
       <c r="C12" t="n">
-        <v>9800</v>
+        <v>9805</v>
       </c>
       <c r="D12" t="n">
-        <v>9800</v>
+        <v>9805</v>
       </c>
       <c r="E12" t="n">
-        <v>9800</v>
+        <v>9805</v>
       </c>
       <c r="F12" t="n">
-        <v>20</v>
+        <v>2.45</v>
       </c>
       <c r="G12" t="n">
-        <v>-445.2077326530613</v>
+        <v>-1017.357892195046</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -830,16 +846,16 @@
         <v>9800</v>
       </c>
       <c r="F13" t="n">
-        <v>20</v>
+        <v>0.2283</v>
       </c>
       <c r="G13" t="n">
-        <v>-445.2077326530613</v>
+        <v>-1017.586192195046</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -847,34 +863,35 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>9820</v>
+        <v>9760</v>
       </c>
       <c r="C14" t="n">
-        <v>9820</v>
+        <v>9760</v>
       </c>
       <c r="D14" t="n">
-        <v>9820</v>
+        <v>9760</v>
       </c>
       <c r="E14" t="n">
-        <v>9820</v>
+        <v>9760</v>
       </c>
       <c r="F14" t="n">
-        <v>13.0032</v>
+        <v>43.7945</v>
       </c>
       <c r="G14" t="n">
-        <v>-432.2045326530613</v>
+        <v>-1061.380692195046</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -882,34 +899,35 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>9835</v>
+        <v>9775</v>
       </c>
       <c r="C15" t="n">
-        <v>9835</v>
+        <v>9775</v>
       </c>
       <c r="D15" t="n">
-        <v>9835</v>
+        <v>9775</v>
       </c>
       <c r="E15" t="n">
-        <v>9835</v>
+        <v>9775</v>
       </c>
       <c r="F15" t="n">
-        <v>1.9969</v>
+        <v>1.7128</v>
       </c>
       <c r="G15" t="n">
-        <v>-430.2076326530614</v>
+        <v>-1059.667892195046</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -917,34 +935,35 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>9845</v>
+        <v>9745</v>
       </c>
       <c r="C16" t="n">
-        <v>9815</v>
+        <v>9740</v>
       </c>
       <c r="D16" t="n">
-        <v>9855</v>
+        <v>9745</v>
       </c>
       <c r="E16" t="n">
-        <v>9815</v>
+        <v>9740</v>
       </c>
       <c r="F16" t="n">
-        <v>188.1449</v>
+        <v>557.5115</v>
       </c>
       <c r="G16" t="n">
-        <v>-618.3525326530614</v>
+        <v>-1617.179392195046</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -952,34 +971,35 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>9855</v>
+        <v>9775</v>
       </c>
       <c r="C17" t="n">
-        <v>9860</v>
+        <v>9775</v>
       </c>
       <c r="D17" t="n">
-        <v>9860</v>
+        <v>9775</v>
       </c>
       <c r="E17" t="n">
-        <v>9855</v>
+        <v>9775</v>
       </c>
       <c r="F17" t="n">
-        <v>52.3164</v>
+        <v>27.6191</v>
       </c>
       <c r="G17" t="n">
-        <v>-566.0361326530614</v>
+        <v>-1589.560292195046</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -987,28 +1007,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>9850</v>
+        <v>9780</v>
       </c>
       <c r="C18" t="n">
-        <v>9860</v>
+        <v>9780</v>
       </c>
       <c r="D18" t="n">
-        <v>9860</v>
+        <v>9780</v>
       </c>
       <c r="E18" t="n">
-        <v>9850</v>
+        <v>9780</v>
       </c>
       <c r="F18" t="n">
-        <v>154.1977</v>
+        <v>2.5</v>
       </c>
       <c r="G18" t="n">
-        <v>-566.0361326530614</v>
+        <v>-1587.060292195046</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,28 +1043,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>9860</v>
+        <v>9770</v>
       </c>
       <c r="C19" t="n">
-        <v>9860</v>
+        <v>9770</v>
       </c>
       <c r="D19" t="n">
-        <v>9860</v>
+        <v>9770</v>
       </c>
       <c r="E19" t="n">
-        <v>9860</v>
+        <v>9770</v>
       </c>
       <c r="F19" t="n">
-        <v>35</v>
+        <v>5.483</v>
       </c>
       <c r="G19" t="n">
-        <v>-566.0361326530614</v>
+        <v>-1592.543292195046</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,28 +1079,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>9885</v>
+        <v>9760</v>
       </c>
       <c r="C20" t="n">
-        <v>9885</v>
+        <v>9760</v>
       </c>
       <c r="D20" t="n">
-        <v>9885</v>
+        <v>9760</v>
       </c>
       <c r="E20" t="n">
-        <v>9885</v>
+        <v>9760</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1452</v>
+        <v>6.3906</v>
       </c>
       <c r="G20" t="n">
-        <v>-565.8909326530613</v>
+        <v>-1598.933892195046</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,34 +1115,35 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>9885</v>
+        <v>9765</v>
       </c>
       <c r="C21" t="n">
-        <v>9865</v>
+        <v>9770</v>
       </c>
       <c r="D21" t="n">
-        <v>9885</v>
+        <v>9770</v>
       </c>
       <c r="E21" t="n">
-        <v>9865</v>
+        <v>9765</v>
       </c>
       <c r="F21" t="n">
-        <v>206.1868</v>
+        <v>23.1929</v>
       </c>
       <c r="G21" t="n">
-        <v>-772.0777326530613</v>
+        <v>-1575.740992195046</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1127,34 +1151,35 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>9865</v>
+        <v>9770</v>
       </c>
       <c r="C22" t="n">
-        <v>9860</v>
+        <v>9770</v>
       </c>
       <c r="D22" t="n">
-        <v>9865</v>
+        <v>9770</v>
       </c>
       <c r="E22" t="n">
-        <v>9860</v>
+        <v>9770</v>
       </c>
       <c r="F22" t="n">
-        <v>186.7876</v>
+        <v>0.0001</v>
       </c>
       <c r="G22" t="n">
-        <v>-958.8653326530613</v>
+        <v>-1575.740992195046</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1162,34 +1187,35 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>9860</v>
+        <v>9775</v>
       </c>
       <c r="C23" t="n">
-        <v>9860</v>
+        <v>9775</v>
       </c>
       <c r="D23" t="n">
-        <v>9860</v>
+        <v>9775</v>
       </c>
       <c r="E23" t="n">
-        <v>9860</v>
+        <v>9775</v>
       </c>
       <c r="F23" t="n">
-        <v>38.1192</v>
+        <v>28.1455</v>
       </c>
       <c r="G23" t="n">
-        <v>-958.8653326530613</v>
+        <v>-1547.595492195046</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1197,34 +1223,35 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>9860</v>
+        <v>9770</v>
       </c>
       <c r="C24" t="n">
-        <v>9860</v>
+        <v>9770</v>
       </c>
       <c r="D24" t="n">
-        <v>9860</v>
+        <v>9770</v>
       </c>
       <c r="E24" t="n">
-        <v>9860</v>
+        <v>9770</v>
       </c>
       <c r="F24" t="n">
-        <v>10.7055</v>
+        <v>8.135199999999999</v>
       </c>
       <c r="G24" t="n">
-        <v>-958.8653326530613</v>
+        <v>-1555.730692195046</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1232,34 +1259,35 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>9860</v>
+        <v>9745</v>
       </c>
       <c r="C25" t="n">
-        <v>9860</v>
+        <v>9745</v>
       </c>
       <c r="D25" t="n">
-        <v>9860</v>
+        <v>9745</v>
       </c>
       <c r="E25" t="n">
-        <v>9860</v>
+        <v>9745</v>
       </c>
       <c r="F25" t="n">
-        <v>0.129</v>
+        <v>11.573</v>
       </c>
       <c r="G25" t="n">
-        <v>-958.8653326530613</v>
+        <v>-1567.303692195046</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1267,28 +1295,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>9860</v>
+        <v>9740</v>
       </c>
       <c r="C26" t="n">
-        <v>9860</v>
+        <v>9735</v>
       </c>
       <c r="D26" t="n">
-        <v>9860</v>
+        <v>9740</v>
       </c>
       <c r="E26" t="n">
-        <v>9860</v>
+        <v>9735</v>
       </c>
       <c r="F26" t="n">
-        <v>30.4259</v>
+        <v>56.8512</v>
       </c>
       <c r="G26" t="n">
-        <v>-958.8653326530613</v>
+        <v>-1624.154892195046</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,28 +1331,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>9845</v>
+        <v>9735</v>
       </c>
       <c r="C27" t="n">
-        <v>9845</v>
+        <v>9735</v>
       </c>
       <c r="D27" t="n">
-        <v>9845</v>
+        <v>9735</v>
       </c>
       <c r="E27" t="n">
-        <v>9845</v>
+        <v>9735</v>
       </c>
       <c r="F27" t="n">
-        <v>12.2578</v>
+        <v>4.7852</v>
       </c>
       <c r="G27" t="n">
-        <v>-971.1231326530612</v>
+        <v>-1624.154892195046</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,203 +1367,245 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>9810</v>
+        <v>9735</v>
       </c>
       <c r="C28" t="n">
-        <v>9810</v>
+        <v>9735</v>
       </c>
       <c r="D28" t="n">
-        <v>9810</v>
+        <v>9735</v>
       </c>
       <c r="E28" t="n">
-        <v>9810</v>
+        <v>9735</v>
       </c>
       <c r="F28" t="n">
-        <v>28.3804</v>
+        <v>62.8512</v>
       </c>
       <c r="G28" t="n">
-        <v>-999.5035326530613</v>
+        <v>-1624.154892195046</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>9735</v>
+      </c>
+      <c r="K28" t="n">
+        <v>9735</v>
+      </c>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>9820</v>
+        <v>9735</v>
       </c>
       <c r="C29" t="n">
-        <v>9820</v>
+        <v>9730</v>
       </c>
       <c r="D29" t="n">
-        <v>9820</v>
+        <v>9735</v>
       </c>
       <c r="E29" t="n">
-        <v>9820</v>
+        <v>9730</v>
       </c>
       <c r="F29" t="n">
-        <v>66.9397</v>
+        <v>14.8354</v>
       </c>
       <c r="G29" t="n">
-        <v>-932.5638326530612</v>
+        <v>-1638.990292195046</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>9735</v>
+      </c>
+      <c r="K29" t="n">
+        <v>9735</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>9825</v>
+        <v>9730</v>
       </c>
       <c r="C30" t="n">
-        <v>9825</v>
+        <v>9745</v>
       </c>
       <c r="D30" t="n">
-        <v>9825</v>
+        <v>9760</v>
       </c>
       <c r="E30" t="n">
-        <v>9825</v>
+        <v>9720</v>
       </c>
       <c r="F30" t="n">
-        <v>154.2546</v>
+        <v>81.7848</v>
       </c>
       <c r="G30" t="n">
-        <v>-778.3092326530613</v>
+        <v>-1557.205492195046</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>9730</v>
+      </c>
+      <c r="K30" t="n">
+        <v>9735</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>9825</v>
+        <v>9760</v>
       </c>
       <c r="C31" t="n">
-        <v>9825</v>
+        <v>9760</v>
       </c>
       <c r="D31" t="n">
-        <v>9825</v>
+        <v>9760</v>
       </c>
       <c r="E31" t="n">
-        <v>9825</v>
+        <v>9760</v>
       </c>
       <c r="F31" t="n">
-        <v>611.1058</v>
+        <v>0.1197</v>
       </c>
       <c r="G31" t="n">
-        <v>-778.3092326530613</v>
+        <v>-1557.085792195046</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>9745</v>
+      </c>
+      <c r="K31" t="n">
+        <v>9735</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>9855</v>
+        <v>9765</v>
       </c>
       <c r="C32" t="n">
-        <v>9855</v>
+        <v>9765</v>
       </c>
       <c r="D32" t="n">
-        <v>9855</v>
+        <v>9765</v>
       </c>
       <c r="E32" t="n">
-        <v>9855</v>
+        <v>9765</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1383</v>
+        <v>9.434699999999999</v>
       </c>
       <c r="G32" t="n">
-        <v>-778.1709326530613</v>
+        <v>-1547.651092195046</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>9760</v>
+      </c>
+      <c r="K32" t="n">
+        <v>9735</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>9825</v>
+        <v>9730</v>
       </c>
       <c r="C33" t="n">
-        <v>9855</v>
+        <v>9765</v>
       </c>
       <c r="D33" t="n">
-        <v>9855</v>
+        <v>9765</v>
       </c>
       <c r="E33" t="n">
-        <v>9825</v>
+        <v>9700</v>
       </c>
       <c r="F33" t="n">
-        <v>12.3068</v>
+        <v>540.5271</v>
       </c>
       <c r="G33" t="n">
-        <v>-778.1709326530613</v>
+        <v>-1547.651092195046</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1542,33 +1614,40 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>9735</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>9820</v>
+        <v>9740</v>
       </c>
       <c r="C34" t="n">
-        <v>9820</v>
+        <v>9750</v>
       </c>
       <c r="D34" t="n">
-        <v>9820</v>
+        <v>9750</v>
       </c>
       <c r="E34" t="n">
-        <v>9820</v>
+        <v>9740</v>
       </c>
       <c r="F34" t="n">
-        <v>31.5641</v>
+        <v>50</v>
       </c>
       <c r="G34" t="n">
-        <v>-809.7350326530614</v>
+        <v>-1597.651092195046</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1577,33 +1656,40 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>9735</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>9820</v>
+        <v>9715</v>
       </c>
       <c r="C35" t="n">
-        <v>9820</v>
+        <v>9710</v>
       </c>
       <c r="D35" t="n">
-        <v>9820</v>
+        <v>9715</v>
       </c>
       <c r="E35" t="n">
-        <v>9820</v>
+        <v>9710</v>
       </c>
       <c r="F35" t="n">
-        <v>6.4136</v>
+        <v>17.7465</v>
       </c>
       <c r="G35" t="n">
-        <v>-809.7350326530614</v>
+        <v>-1615.397592195046</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1612,33 +1698,40 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>9735</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>9830</v>
+        <v>9715</v>
       </c>
       <c r="C36" t="n">
-        <v>9830</v>
+        <v>9715</v>
       </c>
       <c r="D36" t="n">
-        <v>9830</v>
+        <v>9715</v>
       </c>
       <c r="E36" t="n">
-        <v>9830</v>
+        <v>9715</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1251</v>
+        <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>-809.6099326530614</v>
+        <v>-1614.397592195046</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1647,103 +1740,128 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>9735</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>9810</v>
+        <v>9735</v>
       </c>
       <c r="C37" t="n">
-        <v>9810</v>
+        <v>9740</v>
       </c>
       <c r="D37" t="n">
-        <v>9810</v>
+        <v>9740</v>
       </c>
       <c r="E37" t="n">
-        <v>9810</v>
+        <v>9735</v>
       </c>
       <c r="F37" t="n">
-        <v>4.965</v>
+        <v>50</v>
       </c>
       <c r="G37" t="n">
-        <v>-814.5749326530614</v>
+        <v>-1564.397592195046</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>9715</v>
+      </c>
+      <c r="K37" t="n">
+        <v>9735</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>9830</v>
+        <v>9750</v>
       </c>
       <c r="C38" t="n">
-        <v>9830</v>
+        <v>9750</v>
       </c>
       <c r="D38" t="n">
-        <v>9830</v>
+        <v>9750</v>
       </c>
       <c r="E38" t="n">
-        <v>9830</v>
+        <v>9750</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1269</v>
+        <v>0.1</v>
       </c>
       <c r="G38" t="n">
-        <v>-814.4480326530614</v>
+        <v>-1564.297592195046</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>9740</v>
+      </c>
+      <c r="K38" t="n">
+        <v>9735</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>9830</v>
+        <v>9740</v>
       </c>
       <c r="C39" t="n">
-        <v>9830</v>
+        <v>9740</v>
       </c>
       <c r="D39" t="n">
-        <v>9830</v>
+        <v>9740</v>
       </c>
       <c r="E39" t="n">
-        <v>9830</v>
+        <v>9740</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3173</v>
+        <v>6.2155</v>
       </c>
       <c r="G39" t="n">
-        <v>-814.4480326530614</v>
+        <v>-1570.513092195046</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1752,68 +1870,82 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>9735</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>9810</v>
+        <v>9740</v>
       </c>
       <c r="C40" t="n">
-        <v>9810</v>
+        <v>9740</v>
       </c>
       <c r="D40" t="n">
-        <v>9810</v>
+        <v>9740</v>
       </c>
       <c r="E40" t="n">
-        <v>9810</v>
+        <v>9740</v>
       </c>
       <c r="F40" t="n">
-        <v>9.4779</v>
+        <v>10.5956</v>
       </c>
       <c r="G40" t="n">
-        <v>-823.9259326530614</v>
+        <v>-1570.513092195046</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>9735</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>9805</v>
+        <v>9755</v>
       </c>
       <c r="C41" t="n">
-        <v>9800</v>
+        <v>9755</v>
       </c>
       <c r="D41" t="n">
-        <v>9805</v>
+        <v>9755</v>
       </c>
       <c r="E41" t="n">
-        <v>9800</v>
+        <v>9755</v>
       </c>
       <c r="F41" t="n">
-        <v>135.2402</v>
+        <v>2</v>
       </c>
       <c r="G41" t="n">
-        <v>-959.1661326530614</v>
+        <v>-1568.513092195046</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1822,33 +1954,40 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>9735</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>9800</v>
+        <v>9750</v>
       </c>
       <c r="C42" t="n">
-        <v>9800</v>
+        <v>9745</v>
       </c>
       <c r="D42" t="n">
-        <v>9800</v>
+        <v>9750</v>
       </c>
       <c r="E42" t="n">
-        <v>9800</v>
+        <v>9745</v>
       </c>
       <c r="F42" t="n">
-        <v>44.71</v>
+        <v>34.2553</v>
       </c>
       <c r="G42" t="n">
-        <v>-959.1661326530614</v>
+        <v>-1602.768392195046</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1857,33 +1996,40 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>9735</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>9825</v>
+        <v>9765</v>
       </c>
       <c r="C43" t="n">
-        <v>9825</v>
+        <v>9765</v>
       </c>
       <c r="D43" t="n">
-        <v>9825</v>
+        <v>9765</v>
       </c>
       <c r="E43" t="n">
-        <v>9825</v>
+        <v>9765</v>
       </c>
       <c r="F43" t="n">
-        <v>1.1671</v>
+        <v>0.1137</v>
       </c>
       <c r="G43" t="n">
-        <v>-957.9990326530614</v>
+        <v>-1602.654692195046</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1892,33 +2038,40 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>9735</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>9820</v>
+        <v>9730</v>
       </c>
       <c r="C44" t="n">
-        <v>9820</v>
+        <v>9730</v>
       </c>
       <c r="D44" t="n">
-        <v>9820</v>
+        <v>9730</v>
       </c>
       <c r="E44" t="n">
-        <v>9820</v>
+        <v>9730</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1</v>
+        <v>13</v>
       </c>
       <c r="G44" t="n">
-        <v>-958.0990326530614</v>
+        <v>-1615.654692195046</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1927,33 +2080,40 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>9735</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>9800</v>
+        <v>9770</v>
       </c>
       <c r="C45" t="n">
-        <v>9800</v>
+        <v>9770</v>
       </c>
       <c r="D45" t="n">
-        <v>9800</v>
+        <v>9770</v>
       </c>
       <c r="E45" t="n">
-        <v>9800</v>
+        <v>9770</v>
       </c>
       <c r="F45" t="n">
-        <v>61.7474</v>
+        <v>1</v>
       </c>
       <c r="G45" t="n">
-        <v>-1019.846432653061</v>
+        <v>-1614.654692195046</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1962,33 +2122,40 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>9735</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>9800</v>
+        <v>9770</v>
       </c>
       <c r="C46" t="n">
-        <v>9800</v>
+        <v>9770</v>
       </c>
       <c r="D46" t="n">
-        <v>9800</v>
+        <v>9770</v>
       </c>
       <c r="E46" t="n">
-        <v>9800</v>
+        <v>9770</v>
       </c>
       <c r="F46" t="n">
-        <v>21.475</v>
+        <v>6.0177</v>
       </c>
       <c r="G46" t="n">
-        <v>-1019.846432653061</v>
+        <v>-1614.654692195046</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -1997,33 +2164,40 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>9735</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>9800</v>
+        <v>9790</v>
       </c>
       <c r="C47" t="n">
-        <v>9800</v>
+        <v>9790</v>
       </c>
       <c r="D47" t="n">
-        <v>9800</v>
+        <v>9790</v>
       </c>
       <c r="E47" t="n">
-        <v>9800</v>
+        <v>9790</v>
       </c>
       <c r="F47" t="n">
-        <v>5.7422</v>
+        <v>22.5957</v>
       </c>
       <c r="G47" t="n">
-        <v>-1019.846432653061</v>
+        <v>-1592.058992195046</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2032,33 +2206,40 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>9735</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>9800</v>
+        <v>9790</v>
       </c>
       <c r="C48" t="n">
-        <v>9800</v>
+        <v>9790</v>
       </c>
       <c r="D48" t="n">
-        <v>9800</v>
+        <v>9790</v>
       </c>
       <c r="E48" t="n">
-        <v>9800</v>
+        <v>9790</v>
       </c>
       <c r="F48" t="n">
-        <v>4.1346</v>
+        <v>23.197</v>
       </c>
       <c r="G48" t="n">
-        <v>-1019.846432653061</v>
+        <v>-1592.058992195046</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2067,33 +2248,40 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>9735</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>9800</v>
+        <v>9790</v>
       </c>
       <c r="C49" t="n">
-        <v>9800</v>
+        <v>9790</v>
       </c>
       <c r="D49" t="n">
-        <v>9800</v>
+        <v>9790</v>
       </c>
       <c r="E49" t="n">
-        <v>9800</v>
+        <v>9790</v>
       </c>
       <c r="F49" t="n">
-        <v>323.1039</v>
+        <v>6.348</v>
       </c>
       <c r="G49" t="n">
-        <v>-1019.846432653061</v>
+        <v>-1592.058992195046</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2102,18 +2290,25 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>9735</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>9800</v>
+        <v>9790</v>
       </c>
       <c r="C50" t="n">
         <v>9800</v>
@@ -2122,13 +2317,13 @@
         <v>9800</v>
       </c>
       <c r="E50" t="n">
-        <v>9800</v>
+        <v>9790</v>
       </c>
       <c r="F50" t="n">
-        <v>34</v>
+        <v>26.1783</v>
       </c>
       <c r="G50" t="n">
-        <v>-1019.846432653061</v>
+        <v>-1565.880692195046</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2137,33 +2332,40 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>9735</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>9825</v>
+        <v>9810</v>
       </c>
       <c r="C51" t="n">
-        <v>9825</v>
+        <v>9810</v>
       </c>
       <c r="D51" t="n">
-        <v>9825</v>
+        <v>9810</v>
       </c>
       <c r="E51" t="n">
-        <v>9825</v>
+        <v>9810</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2137404580152672</v>
+        <v>0.3029561671763507</v>
       </c>
       <c r="G51" t="n">
-        <v>-1019.632692195046</v>
+        <v>-1565.57773602787</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2172,33 +2374,40 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>9735</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>9800</v>
+        <v>9780</v>
       </c>
       <c r="C52" t="n">
-        <v>9800</v>
+        <v>9805</v>
       </c>
       <c r="D52" t="n">
-        <v>9800</v>
+        <v>9805</v>
       </c>
       <c r="E52" t="n">
-        <v>9800</v>
+        <v>9775</v>
       </c>
       <c r="F52" t="n">
-        <v>0.15</v>
+        <v>85.62260000000001</v>
       </c>
       <c r="G52" t="n">
-        <v>-1019.782692195046</v>
+        <v>-1651.20033602787</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2207,11 +2416,18 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>9735</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2221,19 +2437,19 @@
         <v>9820</v>
       </c>
       <c r="C53" t="n">
-        <v>9820</v>
+        <v>9825</v>
       </c>
       <c r="D53" t="n">
-        <v>9820</v>
+        <v>9825</v>
       </c>
       <c r="E53" t="n">
         <v>9820</v>
       </c>
       <c r="F53" t="n">
-        <v>4.8748</v>
+        <v>128.461</v>
       </c>
       <c r="G53" t="n">
-        <v>-1014.907892195046</v>
+        <v>-1522.73933602787</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2242,11 +2458,18 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>9735</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2265,10 +2488,10 @@
         <v>9805</v>
       </c>
       <c r="F54" t="n">
-        <v>2.45</v>
+        <v>0.3029</v>
       </c>
       <c r="G54" t="n">
-        <v>-1017.357892195046</v>
+        <v>-1523.04223602787</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2277,33 +2500,40 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>9735</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>9800</v>
+        <v>9825</v>
       </c>
       <c r="C55" t="n">
-        <v>9800</v>
+        <v>9825</v>
       </c>
       <c r="D55" t="n">
-        <v>9800</v>
+        <v>9825</v>
       </c>
       <c r="E55" t="n">
-        <v>9800</v>
+        <v>9825</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2283</v>
+        <v>3.704</v>
       </c>
       <c r="G55" t="n">
-        <v>-1017.586192195046</v>
+        <v>-1519.33823602787</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2312,33 +2542,40 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>9735</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>9760</v>
+        <v>9810</v>
       </c>
       <c r="C56" t="n">
-        <v>9760</v>
+        <v>9815</v>
       </c>
       <c r="D56" t="n">
-        <v>9760</v>
+        <v>9815</v>
       </c>
       <c r="E56" t="n">
-        <v>9760</v>
+        <v>9810</v>
       </c>
       <c r="F56" t="n">
-        <v>43.7945</v>
+        <v>60.845</v>
       </c>
       <c r="G56" t="n">
-        <v>-1061.380692195046</v>
+        <v>-1580.18323602787</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2347,33 +2584,40 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>9735</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>9775</v>
+        <v>9820</v>
       </c>
       <c r="C57" t="n">
-        <v>9775</v>
+        <v>9825</v>
       </c>
       <c r="D57" t="n">
-        <v>9775</v>
+        <v>9825</v>
       </c>
       <c r="E57" t="n">
-        <v>9775</v>
+        <v>9820</v>
       </c>
       <c r="F57" t="n">
-        <v>1.7128</v>
+        <v>746.1</v>
       </c>
       <c r="G57" t="n">
-        <v>-1059.667892195046</v>
+        <v>-834.0832360278697</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2382,33 +2626,40 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>9735</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>9745</v>
+        <v>9820</v>
       </c>
       <c r="C58" t="n">
-        <v>9740</v>
+        <v>9820</v>
       </c>
       <c r="D58" t="n">
-        <v>9745</v>
+        <v>9820</v>
       </c>
       <c r="E58" t="n">
-        <v>9740</v>
+        <v>9820</v>
       </c>
       <c r="F58" t="n">
-        <v>557.5115</v>
+        <v>52.3079</v>
       </c>
       <c r="G58" t="n">
-        <v>-1617.179392195046</v>
+        <v>-886.3911360278697</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2417,33 +2668,40 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>9735</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>9775</v>
+        <v>9795</v>
       </c>
       <c r="C59" t="n">
-        <v>9775</v>
+        <v>9795</v>
       </c>
       <c r="D59" t="n">
-        <v>9775</v>
+        <v>9795</v>
       </c>
       <c r="E59" t="n">
-        <v>9775</v>
+        <v>9795</v>
       </c>
       <c r="F59" t="n">
-        <v>27.6191</v>
+        <v>35</v>
       </c>
       <c r="G59" t="n">
-        <v>-1589.560292195046</v>
+        <v>-921.3911360278697</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2452,33 +2710,40 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>9735</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>9780</v>
+        <v>9810</v>
       </c>
       <c r="C60" t="n">
-        <v>9780</v>
+        <v>9810</v>
       </c>
       <c r="D60" t="n">
-        <v>9780</v>
+        <v>9810</v>
       </c>
       <c r="E60" t="n">
-        <v>9780</v>
+        <v>9810</v>
       </c>
       <c r="F60" t="n">
-        <v>2.5</v>
+        <v>8.4</v>
       </c>
       <c r="G60" t="n">
-        <v>-1587.060292195046</v>
+        <v>-912.9911360278697</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2487,33 +2752,40 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>9735</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>9770</v>
+        <v>9790</v>
       </c>
       <c r="C61" t="n">
-        <v>9770</v>
+        <v>9790</v>
       </c>
       <c r="D61" t="n">
-        <v>9770</v>
+        <v>9790</v>
       </c>
       <c r="E61" t="n">
-        <v>9770</v>
+        <v>9790</v>
       </c>
       <c r="F61" t="n">
-        <v>5.483</v>
+        <v>25.6125</v>
       </c>
       <c r="G61" t="n">
-        <v>-1592.543292195046</v>
+        <v>-938.6036360278697</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2522,33 +2794,40 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>9735</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>9760</v>
+        <v>9790</v>
       </c>
       <c r="C62" t="n">
-        <v>9760</v>
+        <v>9785</v>
       </c>
       <c r="D62" t="n">
-        <v>9760</v>
+        <v>9790</v>
       </c>
       <c r="E62" t="n">
-        <v>9760</v>
+        <v>9785</v>
       </c>
       <c r="F62" t="n">
-        <v>6.3906</v>
+        <v>50</v>
       </c>
       <c r="G62" t="n">
-        <v>-1598.933892195046</v>
+        <v>-988.6036360278697</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2557,33 +2836,40 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>9735</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>9765</v>
+        <v>9820</v>
       </c>
       <c r="C63" t="n">
-        <v>9770</v>
+        <v>9820</v>
       </c>
       <c r="D63" t="n">
-        <v>9770</v>
+        <v>9820</v>
       </c>
       <c r="E63" t="n">
-        <v>9765</v>
+        <v>9820</v>
       </c>
       <c r="F63" t="n">
-        <v>23.1929</v>
+        <v>0.1074</v>
       </c>
       <c r="G63" t="n">
-        <v>-1575.740992195046</v>
+        <v>-988.4962360278697</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2592,33 +2878,40 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>9735</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>9770</v>
+        <v>9820</v>
       </c>
       <c r="C64" t="n">
-        <v>9770</v>
+        <v>9820</v>
       </c>
       <c r="D64" t="n">
-        <v>9770</v>
+        <v>9820</v>
       </c>
       <c r="E64" t="n">
-        <v>9770</v>
+        <v>9820</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G64" t="n">
-        <v>-1575.740992195046</v>
+        <v>-988.4962360278697</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2627,33 +2920,40 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>9735</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>9775</v>
+        <v>9805</v>
       </c>
       <c r="C65" t="n">
-        <v>9775</v>
+        <v>9805</v>
       </c>
       <c r="D65" t="n">
-        <v>9775</v>
+        <v>9805</v>
       </c>
       <c r="E65" t="n">
-        <v>9775</v>
+        <v>9805</v>
       </c>
       <c r="F65" t="n">
-        <v>28.1455</v>
+        <v>6.8917</v>
       </c>
       <c r="G65" t="n">
-        <v>-1547.595492195046</v>
+        <v>-995.3879360278697</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2662,33 +2962,40 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>9735</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>9770</v>
+        <v>9820</v>
       </c>
       <c r="C66" t="n">
-        <v>9770</v>
+        <v>9825</v>
       </c>
       <c r="D66" t="n">
-        <v>9770</v>
+        <v>9825</v>
       </c>
       <c r="E66" t="n">
-        <v>9770</v>
+        <v>9820</v>
       </c>
       <c r="F66" t="n">
-        <v>8.135199999999999</v>
+        <v>34.98715954198473</v>
       </c>
       <c r="G66" t="n">
-        <v>-1555.730692195046</v>
+        <v>-960.400776485885</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2697,33 +3004,40 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>9735</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>9745</v>
+        <v>9825</v>
       </c>
       <c r="C67" t="n">
-        <v>9745</v>
+        <v>9825</v>
       </c>
       <c r="D67" t="n">
-        <v>9745</v>
+        <v>9825</v>
       </c>
       <c r="E67" t="n">
-        <v>9745</v>
+        <v>9825</v>
       </c>
       <c r="F67" t="n">
-        <v>11.573</v>
+        <v>10</v>
       </c>
       <c r="G67" t="n">
-        <v>-1567.303692195046</v>
+        <v>-960.400776485885</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2732,33 +3046,40 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>9735</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>9740</v>
+        <v>9830</v>
       </c>
       <c r="C68" t="n">
-        <v>9735</v>
+        <v>9830</v>
       </c>
       <c r="D68" t="n">
-        <v>9740</v>
+        <v>9830</v>
       </c>
       <c r="E68" t="n">
-        <v>9735</v>
+        <v>9830</v>
       </c>
       <c r="F68" t="n">
-        <v>56.8512</v>
+        <v>6.248</v>
       </c>
       <c r="G68" t="n">
-        <v>-1624.154892195046</v>
+        <v>-954.1527764858849</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2767,33 +3088,40 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>9735</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>9735</v>
+        <v>9830</v>
       </c>
       <c r="C69" t="n">
-        <v>9735</v>
+        <v>9810</v>
       </c>
       <c r="D69" t="n">
-        <v>9735</v>
+        <v>9830</v>
       </c>
       <c r="E69" t="n">
-        <v>9735</v>
+        <v>9810</v>
       </c>
       <c r="F69" t="n">
-        <v>4.7852</v>
+        <v>12.1729</v>
       </c>
       <c r="G69" t="n">
-        <v>-1624.154892195046</v>
+        <v>-966.325676485885</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2802,33 +3130,40 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>9735</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>9735</v>
+        <v>9810</v>
       </c>
       <c r="C70" t="n">
-        <v>9735</v>
+        <v>9810</v>
       </c>
       <c r="D70" t="n">
-        <v>9735</v>
+        <v>9810</v>
       </c>
       <c r="E70" t="n">
-        <v>9735</v>
+        <v>9810</v>
       </c>
       <c r="F70" t="n">
-        <v>62.8512</v>
+        <v>8.147399999999999</v>
       </c>
       <c r="G70" t="n">
-        <v>-1624.154892195046</v>
+        <v>-966.325676485885</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2837,33 +3172,40 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>9735</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>9735</v>
+        <v>9830</v>
       </c>
       <c r="C71" t="n">
-        <v>9730</v>
+        <v>9830</v>
       </c>
       <c r="D71" t="n">
-        <v>9735</v>
+        <v>9830</v>
       </c>
       <c r="E71" t="n">
-        <v>9730</v>
+        <v>9830</v>
       </c>
       <c r="F71" t="n">
-        <v>14.8354</v>
+        <v>0.1019</v>
       </c>
       <c r="G71" t="n">
-        <v>-1638.990292195046</v>
+        <v>-966.223776485885</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2872,33 +3214,40 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>9735</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>9730</v>
+        <v>9830</v>
       </c>
       <c r="C72" t="n">
-        <v>9745</v>
+        <v>9835</v>
       </c>
       <c r="D72" t="n">
-        <v>9760</v>
+        <v>9835</v>
       </c>
       <c r="E72" t="n">
-        <v>9720</v>
+        <v>9830</v>
       </c>
       <c r="F72" t="n">
-        <v>81.7848</v>
+        <v>51.4655</v>
       </c>
       <c r="G72" t="n">
-        <v>-1557.205492195046</v>
+        <v>-914.7582764858849</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2907,33 +3256,40 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>9735</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>9760</v>
+        <v>9835</v>
       </c>
       <c r="C73" t="n">
-        <v>9760</v>
+        <v>9835</v>
       </c>
       <c r="D73" t="n">
-        <v>9760</v>
+        <v>9835</v>
       </c>
       <c r="E73" t="n">
-        <v>9760</v>
+        <v>9835</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1197</v>
+        <v>17.3</v>
       </c>
       <c r="G73" t="n">
-        <v>-1557.085792195046</v>
+        <v>-914.7582764858849</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2942,33 +3298,40 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>9735</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>9765</v>
+        <v>9835</v>
       </c>
       <c r="C74" t="n">
-        <v>9765</v>
+        <v>9835</v>
       </c>
       <c r="D74" t="n">
-        <v>9765</v>
+        <v>9835</v>
       </c>
       <c r="E74" t="n">
-        <v>9765</v>
+        <v>9835</v>
       </c>
       <c r="F74" t="n">
-        <v>9.434699999999999</v>
+        <v>9.0861</v>
       </c>
       <c r="G74" t="n">
-        <v>-1547.651092195046</v>
+        <v>-914.7582764858849</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2977,85 +3340,93 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>9735</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>9730</v>
+        <v>9820</v>
       </c>
       <c r="C75" t="n">
-        <v>9765</v>
+        <v>9820</v>
       </c>
       <c r="D75" t="n">
-        <v>9765</v>
+        <v>9820</v>
       </c>
       <c r="E75" t="n">
-        <v>9700</v>
+        <v>9820</v>
       </c>
       <c r="F75" t="n">
-        <v>540.5271</v>
+        <v>9.242800000000001</v>
       </c>
       <c r="G75" t="n">
-        <v>-1547.651092195046</v>
+        <v>-924.0010764858849</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>9765</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>9735</v>
+      </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>9740</v>
+        <v>9835</v>
       </c>
       <c r="C76" t="n">
-        <v>9750</v>
+        <v>9820</v>
       </c>
       <c r="D76" t="n">
-        <v>9750</v>
+        <v>9835</v>
       </c>
       <c r="E76" t="n">
-        <v>9740</v>
+        <v>9820</v>
       </c>
       <c r="F76" t="n">
-        <v>50</v>
+        <v>9.826000000000001</v>
       </c>
       <c r="G76" t="n">
-        <v>-1597.651092195046</v>
+        <v>-924.0010764858849</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>9765</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>9735</v>
+      </c>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3064,28 +3435,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>9715</v>
+        <v>9820</v>
       </c>
       <c r="C77" t="n">
-        <v>9710</v>
+        <v>9820</v>
       </c>
       <c r="D77" t="n">
-        <v>9715</v>
+        <v>9820</v>
       </c>
       <c r="E77" t="n">
-        <v>9710</v>
+        <v>9820</v>
       </c>
       <c r="F77" t="n">
-        <v>17.7465</v>
+        <v>8.147</v>
       </c>
       <c r="G77" t="n">
-        <v>-1615.397592195046</v>
+        <v>-924.0010764858849</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3094,7 +3466,9 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>9735</v>
+      </c>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3103,28 +3477,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>9715</v>
+        <v>9830</v>
       </c>
       <c r="C78" t="n">
-        <v>9715</v>
+        <v>9830</v>
       </c>
       <c r="D78" t="n">
-        <v>9715</v>
+        <v>9830</v>
       </c>
       <c r="E78" t="n">
-        <v>9715</v>
+        <v>9830</v>
       </c>
       <c r="F78" t="n">
-        <v>1</v>
+        <v>13.0202</v>
       </c>
       <c r="G78" t="n">
-        <v>-1614.397592195046</v>
+        <v>-910.9808764858849</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3133,7 +3508,9 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>9735</v>
+      </c>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3142,28 +3519,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>9735</v>
+        <v>9820</v>
       </c>
       <c r="C79" t="n">
-        <v>9740</v>
+        <v>9820</v>
       </c>
       <c r="D79" t="n">
-        <v>9740</v>
+        <v>9820</v>
       </c>
       <c r="E79" t="n">
-        <v>9735</v>
+        <v>9820</v>
       </c>
       <c r="F79" t="n">
-        <v>50</v>
+        <v>27.8045</v>
       </c>
       <c r="G79" t="n">
-        <v>-1564.397592195046</v>
+        <v>-938.7853764858849</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3172,7 +3550,9 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>9735</v>
+      </c>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3181,28 +3561,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>9750</v>
+        <v>9820</v>
       </c>
       <c r="C80" t="n">
-        <v>9750</v>
+        <v>9820</v>
       </c>
       <c r="D80" t="n">
-        <v>9750</v>
+        <v>9820</v>
       </c>
       <c r="E80" t="n">
-        <v>9750</v>
+        <v>9820</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1</v>
+        <v>4.53</v>
       </c>
       <c r="G80" t="n">
-        <v>-1564.297592195046</v>
+        <v>-938.7853764858849</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3211,7 +3592,9 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>9735</v>
+      </c>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3220,28 +3603,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>9740</v>
+        <v>9820</v>
       </c>
       <c r="C81" t="n">
-        <v>9740</v>
+        <v>9820</v>
       </c>
       <c r="D81" t="n">
-        <v>9740</v>
+        <v>9820</v>
       </c>
       <c r="E81" t="n">
-        <v>9740</v>
+        <v>9820</v>
       </c>
       <c r="F81" t="n">
-        <v>6.2155</v>
+        <v>7.5386</v>
       </c>
       <c r="G81" t="n">
-        <v>-1570.513092195046</v>
+        <v>-938.7853764858849</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3250,7 +3634,9 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>9735</v>
+      </c>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3259,28 +3645,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>9740</v>
+        <v>9830</v>
       </c>
       <c r="C82" t="n">
-        <v>9740</v>
+        <v>9835</v>
       </c>
       <c r="D82" t="n">
-        <v>9740</v>
+        <v>9835</v>
       </c>
       <c r="E82" t="n">
-        <v>9740</v>
+        <v>9830</v>
       </c>
       <c r="F82" t="n">
-        <v>10.5956</v>
+        <v>59.8086</v>
       </c>
       <c r="G82" t="n">
-        <v>-1570.513092195046</v>
+        <v>-878.9767764858849</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3289,7 +3676,9 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>9735</v>
+      </c>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3298,28 +3687,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>9755</v>
+        <v>9835</v>
       </c>
       <c r="C83" t="n">
-        <v>9755</v>
+        <v>9835</v>
       </c>
       <c r="D83" t="n">
-        <v>9755</v>
+        <v>9835</v>
       </c>
       <c r="E83" t="n">
-        <v>9755</v>
+        <v>9835</v>
       </c>
       <c r="F83" t="n">
-        <v>2</v>
+        <v>7.2139</v>
       </c>
       <c r="G83" t="n">
-        <v>-1568.513092195046</v>
+        <v>-878.9767764858849</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3328,7 +3718,9 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>9735</v>
+      </c>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3337,28 +3729,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>9750</v>
+        <v>9835</v>
       </c>
       <c r="C84" t="n">
-        <v>9745</v>
+        <v>9835</v>
       </c>
       <c r="D84" t="n">
-        <v>9750</v>
+        <v>9835</v>
       </c>
       <c r="E84" t="n">
-        <v>9745</v>
+        <v>9835</v>
       </c>
       <c r="F84" t="n">
-        <v>34.2553</v>
+        <v>73.9371</v>
       </c>
       <c r="G84" t="n">
-        <v>-1602.768392195046</v>
+        <v>-878.9767764858849</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3367,7 +3760,9 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>9735</v>
+      </c>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3376,106 +3771,107 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>9765</v>
+        <v>9840</v>
       </c>
       <c r="C85" t="n">
-        <v>9765</v>
+        <v>9840</v>
       </c>
       <c r="D85" t="n">
-        <v>9765</v>
+        <v>9840</v>
       </c>
       <c r="E85" t="n">
-        <v>9765</v>
+        <v>9840</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1137</v>
+        <v>11.037</v>
       </c>
       <c r="G85" t="n">
-        <v>-1602.654692195046</v>
+        <v>-867.9397764858849</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>9735</v>
+      </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>1</v>
-      </c>
+        <v>1.005785824345147</v>
+      </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>9730</v>
+        <v>9835</v>
       </c>
       <c r="C86" t="n">
-        <v>9730</v>
+        <v>9840</v>
       </c>
       <c r="D86" t="n">
-        <v>9730</v>
+        <v>9840</v>
       </c>
       <c r="E86" t="n">
-        <v>9730</v>
+        <v>9835</v>
       </c>
       <c r="F86" t="n">
-        <v>13</v>
+        <v>119.8529</v>
       </c>
       <c r="G86" t="n">
-        <v>-1615.654692195046</v>
+        <v>-867.9397764858849</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>9770</v>
+        <v>9835</v>
       </c>
       <c r="C87" t="n">
-        <v>9770</v>
+        <v>9835</v>
       </c>
       <c r="D87" t="n">
-        <v>9770</v>
+        <v>9835</v>
       </c>
       <c r="E87" t="n">
-        <v>9770</v>
+        <v>9835</v>
       </c>
       <c r="F87" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="G87" t="n">
-        <v>-1614.654692195046</v>
+        <v>-901.9397764858849</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3485,36 +3881,33 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>9770</v>
+        <v>9805</v>
       </c>
       <c r="C88" t="n">
-        <v>9770</v>
+        <v>9805</v>
       </c>
       <c r="D88" t="n">
-        <v>9770</v>
+        <v>9805</v>
       </c>
       <c r="E88" t="n">
-        <v>9770</v>
+        <v>9805</v>
       </c>
       <c r="F88" t="n">
-        <v>6.0177</v>
+        <v>1</v>
       </c>
       <c r="G88" t="n">
-        <v>-1614.654692195046</v>
+        <v>-902.9397764858849</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3524,36 +3917,33 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>9790</v>
+        <v>9805</v>
       </c>
       <c r="C89" t="n">
-        <v>9790</v>
+        <v>9800</v>
       </c>
       <c r="D89" t="n">
-        <v>9790</v>
+        <v>9805</v>
       </c>
       <c r="E89" t="n">
-        <v>9790</v>
+        <v>9800</v>
       </c>
       <c r="F89" t="n">
-        <v>22.5957</v>
+        <v>48.0666</v>
       </c>
       <c r="G89" t="n">
-        <v>-1592.058992195046</v>
+        <v>-951.0063764858849</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3563,36 +3953,33 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>9790</v>
+        <v>9800</v>
       </c>
       <c r="C90" t="n">
-        <v>9790</v>
+        <v>9800</v>
       </c>
       <c r="D90" t="n">
-        <v>9790</v>
+        <v>9800</v>
       </c>
       <c r="E90" t="n">
-        <v>9790</v>
+        <v>9800</v>
       </c>
       <c r="F90" t="n">
-        <v>23.197</v>
+        <v>1</v>
       </c>
       <c r="G90" t="n">
-        <v>-1592.058992195046</v>
+        <v>-951.0063764858849</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3602,36 +3989,33 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>9790</v>
+        <v>9800</v>
       </c>
       <c r="C91" t="n">
-        <v>9790</v>
+        <v>9800</v>
       </c>
       <c r="D91" t="n">
-        <v>9790</v>
+        <v>9800</v>
       </c>
       <c r="E91" t="n">
-        <v>9790</v>
+        <v>9800</v>
       </c>
       <c r="F91" t="n">
-        <v>6.348</v>
+        <v>53.2056</v>
       </c>
       <c r="G91" t="n">
-        <v>-1592.058992195046</v>
+        <v>-951.0063764858849</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3641,36 +4025,33 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>9790</v>
+        <v>9765</v>
       </c>
       <c r="C92" t="n">
-        <v>9800</v>
+        <v>9735</v>
       </c>
       <c r="D92" t="n">
-        <v>9800</v>
+        <v>9765</v>
       </c>
       <c r="E92" t="n">
-        <v>9790</v>
+        <v>9735</v>
       </c>
       <c r="F92" t="n">
-        <v>26.1783</v>
+        <v>424.407</v>
       </c>
       <c r="G92" t="n">
-        <v>-1565.880692195046</v>
+        <v>-1375.413376485885</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3680,36 +4061,33 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>9810</v>
+        <v>9785</v>
       </c>
       <c r="C93" t="n">
-        <v>9810</v>
+        <v>9785</v>
       </c>
       <c r="D93" t="n">
-        <v>9810</v>
+        <v>9785</v>
       </c>
       <c r="E93" t="n">
-        <v>9810</v>
+        <v>9785</v>
       </c>
       <c r="F93" t="n">
-        <v>0.3029561671763507</v>
+        <v>6.4606</v>
       </c>
       <c r="G93" t="n">
-        <v>-1565.57773602787</v>
+        <v>-1368.952776485885</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3719,36 +4097,33 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>9780</v>
+        <v>9790</v>
       </c>
       <c r="C94" t="n">
-        <v>9805</v>
+        <v>9795</v>
       </c>
       <c r="D94" t="n">
-        <v>9805</v>
+        <v>9795</v>
       </c>
       <c r="E94" t="n">
-        <v>9775</v>
+        <v>9790</v>
       </c>
       <c r="F94" t="n">
-        <v>85.62260000000001</v>
+        <v>9.99732133741705</v>
       </c>
       <c r="G94" t="n">
-        <v>-1651.20033602787</v>
+        <v>-1358.955455148468</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3758,36 +4133,33 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>9820</v>
+        <v>9775</v>
       </c>
       <c r="C95" t="n">
-        <v>9825</v>
+        <v>9775</v>
       </c>
       <c r="D95" t="n">
-        <v>9825</v>
+        <v>9775</v>
       </c>
       <c r="E95" t="n">
-        <v>9820</v>
+        <v>9775</v>
       </c>
       <c r="F95" t="n">
-        <v>128.461</v>
+        <v>3.6579</v>
       </c>
       <c r="G95" t="n">
-        <v>-1522.73933602787</v>
+        <v>-1362.613355148467</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3797,36 +4169,33 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>9805</v>
+        <v>9730</v>
       </c>
       <c r="C96" t="n">
-        <v>9805</v>
+        <v>9730</v>
       </c>
       <c r="D96" t="n">
-        <v>9805</v>
+        <v>9730</v>
       </c>
       <c r="E96" t="n">
-        <v>9805</v>
+        <v>9730</v>
       </c>
       <c r="F96" t="n">
-        <v>0.3029</v>
+        <v>27.2554</v>
       </c>
       <c r="G96" t="n">
-        <v>-1523.04223602787</v>
+        <v>-1389.868755148467</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3836,36 +4205,33 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>9825</v>
+        <v>9730</v>
       </c>
       <c r="C97" t="n">
-        <v>9825</v>
+        <v>9730</v>
       </c>
       <c r="D97" t="n">
-        <v>9825</v>
+        <v>9730</v>
       </c>
       <c r="E97" t="n">
-        <v>9825</v>
+        <v>9730</v>
       </c>
       <c r="F97" t="n">
-        <v>3.704</v>
+        <v>1.1</v>
       </c>
       <c r="G97" t="n">
-        <v>-1519.33823602787</v>
+        <v>-1389.868755148467</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3875,36 +4241,33 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>9810</v>
+        <v>9720</v>
       </c>
       <c r="C98" t="n">
-        <v>9815</v>
+        <v>9745</v>
       </c>
       <c r="D98" t="n">
-        <v>9815</v>
+        <v>9745</v>
       </c>
       <c r="E98" t="n">
-        <v>9810</v>
+        <v>9720</v>
       </c>
       <c r="F98" t="n">
-        <v>60.845</v>
+        <v>21.5611</v>
       </c>
       <c r="G98" t="n">
-        <v>-1580.18323602787</v>
+        <v>-1368.307655148468</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3914,36 +4277,33 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>9820</v>
+        <v>9760</v>
       </c>
       <c r="C99" t="n">
-        <v>9825</v>
+        <v>9775</v>
       </c>
       <c r="D99" t="n">
-        <v>9825</v>
+        <v>9775</v>
       </c>
       <c r="E99" t="n">
-        <v>9820</v>
+        <v>9760</v>
       </c>
       <c r="F99" t="n">
-        <v>746.1</v>
+        <v>29.6403</v>
       </c>
       <c r="G99" t="n">
-        <v>-834.0832360278697</v>
+        <v>-1338.667355148468</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3953,36 +4313,33 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>9820</v>
+        <v>9725</v>
       </c>
       <c r="C100" t="n">
-        <v>9820</v>
+        <v>9720</v>
       </c>
       <c r="D100" t="n">
-        <v>9820</v>
+        <v>9725</v>
       </c>
       <c r="E100" t="n">
-        <v>9820</v>
+        <v>9720</v>
       </c>
       <c r="F100" t="n">
-        <v>52.3079</v>
+        <v>96.98260000000001</v>
       </c>
       <c r="G100" t="n">
-        <v>-886.3911360278697</v>
+        <v>-1435.649955148468</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3992,36 +4349,33 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>9795</v>
+        <v>9720</v>
       </c>
       <c r="C101" t="n">
-        <v>9795</v>
+        <v>9720</v>
       </c>
       <c r="D101" t="n">
-        <v>9795</v>
+        <v>9720</v>
       </c>
       <c r="E101" t="n">
-        <v>9795</v>
+        <v>9720</v>
       </c>
       <c r="F101" t="n">
-        <v>35</v>
+        <v>33.915</v>
       </c>
       <c r="G101" t="n">
-        <v>-921.3911360278697</v>
+        <v>-1435.649955148468</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4031,36 +4385,33 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>9810</v>
+        <v>9780</v>
       </c>
       <c r="C102" t="n">
-        <v>9810</v>
+        <v>9780</v>
       </c>
       <c r="D102" t="n">
-        <v>9810</v>
+        <v>9780</v>
       </c>
       <c r="E102" t="n">
-        <v>9810</v>
+        <v>9780</v>
       </c>
       <c r="F102" t="n">
-        <v>8.4</v>
+        <v>0.1</v>
       </c>
       <c r="G102" t="n">
-        <v>-912.9911360278697</v>
+        <v>-1435.549955148468</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4070,36 +4421,33 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>9790</v>
+        <v>9775</v>
       </c>
       <c r="C103" t="n">
-        <v>9790</v>
+        <v>9775</v>
       </c>
       <c r="D103" t="n">
-        <v>9790</v>
+        <v>9775</v>
       </c>
       <c r="E103" t="n">
-        <v>9790</v>
+        <v>9775</v>
       </c>
       <c r="F103" t="n">
-        <v>25.6125</v>
+        <v>0.1</v>
       </c>
       <c r="G103" t="n">
-        <v>-938.6036360278697</v>
+        <v>-1435.649955148468</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4109,36 +4457,33 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>9790</v>
+        <v>9775</v>
       </c>
       <c r="C104" t="n">
-        <v>9785</v>
+        <v>9775</v>
       </c>
       <c r="D104" t="n">
-        <v>9790</v>
+        <v>9775</v>
       </c>
       <c r="E104" t="n">
-        <v>9785</v>
+        <v>9775</v>
       </c>
       <c r="F104" t="n">
-        <v>50</v>
+        <v>49.9999</v>
       </c>
       <c r="G104" t="n">
-        <v>-988.6036360278697</v>
+        <v>-1435.649955148468</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4148,36 +4493,33 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>9820</v>
+        <v>9730</v>
       </c>
       <c r="C105" t="n">
-        <v>9820</v>
+        <v>9730</v>
       </c>
       <c r="D105" t="n">
-        <v>9820</v>
+        <v>9730</v>
       </c>
       <c r="E105" t="n">
-        <v>9820</v>
+        <v>9730</v>
       </c>
       <c r="F105" t="n">
-        <v>0.1074</v>
+        <v>1.1642</v>
       </c>
       <c r="G105" t="n">
-        <v>-988.4962360278697</v>
+        <v>-1436.814155148468</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4187,36 +4529,33 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>9820</v>
+        <v>9775</v>
       </c>
       <c r="C106" t="n">
-        <v>9820</v>
+        <v>9785</v>
       </c>
       <c r="D106" t="n">
-        <v>9820</v>
+        <v>9785</v>
       </c>
       <c r="E106" t="n">
-        <v>9820</v>
+        <v>9775</v>
       </c>
       <c r="F106" t="n">
-        <v>0.5600000000000001</v>
+        <v>102.2360879918242</v>
       </c>
       <c r="G106" t="n">
-        <v>-988.4962360278697</v>
+        <v>-1334.578067156643</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4226,36 +4565,33 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>9805</v>
+        <v>9720</v>
       </c>
       <c r="C107" t="n">
-        <v>9805</v>
+        <v>9720</v>
       </c>
       <c r="D107" t="n">
-        <v>9805</v>
+        <v>9720</v>
       </c>
       <c r="E107" t="n">
-        <v>9805</v>
+        <v>9720</v>
       </c>
       <c r="F107" t="n">
-        <v>6.8917</v>
+        <v>2.1902</v>
       </c>
       <c r="G107" t="n">
-        <v>-995.3879360278697</v>
+        <v>-1336.768267156643</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4265,36 +4601,33 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>9820</v>
+        <v>9700</v>
       </c>
       <c r="C108" t="n">
-        <v>9825</v>
+        <v>9700</v>
       </c>
       <c r="D108" t="n">
-        <v>9825</v>
+        <v>9700</v>
       </c>
       <c r="E108" t="n">
-        <v>9820</v>
+        <v>9700</v>
       </c>
       <c r="F108" t="n">
-        <v>34.98715954198473</v>
+        <v>61.2007</v>
       </c>
       <c r="G108" t="n">
-        <v>-960.400776485885</v>
+        <v>-1397.968967156643</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4304,36 +4637,33 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>9825</v>
+        <v>9700</v>
       </c>
       <c r="C109" t="n">
-        <v>9825</v>
+        <v>9700</v>
       </c>
       <c r="D109" t="n">
-        <v>9825</v>
+        <v>9700</v>
       </c>
       <c r="E109" t="n">
-        <v>9825</v>
+        <v>9700</v>
       </c>
       <c r="F109" t="n">
-        <v>10</v>
+        <v>35.3545</v>
       </c>
       <c r="G109" t="n">
-        <v>-960.400776485885</v>
+        <v>-1397.968967156643</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4343,1748 +4673,95 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>9830</v>
+        <v>9700</v>
       </c>
       <c r="C110" t="n">
-        <v>9830</v>
+        <v>9700</v>
       </c>
       <c r="D110" t="n">
-        <v>9830</v>
+        <v>9700</v>
       </c>
       <c r="E110" t="n">
-        <v>9830</v>
+        <v>9700</v>
       </c>
       <c r="F110" t="n">
-        <v>6.248</v>
+        <v>17.8801</v>
       </c>
       <c r="G110" t="n">
-        <v>-954.1527764858849</v>
+        <v>-1397.968967156643</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="n">
+        <v>9700</v>
+      </c>
+      <c r="K110" t="n">
+        <v>9700</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>9830</v>
+        <v>9695</v>
       </c>
       <c r="C111" t="n">
-        <v>9810</v>
+        <v>9695</v>
       </c>
       <c r="D111" t="n">
-        <v>9830</v>
+        <v>9695</v>
       </c>
       <c r="E111" t="n">
-        <v>9810</v>
+        <v>9695</v>
       </c>
       <c r="F111" t="n">
-        <v>12.1729</v>
+        <v>7.0939</v>
       </c>
       <c r="G111" t="n">
-        <v>-966.325676485885</v>
+        <v>-1405.062867156644</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>9700</v>
+      </c>
+      <c r="K111" t="n">
+        <v>9700</v>
+      </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>9810</v>
-      </c>
-      <c r="C112" t="n">
-        <v>9810</v>
-      </c>
-      <c r="D112" t="n">
-        <v>9810</v>
-      </c>
-      <c r="E112" t="n">
-        <v>9810</v>
-      </c>
-      <c r="F112" t="n">
-        <v>8.147399999999999</v>
-      </c>
-      <c r="G112" t="n">
-        <v>-966.325676485885</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>9830</v>
-      </c>
-      <c r="C113" t="n">
-        <v>9830</v>
-      </c>
-      <c r="D113" t="n">
-        <v>9830</v>
-      </c>
-      <c r="E113" t="n">
-        <v>9830</v>
-      </c>
-      <c r="F113" t="n">
-        <v>0.1019</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-966.223776485885</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>9830</v>
-      </c>
-      <c r="C114" t="n">
-        <v>9835</v>
-      </c>
-      <c r="D114" t="n">
-        <v>9835</v>
-      </c>
-      <c r="E114" t="n">
-        <v>9830</v>
-      </c>
-      <c r="F114" t="n">
-        <v>51.4655</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-914.7582764858849</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>9835</v>
-      </c>
-      <c r="C115" t="n">
-        <v>9835</v>
-      </c>
-      <c r="D115" t="n">
-        <v>9835</v>
-      </c>
-      <c r="E115" t="n">
-        <v>9835</v>
-      </c>
-      <c r="F115" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="G115" t="n">
-        <v>-914.7582764858849</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>9835</v>
-      </c>
-      <c r="C116" t="n">
-        <v>9835</v>
-      </c>
-      <c r="D116" t="n">
-        <v>9835</v>
-      </c>
-      <c r="E116" t="n">
-        <v>9835</v>
-      </c>
-      <c r="F116" t="n">
-        <v>9.0861</v>
-      </c>
-      <c r="G116" t="n">
-        <v>-914.7582764858849</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>9820</v>
-      </c>
-      <c r="C117" t="n">
-        <v>9820</v>
-      </c>
-      <c r="D117" t="n">
-        <v>9820</v>
-      </c>
-      <c r="E117" t="n">
-        <v>9820</v>
-      </c>
-      <c r="F117" t="n">
-        <v>9.242800000000001</v>
-      </c>
-      <c r="G117" t="n">
-        <v>-924.0010764858849</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>9835</v>
-      </c>
-      <c r="C118" t="n">
-        <v>9820</v>
-      </c>
-      <c r="D118" t="n">
-        <v>9835</v>
-      </c>
-      <c r="E118" t="n">
-        <v>9820</v>
-      </c>
-      <c r="F118" t="n">
-        <v>9.826000000000001</v>
-      </c>
-      <c r="G118" t="n">
-        <v>-924.0010764858849</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>9820</v>
-      </c>
-      <c r="C119" t="n">
-        <v>9820</v>
-      </c>
-      <c r="D119" t="n">
-        <v>9820</v>
-      </c>
-      <c r="E119" t="n">
-        <v>9820</v>
-      </c>
-      <c r="F119" t="n">
-        <v>8.147</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-924.0010764858849</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>9830</v>
-      </c>
-      <c r="C120" t="n">
-        <v>9830</v>
-      </c>
-      <c r="D120" t="n">
-        <v>9830</v>
-      </c>
-      <c r="E120" t="n">
-        <v>9830</v>
-      </c>
-      <c r="F120" t="n">
-        <v>13.0202</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-910.9808764858849</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>9820</v>
-      </c>
-      <c r="C121" t="n">
-        <v>9820</v>
-      </c>
-      <c r="D121" t="n">
-        <v>9820</v>
-      </c>
-      <c r="E121" t="n">
-        <v>9820</v>
-      </c>
-      <c r="F121" t="n">
-        <v>27.8045</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-938.7853764858849</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>9820</v>
-      </c>
-      <c r="C122" t="n">
-        <v>9820</v>
-      </c>
-      <c r="D122" t="n">
-        <v>9820</v>
-      </c>
-      <c r="E122" t="n">
-        <v>9820</v>
-      </c>
-      <c r="F122" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-938.7853764858849</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>9820</v>
-      </c>
-      <c r="C123" t="n">
-        <v>9820</v>
-      </c>
-      <c r="D123" t="n">
-        <v>9820</v>
-      </c>
-      <c r="E123" t="n">
-        <v>9820</v>
-      </c>
-      <c r="F123" t="n">
-        <v>7.5386</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-938.7853764858849</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>9830</v>
-      </c>
-      <c r="C124" t="n">
-        <v>9835</v>
-      </c>
-      <c r="D124" t="n">
-        <v>9835</v>
-      </c>
-      <c r="E124" t="n">
-        <v>9830</v>
-      </c>
-      <c r="F124" t="n">
-        <v>59.8086</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-878.9767764858849</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>9835</v>
-      </c>
-      <c r="C125" t="n">
-        <v>9835</v>
-      </c>
-      <c r="D125" t="n">
-        <v>9835</v>
-      </c>
-      <c r="E125" t="n">
-        <v>9835</v>
-      </c>
-      <c r="F125" t="n">
-        <v>7.2139</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-878.9767764858849</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>9835</v>
-      </c>
-      <c r="C126" t="n">
-        <v>9835</v>
-      </c>
-      <c r="D126" t="n">
-        <v>9835</v>
-      </c>
-      <c r="E126" t="n">
-        <v>9835</v>
-      </c>
-      <c r="F126" t="n">
-        <v>73.9371</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-878.9767764858849</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>9840</v>
-      </c>
-      <c r="C127" t="n">
-        <v>9840</v>
-      </c>
-      <c r="D127" t="n">
-        <v>9840</v>
-      </c>
-      <c r="E127" t="n">
-        <v>9840</v>
-      </c>
-      <c r="F127" t="n">
-        <v>11.037</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-867.9397764858849</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>9835</v>
-      </c>
-      <c r="C128" t="n">
-        <v>9840</v>
-      </c>
-      <c r="D128" t="n">
-        <v>9840</v>
-      </c>
-      <c r="E128" t="n">
-        <v>9835</v>
-      </c>
-      <c r="F128" t="n">
-        <v>119.8529</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-867.9397764858849</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>9835</v>
-      </c>
-      <c r="C129" t="n">
-        <v>9835</v>
-      </c>
-      <c r="D129" t="n">
-        <v>9835</v>
-      </c>
-      <c r="E129" t="n">
-        <v>9835</v>
-      </c>
-      <c r="F129" t="n">
-        <v>34</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-901.9397764858849</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>9805</v>
-      </c>
-      <c r="C130" t="n">
-        <v>9805</v>
-      </c>
-      <c r="D130" t="n">
-        <v>9805</v>
-      </c>
-      <c r="E130" t="n">
-        <v>9805</v>
-      </c>
-      <c r="F130" t="n">
-        <v>1</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-902.9397764858849</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>9805</v>
-      </c>
-      <c r="C131" t="n">
-        <v>9800</v>
-      </c>
-      <c r="D131" t="n">
-        <v>9805</v>
-      </c>
-      <c r="E131" t="n">
-        <v>9800</v>
-      </c>
-      <c r="F131" t="n">
-        <v>48.0666</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-951.0063764858849</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>9800</v>
-      </c>
-      <c r="C132" t="n">
-        <v>9800</v>
-      </c>
-      <c r="D132" t="n">
-        <v>9800</v>
-      </c>
-      <c r="E132" t="n">
-        <v>9800</v>
-      </c>
-      <c r="F132" t="n">
-        <v>1</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-951.0063764858849</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>9800</v>
-      </c>
-      <c r="C133" t="n">
-        <v>9800</v>
-      </c>
-      <c r="D133" t="n">
-        <v>9800</v>
-      </c>
-      <c r="E133" t="n">
-        <v>9800</v>
-      </c>
-      <c r="F133" t="n">
-        <v>53.2056</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-951.0063764858849</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>9765</v>
-      </c>
-      <c r="C134" t="n">
-        <v>9735</v>
-      </c>
-      <c r="D134" t="n">
-        <v>9765</v>
-      </c>
-      <c r="E134" t="n">
-        <v>9735</v>
-      </c>
-      <c r="F134" t="n">
-        <v>424.407</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-1375.413376485885</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>9785</v>
-      </c>
-      <c r="C135" t="n">
-        <v>9785</v>
-      </c>
-      <c r="D135" t="n">
-        <v>9785</v>
-      </c>
-      <c r="E135" t="n">
-        <v>9785</v>
-      </c>
-      <c r="F135" t="n">
-        <v>6.4606</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-1368.952776485885</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>9790</v>
-      </c>
-      <c r="C136" t="n">
-        <v>9795</v>
-      </c>
-      <c r="D136" t="n">
-        <v>9795</v>
-      </c>
-      <c r="E136" t="n">
-        <v>9790</v>
-      </c>
-      <c r="F136" t="n">
-        <v>9.99732133741705</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-1358.955455148468</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>9775</v>
-      </c>
-      <c r="C137" t="n">
-        <v>9775</v>
-      </c>
-      <c r="D137" t="n">
-        <v>9775</v>
-      </c>
-      <c r="E137" t="n">
-        <v>9775</v>
-      </c>
-      <c r="F137" t="n">
-        <v>3.6579</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-1362.613355148467</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>9730</v>
-      </c>
-      <c r="C138" t="n">
-        <v>9730</v>
-      </c>
-      <c r="D138" t="n">
-        <v>9730</v>
-      </c>
-      <c r="E138" t="n">
-        <v>9730</v>
-      </c>
-      <c r="F138" t="n">
-        <v>27.2554</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-1389.868755148467</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>9730</v>
-      </c>
-      <c r="C139" t="n">
-        <v>9730</v>
-      </c>
-      <c r="D139" t="n">
-        <v>9730</v>
-      </c>
-      <c r="E139" t="n">
-        <v>9730</v>
-      </c>
-      <c r="F139" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-1389.868755148467</v>
-      </c>
-      <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="n">
-        <v>9730</v>
-      </c>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>9720</v>
-      </c>
-      <c r="C140" t="n">
-        <v>9745</v>
-      </c>
-      <c r="D140" t="n">
-        <v>9745</v>
-      </c>
-      <c r="E140" t="n">
-        <v>9720</v>
-      </c>
-      <c r="F140" t="n">
-        <v>21.5611</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-1368.307655148468</v>
-      </c>
-      <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="n">
-        <v>9730</v>
-      </c>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>9760</v>
-      </c>
-      <c r="C141" t="n">
-        <v>9775</v>
-      </c>
-      <c r="D141" t="n">
-        <v>9775</v>
-      </c>
-      <c r="E141" t="n">
-        <v>9760</v>
-      </c>
-      <c r="F141" t="n">
-        <v>29.6403</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-1338.667355148468</v>
-      </c>
-      <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="n">
-        <v>9745</v>
-      </c>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>9725</v>
-      </c>
-      <c r="C142" t="n">
-        <v>9720</v>
-      </c>
-      <c r="D142" t="n">
-        <v>9725</v>
-      </c>
-      <c r="E142" t="n">
-        <v>9720</v>
-      </c>
-      <c r="F142" t="n">
-        <v>96.98260000000001</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-1435.649955148468</v>
-      </c>
-      <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="n">
-        <v>9775</v>
-      </c>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>9720</v>
-      </c>
-      <c r="C143" t="n">
-        <v>9720</v>
-      </c>
-      <c r="D143" t="n">
-        <v>9720</v>
-      </c>
-      <c r="E143" t="n">
-        <v>9720</v>
-      </c>
-      <c r="F143" t="n">
-        <v>33.915</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-1435.649955148468</v>
-      </c>
-      <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="n">
-        <v>9720</v>
-      </c>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>9780</v>
-      </c>
-      <c r="C144" t="n">
-        <v>9780</v>
-      </c>
-      <c r="D144" t="n">
-        <v>9780</v>
-      </c>
-      <c r="E144" t="n">
-        <v>9780</v>
-      </c>
-      <c r="F144" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-1435.549955148468</v>
-      </c>
-      <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="n">
-        <v>9720</v>
-      </c>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>9775</v>
-      </c>
-      <c r="C145" t="n">
-        <v>9775</v>
-      </c>
-      <c r="D145" t="n">
-        <v>9775</v>
-      </c>
-      <c r="E145" t="n">
-        <v>9775</v>
-      </c>
-      <c r="F145" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-1435.649955148468</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>9775</v>
-      </c>
-      <c r="C146" t="n">
-        <v>9775</v>
-      </c>
-      <c r="D146" t="n">
-        <v>9775</v>
-      </c>
-      <c r="E146" t="n">
-        <v>9775</v>
-      </c>
-      <c r="F146" t="n">
-        <v>49.9999</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-1435.649955148468</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>9730</v>
-      </c>
-      <c r="C147" t="n">
-        <v>9730</v>
-      </c>
-      <c r="D147" t="n">
-        <v>9730</v>
-      </c>
-      <c r="E147" t="n">
-        <v>9730</v>
-      </c>
-      <c r="F147" t="n">
-        <v>1.1642</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-1436.814155148468</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>9775</v>
-      </c>
-      <c r="C148" t="n">
-        <v>9785</v>
-      </c>
-      <c r="D148" t="n">
-        <v>9785</v>
-      </c>
-      <c r="E148" t="n">
-        <v>9775</v>
-      </c>
-      <c r="F148" t="n">
-        <v>102.2360879918242</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-1334.578067156643</v>
-      </c>
-      <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="n">
-        <v>9730</v>
-      </c>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>9720</v>
-      </c>
-      <c r="C149" t="n">
-        <v>9720</v>
-      </c>
-      <c r="D149" t="n">
-        <v>9720</v>
-      </c>
-      <c r="E149" t="n">
-        <v>9720</v>
-      </c>
-      <c r="F149" t="n">
-        <v>2.1902</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-1336.768267156643</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>9700</v>
-      </c>
-      <c r="C150" t="n">
-        <v>9700</v>
-      </c>
-      <c r="D150" t="n">
-        <v>9700</v>
-      </c>
-      <c r="E150" t="n">
-        <v>9700</v>
-      </c>
-      <c r="F150" t="n">
-        <v>61.2007</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-1397.968967156643</v>
-      </c>
-      <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="n">
-        <v>9720</v>
-      </c>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>9700</v>
-      </c>
-      <c r="C151" t="n">
-        <v>9700</v>
-      </c>
-      <c r="D151" t="n">
-        <v>9700</v>
-      </c>
-      <c r="E151" t="n">
-        <v>9700</v>
-      </c>
-      <c r="F151" t="n">
-        <v>35.3545</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-1397.968967156643</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>9700</v>
-      </c>
-      <c r="C152" t="n">
-        <v>9700</v>
-      </c>
-      <c r="D152" t="n">
-        <v>9700</v>
-      </c>
-      <c r="E152" t="n">
-        <v>9700</v>
-      </c>
-      <c r="F152" t="n">
-        <v>17.8801</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-1397.968967156643</v>
-      </c>
-      <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="n">
-        <v>9700</v>
-      </c>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>9695</v>
-      </c>
-      <c r="C153" t="n">
-        <v>9695</v>
-      </c>
-      <c r="D153" t="n">
-        <v>9695</v>
-      </c>
-      <c r="E153" t="n">
-        <v>9695</v>
-      </c>
-      <c r="F153" t="n">
-        <v>7.0939</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-1405.062867156644</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
+      <c r="N111" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-19 BackTest REP.xlsx
+++ b/BackTest/2019-10-19 BackTest REP.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N111"/>
+  <dimension ref="A1:N182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9820</v>
+        <v>9835</v>
       </c>
       <c r="C2" t="n">
-        <v>9820</v>
+        <v>9835</v>
       </c>
       <c r="D2" t="n">
-        <v>9820</v>
+        <v>9835</v>
       </c>
       <c r="E2" t="n">
-        <v>9820</v>
+        <v>9835</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1</v>
+        <v>2.8192</v>
       </c>
       <c r="G2" t="n">
-        <v>-958.0990326530614</v>
+        <v>-267.1804</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9800</v>
+        <v>9770</v>
       </c>
       <c r="C3" t="n">
-        <v>9800</v>
+        <v>9780</v>
       </c>
       <c r="D3" t="n">
-        <v>9800</v>
+        <v>9780</v>
       </c>
       <c r="E3" t="n">
-        <v>9800</v>
+        <v>9760</v>
       </c>
       <c r="F3" t="n">
-        <v>61.7474</v>
+        <v>198.2627</v>
       </c>
       <c r="G3" t="n">
-        <v>-1019.846432653061</v>
+        <v>-465.4431</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,28 +510,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9800</v>
+        <v>9770</v>
       </c>
       <c r="C4" t="n">
-        <v>9800</v>
+        <v>9770</v>
       </c>
       <c r="D4" t="n">
-        <v>9800</v>
+        <v>9770</v>
       </c>
       <c r="E4" t="n">
-        <v>9800</v>
+        <v>9770</v>
       </c>
       <c r="F4" t="n">
-        <v>21.475</v>
+        <v>31.461</v>
       </c>
       <c r="G4" t="n">
-        <v>-1019.846432653061</v>
+        <v>-496.9041</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -546,28 +546,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9800</v>
+        <v>9770</v>
       </c>
       <c r="C5" t="n">
-        <v>9800</v>
+        <v>9770</v>
       </c>
       <c r="D5" t="n">
-        <v>9800</v>
+        <v>9770</v>
       </c>
       <c r="E5" t="n">
-        <v>9800</v>
+        <v>9770</v>
       </c>
       <c r="F5" t="n">
-        <v>5.7422</v>
+        <v>57.5998</v>
       </c>
       <c r="G5" t="n">
-        <v>-1019.846432653061</v>
+        <v>-496.9041</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9800</v>
+        <v>9770</v>
       </c>
       <c r="C6" t="n">
-        <v>9800</v>
+        <v>9770</v>
       </c>
       <c r="D6" t="n">
-        <v>9800</v>
+        <v>9770</v>
       </c>
       <c r="E6" t="n">
-        <v>9800</v>
+        <v>9770</v>
       </c>
       <c r="F6" t="n">
-        <v>4.1346</v>
+        <v>18.8837</v>
       </c>
       <c r="G6" t="n">
-        <v>-1019.846432653061</v>
+        <v>-496.9041</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,28 +618,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>9800</v>
+        <v>9765</v>
       </c>
       <c r="C7" t="n">
-        <v>9800</v>
+        <v>9760</v>
       </c>
       <c r="D7" t="n">
-        <v>9800</v>
+        <v>9765</v>
       </c>
       <c r="E7" t="n">
-        <v>9800</v>
+        <v>9760</v>
       </c>
       <c r="F7" t="n">
-        <v>323.1039</v>
+        <v>83.7025</v>
       </c>
       <c r="G7" t="n">
-        <v>-1019.846432653061</v>
+        <v>-580.6066000000001</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9800</v>
+        <v>9755</v>
       </c>
       <c r="C8" t="n">
-        <v>9800</v>
+        <v>9755</v>
       </c>
       <c r="D8" t="n">
-        <v>9800</v>
+        <v>9755</v>
       </c>
       <c r="E8" t="n">
-        <v>9800</v>
+        <v>9755</v>
       </c>
       <c r="F8" t="n">
-        <v>34</v>
+        <v>34.6767</v>
       </c>
       <c r="G8" t="n">
-        <v>-1019.846432653061</v>
+        <v>-615.2833000000001</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,28 +690,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>9825</v>
+        <v>9750</v>
       </c>
       <c r="C9" t="n">
-        <v>9825</v>
+        <v>9750</v>
       </c>
       <c r="D9" t="n">
-        <v>9825</v>
+        <v>9750</v>
       </c>
       <c r="E9" t="n">
-        <v>9825</v>
+        <v>9750</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2137404580152672</v>
+        <v>101.345</v>
       </c>
       <c r="G9" t="n">
-        <v>-1019.632692195046</v>
+        <v>-716.6283000000001</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -726,28 +726,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9800</v>
+        <v>9735</v>
       </c>
       <c r="C10" t="n">
-        <v>9800</v>
+        <v>9735</v>
       </c>
       <c r="D10" t="n">
-        <v>9800</v>
+        <v>9735</v>
       </c>
       <c r="E10" t="n">
-        <v>9800</v>
+        <v>9735</v>
       </c>
       <c r="F10" t="n">
-        <v>0.15</v>
+        <v>3.3669</v>
       </c>
       <c r="G10" t="n">
-        <v>-1019.782692195046</v>
+        <v>-719.9952000000001</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -762,28 +762,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9820</v>
+        <v>9765</v>
       </c>
       <c r="C11" t="n">
-        <v>9820</v>
+        <v>9765</v>
       </c>
       <c r="D11" t="n">
-        <v>9820</v>
+        <v>9765</v>
       </c>
       <c r="E11" t="n">
-        <v>9820</v>
+        <v>9765</v>
       </c>
       <c r="F11" t="n">
-        <v>4.8748</v>
+        <v>6.511</v>
       </c>
       <c r="G11" t="n">
-        <v>-1014.907892195046</v>
+        <v>-713.4842000000001</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -798,28 +798,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>9805</v>
+        <v>9790</v>
       </c>
       <c r="C12" t="n">
-        <v>9805</v>
+        <v>9785</v>
       </c>
       <c r="D12" t="n">
-        <v>9805</v>
+        <v>9790</v>
       </c>
       <c r="E12" t="n">
-        <v>9805</v>
+        <v>9785</v>
       </c>
       <c r="F12" t="n">
-        <v>2.45</v>
+        <v>61.1486</v>
       </c>
       <c r="G12" t="n">
-        <v>-1017.357892195046</v>
+        <v>-652.3356000000001</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -834,28 +834,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>9800</v>
+        <v>9725</v>
       </c>
       <c r="C13" t="n">
-        <v>9800</v>
+        <v>9725</v>
       </c>
       <c r="D13" t="n">
-        <v>9800</v>
+        <v>9725</v>
       </c>
       <c r="E13" t="n">
-        <v>9800</v>
+        <v>9725</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2283</v>
+        <v>5.8519</v>
       </c>
       <c r="G13" t="n">
-        <v>-1017.586192195046</v>
+        <v>-658.1875000000001</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -870,28 +870,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>9760</v>
+        <v>9800</v>
       </c>
       <c r="C14" t="n">
-        <v>9760</v>
+        <v>9800</v>
       </c>
       <c r="D14" t="n">
-        <v>9760</v>
+        <v>9800</v>
       </c>
       <c r="E14" t="n">
-        <v>9760</v>
+        <v>9800</v>
       </c>
       <c r="F14" t="n">
-        <v>43.7945</v>
+        <v>0.3033673469387755</v>
       </c>
       <c r="G14" t="n">
-        <v>-1061.380692195046</v>
+        <v>-657.8841326530613</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>9775</v>
+        <v>9795</v>
       </c>
       <c r="C15" t="n">
-        <v>9775</v>
+        <v>9805</v>
       </c>
       <c r="D15" t="n">
-        <v>9775</v>
+        <v>9805</v>
       </c>
       <c r="E15" t="n">
-        <v>9775</v>
+        <v>9795</v>
       </c>
       <c r="F15" t="n">
-        <v>1.7128</v>
+        <v>527.9992</v>
       </c>
       <c r="G15" t="n">
-        <v>-1059.667892195046</v>
+        <v>-129.8849326530614</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -942,28 +942,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>9745</v>
+        <v>9800</v>
       </c>
       <c r="C16" t="n">
-        <v>9740</v>
+        <v>9805</v>
       </c>
       <c r="D16" t="n">
-        <v>9745</v>
+        <v>9805</v>
       </c>
       <c r="E16" t="n">
-        <v>9740</v>
+        <v>9800</v>
       </c>
       <c r="F16" t="n">
-        <v>557.5115</v>
+        <v>43.7945</v>
       </c>
       <c r="G16" t="n">
-        <v>-1617.179392195046</v>
+        <v>-129.8849326530614</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -978,28 +978,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>9775</v>
+        <v>9785</v>
       </c>
       <c r="C17" t="n">
-        <v>9775</v>
+        <v>9785</v>
       </c>
       <c r="D17" t="n">
-        <v>9775</v>
+        <v>9785</v>
       </c>
       <c r="E17" t="n">
-        <v>9775</v>
+        <v>9785</v>
       </c>
       <c r="F17" t="n">
-        <v>27.6191</v>
+        <v>58.1097</v>
       </c>
       <c r="G17" t="n">
-        <v>-1589.560292195046</v>
+        <v>-187.9946326530614</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -1014,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>9780</v>
+        <v>9795</v>
       </c>
       <c r="C18" t="n">
-        <v>9780</v>
+        <v>9800</v>
       </c>
       <c r="D18" t="n">
-        <v>9780</v>
+        <v>9800</v>
       </c>
       <c r="E18" t="n">
-        <v>9780</v>
+        <v>9795</v>
       </c>
       <c r="F18" t="n">
-        <v>2.5</v>
+        <v>16.87</v>
       </c>
       <c r="G18" t="n">
-        <v>-1587.060292195046</v>
+        <v>-171.1246326530614</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>9770</v>
+        <v>9810</v>
       </c>
       <c r="C19" t="n">
-        <v>9770</v>
+        <v>9810</v>
       </c>
       <c r="D19" t="n">
-        <v>9770</v>
+        <v>9810</v>
       </c>
       <c r="E19" t="n">
-        <v>9770</v>
+        <v>9810</v>
       </c>
       <c r="F19" t="n">
-        <v>5.483</v>
+        <v>15</v>
       </c>
       <c r="G19" t="n">
-        <v>-1592.543292195046</v>
+        <v>-156.1246326530614</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>9760</v>
+        <v>9800</v>
       </c>
       <c r="C20" t="n">
-        <v>9760</v>
+        <v>9800</v>
       </c>
       <c r="D20" t="n">
-        <v>9760</v>
+        <v>9800</v>
       </c>
       <c r="E20" t="n">
-        <v>9760</v>
+        <v>9800</v>
       </c>
       <c r="F20" t="n">
-        <v>6.3906</v>
+        <v>2.5673</v>
       </c>
       <c r="G20" t="n">
-        <v>-1598.933892195046</v>
+        <v>-158.6919326530613</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>9765</v>
+        <v>9805</v>
       </c>
       <c r="C21" t="n">
-        <v>9770</v>
+        <v>9805</v>
       </c>
       <c r="D21" t="n">
-        <v>9770</v>
+        <v>9805</v>
       </c>
       <c r="E21" t="n">
-        <v>9765</v>
+        <v>9805</v>
       </c>
       <c r="F21" t="n">
-        <v>23.1929</v>
+        <v>4.4729</v>
       </c>
       <c r="G21" t="n">
-        <v>-1575.740992195046</v>
+        <v>-154.2190326530613</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>9770</v>
+        <v>9815</v>
       </c>
       <c r="C22" t="n">
-        <v>9770</v>
+        <v>9815</v>
       </c>
       <c r="D22" t="n">
-        <v>9770</v>
+        <v>9815</v>
       </c>
       <c r="E22" t="n">
-        <v>9770</v>
+        <v>9815</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0001</v>
+        <v>30.56</v>
       </c>
       <c r="G22" t="n">
-        <v>-1575.740992195046</v>
+        <v>-123.6590326530613</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>9775</v>
+        <v>9820</v>
       </c>
       <c r="C23" t="n">
-        <v>9775</v>
+        <v>9820</v>
       </c>
       <c r="D23" t="n">
-        <v>9775</v>
+        <v>9820</v>
       </c>
       <c r="E23" t="n">
-        <v>9775</v>
+        <v>9820</v>
       </c>
       <c r="F23" t="n">
-        <v>28.1455</v>
+        <v>92.2855</v>
       </c>
       <c r="G23" t="n">
-        <v>-1547.595492195046</v>
+        <v>-31.37353265306133</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1230,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>9770</v>
+        <v>9830</v>
       </c>
       <c r="C24" t="n">
-        <v>9770</v>
+        <v>9830</v>
       </c>
       <c r="D24" t="n">
-        <v>9770</v>
+        <v>9830</v>
       </c>
       <c r="E24" t="n">
-        <v>9770</v>
+        <v>9830</v>
       </c>
       <c r="F24" t="n">
-        <v>8.135199999999999</v>
+        <v>34.9</v>
       </c>
       <c r="G24" t="n">
-        <v>-1555.730692195046</v>
+        <v>3.526467346938666</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1266,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>9745</v>
+        <v>9830</v>
       </c>
       <c r="C25" t="n">
-        <v>9745</v>
+        <v>9830</v>
       </c>
       <c r="D25" t="n">
-        <v>9745</v>
+        <v>9830</v>
       </c>
       <c r="E25" t="n">
-        <v>9745</v>
+        <v>9830</v>
       </c>
       <c r="F25" t="n">
-        <v>11.573</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="G25" t="n">
-        <v>-1567.303692195046</v>
+        <v>3.526467346938666</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1302,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>9740</v>
+        <v>9815</v>
       </c>
       <c r="C26" t="n">
-        <v>9735</v>
+        <v>9815</v>
       </c>
       <c r="D26" t="n">
-        <v>9740</v>
+        <v>9815</v>
       </c>
       <c r="E26" t="n">
-        <v>9735</v>
+        <v>9815</v>
       </c>
       <c r="F26" t="n">
-        <v>56.8512</v>
+        <v>0.0054</v>
       </c>
       <c r="G26" t="n">
-        <v>-1624.154892195046</v>
+        <v>3.521067346938667</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>9735</v>
+        <v>9780</v>
       </c>
       <c r="C27" t="n">
-        <v>9735</v>
+        <v>9780</v>
       </c>
       <c r="D27" t="n">
-        <v>9735</v>
+        <v>9780</v>
       </c>
       <c r="E27" t="n">
-        <v>9735</v>
+        <v>9780</v>
       </c>
       <c r="F27" t="n">
-        <v>4.7852</v>
+        <v>18</v>
       </c>
       <c r="G27" t="n">
-        <v>-1624.154892195046</v>
+        <v>-14.47893265306133</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1374,35 +1374,31 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>9735</v>
+        <v>9785</v>
       </c>
       <c r="C28" t="n">
-        <v>9735</v>
+        <v>9770</v>
       </c>
       <c r="D28" t="n">
-        <v>9735</v>
+        <v>9785</v>
       </c>
       <c r="E28" t="n">
-        <v>9735</v>
+        <v>9770</v>
       </c>
       <c r="F28" t="n">
-        <v>62.8512</v>
+        <v>108.7058</v>
       </c>
       <c r="G28" t="n">
-        <v>-1624.154892195046</v>
+        <v>-123.1847326530613</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>9735</v>
-      </c>
-      <c r="K28" t="n">
-        <v>9735</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
@@ -1414,40 +1410,32 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>9735</v>
+        <v>9775</v>
       </c>
       <c r="C29" t="n">
-        <v>9730</v>
+        <v>9750</v>
       </c>
       <c r="D29" t="n">
-        <v>9735</v>
+        <v>9775</v>
       </c>
       <c r="E29" t="n">
-        <v>9730</v>
+        <v>9750</v>
       </c>
       <c r="F29" t="n">
-        <v>14.8354</v>
+        <v>336.7632</v>
       </c>
       <c r="G29" t="n">
-        <v>-1638.990292195046</v>
+        <v>-459.9479326530613</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>9735</v>
-      </c>
-      <c r="K29" t="n">
-        <v>9735</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1458,40 +1446,32 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>9730</v>
+        <v>9810</v>
       </c>
       <c r="C30" t="n">
-        <v>9745</v>
+        <v>9815</v>
       </c>
       <c r="D30" t="n">
-        <v>9760</v>
+        <v>9815</v>
       </c>
       <c r="E30" t="n">
-        <v>9720</v>
+        <v>9810</v>
       </c>
       <c r="F30" t="n">
-        <v>81.7848</v>
+        <v>65</v>
       </c>
       <c r="G30" t="n">
-        <v>-1557.205492195046</v>
+        <v>-394.9479326530613</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>9730</v>
-      </c>
-      <c r="K30" t="n">
-        <v>9735</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1502,40 +1482,32 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>9760</v>
+        <v>9810</v>
       </c>
       <c r="C31" t="n">
-        <v>9760</v>
+        <v>9810</v>
       </c>
       <c r="D31" t="n">
-        <v>9760</v>
+        <v>9810</v>
       </c>
       <c r="E31" t="n">
-        <v>9760</v>
+        <v>9810</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1197</v>
+        <v>35</v>
       </c>
       <c r="G31" t="n">
-        <v>-1557.085792195046</v>
+        <v>-429.9479326530613</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>9745</v>
-      </c>
-      <c r="K31" t="n">
-        <v>9735</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1546,40 +1518,32 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>9765</v>
+        <v>9810</v>
       </c>
       <c r="C32" t="n">
-        <v>9765</v>
+        <v>9810</v>
       </c>
       <c r="D32" t="n">
-        <v>9765</v>
+        <v>9810</v>
       </c>
       <c r="E32" t="n">
-        <v>9765</v>
+        <v>9810</v>
       </c>
       <c r="F32" t="n">
-        <v>9.434699999999999</v>
+        <v>28.5821</v>
       </c>
       <c r="G32" t="n">
-        <v>-1547.651092195046</v>
+        <v>-429.9479326530613</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>9760</v>
-      </c>
-      <c r="K32" t="n">
-        <v>9735</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1590,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>9730</v>
+        <v>9810</v>
       </c>
       <c r="C33" t="n">
-        <v>9765</v>
+        <v>9810</v>
       </c>
       <c r="D33" t="n">
-        <v>9765</v>
+        <v>9810</v>
       </c>
       <c r="E33" t="n">
-        <v>9700</v>
+        <v>9810</v>
       </c>
       <c r="F33" t="n">
-        <v>540.5271</v>
+        <v>15</v>
       </c>
       <c r="G33" t="n">
-        <v>-1547.651092195046</v>
+        <v>-429.9479326530613</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1614,14 +1578,8 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>9735</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1632,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>9740</v>
+        <v>9810</v>
       </c>
       <c r="C34" t="n">
-        <v>9750</v>
+        <v>9810</v>
       </c>
       <c r="D34" t="n">
-        <v>9750</v>
+        <v>9810</v>
       </c>
       <c r="E34" t="n">
-        <v>9740</v>
+        <v>9810</v>
       </c>
       <c r="F34" t="n">
-        <v>50</v>
+        <v>4.38</v>
       </c>
       <c r="G34" t="n">
-        <v>-1597.651092195046</v>
+        <v>-429.9479326530613</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1656,14 +1614,8 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>9735</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1674,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>9715</v>
+        <v>9810</v>
       </c>
       <c r="C35" t="n">
-        <v>9710</v>
+        <v>9810</v>
       </c>
       <c r="D35" t="n">
-        <v>9715</v>
+        <v>9810</v>
       </c>
       <c r="E35" t="n">
-        <v>9710</v>
+        <v>9810</v>
       </c>
       <c r="F35" t="n">
-        <v>17.7465</v>
+        <v>12.903</v>
       </c>
       <c r="G35" t="n">
-        <v>-1615.397592195046</v>
+        <v>-429.9479326530613</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1698,14 +1650,8 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>9735</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1716,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>9715</v>
+        <v>9825</v>
       </c>
       <c r="C36" t="n">
-        <v>9715</v>
+        <v>9825</v>
       </c>
       <c r="D36" t="n">
-        <v>9715</v>
+        <v>9825</v>
       </c>
       <c r="E36" t="n">
-        <v>9715</v>
+        <v>9825</v>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>7.7402</v>
       </c>
       <c r="G36" t="n">
-        <v>-1614.397592195046</v>
+        <v>-422.2077326530613</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1740,14 +1686,8 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>9735</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1758,40 +1698,32 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>9735</v>
+        <v>9810</v>
       </c>
       <c r="C37" t="n">
-        <v>9740</v>
+        <v>9810</v>
       </c>
       <c r="D37" t="n">
-        <v>9740</v>
+        <v>9810</v>
       </c>
       <c r="E37" t="n">
-        <v>9735</v>
+        <v>9810</v>
       </c>
       <c r="F37" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G37" t="n">
-        <v>-1564.397592195046</v>
+        <v>-437.2077326530613</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>9715</v>
-      </c>
-      <c r="K37" t="n">
-        <v>9735</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1802,40 +1734,32 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>9750</v>
+        <v>9810</v>
       </c>
       <c r="C38" t="n">
-        <v>9750</v>
+        <v>9810</v>
       </c>
       <c r="D38" t="n">
-        <v>9750</v>
+        <v>9810</v>
       </c>
       <c r="E38" t="n">
-        <v>9750</v>
+        <v>9810</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1</v>
+        <v>41.3294</v>
       </c>
       <c r="G38" t="n">
-        <v>-1564.297592195046</v>
+        <v>-437.2077326530613</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>9740</v>
-      </c>
-      <c r="K38" t="n">
-        <v>9735</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1846,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>9740</v>
+        <v>9810</v>
       </c>
       <c r="C39" t="n">
-        <v>9740</v>
+        <v>9810</v>
       </c>
       <c r="D39" t="n">
-        <v>9740</v>
+        <v>9810</v>
       </c>
       <c r="E39" t="n">
-        <v>9740</v>
+        <v>9810</v>
       </c>
       <c r="F39" t="n">
-        <v>6.2155</v>
+        <v>0.0042</v>
       </c>
       <c r="G39" t="n">
-        <v>-1570.513092195046</v>
+        <v>-437.2077326530613</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1870,14 +1794,8 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>9735</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1888,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>9740</v>
+        <v>9800</v>
       </c>
       <c r="C40" t="n">
-        <v>9740</v>
+        <v>9800</v>
       </c>
       <c r="D40" t="n">
-        <v>9740</v>
+        <v>9800</v>
       </c>
       <c r="E40" t="n">
-        <v>9740</v>
+        <v>9800</v>
       </c>
       <c r="F40" t="n">
-        <v>10.5956</v>
+        <v>8</v>
       </c>
       <c r="G40" t="n">
-        <v>-1570.513092195046</v>
+        <v>-445.2077326530613</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1912,14 +1830,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>9735</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1930,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>9755</v>
+        <v>9800</v>
       </c>
       <c r="C41" t="n">
-        <v>9755</v>
+        <v>9800</v>
       </c>
       <c r="D41" t="n">
-        <v>9755</v>
+        <v>9800</v>
       </c>
       <c r="E41" t="n">
-        <v>9755</v>
+        <v>9800</v>
       </c>
       <c r="F41" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G41" t="n">
-        <v>-1568.513092195046</v>
+        <v>-445.2077326530613</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1954,14 +1866,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>9735</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1972,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>9750</v>
+        <v>9800</v>
       </c>
       <c r="C42" t="n">
-        <v>9745</v>
+        <v>9800</v>
       </c>
       <c r="D42" t="n">
-        <v>9750</v>
+        <v>9800</v>
       </c>
       <c r="E42" t="n">
-        <v>9745</v>
+        <v>9800</v>
       </c>
       <c r="F42" t="n">
-        <v>34.2553</v>
+        <v>20</v>
       </c>
       <c r="G42" t="n">
-        <v>-1602.768392195046</v>
+        <v>-445.2077326530613</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1996,14 +1902,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>9735</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2014,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>9765</v>
+        <v>9820</v>
       </c>
       <c r="C43" t="n">
-        <v>9765</v>
+        <v>9820</v>
       </c>
       <c r="D43" t="n">
-        <v>9765</v>
+        <v>9820</v>
       </c>
       <c r="E43" t="n">
-        <v>9765</v>
+        <v>9820</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1137</v>
+        <v>13.0032</v>
       </c>
       <c r="G43" t="n">
-        <v>-1602.654692195046</v>
+        <v>-432.2045326530613</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2038,14 +1938,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>9735</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2056,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>9730</v>
+        <v>9835</v>
       </c>
       <c r="C44" t="n">
-        <v>9730</v>
+        <v>9835</v>
       </c>
       <c r="D44" t="n">
-        <v>9730</v>
+        <v>9835</v>
       </c>
       <c r="E44" t="n">
-        <v>9730</v>
+        <v>9835</v>
       </c>
       <c r="F44" t="n">
-        <v>13</v>
+        <v>1.9969</v>
       </c>
       <c r="G44" t="n">
-        <v>-1615.654692195046</v>
+        <v>-430.2076326530614</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2080,14 +1974,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>9735</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2098,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>9770</v>
+        <v>9845</v>
       </c>
       <c r="C45" t="n">
-        <v>9770</v>
+        <v>9815</v>
       </c>
       <c r="D45" t="n">
-        <v>9770</v>
+        <v>9855</v>
       </c>
       <c r="E45" t="n">
-        <v>9770</v>
+        <v>9815</v>
       </c>
       <c r="F45" t="n">
-        <v>1</v>
+        <v>188.1449</v>
       </c>
       <c r="G45" t="n">
-        <v>-1614.654692195046</v>
+        <v>-618.3525326530614</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2122,14 +2010,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>9735</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2140,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>9770</v>
+        <v>9855</v>
       </c>
       <c r="C46" t="n">
-        <v>9770</v>
+        <v>9860</v>
       </c>
       <c r="D46" t="n">
-        <v>9770</v>
+        <v>9860</v>
       </c>
       <c r="E46" t="n">
-        <v>9770</v>
+        <v>9855</v>
       </c>
       <c r="F46" t="n">
-        <v>6.0177</v>
+        <v>52.3164</v>
       </c>
       <c r="G46" t="n">
-        <v>-1614.654692195046</v>
+        <v>-566.0361326530614</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2164,14 +2046,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>9735</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2182,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>9790</v>
+        <v>9850</v>
       </c>
       <c r="C47" t="n">
-        <v>9790</v>
+        <v>9860</v>
       </c>
       <c r="D47" t="n">
-        <v>9790</v>
+        <v>9860</v>
       </c>
       <c r="E47" t="n">
-        <v>9790</v>
+        <v>9850</v>
       </c>
       <c r="F47" t="n">
-        <v>22.5957</v>
+        <v>154.1977</v>
       </c>
       <c r="G47" t="n">
-        <v>-1592.058992195046</v>
+        <v>-566.0361326530614</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2206,14 +2082,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>9735</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2224,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>9790</v>
+        <v>9860</v>
       </c>
       <c r="C48" t="n">
-        <v>9790</v>
+        <v>9860</v>
       </c>
       <c r="D48" t="n">
-        <v>9790</v>
+        <v>9860</v>
       </c>
       <c r="E48" t="n">
-        <v>9790</v>
+        <v>9860</v>
       </c>
       <c r="F48" t="n">
-        <v>23.197</v>
+        <v>35</v>
       </c>
       <c r="G48" t="n">
-        <v>-1592.058992195046</v>
+        <v>-566.0361326530614</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2248,14 +2118,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>9735</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2266,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>9790</v>
+        <v>9885</v>
       </c>
       <c r="C49" t="n">
-        <v>9790</v>
+        <v>9885</v>
       </c>
       <c r="D49" t="n">
-        <v>9790</v>
+        <v>9885</v>
       </c>
       <c r="E49" t="n">
-        <v>9790</v>
+        <v>9885</v>
       </c>
       <c r="F49" t="n">
-        <v>6.348</v>
+        <v>0.1452</v>
       </c>
       <c r="G49" t="n">
-        <v>-1592.058992195046</v>
+        <v>-565.8909326530613</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2290,14 +2154,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>9735</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2308,38 +2166,32 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>9790</v>
+        <v>9885</v>
       </c>
       <c r="C50" t="n">
-        <v>9800</v>
+        <v>9865</v>
       </c>
       <c r="D50" t="n">
-        <v>9800</v>
+        <v>9885</v>
       </c>
       <c r="E50" t="n">
-        <v>9790</v>
+        <v>9865</v>
       </c>
       <c r="F50" t="n">
-        <v>26.1783</v>
+        <v>206.1868</v>
       </c>
       <c r="G50" t="n">
-        <v>-1565.880692195046</v>
+        <v>-772.0777326530613</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>9735</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2350,38 +2202,32 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>9810</v>
+        <v>9865</v>
       </c>
       <c r="C51" t="n">
-        <v>9810</v>
+        <v>9860</v>
       </c>
       <c r="D51" t="n">
-        <v>9810</v>
+        <v>9865</v>
       </c>
       <c r="E51" t="n">
-        <v>9810</v>
+        <v>9860</v>
       </c>
       <c r="F51" t="n">
-        <v>0.3029561671763507</v>
+        <v>186.7876</v>
       </c>
       <c r="G51" t="n">
-        <v>-1565.57773602787</v>
+        <v>-958.8653326530613</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>9735</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2392,38 +2238,32 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>9780</v>
+        <v>9860</v>
       </c>
       <c r="C52" t="n">
-        <v>9805</v>
+        <v>9860</v>
       </c>
       <c r="D52" t="n">
-        <v>9805</v>
+        <v>9860</v>
       </c>
       <c r="E52" t="n">
-        <v>9775</v>
+        <v>9860</v>
       </c>
       <c r="F52" t="n">
-        <v>85.62260000000001</v>
+        <v>38.1192</v>
       </c>
       <c r="G52" t="n">
-        <v>-1651.20033602787</v>
+        <v>-958.8653326530613</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>9735</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2434,38 +2274,32 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>9820</v>
+        <v>9860</v>
       </c>
       <c r="C53" t="n">
-        <v>9825</v>
+        <v>9860</v>
       </c>
       <c r="D53" t="n">
-        <v>9825</v>
+        <v>9860</v>
       </c>
       <c r="E53" t="n">
-        <v>9820</v>
+        <v>9860</v>
       </c>
       <c r="F53" t="n">
-        <v>128.461</v>
+        <v>10.7055</v>
       </c>
       <c r="G53" t="n">
-        <v>-1522.73933602787</v>
+        <v>-958.8653326530613</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>9735</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2476,38 +2310,32 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>9805</v>
+        <v>9860</v>
       </c>
       <c r="C54" t="n">
-        <v>9805</v>
+        <v>9860</v>
       </c>
       <c r="D54" t="n">
-        <v>9805</v>
+        <v>9860</v>
       </c>
       <c r="E54" t="n">
-        <v>9805</v>
+        <v>9860</v>
       </c>
       <c r="F54" t="n">
-        <v>0.3029</v>
+        <v>0.129</v>
       </c>
       <c r="G54" t="n">
-        <v>-1523.04223602787</v>
+        <v>-958.8653326530613</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>9735</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2518,38 +2346,32 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>9825</v>
+        <v>9860</v>
       </c>
       <c r="C55" t="n">
-        <v>9825</v>
+        <v>9860</v>
       </c>
       <c r="D55" t="n">
-        <v>9825</v>
+        <v>9860</v>
       </c>
       <c r="E55" t="n">
-        <v>9825</v>
+        <v>9860</v>
       </c>
       <c r="F55" t="n">
-        <v>3.704</v>
+        <v>30.4259</v>
       </c>
       <c r="G55" t="n">
-        <v>-1519.33823602787</v>
+        <v>-958.8653326530613</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>9735</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2560,38 +2382,32 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>9810</v>
+        <v>9845</v>
       </c>
       <c r="C56" t="n">
-        <v>9815</v>
+        <v>9845</v>
       </c>
       <c r="D56" t="n">
-        <v>9815</v>
+        <v>9845</v>
       </c>
       <c r="E56" t="n">
-        <v>9810</v>
+        <v>9845</v>
       </c>
       <c r="F56" t="n">
-        <v>60.845</v>
+        <v>12.2578</v>
       </c>
       <c r="G56" t="n">
-        <v>-1580.18323602787</v>
+        <v>-971.1231326530612</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>9735</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2602,38 +2418,32 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>9820</v>
+        <v>9810</v>
       </c>
       <c r="C57" t="n">
-        <v>9825</v>
+        <v>9810</v>
       </c>
       <c r="D57" t="n">
-        <v>9825</v>
+        <v>9810</v>
       </c>
       <c r="E57" t="n">
-        <v>9820</v>
+        <v>9810</v>
       </c>
       <c r="F57" t="n">
-        <v>746.1</v>
+        <v>28.3804</v>
       </c>
       <c r="G57" t="n">
-        <v>-834.0832360278697</v>
+        <v>-999.5035326530613</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>9735</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2656,10 +2466,10 @@
         <v>9820</v>
       </c>
       <c r="F58" t="n">
-        <v>52.3079</v>
+        <v>66.9397</v>
       </c>
       <c r="G58" t="n">
-        <v>-886.3911360278697</v>
+        <v>-932.5638326530612</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2668,14 +2478,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>9735</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2686,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>9795</v>
+        <v>9825</v>
       </c>
       <c r="C59" t="n">
-        <v>9795</v>
+        <v>9825</v>
       </c>
       <c r="D59" t="n">
-        <v>9795</v>
+        <v>9825</v>
       </c>
       <c r="E59" t="n">
-        <v>9795</v>
+        <v>9825</v>
       </c>
       <c r="F59" t="n">
-        <v>35</v>
+        <v>154.2546</v>
       </c>
       <c r="G59" t="n">
-        <v>-921.3911360278697</v>
+        <v>-778.3092326530613</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2710,14 +2514,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>9735</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2728,22 +2526,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>9810</v>
+        <v>9825</v>
       </c>
       <c r="C60" t="n">
-        <v>9810</v>
+        <v>9825</v>
       </c>
       <c r="D60" t="n">
-        <v>9810</v>
+        <v>9825</v>
       </c>
       <c r="E60" t="n">
-        <v>9810</v>
+        <v>9825</v>
       </c>
       <c r="F60" t="n">
-        <v>8.4</v>
+        <v>611.1058</v>
       </c>
       <c r="G60" t="n">
-        <v>-912.9911360278697</v>
+        <v>-778.3092326530613</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2752,14 +2550,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>9735</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2770,22 +2562,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>9790</v>
+        <v>9855</v>
       </c>
       <c r="C61" t="n">
-        <v>9790</v>
+        <v>9855</v>
       </c>
       <c r="D61" t="n">
-        <v>9790</v>
+        <v>9855</v>
       </c>
       <c r="E61" t="n">
-        <v>9790</v>
+        <v>9855</v>
       </c>
       <c r="F61" t="n">
-        <v>25.6125</v>
+        <v>0.1383</v>
       </c>
       <c r="G61" t="n">
-        <v>-938.6036360278697</v>
+        <v>-778.1709326530613</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2794,14 +2586,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>9735</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2812,38 +2598,32 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>9790</v>
+        <v>9825</v>
       </c>
       <c r="C62" t="n">
-        <v>9785</v>
+        <v>9855</v>
       </c>
       <c r="D62" t="n">
-        <v>9790</v>
+        <v>9855</v>
       </c>
       <c r="E62" t="n">
-        <v>9785</v>
+        <v>9825</v>
       </c>
       <c r="F62" t="n">
-        <v>50</v>
+        <v>12.3068</v>
       </c>
       <c r="G62" t="n">
-        <v>-988.6036360278697</v>
+        <v>-778.1709326530613</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>9735</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2866,26 +2646,20 @@
         <v>9820</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1074</v>
+        <v>31.5641</v>
       </c>
       <c r="G63" t="n">
-        <v>-988.4962360278697</v>
+        <v>-809.7350326530614</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>9735</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2908,10 +2682,10 @@
         <v>9820</v>
       </c>
       <c r="F64" t="n">
-        <v>0.5600000000000001</v>
+        <v>6.4136</v>
       </c>
       <c r="G64" t="n">
-        <v>-988.4962360278697</v>
+        <v>-809.7350326530614</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2920,14 +2694,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>9735</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2938,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>9805</v>
+        <v>9830</v>
       </c>
       <c r="C65" t="n">
-        <v>9805</v>
+        <v>9830</v>
       </c>
       <c r="D65" t="n">
-        <v>9805</v>
+        <v>9830</v>
       </c>
       <c r="E65" t="n">
-        <v>9805</v>
+        <v>9830</v>
       </c>
       <c r="F65" t="n">
-        <v>6.8917</v>
+        <v>0.1251</v>
       </c>
       <c r="G65" t="n">
-        <v>-995.3879360278697</v>
+        <v>-809.6099326530614</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2962,14 +2730,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>9735</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2980,22 +2742,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>9820</v>
+        <v>9810</v>
       </c>
       <c r="C66" t="n">
-        <v>9825</v>
+        <v>9810</v>
       </c>
       <c r="D66" t="n">
-        <v>9825</v>
+        <v>9810</v>
       </c>
       <c r="E66" t="n">
-        <v>9820</v>
+        <v>9810</v>
       </c>
       <c r="F66" t="n">
-        <v>34.98715954198473</v>
+        <v>4.965</v>
       </c>
       <c r="G66" t="n">
-        <v>-960.400776485885</v>
+        <v>-814.5749326530614</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3004,14 +2766,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>9735</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3022,22 +2778,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>9825</v>
+        <v>9830</v>
       </c>
       <c r="C67" t="n">
-        <v>9825</v>
+        <v>9830</v>
       </c>
       <c r="D67" t="n">
-        <v>9825</v>
+        <v>9830</v>
       </c>
       <c r="E67" t="n">
-        <v>9825</v>
+        <v>9830</v>
       </c>
       <c r="F67" t="n">
-        <v>10</v>
+        <v>0.1269</v>
       </c>
       <c r="G67" t="n">
-        <v>-960.400776485885</v>
+        <v>-814.4480326530614</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3046,14 +2802,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>9735</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3076,10 +2826,10 @@
         <v>9830</v>
       </c>
       <c r="F68" t="n">
-        <v>6.248</v>
+        <v>0.3173</v>
       </c>
       <c r="G68" t="n">
-        <v>-954.1527764858849</v>
+        <v>-814.4480326530614</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3088,14 +2838,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>9735</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3106,22 +2850,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>9830</v>
+        <v>9810</v>
       </c>
       <c r="C69" t="n">
         <v>9810</v>
       </c>
       <c r="D69" t="n">
-        <v>9830</v>
+        <v>9810</v>
       </c>
       <c r="E69" t="n">
         <v>9810</v>
       </c>
       <c r="F69" t="n">
-        <v>12.1729</v>
+        <v>9.4779</v>
       </c>
       <c r="G69" t="n">
-        <v>-966.325676485885</v>
+        <v>-823.9259326530614</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3130,14 +2874,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>9735</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3148,22 +2886,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>9810</v>
+        <v>9805</v>
       </c>
       <c r="C70" t="n">
-        <v>9810</v>
+        <v>9800</v>
       </c>
       <c r="D70" t="n">
-        <v>9810</v>
+        <v>9805</v>
       </c>
       <c r="E70" t="n">
-        <v>9810</v>
+        <v>9800</v>
       </c>
       <c r="F70" t="n">
-        <v>8.147399999999999</v>
+        <v>135.2402</v>
       </c>
       <c r="G70" t="n">
-        <v>-966.325676485885</v>
+        <v>-959.1661326530614</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3172,14 +2910,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>9735</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3190,22 +2922,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>9830</v>
+        <v>9800</v>
       </c>
       <c r="C71" t="n">
-        <v>9830</v>
+        <v>9800</v>
       </c>
       <c r="D71" t="n">
-        <v>9830</v>
+        <v>9800</v>
       </c>
       <c r="E71" t="n">
-        <v>9830</v>
+        <v>9800</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1019</v>
+        <v>44.71</v>
       </c>
       <c r="G71" t="n">
-        <v>-966.223776485885</v>
+        <v>-959.1661326530614</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3214,14 +2946,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>9735</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3232,22 +2958,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>9830</v>
+        <v>9825</v>
       </c>
       <c r="C72" t="n">
-        <v>9835</v>
+        <v>9825</v>
       </c>
       <c r="D72" t="n">
-        <v>9835</v>
+        <v>9825</v>
       </c>
       <c r="E72" t="n">
-        <v>9830</v>
+        <v>9825</v>
       </c>
       <c r="F72" t="n">
-        <v>51.4655</v>
+        <v>1.1671</v>
       </c>
       <c r="G72" t="n">
-        <v>-914.7582764858849</v>
+        <v>-957.9990326530614</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3256,14 +2982,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>9735</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3274,22 +2994,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>9835</v>
+        <v>9820</v>
       </c>
       <c r="C73" t="n">
-        <v>9835</v>
+        <v>9820</v>
       </c>
       <c r="D73" t="n">
-        <v>9835</v>
+        <v>9820</v>
       </c>
       <c r="E73" t="n">
-        <v>9835</v>
+        <v>9820</v>
       </c>
       <c r="F73" t="n">
-        <v>17.3</v>
+        <v>0.1</v>
       </c>
       <c r="G73" t="n">
-        <v>-914.7582764858849</v>
+        <v>-958.0990326530614</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3298,14 +3018,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>9735</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3316,22 +3030,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>9835</v>
+        <v>9800</v>
       </c>
       <c r="C74" t="n">
-        <v>9835</v>
+        <v>9800</v>
       </c>
       <c r="D74" t="n">
-        <v>9835</v>
+        <v>9800</v>
       </c>
       <c r="E74" t="n">
-        <v>9835</v>
+        <v>9800</v>
       </c>
       <c r="F74" t="n">
-        <v>9.0861</v>
+        <v>61.7474</v>
       </c>
       <c r="G74" t="n">
-        <v>-914.7582764858849</v>
+        <v>-1019.846432653061</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3340,14 +3054,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>9735</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3358,22 +3066,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>9820</v>
+        <v>9800</v>
       </c>
       <c r="C75" t="n">
-        <v>9820</v>
+        <v>9800</v>
       </c>
       <c r="D75" t="n">
-        <v>9820</v>
+        <v>9800</v>
       </c>
       <c r="E75" t="n">
-        <v>9820</v>
+        <v>9800</v>
       </c>
       <c r="F75" t="n">
-        <v>9.242800000000001</v>
+        <v>21.475</v>
       </c>
       <c r="G75" t="n">
-        <v>-924.0010764858849</v>
+        <v>-1019.846432653061</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3382,14 +3090,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>9735</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3400,22 +3102,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>9835</v>
+        <v>9800</v>
       </c>
       <c r="C76" t="n">
-        <v>9820</v>
+        <v>9800</v>
       </c>
       <c r="D76" t="n">
-        <v>9835</v>
+        <v>9800</v>
       </c>
       <c r="E76" t="n">
-        <v>9820</v>
+        <v>9800</v>
       </c>
       <c r="F76" t="n">
-        <v>9.826000000000001</v>
+        <v>5.7422</v>
       </c>
       <c r="G76" t="n">
-        <v>-924.0010764858849</v>
+        <v>-1019.846432653061</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3424,14 +3126,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>9735</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3442,22 +3138,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>9820</v>
+        <v>9800</v>
       </c>
       <c r="C77" t="n">
-        <v>9820</v>
+        <v>9800</v>
       </c>
       <c r="D77" t="n">
-        <v>9820</v>
+        <v>9800</v>
       </c>
       <c r="E77" t="n">
-        <v>9820</v>
+        <v>9800</v>
       </c>
       <c r="F77" t="n">
-        <v>8.147</v>
+        <v>4.1346</v>
       </c>
       <c r="G77" t="n">
-        <v>-924.0010764858849</v>
+        <v>-1019.846432653061</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3466,14 +3162,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>9735</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3484,22 +3174,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>9830</v>
+        <v>9800</v>
       </c>
       <c r="C78" t="n">
-        <v>9830</v>
+        <v>9800</v>
       </c>
       <c r="D78" t="n">
-        <v>9830</v>
+        <v>9800</v>
       </c>
       <c r="E78" t="n">
-        <v>9830</v>
+        <v>9800</v>
       </c>
       <c r="F78" t="n">
-        <v>13.0202</v>
+        <v>323.1039</v>
       </c>
       <c r="G78" t="n">
-        <v>-910.9808764858849</v>
+        <v>-1019.846432653061</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3508,14 +3198,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>9735</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3526,22 +3210,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>9820</v>
+        <v>9800</v>
       </c>
       <c r="C79" t="n">
-        <v>9820</v>
+        <v>9800</v>
       </c>
       <c r="D79" t="n">
-        <v>9820</v>
+        <v>9800</v>
       </c>
       <c r="E79" t="n">
-        <v>9820</v>
+        <v>9800</v>
       </c>
       <c r="F79" t="n">
-        <v>27.8045</v>
+        <v>34</v>
       </c>
       <c r="G79" t="n">
-        <v>-938.7853764858849</v>
+        <v>-1019.846432653061</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3550,14 +3234,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>9735</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3568,22 +3246,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>9820</v>
+        <v>9825</v>
       </c>
       <c r="C80" t="n">
-        <v>9820</v>
+        <v>9825</v>
       </c>
       <c r="D80" t="n">
-        <v>9820</v>
+        <v>9825</v>
       </c>
       <c r="E80" t="n">
-        <v>9820</v>
+        <v>9825</v>
       </c>
       <c r="F80" t="n">
-        <v>4.53</v>
+        <v>0.2137404580152672</v>
       </c>
       <c r="G80" t="n">
-        <v>-938.7853764858849</v>
+        <v>-1019.632692195046</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3592,14 +3270,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>9735</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3610,22 +3282,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>9820</v>
+        <v>9800</v>
       </c>
       <c r="C81" t="n">
-        <v>9820</v>
+        <v>9800</v>
       </c>
       <c r="D81" t="n">
-        <v>9820</v>
+        <v>9800</v>
       </c>
       <c r="E81" t="n">
-        <v>9820</v>
+        <v>9800</v>
       </c>
       <c r="F81" t="n">
-        <v>7.5386</v>
+        <v>0.15</v>
       </c>
       <c r="G81" t="n">
-        <v>-938.7853764858849</v>
+        <v>-1019.782692195046</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3634,14 +3306,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>9735</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3652,22 +3318,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>9830</v>
+        <v>9820</v>
       </c>
       <c r="C82" t="n">
-        <v>9835</v>
+        <v>9820</v>
       </c>
       <c r="D82" t="n">
-        <v>9835</v>
+        <v>9820</v>
       </c>
       <c r="E82" t="n">
-        <v>9830</v>
+        <v>9820</v>
       </c>
       <c r="F82" t="n">
-        <v>59.8086</v>
+        <v>4.8748</v>
       </c>
       <c r="G82" t="n">
-        <v>-878.9767764858849</v>
+        <v>-1014.907892195046</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3676,14 +3342,8 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>9735</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3694,22 +3354,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>9835</v>
+        <v>9805</v>
       </c>
       <c r="C83" t="n">
-        <v>9835</v>
+        <v>9805</v>
       </c>
       <c r="D83" t="n">
-        <v>9835</v>
+        <v>9805</v>
       </c>
       <c r="E83" t="n">
-        <v>9835</v>
+        <v>9805</v>
       </c>
       <c r="F83" t="n">
-        <v>7.2139</v>
+        <v>2.45</v>
       </c>
       <c r="G83" t="n">
-        <v>-878.9767764858849</v>
+        <v>-1017.357892195046</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3718,14 +3378,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>9735</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3736,22 +3390,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>9835</v>
+        <v>9800</v>
       </c>
       <c r="C84" t="n">
-        <v>9835</v>
+        <v>9800</v>
       </c>
       <c r="D84" t="n">
-        <v>9835</v>
+        <v>9800</v>
       </c>
       <c r="E84" t="n">
-        <v>9835</v>
+        <v>9800</v>
       </c>
       <c r="F84" t="n">
-        <v>73.9371</v>
+        <v>0.2283</v>
       </c>
       <c r="G84" t="n">
-        <v>-878.9767764858849</v>
+        <v>-1017.586192195046</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3760,14 +3414,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>9735</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3778,40 +3426,34 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>9840</v>
+        <v>9760</v>
       </c>
       <c r="C85" t="n">
-        <v>9840</v>
+        <v>9760</v>
       </c>
       <c r="D85" t="n">
-        <v>9840</v>
+        <v>9760</v>
       </c>
       <c r="E85" t="n">
-        <v>9840</v>
+        <v>9760</v>
       </c>
       <c r="F85" t="n">
-        <v>11.037</v>
+        <v>43.7945</v>
       </c>
       <c r="G85" t="n">
-        <v>-867.9397764858849</v>
+        <v>-1061.380692195046</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>9735</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
-        <v>1.005785824345147</v>
+        <v>1</v>
       </c>
       <c r="N85" t="inlineStr"/>
     </row>
@@ -3820,28 +3462,28 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>9835</v>
+        <v>9775</v>
       </c>
       <c r="C86" t="n">
-        <v>9840</v>
+        <v>9775</v>
       </c>
       <c r="D86" t="n">
-        <v>9840</v>
+        <v>9775</v>
       </c>
       <c r="E86" t="n">
-        <v>9835</v>
+        <v>9775</v>
       </c>
       <c r="F86" t="n">
-        <v>119.8529</v>
+        <v>1.7128</v>
       </c>
       <c r="G86" t="n">
-        <v>-867.9397764858849</v>
+        <v>-1059.667892195046</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3856,22 +3498,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>9835</v>
+        <v>9745</v>
       </c>
       <c r="C87" t="n">
-        <v>9835</v>
+        <v>9740</v>
       </c>
       <c r="D87" t="n">
-        <v>9835</v>
+        <v>9745</v>
       </c>
       <c r="E87" t="n">
-        <v>9835</v>
+        <v>9740</v>
       </c>
       <c r="F87" t="n">
-        <v>34</v>
+        <v>557.5115</v>
       </c>
       <c r="G87" t="n">
-        <v>-901.9397764858849</v>
+        <v>-1617.179392195046</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3892,31 +3534,35 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>9805</v>
+        <v>9775</v>
       </c>
       <c r="C88" t="n">
-        <v>9805</v>
+        <v>9775</v>
       </c>
       <c r="D88" t="n">
-        <v>9805</v>
+        <v>9775</v>
       </c>
       <c r="E88" t="n">
-        <v>9805</v>
+        <v>9775</v>
       </c>
       <c r="F88" t="n">
-        <v>1</v>
+        <v>27.6191</v>
       </c>
       <c r="G88" t="n">
-        <v>-902.9397764858849</v>
+        <v>-1589.560292195046</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>9740</v>
+      </c>
+      <c r="K88" t="n">
+        <v>9740</v>
+      </c>
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
@@ -3928,22 +3574,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>9805</v>
+        <v>9780</v>
       </c>
       <c r="C89" t="n">
-        <v>9800</v>
+        <v>9780</v>
       </c>
       <c r="D89" t="n">
-        <v>9805</v>
+        <v>9780</v>
       </c>
       <c r="E89" t="n">
-        <v>9800</v>
+        <v>9780</v>
       </c>
       <c r="F89" t="n">
-        <v>48.0666</v>
+        <v>2.5</v>
       </c>
       <c r="G89" t="n">
-        <v>-951.0063764858849</v>
+        <v>-1587.060292195046</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3952,8 +3598,14 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>9740</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3964,22 +3616,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>9800</v>
+        <v>9770</v>
       </c>
       <c r="C90" t="n">
-        <v>9800</v>
+        <v>9770</v>
       </c>
       <c r="D90" t="n">
-        <v>9800</v>
+        <v>9770</v>
       </c>
       <c r="E90" t="n">
-        <v>9800</v>
+        <v>9770</v>
       </c>
       <c r="F90" t="n">
-        <v>1</v>
+        <v>5.483</v>
       </c>
       <c r="G90" t="n">
-        <v>-951.0063764858849</v>
+        <v>-1592.543292195046</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3988,8 +3640,14 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>9740</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4000,31 +3658,35 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>9800</v>
+        <v>9760</v>
       </c>
       <c r="C91" t="n">
-        <v>9800</v>
+        <v>9760</v>
       </c>
       <c r="D91" t="n">
-        <v>9800</v>
+        <v>9760</v>
       </c>
       <c r="E91" t="n">
-        <v>9800</v>
+        <v>9760</v>
       </c>
       <c r="F91" t="n">
-        <v>53.2056</v>
+        <v>6.3906</v>
       </c>
       <c r="G91" t="n">
-        <v>-951.0063764858849</v>
+        <v>-1598.933892195046</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>9770</v>
+      </c>
+      <c r="K91" t="n">
+        <v>9770</v>
+      </c>
       <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
@@ -4039,29 +3701,37 @@
         <v>9765</v>
       </c>
       <c r="C92" t="n">
-        <v>9735</v>
+        <v>9770</v>
       </c>
       <c r="D92" t="n">
+        <v>9770</v>
+      </c>
+      <c r="E92" t="n">
         <v>9765</v>
       </c>
-      <c r="E92" t="n">
-        <v>9735</v>
-      </c>
       <c r="F92" t="n">
-        <v>424.407</v>
+        <v>23.1929</v>
       </c>
       <c r="G92" t="n">
-        <v>-1375.413376485885</v>
+        <v>-1575.740992195046</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>9760</v>
+      </c>
+      <c r="K92" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4072,32 +3742,40 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>9785</v>
+        <v>9770</v>
       </c>
       <c r="C93" t="n">
-        <v>9785</v>
+        <v>9770</v>
       </c>
       <c r="D93" t="n">
-        <v>9785</v>
+        <v>9770</v>
       </c>
       <c r="E93" t="n">
-        <v>9785</v>
+        <v>9770</v>
       </c>
       <c r="F93" t="n">
-        <v>6.4606</v>
+        <v>0.0001</v>
       </c>
       <c r="G93" t="n">
-        <v>-1368.952776485885</v>
+        <v>-1575.740992195046</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>9770</v>
+      </c>
+      <c r="K93" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4108,32 +3786,40 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>9790</v>
+        <v>9775</v>
       </c>
       <c r="C94" t="n">
-        <v>9795</v>
+        <v>9775</v>
       </c>
       <c r="D94" t="n">
-        <v>9795</v>
+        <v>9775</v>
       </c>
       <c r="E94" t="n">
-        <v>9790</v>
+        <v>9775</v>
       </c>
       <c r="F94" t="n">
-        <v>9.99732133741705</v>
+        <v>28.1455</v>
       </c>
       <c r="G94" t="n">
-        <v>-1358.955455148468</v>
+        <v>-1547.595492195046</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>9770</v>
+      </c>
+      <c r="K94" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4144,32 +3830,40 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
+        <v>9770</v>
+      </c>
+      <c r="C95" t="n">
+        <v>9770</v>
+      </c>
+      <c r="D95" t="n">
+        <v>9770</v>
+      </c>
+      <c r="E95" t="n">
+        <v>9770</v>
+      </c>
+      <c r="F95" t="n">
+        <v>8.135199999999999</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-1555.730692195046</v>
+      </c>
+      <c r="H95" t="n">
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
         <v>9775</v>
       </c>
-      <c r="C95" t="n">
-        <v>9775</v>
-      </c>
-      <c r="D95" t="n">
-        <v>9775</v>
-      </c>
-      <c r="E95" t="n">
-        <v>9775</v>
-      </c>
-      <c r="F95" t="n">
-        <v>3.6579</v>
-      </c>
-      <c r="G95" t="n">
-        <v>-1362.613355148467</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4180,32 +3874,40 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>9730</v>
+        <v>9745</v>
       </c>
       <c r="C96" t="n">
-        <v>9730</v>
+        <v>9745</v>
       </c>
       <c r="D96" t="n">
-        <v>9730</v>
+        <v>9745</v>
       </c>
       <c r="E96" t="n">
-        <v>9730</v>
+        <v>9745</v>
       </c>
       <c r="F96" t="n">
-        <v>27.2554</v>
+        <v>11.573</v>
       </c>
       <c r="G96" t="n">
-        <v>-1389.868755148467</v>
+        <v>-1567.303692195046</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>9770</v>
+      </c>
+      <c r="K96" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4216,32 +3918,40 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>9730</v>
+        <v>9740</v>
       </c>
       <c r="C97" t="n">
-        <v>9730</v>
+        <v>9735</v>
       </c>
       <c r="D97" t="n">
-        <v>9730</v>
+        <v>9740</v>
       </c>
       <c r="E97" t="n">
-        <v>9730</v>
+        <v>9735</v>
       </c>
       <c r="F97" t="n">
-        <v>1.1</v>
+        <v>56.8512</v>
       </c>
       <c r="G97" t="n">
-        <v>-1389.868755148467</v>
+        <v>-1624.154892195046</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>9745</v>
+      </c>
+      <c r="K97" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4252,32 +3962,40 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>9720</v>
+        <v>9735</v>
       </c>
       <c r="C98" t="n">
-        <v>9745</v>
+        <v>9735</v>
       </c>
       <c r="D98" t="n">
-        <v>9745</v>
+        <v>9735</v>
       </c>
       <c r="E98" t="n">
-        <v>9720</v>
+        <v>9735</v>
       </c>
       <c r="F98" t="n">
-        <v>21.5611</v>
+        <v>4.7852</v>
       </c>
       <c r="G98" t="n">
-        <v>-1368.307655148468</v>
+        <v>-1624.154892195046</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>9735</v>
+      </c>
+      <c r="K98" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4288,32 +4006,40 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>9760</v>
+        <v>9735</v>
       </c>
       <c r="C99" t="n">
-        <v>9775</v>
+        <v>9735</v>
       </c>
       <c r="D99" t="n">
-        <v>9775</v>
+        <v>9735</v>
       </c>
       <c r="E99" t="n">
-        <v>9760</v>
+        <v>9735</v>
       </c>
       <c r="F99" t="n">
-        <v>29.6403</v>
+        <v>62.8512</v>
       </c>
       <c r="G99" t="n">
-        <v>-1338.667355148468</v>
+        <v>-1624.154892195046</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>9735</v>
+      </c>
+      <c r="K99" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4324,32 +4050,40 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>9725</v>
+        <v>9735</v>
       </c>
       <c r="C100" t="n">
-        <v>9720</v>
+        <v>9730</v>
       </c>
       <c r="D100" t="n">
-        <v>9725</v>
+        <v>9735</v>
       </c>
       <c r="E100" t="n">
-        <v>9720</v>
+        <v>9730</v>
       </c>
       <c r="F100" t="n">
-        <v>96.98260000000001</v>
+        <v>14.8354</v>
       </c>
       <c r="G100" t="n">
-        <v>-1435.649955148468</v>
+        <v>-1638.990292195046</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>9735</v>
+      </c>
+      <c r="K100" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4360,32 +4094,40 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>9720</v>
+        <v>9730</v>
       </c>
       <c r="C101" t="n">
-        <v>9720</v>
+        <v>9745</v>
       </c>
       <c r="D101" t="n">
-        <v>9720</v>
+        <v>9760</v>
       </c>
       <c r="E101" t="n">
         <v>9720</v>
       </c>
       <c r="F101" t="n">
-        <v>33.915</v>
+        <v>81.7848</v>
       </c>
       <c r="G101" t="n">
-        <v>-1435.649955148468</v>
+        <v>-1557.205492195046</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>9730</v>
+      </c>
+      <c r="K101" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4396,32 +4138,40 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>9780</v>
+        <v>9760</v>
       </c>
       <c r="C102" t="n">
-        <v>9780</v>
+        <v>9760</v>
       </c>
       <c r="D102" t="n">
-        <v>9780</v>
+        <v>9760</v>
       </c>
       <c r="E102" t="n">
-        <v>9780</v>
+        <v>9760</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1</v>
+        <v>0.1197</v>
       </c>
       <c r="G102" t="n">
-        <v>-1435.549955148468</v>
+        <v>-1557.085792195046</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>9745</v>
+      </c>
+      <c r="K102" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4432,32 +4182,40 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>9775</v>
+        <v>9765</v>
       </c>
       <c r="C103" t="n">
-        <v>9775</v>
+        <v>9765</v>
       </c>
       <c r="D103" t="n">
-        <v>9775</v>
+        <v>9765</v>
       </c>
       <c r="E103" t="n">
-        <v>9775</v>
+        <v>9765</v>
       </c>
       <c r="F103" t="n">
-        <v>0.1</v>
+        <v>9.434699999999999</v>
       </c>
       <c r="G103" t="n">
-        <v>-1435.649955148468</v>
+        <v>-1547.651092195046</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>9760</v>
+      </c>
+      <c r="K103" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4468,22 +4226,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>9775</v>
+        <v>9730</v>
       </c>
       <c r="C104" t="n">
-        <v>9775</v>
+        <v>9765</v>
       </c>
       <c r="D104" t="n">
-        <v>9775</v>
+        <v>9765</v>
       </c>
       <c r="E104" t="n">
-        <v>9775</v>
+        <v>9700</v>
       </c>
       <c r="F104" t="n">
-        <v>49.9999</v>
+        <v>540.5271</v>
       </c>
       <c r="G104" t="n">
-        <v>-1435.649955148468</v>
+        <v>-1547.651092195046</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4492,8 +4250,14 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4504,32 +4268,40 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>9730</v>
+        <v>9740</v>
       </c>
       <c r="C105" t="n">
-        <v>9730</v>
+        <v>9750</v>
       </c>
       <c r="D105" t="n">
-        <v>9730</v>
+        <v>9750</v>
       </c>
       <c r="E105" t="n">
-        <v>9730</v>
+        <v>9740</v>
       </c>
       <c r="F105" t="n">
-        <v>1.1642</v>
+        <v>50</v>
       </c>
       <c r="G105" t="n">
-        <v>-1436.814155148468</v>
+        <v>-1597.651092195046</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K105" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4540,32 +4312,40 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>9775</v>
+        <v>9715</v>
       </c>
       <c r="C106" t="n">
-        <v>9785</v>
+        <v>9710</v>
       </c>
       <c r="D106" t="n">
-        <v>9785</v>
+        <v>9715</v>
       </c>
       <c r="E106" t="n">
-        <v>9775</v>
+        <v>9710</v>
       </c>
       <c r="F106" t="n">
-        <v>102.2360879918242</v>
+        <v>17.7465</v>
       </c>
       <c r="G106" t="n">
-        <v>-1334.578067156643</v>
+        <v>-1615.397592195046</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>9750</v>
+      </c>
+      <c r="K106" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4576,32 +4356,40 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>9720</v>
+        <v>9715</v>
       </c>
       <c r="C107" t="n">
-        <v>9720</v>
+        <v>9715</v>
       </c>
       <c r="D107" t="n">
-        <v>9720</v>
+        <v>9715</v>
       </c>
       <c r="E107" t="n">
-        <v>9720</v>
+        <v>9715</v>
       </c>
       <c r="F107" t="n">
-        <v>2.1902</v>
+        <v>1</v>
       </c>
       <c r="G107" t="n">
-        <v>-1336.768267156643</v>
+        <v>-1614.397592195046</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>9710</v>
+      </c>
+      <c r="K107" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4612,32 +4400,40 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>9700</v>
+        <v>9735</v>
       </c>
       <c r="C108" t="n">
-        <v>9700</v>
+        <v>9740</v>
       </c>
       <c r="D108" t="n">
-        <v>9700</v>
+        <v>9740</v>
       </c>
       <c r="E108" t="n">
-        <v>9700</v>
+        <v>9735</v>
       </c>
       <c r="F108" t="n">
-        <v>61.2007</v>
+        <v>50</v>
       </c>
       <c r="G108" t="n">
-        <v>-1397.968967156643</v>
+        <v>-1564.397592195046</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>9715</v>
+      </c>
+      <c r="K108" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4648,32 +4444,40 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>9700</v>
+        <v>9750</v>
       </c>
       <c r="C109" t="n">
-        <v>9700</v>
+        <v>9750</v>
       </c>
       <c r="D109" t="n">
-        <v>9700</v>
+        <v>9750</v>
       </c>
       <c r="E109" t="n">
-        <v>9700</v>
+        <v>9750</v>
       </c>
       <c r="F109" t="n">
-        <v>35.3545</v>
+        <v>0.1</v>
       </c>
       <c r="G109" t="n">
-        <v>-1397.968967156643</v>
+        <v>-1564.297592195046</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>9740</v>
+      </c>
+      <c r="K109" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4684,36 +4488,38 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>9700</v>
+        <v>9740</v>
       </c>
       <c r="C110" t="n">
-        <v>9700</v>
+        <v>9740</v>
       </c>
       <c r="D110" t="n">
-        <v>9700</v>
+        <v>9740</v>
       </c>
       <c r="E110" t="n">
-        <v>9700</v>
+        <v>9740</v>
       </c>
       <c r="F110" t="n">
-        <v>17.8801</v>
+        <v>6.2155</v>
       </c>
       <c r="G110" t="n">
-        <v>-1397.968967156643</v>
+        <v>-1570.513092195046</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>9700</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
-        <v>9700</v>
-      </c>
-      <c r="L110" t="inlineStr"/>
+        <v>9770</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4724,44 +4530,3054 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
+        <v>9740</v>
+      </c>
+      <c r="C111" t="n">
+        <v>9740</v>
+      </c>
+      <c r="D111" t="n">
+        <v>9740</v>
+      </c>
+      <c r="E111" t="n">
+        <v>9740</v>
+      </c>
+      <c r="F111" t="n">
+        <v>10.5956</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-1570.513092195046</v>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>9740</v>
+      </c>
+      <c r="K111" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>9755</v>
+      </c>
+      <c r="C112" t="n">
+        <v>9755</v>
+      </c>
+      <c r="D112" t="n">
+        <v>9755</v>
+      </c>
+      <c r="E112" t="n">
+        <v>9755</v>
+      </c>
+      <c r="F112" t="n">
+        <v>2</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-1568.513092195046</v>
+      </c>
+      <c r="H112" t="n">
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>9740</v>
+      </c>
+      <c r="K112" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>9750</v>
+      </c>
+      <c r="C113" t="n">
+        <v>9745</v>
+      </c>
+      <c r="D113" t="n">
+        <v>9750</v>
+      </c>
+      <c r="E113" t="n">
+        <v>9745</v>
+      </c>
+      <c r="F113" t="n">
+        <v>34.2553</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-1602.768392195046</v>
+      </c>
+      <c r="H113" t="n">
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>9755</v>
+      </c>
+      <c r="K113" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>9765</v>
+      </c>
+      <c r="C114" t="n">
+        <v>9765</v>
+      </c>
+      <c r="D114" t="n">
+        <v>9765</v>
+      </c>
+      <c r="E114" t="n">
+        <v>9765</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.1137</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-1602.654692195046</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>9730</v>
+      </c>
+      <c r="C115" t="n">
+        <v>9730</v>
+      </c>
+      <c r="D115" t="n">
+        <v>9730</v>
+      </c>
+      <c r="E115" t="n">
+        <v>9730</v>
+      </c>
+      <c r="F115" t="n">
+        <v>13</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-1615.654692195046</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>9770</v>
+      </c>
+      <c r="C116" t="n">
+        <v>9770</v>
+      </c>
+      <c r="D116" t="n">
+        <v>9770</v>
+      </c>
+      <c r="E116" t="n">
+        <v>9770</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-1614.654692195046</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>9770</v>
+      </c>
+      <c r="C117" t="n">
+        <v>9770</v>
+      </c>
+      <c r="D117" t="n">
+        <v>9770</v>
+      </c>
+      <c r="E117" t="n">
+        <v>9770</v>
+      </c>
+      <c r="F117" t="n">
+        <v>6.0177</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-1614.654692195046</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>9790</v>
+      </c>
+      <c r="C118" t="n">
+        <v>9790</v>
+      </c>
+      <c r="D118" t="n">
+        <v>9790</v>
+      </c>
+      <c r="E118" t="n">
+        <v>9790</v>
+      </c>
+      <c r="F118" t="n">
+        <v>22.5957</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-1592.058992195046</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>9790</v>
+      </c>
+      <c r="C119" t="n">
+        <v>9790</v>
+      </c>
+      <c r="D119" t="n">
+        <v>9790</v>
+      </c>
+      <c r="E119" t="n">
+        <v>9790</v>
+      </c>
+      <c r="F119" t="n">
+        <v>23.197</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-1592.058992195046</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>9790</v>
+      </c>
+      <c r="C120" t="n">
+        <v>9790</v>
+      </c>
+      <c r="D120" t="n">
+        <v>9790</v>
+      </c>
+      <c r="E120" t="n">
+        <v>9790</v>
+      </c>
+      <c r="F120" t="n">
+        <v>6.348</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-1592.058992195046</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>9790</v>
+      </c>
+      <c r="C121" t="n">
+        <v>9800</v>
+      </c>
+      <c r="D121" t="n">
+        <v>9800</v>
+      </c>
+      <c r="E121" t="n">
+        <v>9790</v>
+      </c>
+      <c r="F121" t="n">
+        <v>26.1783</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-1565.880692195046</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>9810</v>
+      </c>
+      <c r="C122" t="n">
+        <v>9810</v>
+      </c>
+      <c r="D122" t="n">
+        <v>9810</v>
+      </c>
+      <c r="E122" t="n">
+        <v>9810</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.3029561671763507</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-1565.57773602787</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>9780</v>
+      </c>
+      <c r="C123" t="n">
+        <v>9805</v>
+      </c>
+      <c r="D123" t="n">
+        <v>9805</v>
+      </c>
+      <c r="E123" t="n">
+        <v>9775</v>
+      </c>
+      <c r="F123" t="n">
+        <v>85.62260000000001</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-1651.20033602787</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>9820</v>
+      </c>
+      <c r="C124" t="n">
+        <v>9825</v>
+      </c>
+      <c r="D124" t="n">
+        <v>9825</v>
+      </c>
+      <c r="E124" t="n">
+        <v>9820</v>
+      </c>
+      <c r="F124" t="n">
+        <v>128.461</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-1522.73933602787</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>9805</v>
+      </c>
+      <c r="C125" t="n">
+        <v>9805</v>
+      </c>
+      <c r="D125" t="n">
+        <v>9805</v>
+      </c>
+      <c r="E125" t="n">
+        <v>9805</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.3029</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-1523.04223602787</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>9825</v>
+      </c>
+      <c r="C126" t="n">
+        <v>9825</v>
+      </c>
+      <c r="D126" t="n">
+        <v>9825</v>
+      </c>
+      <c r="E126" t="n">
+        <v>9825</v>
+      </c>
+      <c r="F126" t="n">
+        <v>3.704</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-1519.33823602787</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>9810</v>
+      </c>
+      <c r="C127" t="n">
+        <v>9815</v>
+      </c>
+      <c r="D127" t="n">
+        <v>9815</v>
+      </c>
+      <c r="E127" t="n">
+        <v>9810</v>
+      </c>
+      <c r="F127" t="n">
+        <v>60.845</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-1580.18323602787</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>9820</v>
+      </c>
+      <c r="C128" t="n">
+        <v>9825</v>
+      </c>
+      <c r="D128" t="n">
+        <v>9825</v>
+      </c>
+      <c r="E128" t="n">
+        <v>9820</v>
+      </c>
+      <c r="F128" t="n">
+        <v>746.1</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-834.0832360278697</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>9820</v>
+      </c>
+      <c r="C129" t="n">
+        <v>9820</v>
+      </c>
+      <c r="D129" t="n">
+        <v>9820</v>
+      </c>
+      <c r="E129" t="n">
+        <v>9820</v>
+      </c>
+      <c r="F129" t="n">
+        <v>52.3079</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-886.3911360278697</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>9795</v>
+      </c>
+      <c r="C130" t="n">
+        <v>9795</v>
+      </c>
+      <c r="D130" t="n">
+        <v>9795</v>
+      </c>
+      <c r="E130" t="n">
+        <v>9795</v>
+      </c>
+      <c r="F130" t="n">
+        <v>35</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-921.3911360278697</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>9810</v>
+      </c>
+      <c r="C131" t="n">
+        <v>9810</v>
+      </c>
+      <c r="D131" t="n">
+        <v>9810</v>
+      </c>
+      <c r="E131" t="n">
+        <v>9810</v>
+      </c>
+      <c r="F131" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-912.9911360278697</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>9790</v>
+      </c>
+      <c r="C132" t="n">
+        <v>9790</v>
+      </c>
+      <c r="D132" t="n">
+        <v>9790</v>
+      </c>
+      <c r="E132" t="n">
+        <v>9790</v>
+      </c>
+      <c r="F132" t="n">
+        <v>25.6125</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-938.6036360278697</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>9790</v>
+      </c>
+      <c r="C133" t="n">
+        <v>9785</v>
+      </c>
+      <c r="D133" t="n">
+        <v>9790</v>
+      </c>
+      <c r="E133" t="n">
+        <v>9785</v>
+      </c>
+      <c r="F133" t="n">
+        <v>50</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-988.6036360278697</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>9820</v>
+      </c>
+      <c r="C134" t="n">
+        <v>9820</v>
+      </c>
+      <c r="D134" t="n">
+        <v>9820</v>
+      </c>
+      <c r="E134" t="n">
+        <v>9820</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.1074</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-988.4962360278697</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>9820</v>
+      </c>
+      <c r="C135" t="n">
+        <v>9820</v>
+      </c>
+      <c r="D135" t="n">
+        <v>9820</v>
+      </c>
+      <c r="E135" t="n">
+        <v>9820</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-988.4962360278697</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>9805</v>
+      </c>
+      <c r="C136" t="n">
+        <v>9805</v>
+      </c>
+      <c r="D136" t="n">
+        <v>9805</v>
+      </c>
+      <c r="E136" t="n">
+        <v>9805</v>
+      </c>
+      <c r="F136" t="n">
+        <v>6.8917</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-995.3879360278697</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>9820</v>
+      </c>
+      <c r="C137" t="n">
+        <v>9825</v>
+      </c>
+      <c r="D137" t="n">
+        <v>9825</v>
+      </c>
+      <c r="E137" t="n">
+        <v>9820</v>
+      </c>
+      <c r="F137" t="n">
+        <v>34.98715954198473</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-960.400776485885</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>9825</v>
+      </c>
+      <c r="C138" t="n">
+        <v>9825</v>
+      </c>
+      <c r="D138" t="n">
+        <v>9825</v>
+      </c>
+      <c r="E138" t="n">
+        <v>9825</v>
+      </c>
+      <c r="F138" t="n">
+        <v>10</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-960.400776485885</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>9830</v>
+      </c>
+      <c r="C139" t="n">
+        <v>9830</v>
+      </c>
+      <c r="D139" t="n">
+        <v>9830</v>
+      </c>
+      <c r="E139" t="n">
+        <v>9830</v>
+      </c>
+      <c r="F139" t="n">
+        <v>6.248</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-954.1527764858849</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>9830</v>
+      </c>
+      <c r="C140" t="n">
+        <v>9810</v>
+      </c>
+      <c r="D140" t="n">
+        <v>9830</v>
+      </c>
+      <c r="E140" t="n">
+        <v>9810</v>
+      </c>
+      <c r="F140" t="n">
+        <v>12.1729</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-966.325676485885</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>9810</v>
+      </c>
+      <c r="C141" t="n">
+        <v>9810</v>
+      </c>
+      <c r="D141" t="n">
+        <v>9810</v>
+      </c>
+      <c r="E141" t="n">
+        <v>9810</v>
+      </c>
+      <c r="F141" t="n">
+        <v>8.147399999999999</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-966.325676485885</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>9830</v>
+      </c>
+      <c r="C142" t="n">
+        <v>9830</v>
+      </c>
+      <c r="D142" t="n">
+        <v>9830</v>
+      </c>
+      <c r="E142" t="n">
+        <v>9830</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.1019</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-966.223776485885</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>9830</v>
+      </c>
+      <c r="C143" t="n">
+        <v>9835</v>
+      </c>
+      <c r="D143" t="n">
+        <v>9835</v>
+      </c>
+      <c r="E143" t="n">
+        <v>9830</v>
+      </c>
+      <c r="F143" t="n">
+        <v>51.4655</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-914.7582764858849</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>9835</v>
+      </c>
+      <c r="C144" t="n">
+        <v>9835</v>
+      </c>
+      <c r="D144" t="n">
+        <v>9835</v>
+      </c>
+      <c r="E144" t="n">
+        <v>9835</v>
+      </c>
+      <c r="F144" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-914.7582764858849</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>9835</v>
+      </c>
+      <c r="C145" t="n">
+        <v>9835</v>
+      </c>
+      <c r="D145" t="n">
+        <v>9835</v>
+      </c>
+      <c r="E145" t="n">
+        <v>9835</v>
+      </c>
+      <c r="F145" t="n">
+        <v>9.0861</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-914.7582764858849</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>9820</v>
+      </c>
+      <c r="C146" t="n">
+        <v>9820</v>
+      </c>
+      <c r="D146" t="n">
+        <v>9820</v>
+      </c>
+      <c r="E146" t="n">
+        <v>9820</v>
+      </c>
+      <c r="F146" t="n">
+        <v>9.242800000000001</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-924.0010764858849</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>9835</v>
+      </c>
+      <c r="C147" t="n">
+        <v>9820</v>
+      </c>
+      <c r="D147" t="n">
+        <v>9835</v>
+      </c>
+      <c r="E147" t="n">
+        <v>9820</v>
+      </c>
+      <c r="F147" t="n">
+        <v>9.826000000000001</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-924.0010764858849</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>9820</v>
+      </c>
+      <c r="C148" t="n">
+        <v>9820</v>
+      </c>
+      <c r="D148" t="n">
+        <v>9820</v>
+      </c>
+      <c r="E148" t="n">
+        <v>9820</v>
+      </c>
+      <c r="F148" t="n">
+        <v>8.147</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-924.0010764858849</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>9830</v>
+      </c>
+      <c r="C149" t="n">
+        <v>9830</v>
+      </c>
+      <c r="D149" t="n">
+        <v>9830</v>
+      </c>
+      <c r="E149" t="n">
+        <v>9830</v>
+      </c>
+      <c r="F149" t="n">
+        <v>13.0202</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-910.9808764858849</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>9820</v>
+      </c>
+      <c r="C150" t="n">
+        <v>9820</v>
+      </c>
+      <c r="D150" t="n">
+        <v>9820</v>
+      </c>
+      <c r="E150" t="n">
+        <v>9820</v>
+      </c>
+      <c r="F150" t="n">
+        <v>27.8045</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-938.7853764858849</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>9820</v>
+      </c>
+      <c r="C151" t="n">
+        <v>9820</v>
+      </c>
+      <c r="D151" t="n">
+        <v>9820</v>
+      </c>
+      <c r="E151" t="n">
+        <v>9820</v>
+      </c>
+      <c r="F151" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-938.7853764858849</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>9820</v>
+      </c>
+      <c r="C152" t="n">
+        <v>9820</v>
+      </c>
+      <c r="D152" t="n">
+        <v>9820</v>
+      </c>
+      <c r="E152" t="n">
+        <v>9820</v>
+      </c>
+      <c r="F152" t="n">
+        <v>7.5386</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-938.7853764858849</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>9830</v>
+      </c>
+      <c r="C153" t="n">
+        <v>9835</v>
+      </c>
+      <c r="D153" t="n">
+        <v>9835</v>
+      </c>
+      <c r="E153" t="n">
+        <v>9830</v>
+      </c>
+      <c r="F153" t="n">
+        <v>59.8086</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-878.9767764858849</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>9835</v>
+      </c>
+      <c r="C154" t="n">
+        <v>9835</v>
+      </c>
+      <c r="D154" t="n">
+        <v>9835</v>
+      </c>
+      <c r="E154" t="n">
+        <v>9835</v>
+      </c>
+      <c r="F154" t="n">
+        <v>7.2139</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-878.9767764858849</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>9835</v>
+      </c>
+      <c r="C155" t="n">
+        <v>9835</v>
+      </c>
+      <c r="D155" t="n">
+        <v>9835</v>
+      </c>
+      <c r="E155" t="n">
+        <v>9835</v>
+      </c>
+      <c r="F155" t="n">
+        <v>73.9371</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-878.9767764858849</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>9840</v>
+      </c>
+      <c r="C156" t="n">
+        <v>9840</v>
+      </c>
+      <c r="D156" t="n">
+        <v>9840</v>
+      </c>
+      <c r="E156" t="n">
+        <v>9840</v>
+      </c>
+      <c r="F156" t="n">
+        <v>11.037</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-867.9397764858849</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>9835</v>
+      </c>
+      <c r="C157" t="n">
+        <v>9840</v>
+      </c>
+      <c r="D157" t="n">
+        <v>9840</v>
+      </c>
+      <c r="E157" t="n">
+        <v>9835</v>
+      </c>
+      <c r="F157" t="n">
+        <v>119.8529</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-867.9397764858849</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>9835</v>
+      </c>
+      <c r="C158" t="n">
+        <v>9835</v>
+      </c>
+      <c r="D158" t="n">
+        <v>9835</v>
+      </c>
+      <c r="E158" t="n">
+        <v>9835</v>
+      </c>
+      <c r="F158" t="n">
+        <v>34</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-901.9397764858849</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>9805</v>
+      </c>
+      <c r="C159" t="n">
+        <v>9805</v>
+      </c>
+      <c r="D159" t="n">
+        <v>9805</v>
+      </c>
+      <c r="E159" t="n">
+        <v>9805</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-902.9397764858849</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>9805</v>
+      </c>
+      <c r="C160" t="n">
+        <v>9800</v>
+      </c>
+      <c r="D160" t="n">
+        <v>9805</v>
+      </c>
+      <c r="E160" t="n">
+        <v>9800</v>
+      </c>
+      <c r="F160" t="n">
+        <v>48.0666</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-951.0063764858849</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>9800</v>
+      </c>
+      <c r="C161" t="n">
+        <v>9800</v>
+      </c>
+      <c r="D161" t="n">
+        <v>9800</v>
+      </c>
+      <c r="E161" t="n">
+        <v>9800</v>
+      </c>
+      <c r="F161" t="n">
+        <v>1</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-951.0063764858849</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>9800</v>
+      </c>
+      <c r="C162" t="n">
+        <v>9800</v>
+      </c>
+      <c r="D162" t="n">
+        <v>9800</v>
+      </c>
+      <c r="E162" t="n">
+        <v>9800</v>
+      </c>
+      <c r="F162" t="n">
+        <v>53.2056</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-951.0063764858849</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>9765</v>
+      </c>
+      <c r="C163" t="n">
+        <v>9735</v>
+      </c>
+      <c r="D163" t="n">
+        <v>9765</v>
+      </c>
+      <c r="E163" t="n">
+        <v>9735</v>
+      </c>
+      <c r="F163" t="n">
+        <v>424.407</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-1375.413376485885</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>9785</v>
+      </c>
+      <c r="C164" t="n">
+        <v>9785</v>
+      </c>
+      <c r="D164" t="n">
+        <v>9785</v>
+      </c>
+      <c r="E164" t="n">
+        <v>9785</v>
+      </c>
+      <c r="F164" t="n">
+        <v>6.4606</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-1368.952776485885</v>
+      </c>
+      <c r="H164" t="n">
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>9735</v>
+      </c>
+      <c r="K164" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>9790</v>
+      </c>
+      <c r="C165" t="n">
+        <v>9795</v>
+      </c>
+      <c r="D165" t="n">
+        <v>9795</v>
+      </c>
+      <c r="E165" t="n">
+        <v>9790</v>
+      </c>
+      <c r="F165" t="n">
+        <v>9.99732133741705</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-1358.955455148468</v>
+      </c>
+      <c r="H165" t="n">
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>9785</v>
+      </c>
+      <c r="K165" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>9775</v>
+      </c>
+      <c r="C166" t="n">
+        <v>9775</v>
+      </c>
+      <c r="D166" t="n">
+        <v>9775</v>
+      </c>
+      <c r="E166" t="n">
+        <v>9775</v>
+      </c>
+      <c r="F166" t="n">
+        <v>3.6579</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-1362.613355148467</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>9730</v>
+      </c>
+      <c r="C167" t="n">
+        <v>9730</v>
+      </c>
+      <c r="D167" t="n">
+        <v>9730</v>
+      </c>
+      <c r="E167" t="n">
+        <v>9730</v>
+      </c>
+      <c r="F167" t="n">
+        <v>27.2554</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-1389.868755148467</v>
+      </c>
+      <c r="H167" t="n">
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>9775</v>
+      </c>
+      <c r="K167" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>9730</v>
+      </c>
+      <c r="C168" t="n">
+        <v>9730</v>
+      </c>
+      <c r="D168" t="n">
+        <v>9730</v>
+      </c>
+      <c r="E168" t="n">
+        <v>9730</v>
+      </c>
+      <c r="F168" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-1389.868755148467</v>
+      </c>
+      <c r="H168" t="n">
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>9730</v>
+      </c>
+      <c r="K168" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>9720</v>
+      </c>
+      <c r="C169" t="n">
+        <v>9745</v>
+      </c>
+      <c r="D169" t="n">
+        <v>9745</v>
+      </c>
+      <c r="E169" t="n">
+        <v>9720</v>
+      </c>
+      <c r="F169" t="n">
+        <v>21.5611</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-1368.307655148468</v>
+      </c>
+      <c r="H169" t="n">
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>9730</v>
+      </c>
+      <c r="K169" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>9760</v>
+      </c>
+      <c r="C170" t="n">
+        <v>9775</v>
+      </c>
+      <c r="D170" t="n">
+        <v>9775</v>
+      </c>
+      <c r="E170" t="n">
+        <v>9760</v>
+      </c>
+      <c r="F170" t="n">
+        <v>29.6403</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-1338.667355148468</v>
+      </c>
+      <c r="H170" t="n">
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>9745</v>
+      </c>
+      <c r="K170" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>9725</v>
+      </c>
+      <c r="C171" t="n">
+        <v>9720</v>
+      </c>
+      <c r="D171" t="n">
+        <v>9725</v>
+      </c>
+      <c r="E171" t="n">
+        <v>9720</v>
+      </c>
+      <c r="F171" t="n">
+        <v>96.98260000000001</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-1435.649955148468</v>
+      </c>
+      <c r="H171" t="n">
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>9775</v>
+      </c>
+      <c r="K171" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>9720</v>
+      </c>
+      <c r="C172" t="n">
+        <v>9720</v>
+      </c>
+      <c r="D172" t="n">
+        <v>9720</v>
+      </c>
+      <c r="E172" t="n">
+        <v>9720</v>
+      </c>
+      <c r="F172" t="n">
+        <v>33.915</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-1435.649955148468</v>
+      </c>
+      <c r="H172" t="n">
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>9720</v>
+      </c>
+      <c r="K172" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>9780</v>
+      </c>
+      <c r="C173" t="n">
+        <v>9780</v>
+      </c>
+      <c r="D173" t="n">
+        <v>9780</v>
+      </c>
+      <c r="E173" t="n">
+        <v>9780</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-1435.549955148468</v>
+      </c>
+      <c r="H173" t="n">
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>9720</v>
+      </c>
+      <c r="K173" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>9775</v>
+      </c>
+      <c r="C174" t="n">
+        <v>9775</v>
+      </c>
+      <c r="D174" t="n">
+        <v>9775</v>
+      </c>
+      <c r="E174" t="n">
+        <v>9775</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-1435.649955148468</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>9775</v>
+      </c>
+      <c r="C175" t="n">
+        <v>9775</v>
+      </c>
+      <c r="D175" t="n">
+        <v>9775</v>
+      </c>
+      <c r="E175" t="n">
+        <v>9775</v>
+      </c>
+      <c r="F175" t="n">
+        <v>49.9999</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-1435.649955148468</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>9730</v>
+      </c>
+      <c r="C176" t="n">
+        <v>9730</v>
+      </c>
+      <c r="D176" t="n">
+        <v>9730</v>
+      </c>
+      <c r="E176" t="n">
+        <v>9730</v>
+      </c>
+      <c r="F176" t="n">
+        <v>1.1642</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-1436.814155148468</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>9775</v>
+      </c>
+      <c r="C177" t="n">
+        <v>9785</v>
+      </c>
+      <c r="D177" t="n">
+        <v>9785</v>
+      </c>
+      <c r="E177" t="n">
+        <v>9775</v>
+      </c>
+      <c r="F177" t="n">
+        <v>102.2360879918242</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-1334.578067156643</v>
+      </c>
+      <c r="H177" t="n">
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>9730</v>
+      </c>
+      <c r="K177" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>9720</v>
+      </c>
+      <c r="C178" t="n">
+        <v>9720</v>
+      </c>
+      <c r="D178" t="n">
+        <v>9720</v>
+      </c>
+      <c r="E178" t="n">
+        <v>9720</v>
+      </c>
+      <c r="F178" t="n">
+        <v>2.1902</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-1336.768267156643</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>9700</v>
+      </c>
+      <c r="C179" t="n">
+        <v>9700</v>
+      </c>
+      <c r="D179" t="n">
+        <v>9700</v>
+      </c>
+      <c r="E179" t="n">
+        <v>9700</v>
+      </c>
+      <c r="F179" t="n">
+        <v>61.2007</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-1397.968967156643</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>9700</v>
+      </c>
+      <c r="C180" t="n">
+        <v>9700</v>
+      </c>
+      <c r="D180" t="n">
+        <v>9700</v>
+      </c>
+      <c r="E180" t="n">
+        <v>9700</v>
+      </c>
+      <c r="F180" t="n">
+        <v>35.3545</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-1397.968967156643</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>9700</v>
+      </c>
+      <c r="C181" t="n">
+        <v>9700</v>
+      </c>
+      <c r="D181" t="n">
+        <v>9700</v>
+      </c>
+      <c r="E181" t="n">
+        <v>9700</v>
+      </c>
+      <c r="F181" t="n">
+        <v>17.8801</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-1397.968967156643</v>
+      </c>
+      <c r="H181" t="n">
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>9700</v>
+      </c>
+      <c r="K181" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
         <v>9695</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C182" t="n">
         <v>9695</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D182" t="n">
         <v>9695</v>
       </c>
-      <c r="E111" t="n">
+      <c r="E182" t="n">
         <v>9695</v>
       </c>
-      <c r="F111" t="n">
+      <c r="F182" t="n">
         <v>7.0939</v>
       </c>
-      <c r="G111" t="n">
+      <c r="G182" t="n">
         <v>-1405.062867156644</v>
       </c>
-      <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="n">
+      <c r="H182" t="n">
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="n">
         <v>9700</v>
       </c>
-      <c r="K111" t="n">
-        <v>9700</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>9770</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-19 BackTest REP.xlsx
+++ b/BackTest/2019-10-19 BackTest REP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-267.1804</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-465.4431</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-496.9041</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-496.9041</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-496.9041</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-580.6066000000001</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-615.2833000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-716.6283000000001</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -814,14 +814,10 @@
         <v>-658.1875000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>9785</v>
-      </c>
-      <c r="J13" t="n">
-        <v>9785</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
@@ -854,14 +850,8 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>9785</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -890,17 +880,11 @@
         <v>-129.8849326530614</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>9785</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -2018,7 +2002,7 @@
         <v>-565.8909326530613</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2051,7 +2035,7 @@
         <v>-772.0777326530613</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2084,7 +2068,7 @@
         <v>-958.8653326530613</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2150,7 +2134,7 @@
         <v>-958.8653326530613</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2183,7 +2167,7 @@
         <v>-958.8653326530613</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2315,7 +2299,7 @@
         <v>-932.5638326530612</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2414,7 +2398,7 @@
         <v>-778.1709326530613</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2447,7 +2431,7 @@
         <v>-778.1709326530613</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2480,7 +2464,7 @@
         <v>-809.7350326530614</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2513,7 +2497,7 @@
         <v>-809.7350326530614</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2546,7 +2530,7 @@
         <v>-809.6099326530614</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2579,7 +2563,7 @@
         <v>-814.5749326530614</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2612,7 +2596,7 @@
         <v>-814.4480326530614</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2645,7 +2629,7 @@
         <v>-814.4480326530614</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2678,7 +2662,7 @@
         <v>-823.9259326530614</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2711,7 +2695,7 @@
         <v>-959.1661326530614</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2744,7 +2728,7 @@
         <v>-959.1661326530614</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2777,7 +2761,7 @@
         <v>-957.9990326530614</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2810,7 +2794,7 @@
         <v>-958.0990326530614</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2843,7 +2827,7 @@
         <v>-1019.846432653061</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2876,7 +2860,7 @@
         <v>-1019.846432653061</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2909,7 +2893,7 @@
         <v>-1019.846432653061</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3041,7 +3025,7 @@
         <v>-1019.632692195046</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3074,7 +3058,7 @@
         <v>-1019.782692195046</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3107,7 +3091,7 @@
         <v>-1014.907892195046</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3173,7 +3157,7 @@
         <v>-1017.586192195046</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3206,7 +3190,7 @@
         <v>-1061.380692195046</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3239,7 +3223,7 @@
         <v>-1059.667892195046</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3272,7 +3256,7 @@
         <v>-1617.179392195046</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3305,7 +3289,7 @@
         <v>-1589.560292195046</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3338,7 +3322,7 @@
         <v>-1587.060292195046</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3371,7 +3355,7 @@
         <v>-1592.543292195046</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3470,7 +3454,7 @@
         <v>-1575.740992195046</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3503,7 +3487,7 @@
         <v>-1547.595492195046</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -4064,10 +4048,14 @@
         <v>-1570.513092195046</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>9740</v>
+      </c>
+      <c r="J111" t="n">
+        <v>9740</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
@@ -4097,7 +4085,7 @@
         <v>-1568.513092195046</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>9740</v>
@@ -4105,7 +4093,11 @@
       <c r="J112" t="n">
         <v>9740</v>
       </c>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4134,9 +4126,11 @@
         <v>-1602.768392195046</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>9755</v>
+      </c>
       <c r="J113" t="n">
         <v>9740</v>
       </c>
@@ -4173,17 +4167,15 @@
         <v>-1602.654692195046</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>9745</v>
+      </c>
       <c r="J114" t="n">
-        <v>9740</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>9745</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4212,11 +4204,19 @@
         <v>-1615.654692195046</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>9765</v>
+      </c>
+      <c r="J115" t="n">
+        <v>9745</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4245,11 +4245,19 @@
         <v>-1614.654692195046</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>9730</v>
+      </c>
+      <c r="J116" t="n">
+        <v>9745</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4278,10 +4286,14 @@
         <v>-1614.654692195046</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>9770</v>
+      </c>
+      <c r="J117" t="n">
+        <v>9770</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
@@ -4311,11 +4323,19 @@
         <v>-1592.058992195046</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>9770</v>
+      </c>
+      <c r="J118" t="n">
+        <v>9770</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4347,8 +4367,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>9770</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4443,10 +4469,14 @@
         <v>-1565.57773602787</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>9800</v>
+      </c>
+      <c r="J122" t="n">
+        <v>9800</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
@@ -4476,11 +4506,19 @@
         <v>-1651.20033602787</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>9810</v>
+      </c>
+      <c r="J123" t="n">
+        <v>9800</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4509,11 +4547,19 @@
         <v>-1522.73933602787</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>9805</v>
+      </c>
+      <c r="J124" t="n">
+        <v>9800</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4545,8 +4591,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>9800</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4578,8 +4630,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>9800</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4611,8 +4669,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>9800</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4641,11 +4705,19 @@
         <v>-834.0832360278697</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>9815</v>
+      </c>
+      <c r="J128" t="n">
+        <v>9800</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4677,8 +4749,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>9800</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4710,8 +4788,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>9800</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4740,11 +4824,19 @@
         <v>-912.9911360278697</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>9795</v>
+      </c>
+      <c r="J131" t="n">
+        <v>9800</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4776,8 +4868,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>9800</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4806,15 +4904,15 @@
         <v>-988.6036360278697</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
-      </c>
-      <c r="I133" t="n">
-        <v>9790</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>9800</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L133" t="n">
@@ -4845,12 +4943,12 @@
         <v>-988.4962360278697</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
-      </c>
-      <c r="I134" t="n">
-        <v>9785</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>9800</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4887,7 +4985,9 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>9800</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4924,7 +5024,9 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>9800</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4961,7 +5063,9 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>9800</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4998,7 +5102,9 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>9800</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5035,7 +5141,9 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>9800</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5072,7 +5180,9 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>9800</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5109,7 +5219,9 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>9800</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5146,7 +5258,9 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>9800</v>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5183,7 +5297,9 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>9800</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5220,7 +5336,9 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>9800</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5257,7 +5375,9 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>9800</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5294,7 +5414,9 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>9800</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5331,7 +5453,9 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>9800</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5368,7 +5492,9 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>9800</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5405,7 +5531,9 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>9800</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5439,12 +5567,12 @@
         <v>-938.7853764858849</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
-      </c>
-      <c r="I150" t="n">
-        <v>9830</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>9800</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5481,7 +5609,9 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>9800</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5518,7 +5648,9 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>9800</v>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5555,7 +5687,9 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>9800</v>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5592,7 +5726,9 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>9800</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5629,7 +5765,9 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>9800</v>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5666,7 +5804,9 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>9800</v>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5703,7 +5843,9 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>9800</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5740,7 +5882,9 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>9800</v>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5777,7 +5921,9 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>9800</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5814,7 +5960,9 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>9800</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5848,12 +5996,12 @@
         <v>-951.0063764858849</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
-      </c>
-      <c r="I161" t="n">
-        <v>9800</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>9800</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5887,12 +6035,12 @@
         <v>-951.0063764858849</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
-      </c>
-      <c r="I162" t="n">
-        <v>9800</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>9800</v>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5926,12 +6074,12 @@
         <v>-1375.413376485885</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
-      </c>
-      <c r="I163" t="n">
-        <v>9800</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>9800</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5965,12 +6113,14 @@
         <v>-1368.952776485885</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I164" t="n">
         <v>9735</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>9800</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6007,7 +6157,9 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>9800</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6044,7 +6196,9 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>9800</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6081,7 +6235,9 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>9800</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6118,7 +6274,9 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>9800</v>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6152,10 +6310,14 @@
         <v>-1368.307655148468</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>9730</v>
+      </c>
+      <c r="J169" t="n">
+        <v>9800</v>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6189,12 +6351,14 @@
         <v>-1338.667355148468</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I170" t="n">
         <v>9745</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>9800</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6228,12 +6392,12 @@
         <v>-1435.649955148468</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
-      </c>
-      <c r="I171" t="n">
-        <v>9775</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>9800</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6267,12 +6431,14 @@
         <v>-1435.649955148468</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I172" t="n">
         <v>9720</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>9800</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6306,10 +6472,14 @@
         <v>-1435.549955148468</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>9720</v>
+      </c>
+      <c r="J173" t="n">
+        <v>9800</v>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6346,7 +6516,9 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>9800</v>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6383,7 +6555,9 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>9800</v>
+      </c>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6420,7 +6594,9 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>9800</v>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6457,7 +6633,9 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>9800</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6494,7 +6672,9 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>9800</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6531,7 +6711,9 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>9800</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6568,7 +6750,9 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>9800</v>
+      </c>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6605,7 +6789,9 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>9800</v>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6639,12 +6825,12 @@
         <v>-1405.062867156644</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
-      </c>
-      <c r="I182" t="n">
-        <v>9700</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>9800</v>
+      </c>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6656,6 +6842,6 @@
       <c r="M182" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest REP.xlsx
+++ b/BackTest/2019-10-19 BackTest REP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-267.1804</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-465.4431</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-496.9041</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-496.9041</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-496.9041</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-580.6066000000001</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-615.2833000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-716.6283000000001</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-719.9952000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-713.4842000000001</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-652.3356000000001</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-658.1875000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-657.8841326530613</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-129.8849326530614</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-778.1709326530613</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-778.1709326530613</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-809.7350326530614</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-809.7350326530614</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-809.6099326530614</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-814.5749326530614</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-814.4480326530614</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-814.4480326530614</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-823.9259326530614</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-959.1661326530614</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-959.1661326530614</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-957.9990326530614</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-958.0990326530614</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-1019.846432653061</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-1019.846432653061</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-1019.846432653061</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3685,11 +3685,17 @@
         <v>-1638.990292195046</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>9735</v>
+      </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3718,11 +3724,17 @@
         <v>-1557.205492195046</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>9730</v>
+      </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3755,7 +3767,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3788,7 +3804,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3821,7 +3841,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3850,11 +3874,17 @@
         <v>-1597.651092195046</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>9765</v>
+      </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3887,7 +3917,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3920,7 +3954,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3953,7 +3991,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3986,7 +4028,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4019,7 +4065,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4048,15 +4098,15 @@
         <v>-1570.513092195046</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>9740</v>
-      </c>
-      <c r="J111" t="n">
-        <v>9740</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4085,17 +4135,13 @@
         <v>-1568.513092195046</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>9740</v>
-      </c>
-      <c r="J112" t="n">
-        <v>9740</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L112" t="n">
@@ -4131,12 +4177,10 @@
       <c r="I113" t="n">
         <v>9755</v>
       </c>
-      <c r="J113" t="n">
-        <v>9740</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L113" t="n">
@@ -4172,10 +4216,12 @@
       <c r="I114" t="n">
         <v>9745</v>
       </c>
-      <c r="J114" t="n">
-        <v>9745</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4209,12 +4255,10 @@
       <c r="I115" t="n">
         <v>9765</v>
       </c>
-      <c r="J115" t="n">
-        <v>9745</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L115" t="n">
@@ -4245,17 +4289,13 @@
         <v>-1614.654692195046</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>9730</v>
-      </c>
-      <c r="J116" t="n">
-        <v>9745</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L116" t="n">
@@ -4286,15 +4326,15 @@
         <v>-1614.654692195046</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>9770</v>
-      </c>
-      <c r="J117" t="n">
-        <v>9770</v>
-      </c>
-      <c r="K117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4323,17 +4363,13 @@
         <v>-1592.058992195046</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>9770</v>
-      </c>
-      <c r="J118" t="n">
-        <v>9770</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L118" t="n">
@@ -4367,12 +4403,10 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>9770</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L119" t="n">
@@ -4407,7 +4441,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4440,7 +4478,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4469,15 +4511,15 @@
         <v>-1565.57773602787</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>9800</v>
-      </c>
-      <c r="J122" t="n">
-        <v>9800</v>
-      </c>
-      <c r="K122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4506,17 +4548,13 @@
         <v>-1651.20033602787</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>9810</v>
-      </c>
-      <c r="J123" t="n">
-        <v>9800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L123" t="n">
@@ -4547,14 +4585,10 @@
         <v>-1522.73933602787</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>9805</v>
-      </c>
-      <c r="J124" t="n">
-        <v>9800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4591,9 +4625,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>9800</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4630,9 +4662,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>9800</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4669,9 +4699,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>9800</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4705,14 +4733,10 @@
         <v>-834.0832360278697</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>9815</v>
-      </c>
-      <c r="J128" t="n">
-        <v>9800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4749,9 +4773,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>9800</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4788,9 +4810,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>9800</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4824,14 +4844,10 @@
         <v>-912.9911360278697</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>9795</v>
-      </c>
-      <c r="J131" t="n">
-        <v>9800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4868,9 +4884,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>9800</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4907,9 +4921,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>9800</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4946,9 +4958,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>9800</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4985,9 +4995,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>9800</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5024,9 +5032,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>9800</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5063,9 +5069,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>9800</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5102,9 +5106,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>9800</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5141,9 +5143,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>9800</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5180,9 +5180,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>9800</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5219,9 +5217,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>9800</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5258,9 +5254,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>9800</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5297,9 +5291,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>9800</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5336,9 +5328,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>9800</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5375,9 +5365,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>9800</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5414,9 +5402,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>9800</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5453,9 +5439,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>9800</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5492,9 +5476,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>9800</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5531,9 +5513,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>9800</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5570,9 +5550,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>9800</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5609,9 +5587,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>9800</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5648,9 +5624,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>9800</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5687,9 +5661,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>9800</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5726,9 +5698,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>9800</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5765,9 +5735,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>9800</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5804,9 +5772,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>9800</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5843,9 +5809,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>9800</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5882,9 +5846,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>9800</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5921,9 +5883,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>9800</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5960,9 +5920,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>9800</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5999,9 +5957,7 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>9800</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6038,9 +5994,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>9800</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6077,9 +6031,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>9800</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6113,14 +6065,10 @@
         <v>-1368.952776485885</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>9735</v>
-      </c>
-      <c r="J164" t="n">
-        <v>9800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6157,9 +6105,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>9800</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6196,9 +6142,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>9800</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6235,9 +6179,7 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>9800</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6274,9 +6216,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>9800</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6310,14 +6250,10 @@
         <v>-1368.307655148468</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>9730</v>
-      </c>
-      <c r="J169" t="n">
-        <v>9800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6351,14 +6287,10 @@
         <v>-1338.667355148468</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>9745</v>
-      </c>
-      <c r="J170" t="n">
-        <v>9800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6395,9 +6327,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>9800</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6431,14 +6361,10 @@
         <v>-1435.649955148468</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>9720</v>
-      </c>
-      <c r="J172" t="n">
-        <v>9800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6472,14 +6398,10 @@
         <v>-1435.549955148468</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>9720</v>
-      </c>
-      <c r="J173" t="n">
-        <v>9800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6516,9 +6438,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>9800</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6555,9 +6475,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>9800</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6594,9 +6512,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>9800</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6633,9 +6549,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>9800</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6672,9 +6586,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>9800</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6711,9 +6623,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>9800</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6750,9 +6660,7 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>9800</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6789,9 +6697,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>9800</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6828,9 +6734,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>9800</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6842,6 +6746,6 @@
       <c r="M182" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest REP.xlsx
+++ b/BackTest/2019-10-19 BackTest REP.xlsx
@@ -715,7 +715,7 @@
         <v>-719.9952000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-713.4842000000001</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-652.3356000000001</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-658.1875000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-657.8841326530613</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-566.0361326530614</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-565.8909326530613</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-772.0777326530613</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-958.8653326530613</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-958.8653326530613</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-958.8653326530613</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-958.8653326530613</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-958.8653326530613</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-971.1231326530612</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-999.5035326530613</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-814.4480326530614</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-823.9259326530614</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-959.1661326530614</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-959.1661326530614</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-957.9990326530614</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-958.0990326530614</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-1019.846432653061</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-1017.357892195046</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3685,878 +3685,858 @@
         <v>-1638.990292195046</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>9730</v>
+      </c>
+      <c r="C101" t="n">
+        <v>9745</v>
+      </c>
+      <c r="D101" t="n">
+        <v>9760</v>
+      </c>
+      <c r="E101" t="n">
+        <v>9720</v>
+      </c>
+      <c r="F101" t="n">
+        <v>81.7848</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-1557.205492195046</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>9760</v>
+      </c>
+      <c r="C102" t="n">
+        <v>9760</v>
+      </c>
+      <c r="D102" t="n">
+        <v>9760</v>
+      </c>
+      <c r="E102" t="n">
+        <v>9760</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.1197</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-1557.085792195046</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>9765</v>
+      </c>
+      <c r="C103" t="n">
+        <v>9765</v>
+      </c>
+      <c r="D103" t="n">
+        <v>9765</v>
+      </c>
+      <c r="E103" t="n">
+        <v>9765</v>
+      </c>
+      <c r="F103" t="n">
+        <v>9.434699999999999</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-1547.651092195046</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>9730</v>
+      </c>
+      <c r="C104" t="n">
+        <v>9765</v>
+      </c>
+      <c r="D104" t="n">
+        <v>9765</v>
+      </c>
+      <c r="E104" t="n">
+        <v>9700</v>
+      </c>
+      <c r="F104" t="n">
+        <v>540.5271</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-1547.651092195046</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>9740</v>
+      </c>
+      <c r="C105" t="n">
+        <v>9750</v>
+      </c>
+      <c r="D105" t="n">
+        <v>9750</v>
+      </c>
+      <c r="E105" t="n">
+        <v>9740</v>
+      </c>
+      <c r="F105" t="n">
+        <v>50</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-1597.651092195046</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>9715</v>
+      </c>
+      <c r="C106" t="n">
+        <v>9710</v>
+      </c>
+      <c r="D106" t="n">
+        <v>9715</v>
+      </c>
+      <c r="E106" t="n">
+        <v>9710</v>
+      </c>
+      <c r="F106" t="n">
+        <v>17.7465</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-1615.397592195046</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>9715</v>
+      </c>
+      <c r="C107" t="n">
+        <v>9715</v>
+      </c>
+      <c r="D107" t="n">
+        <v>9715</v>
+      </c>
+      <c r="E107" t="n">
+        <v>9715</v>
+      </c>
+      <c r="F107" t="n">
+        <v>1</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-1614.397592195046</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
         <v>9735</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
+      <c r="C108" t="n">
+        <v>9740</v>
+      </c>
+      <c r="D108" t="n">
+        <v>9740</v>
+      </c>
+      <c r="E108" t="n">
+        <v>9735</v>
+      </c>
+      <c r="F108" t="n">
+        <v>50</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-1564.397592195046</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>9750</v>
+      </c>
+      <c r="C109" t="n">
+        <v>9750</v>
+      </c>
+      <c r="D109" t="n">
+        <v>9750</v>
+      </c>
+      <c r="E109" t="n">
+        <v>9750</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-1564.297592195046</v>
+      </c>
+      <c r="H109" t="n">
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>9740</v>
+      </c>
+      <c r="J109" t="n">
+        <v>9740</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>9740</v>
+      </c>
+      <c r="C110" t="n">
+        <v>9740</v>
+      </c>
+      <c r="D110" t="n">
+        <v>9740</v>
+      </c>
+      <c r="E110" t="n">
+        <v>9740</v>
+      </c>
+      <c r="F110" t="n">
+        <v>6.2155</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-1570.513092195046</v>
+      </c>
+      <c r="H110" t="n">
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>9750</v>
+      </c>
+      <c r="J110" t="n">
+        <v>9740</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>9740</v>
+      </c>
+      <c r="C111" t="n">
+        <v>9740</v>
+      </c>
+      <c r="D111" t="n">
+        <v>9740</v>
+      </c>
+      <c r="E111" t="n">
+        <v>9740</v>
+      </c>
+      <c r="F111" t="n">
+        <v>10.5956</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-1570.513092195046</v>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>9740</v>
+      </c>
+      <c r="J111" t="n">
+        <v>9740</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>9755</v>
+      </c>
+      <c r="C112" t="n">
+        <v>9755</v>
+      </c>
+      <c r="D112" t="n">
+        <v>9755</v>
+      </c>
+      <c r="E112" t="n">
+        <v>9755</v>
+      </c>
+      <c r="F112" t="n">
+        <v>2</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-1568.513092195046</v>
+      </c>
+      <c r="H112" t="n">
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>9740</v>
+      </c>
+      <c r="J112" t="n">
+        <v>9740</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>9750</v>
+      </c>
+      <c r="C113" t="n">
+        <v>9745</v>
+      </c>
+      <c r="D113" t="n">
+        <v>9750</v>
+      </c>
+      <c r="E113" t="n">
+        <v>9745</v>
+      </c>
+      <c r="F113" t="n">
+        <v>34.2553</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-1602.768392195046</v>
+      </c>
+      <c r="H113" t="n">
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>9755</v>
+      </c>
+      <c r="J113" t="n">
+        <v>9740</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>9765</v>
+      </c>
+      <c r="C114" t="n">
+        <v>9765</v>
+      </c>
+      <c r="D114" t="n">
+        <v>9765</v>
+      </c>
+      <c r="E114" t="n">
+        <v>9765</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.1137</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-1602.654692195046</v>
+      </c>
+      <c r="H114" t="n">
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>9745</v>
+      </c>
+      <c r="J114" t="n">
+        <v>9740</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>9730</v>
+      </c>
+      <c r="C115" t="n">
+        <v>9730</v>
+      </c>
+      <c r="D115" t="n">
+        <v>9730</v>
+      </c>
+      <c r="E115" t="n">
+        <v>9730</v>
+      </c>
+      <c r="F115" t="n">
+        <v>13</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-1615.654692195046</v>
+      </c>
+      <c r="H115" t="n">
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>9765</v>
+      </c>
+      <c r="J115" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>9770</v>
+      </c>
+      <c r="C116" t="n">
+        <v>9770</v>
+      </c>
+      <c r="D116" t="n">
+        <v>9770</v>
+      </c>
+      <c r="E116" t="n">
+        <v>9770</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-1614.654692195046</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>9730</v>
+      </c>
+      <c r="J116" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>9770</v>
+      </c>
+      <c r="C117" t="n">
+        <v>9770</v>
+      </c>
+      <c r="D117" t="n">
+        <v>9770</v>
+      </c>
+      <c r="E117" t="n">
+        <v>9770</v>
+      </c>
+      <c r="F117" t="n">
+        <v>6.0177</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-1614.654692195046</v>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>9770</v>
+      </c>
+      <c r="J117" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>9790</v>
+      </c>
+      <c r="C118" t="n">
+        <v>9790</v>
+      </c>
+      <c r="D118" t="n">
+        <v>9790</v>
+      </c>
+      <c r="E118" t="n">
+        <v>9790</v>
+      </c>
+      <c r="F118" t="n">
+        <v>22.5957</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-1592.058992195046</v>
+      </c>
+      <c r="H118" t="n">
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>9770</v>
+      </c>
+      <c r="J118" t="n">
+        <v>9770</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>9790</v>
+      </c>
+      <c r="C119" t="n">
+        <v>9790</v>
+      </c>
+      <c r="D119" t="n">
+        <v>9790</v>
+      </c>
+      <c r="E119" t="n">
+        <v>9790</v>
+      </c>
+      <c r="F119" t="n">
+        <v>23.197</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-1592.058992195046</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>9770</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>9790</v>
+      </c>
+      <c r="C120" t="n">
+        <v>9790</v>
+      </c>
+      <c r="D120" t="n">
+        <v>9790</v>
+      </c>
+      <c r="E120" t="n">
+        <v>9790</v>
+      </c>
+      <c r="F120" t="n">
+        <v>6.348</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-1592.058992195046</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>9770</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>9790</v>
+      </c>
+      <c r="C121" t="n">
+        <v>9800</v>
+      </c>
+      <c r="D121" t="n">
+        <v>9800</v>
+      </c>
+      <c r="E121" t="n">
+        <v>9790</v>
+      </c>
+      <c r="F121" t="n">
+        <v>26.1783</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-1565.880692195046</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>9810</v>
+      </c>
+      <c r="C122" t="n">
+        <v>9810</v>
+      </c>
+      <c r="D122" t="n">
+        <v>9810</v>
+      </c>
+      <c r="E122" t="n">
+        <v>9810</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.3029561671763507</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-1565.57773602787</v>
+      </c>
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>9800</v>
+      </c>
+      <c r="J122" t="n">
+        <v>9800</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>9780</v>
+      </c>
+      <c r="C123" t="n">
+        <v>9805</v>
+      </c>
+      <c r="D123" t="n">
+        <v>9805</v>
+      </c>
+      <c r="E123" t="n">
+        <v>9775</v>
+      </c>
+      <c r="F123" t="n">
+        <v>85.62260000000001</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-1651.20033602787</v>
+      </c>
+      <c r="H123" t="n">
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>9810</v>
+      </c>
+      <c r="J123" t="n">
+        <v>9800</v>
+      </c>
+      <c r="K123" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>9730</v>
-      </c>
-      <c r="C101" t="n">
-        <v>9745</v>
-      </c>
-      <c r="D101" t="n">
-        <v>9760</v>
-      </c>
-      <c r="E101" t="n">
-        <v>9720</v>
-      </c>
-      <c r="F101" t="n">
-        <v>81.7848</v>
-      </c>
-      <c r="G101" t="n">
-        <v>-1557.205492195046</v>
-      </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>9730</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>9760</v>
-      </c>
-      <c r="C102" t="n">
-        <v>9760</v>
-      </c>
-      <c r="D102" t="n">
-        <v>9760</v>
-      </c>
-      <c r="E102" t="n">
-        <v>9760</v>
-      </c>
-      <c r="F102" t="n">
-        <v>0.1197</v>
-      </c>
-      <c r="G102" t="n">
-        <v>-1557.085792195046</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>9765</v>
-      </c>
-      <c r="C103" t="n">
-        <v>9765</v>
-      </c>
-      <c r="D103" t="n">
-        <v>9765</v>
-      </c>
-      <c r="E103" t="n">
-        <v>9765</v>
-      </c>
-      <c r="F103" t="n">
-        <v>9.434699999999999</v>
-      </c>
-      <c r="G103" t="n">
-        <v>-1547.651092195046</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>9730</v>
-      </c>
-      <c r="C104" t="n">
-        <v>9765</v>
-      </c>
-      <c r="D104" t="n">
-        <v>9765</v>
-      </c>
-      <c r="E104" t="n">
-        <v>9700</v>
-      </c>
-      <c r="F104" t="n">
-        <v>540.5271</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-1547.651092195046</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>9740</v>
-      </c>
-      <c r="C105" t="n">
-        <v>9750</v>
-      </c>
-      <c r="D105" t="n">
-        <v>9750</v>
-      </c>
-      <c r="E105" t="n">
-        <v>9740</v>
-      </c>
-      <c r="F105" t="n">
-        <v>50</v>
-      </c>
-      <c r="G105" t="n">
-        <v>-1597.651092195046</v>
-      </c>
-      <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>9765</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>9715</v>
-      </c>
-      <c r="C106" t="n">
-        <v>9710</v>
-      </c>
-      <c r="D106" t="n">
-        <v>9715</v>
-      </c>
-      <c r="E106" t="n">
-        <v>9710</v>
-      </c>
-      <c r="F106" t="n">
-        <v>17.7465</v>
-      </c>
-      <c r="G106" t="n">
-        <v>-1615.397592195046</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>9715</v>
-      </c>
-      <c r="C107" t="n">
-        <v>9715</v>
-      </c>
-      <c r="D107" t="n">
-        <v>9715</v>
-      </c>
-      <c r="E107" t="n">
-        <v>9715</v>
-      </c>
-      <c r="F107" t="n">
-        <v>1</v>
-      </c>
-      <c r="G107" t="n">
-        <v>-1614.397592195046</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>9735</v>
-      </c>
-      <c r="C108" t="n">
-        <v>9740</v>
-      </c>
-      <c r="D108" t="n">
-        <v>9740</v>
-      </c>
-      <c r="E108" t="n">
-        <v>9735</v>
-      </c>
-      <c r="F108" t="n">
-        <v>50</v>
-      </c>
-      <c r="G108" t="n">
-        <v>-1564.397592195046</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>9750</v>
-      </c>
-      <c r="C109" t="n">
-        <v>9750</v>
-      </c>
-      <c r="D109" t="n">
-        <v>9750</v>
-      </c>
-      <c r="E109" t="n">
-        <v>9750</v>
-      </c>
-      <c r="F109" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G109" t="n">
-        <v>-1564.297592195046</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>9740</v>
-      </c>
-      <c r="C110" t="n">
-        <v>9740</v>
-      </c>
-      <c r="D110" t="n">
-        <v>9740</v>
-      </c>
-      <c r="E110" t="n">
-        <v>9740</v>
-      </c>
-      <c r="F110" t="n">
-        <v>6.2155</v>
-      </c>
-      <c r="G110" t="n">
-        <v>-1570.513092195046</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>9740</v>
-      </c>
-      <c r="C111" t="n">
-        <v>9740</v>
-      </c>
-      <c r="D111" t="n">
-        <v>9740</v>
-      </c>
-      <c r="E111" t="n">
-        <v>9740</v>
-      </c>
-      <c r="F111" t="n">
-        <v>10.5956</v>
-      </c>
-      <c r="G111" t="n">
-        <v>-1570.513092195046</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>9755</v>
-      </c>
-      <c r="C112" t="n">
-        <v>9755</v>
-      </c>
-      <c r="D112" t="n">
-        <v>9755</v>
-      </c>
-      <c r="E112" t="n">
-        <v>9755</v>
-      </c>
-      <c r="F112" t="n">
-        <v>2</v>
-      </c>
-      <c r="G112" t="n">
-        <v>-1568.513092195046</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>9750</v>
-      </c>
-      <c r="C113" t="n">
-        <v>9745</v>
-      </c>
-      <c r="D113" t="n">
-        <v>9750</v>
-      </c>
-      <c r="E113" t="n">
-        <v>9745</v>
-      </c>
-      <c r="F113" t="n">
-        <v>34.2553</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-1602.768392195046</v>
-      </c>
-      <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>9755</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>9765</v>
-      </c>
-      <c r="C114" t="n">
-        <v>9765</v>
-      </c>
-      <c r="D114" t="n">
-        <v>9765</v>
-      </c>
-      <c r="E114" t="n">
-        <v>9765</v>
-      </c>
-      <c r="F114" t="n">
-        <v>0.1137</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-1602.654692195046</v>
-      </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>9745</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>9730</v>
-      </c>
-      <c r="C115" t="n">
-        <v>9730</v>
-      </c>
-      <c r="D115" t="n">
-        <v>9730</v>
-      </c>
-      <c r="E115" t="n">
-        <v>9730</v>
-      </c>
-      <c r="F115" t="n">
-        <v>13</v>
-      </c>
-      <c r="G115" t="n">
-        <v>-1615.654692195046</v>
-      </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>9765</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>9770</v>
-      </c>
-      <c r="C116" t="n">
-        <v>9770</v>
-      </c>
-      <c r="D116" t="n">
-        <v>9770</v>
-      </c>
-      <c r="E116" t="n">
-        <v>9770</v>
-      </c>
-      <c r="F116" t="n">
-        <v>1</v>
-      </c>
-      <c r="G116" t="n">
-        <v>-1614.654692195046</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>9770</v>
-      </c>
-      <c r="C117" t="n">
-        <v>9770</v>
-      </c>
-      <c r="D117" t="n">
-        <v>9770</v>
-      </c>
-      <c r="E117" t="n">
-        <v>9770</v>
-      </c>
-      <c r="F117" t="n">
-        <v>6.0177</v>
-      </c>
-      <c r="G117" t="n">
-        <v>-1614.654692195046</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>9790</v>
-      </c>
-      <c r="C118" t="n">
-        <v>9790</v>
-      </c>
-      <c r="D118" t="n">
-        <v>9790</v>
-      </c>
-      <c r="E118" t="n">
-        <v>9790</v>
-      </c>
-      <c r="F118" t="n">
-        <v>22.5957</v>
-      </c>
-      <c r="G118" t="n">
-        <v>-1592.058992195046</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>9790</v>
-      </c>
-      <c r="C119" t="n">
-        <v>9790</v>
-      </c>
-      <c r="D119" t="n">
-        <v>9790</v>
-      </c>
-      <c r="E119" t="n">
-        <v>9790</v>
-      </c>
-      <c r="F119" t="n">
-        <v>23.197</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-1592.058992195046</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>9790</v>
-      </c>
-      <c r="C120" t="n">
-        <v>9790</v>
-      </c>
-      <c r="D120" t="n">
-        <v>9790</v>
-      </c>
-      <c r="E120" t="n">
-        <v>9790</v>
-      </c>
-      <c r="F120" t="n">
-        <v>6.348</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-1592.058992195046</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>9790</v>
-      </c>
-      <c r="C121" t="n">
-        <v>9800</v>
-      </c>
-      <c r="D121" t="n">
-        <v>9800</v>
-      </c>
-      <c r="E121" t="n">
-        <v>9790</v>
-      </c>
-      <c r="F121" t="n">
-        <v>26.1783</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-1565.880692195046</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>9810</v>
-      </c>
-      <c r="C122" t="n">
-        <v>9810</v>
-      </c>
-      <c r="D122" t="n">
-        <v>9810</v>
-      </c>
-      <c r="E122" t="n">
-        <v>9810</v>
-      </c>
-      <c r="F122" t="n">
-        <v>0.3029561671763507</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-1565.57773602787</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>9780</v>
-      </c>
-      <c r="C123" t="n">
-        <v>9805</v>
-      </c>
-      <c r="D123" t="n">
-        <v>9805</v>
-      </c>
-      <c r="E123" t="n">
-        <v>9775</v>
-      </c>
-      <c r="F123" t="n">
-        <v>85.62260000000001</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-1651.20033602787</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4585,10 +4565,14 @@
         <v>-1522.73933602787</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>9805</v>
+      </c>
+      <c r="J124" t="n">
+        <v>9800</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4622,10 +4606,14 @@
         <v>-1523.04223602787</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>9825</v>
+      </c>
+      <c r="J125" t="n">
+        <v>9800</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4662,7 +4650,9 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>9800</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4699,7 +4689,9 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>9800</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4733,10 +4725,14 @@
         <v>-834.0832360278697</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>9815</v>
+      </c>
+      <c r="J128" t="n">
+        <v>9800</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4773,7 +4769,9 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>9800</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4810,7 +4808,9 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>9800</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4847,7 +4847,9 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>9800</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4884,7 +4886,9 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>9800</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4921,7 +4925,9 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>9800</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4958,7 +4964,9 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>9800</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4995,7 +5003,9 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>9800</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5032,7 +5042,9 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>9800</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5069,7 +5081,9 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>9800</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5106,7 +5120,9 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>9800</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5143,7 +5159,9 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>9800</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5180,7 +5198,9 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>9800</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5217,7 +5237,9 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>9800</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5254,7 +5276,9 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>9800</v>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5291,7 +5315,9 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>9800</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5328,7 +5354,9 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>9800</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5365,7 +5393,9 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>9800</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5402,7 +5432,9 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>9800</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5439,7 +5471,9 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>9800</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5476,7 +5510,9 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>9800</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5513,7 +5549,9 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>9800</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5550,7 +5588,9 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>9800</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5587,7 +5627,9 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>9800</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5624,7 +5666,9 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>9800</v>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5661,7 +5705,9 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>9800</v>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5698,7 +5744,9 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>9800</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5735,7 +5783,9 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>9800</v>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5772,7 +5822,9 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>9800</v>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5806,17 +5858,19 @@
         <v>-867.9397764858849</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>9800</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L157" t="n">
-        <v>1</v>
+        <v>0.9990816326530613</v>
       </c>
       <c r="M157" t="inlineStr"/>
     </row>
@@ -5843,15 +5897,11 @@
         <v>-901.9397764858849</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5884,11 +5934,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5921,11 +5967,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5958,11 +6000,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5995,11 +6033,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6032,11 +6066,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6069,11 +6099,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6106,11 +6132,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6143,11 +6165,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6180,11 +6198,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6217,11 +6231,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6254,11 +6264,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6291,11 +6297,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6328,11 +6330,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6365,11 +6363,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6398,15 +6392,15 @@
         <v>-1435.549955148468</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>9720</v>
+      </c>
+      <c r="J173" t="n">
+        <v>9720</v>
+      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6438,10 +6432,12 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>9720</v>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L174" t="n">
@@ -6475,10 +6471,12 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>9720</v>
+      </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L175" t="n">
@@ -6513,11 +6511,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6550,11 +6544,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6587,11 +6577,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6624,11 +6610,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6661,11 +6643,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6698,11 +6676,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6735,11 +6709,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-19 BackTest REP.xlsx
+++ b/BackTest/2019-10-19 BackTest REP.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M182"/>
+  <dimension ref="A1:L182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>2.8192</v>
       </c>
       <c r="G2" t="n">
-        <v>-267.1804</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>198.2627</v>
       </c>
       <c r="G3" t="n">
-        <v>-465.4431</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>31.461</v>
       </c>
       <c r="G4" t="n">
-        <v>-496.9041</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>57.5998</v>
       </c>
       <c r="G5" t="n">
-        <v>-496.9041</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>18.8837</v>
       </c>
       <c r="G6" t="n">
-        <v>-496.9041</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>83.7025</v>
       </c>
       <c r="G7" t="n">
-        <v>-580.6066000000001</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>34.6767</v>
       </c>
       <c r="G8" t="n">
-        <v>-615.2833000000001</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>101.345</v>
       </c>
       <c r="G9" t="n">
-        <v>-716.6283000000001</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>3.3669</v>
       </c>
       <c r="G10" t="n">
-        <v>-719.9952000000001</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>6.511</v>
       </c>
       <c r="G11" t="n">
-        <v>-713.4842000000001</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>61.1486</v>
       </c>
       <c r="G12" t="n">
-        <v>-652.3356000000001</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>5.8519</v>
       </c>
       <c r="G13" t="n">
-        <v>-658.1875000000001</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>0.3033673469387755</v>
       </c>
       <c r="G14" t="n">
-        <v>-657.8841326530613</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>527.9992</v>
       </c>
       <c r="G15" t="n">
-        <v>-129.8849326530614</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>43.7945</v>
       </c>
       <c r="G16" t="n">
-        <v>-129.8849326530614</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>58.1097</v>
       </c>
       <c r="G17" t="n">
-        <v>-187.9946326530614</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>16.87</v>
       </c>
       <c r="G18" t="n">
-        <v>-171.1246326530614</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>15</v>
       </c>
       <c r="G19" t="n">
-        <v>-156.1246326530614</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>2.5673</v>
       </c>
       <c r="G20" t="n">
-        <v>-158.6919326530613</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>4.4729</v>
       </c>
       <c r="G21" t="n">
-        <v>-154.2190326530613</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>30.56</v>
       </c>
       <c r="G22" t="n">
-        <v>-123.6590326530613</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>92.2855</v>
       </c>
       <c r="G23" t="n">
-        <v>-31.37353265306133</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>34.9</v>
       </c>
       <c r="G24" t="n">
-        <v>3.526467346938666</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>65.09999999999999</v>
       </c>
       <c r="G25" t="n">
-        <v>3.526467346938666</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>0.0054</v>
       </c>
       <c r="G26" t="n">
-        <v>3.521067346938667</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>18</v>
       </c>
       <c r="G27" t="n">
-        <v>-14.47893265306133</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>108.7058</v>
       </c>
       <c r="G28" t="n">
-        <v>-123.1847326530613</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>336.7632</v>
       </c>
       <c r="G29" t="n">
-        <v>-459.9479326530613</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>65</v>
       </c>
       <c r="G30" t="n">
-        <v>-394.9479326530613</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>35</v>
       </c>
       <c r="G31" t="n">
-        <v>-429.9479326530613</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>28.5821</v>
       </c>
       <c r="G32" t="n">
-        <v>-429.9479326530613</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>15</v>
       </c>
       <c r="G33" t="n">
-        <v>-429.9479326530613</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>4.38</v>
       </c>
       <c r="G34" t="n">
-        <v>-429.9479326530613</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>12.903</v>
       </c>
       <c r="G35" t="n">
-        <v>-429.9479326530613</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>7.7402</v>
       </c>
       <c r="G36" t="n">
-        <v>-422.2077326530613</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>15</v>
       </c>
       <c r="G37" t="n">
-        <v>-437.2077326530613</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>41.3294</v>
       </c>
       <c r="G38" t="n">
-        <v>-437.2077326530613</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>0.0042</v>
       </c>
       <c r="G39" t="n">
-        <v>-437.2077326530613</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>8</v>
       </c>
       <c r="G40" t="n">
-        <v>-445.2077326530613</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>20</v>
       </c>
       <c r="G41" t="n">
-        <v>-445.2077326530613</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>20</v>
       </c>
       <c r="G42" t="n">
-        <v>-445.2077326530613</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>13.0032</v>
       </c>
       <c r="G43" t="n">
-        <v>-432.2045326530613</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>1.9969</v>
       </c>
       <c r="G44" t="n">
-        <v>-430.2076326530614</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>188.1449</v>
       </c>
       <c r="G45" t="n">
-        <v>-618.3525326530614</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>52.3164</v>
       </c>
       <c r="G46" t="n">
-        <v>-566.0361326530614</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>154.1977</v>
       </c>
       <c r="G47" t="n">
-        <v>-566.0361326530614</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>35</v>
       </c>
       <c r="G48" t="n">
-        <v>-566.0361326530614</v>
-      </c>
-      <c r="H48" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>0.1452</v>
       </c>
       <c r="G49" t="n">
-        <v>-565.8909326530613</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>206.1868</v>
       </c>
       <c r="G50" t="n">
-        <v>-772.0777326530613</v>
-      </c>
-      <c r="H50" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>186.7876</v>
       </c>
       <c r="G51" t="n">
-        <v>-958.8653326530613</v>
-      </c>
-      <c r="H51" t="n">
         <v>2</v>
       </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>38.1192</v>
       </c>
       <c r="G52" t="n">
-        <v>-958.8653326530613</v>
-      </c>
-      <c r="H52" t="n">
         <v>2</v>
       </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>10.7055</v>
       </c>
       <c r="G53" t="n">
-        <v>-958.8653326530613</v>
-      </c>
-      <c r="H53" t="n">
         <v>2</v>
       </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>0.129</v>
       </c>
       <c r="G54" t="n">
-        <v>-958.8653326530613</v>
-      </c>
-      <c r="H54" t="n">
         <v>2</v>
       </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>30.4259</v>
       </c>
       <c r="G55" t="n">
-        <v>-958.8653326530613</v>
-      </c>
-      <c r="H55" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>12.2578</v>
       </c>
       <c r="G56" t="n">
-        <v>-971.1231326530612</v>
-      </c>
-      <c r="H56" t="n">
         <v>2</v>
       </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>28.3804</v>
       </c>
       <c r="G57" t="n">
-        <v>-999.5035326530613</v>
-      </c>
-      <c r="H57" t="n">
         <v>2</v>
       </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>66.9397</v>
       </c>
       <c r="G58" t="n">
-        <v>-932.5638326530612</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>154.2546</v>
       </c>
       <c r="G59" t="n">
-        <v>-778.3092326530613</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>611.1058</v>
       </c>
       <c r="G60" t="n">
-        <v>-778.3092326530613</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>0.1383</v>
       </c>
       <c r="G61" t="n">
-        <v>-778.1709326530613</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>12.3068</v>
       </c>
       <c r="G62" t="n">
-        <v>-778.1709326530613</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>31.5641</v>
       </c>
       <c r="G63" t="n">
-        <v>-809.7350326530614</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>6.4136</v>
       </c>
       <c r="G64" t="n">
-        <v>-809.7350326530614</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>0.1251</v>
       </c>
       <c r="G65" t="n">
-        <v>-809.6099326530614</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>4.965</v>
       </c>
       <c r="G66" t="n">
-        <v>-814.5749326530614</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>0.1269</v>
       </c>
       <c r="G67" t="n">
-        <v>-814.4480326530614</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>0.3173</v>
       </c>
       <c r="G68" t="n">
-        <v>-814.4480326530614</v>
-      </c>
-      <c r="H68" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>9.4779</v>
       </c>
       <c r="G69" t="n">
-        <v>-823.9259326530614</v>
-      </c>
-      <c r="H69" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>135.2402</v>
       </c>
       <c r="G70" t="n">
-        <v>-959.1661326530614</v>
-      </c>
-      <c r="H70" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>44.71</v>
       </c>
       <c r="G71" t="n">
-        <v>-959.1661326530614</v>
-      </c>
-      <c r="H71" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>1.1671</v>
       </c>
       <c r="G72" t="n">
-        <v>-957.9990326530614</v>
-      </c>
-      <c r="H72" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>0.1</v>
       </c>
       <c r="G73" t="n">
-        <v>-958.0990326530614</v>
-      </c>
-      <c r="H73" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>61.7474</v>
       </c>
       <c r="G74" t="n">
-        <v>-1019.846432653061</v>
-      </c>
-      <c r="H74" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>21.475</v>
       </c>
       <c r="G75" t="n">
-        <v>-1019.846432653061</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>5.7422</v>
       </c>
       <c r="G76" t="n">
-        <v>-1019.846432653061</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>4.1346</v>
       </c>
       <c r="G77" t="n">
-        <v>-1019.846432653061</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>323.1039</v>
       </c>
       <c r="G78" t="n">
-        <v>-1019.846432653061</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>34</v>
       </c>
       <c r="G79" t="n">
-        <v>-1019.846432653061</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>0.2137404580152672</v>
       </c>
       <c r="G80" t="n">
-        <v>-1019.632692195046</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>0.15</v>
       </c>
       <c r="G81" t="n">
-        <v>-1019.782692195046</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>4.8748</v>
       </c>
       <c r="G82" t="n">
-        <v>-1014.907892195046</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>2.45</v>
       </c>
       <c r="G83" t="n">
-        <v>-1017.357892195046</v>
-      </c>
-      <c r="H83" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>0.2283</v>
       </c>
       <c r="G84" t="n">
-        <v>-1017.586192195046</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>43.7945</v>
       </c>
       <c r="G85" t="n">
-        <v>-1061.380692195046</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>1.7128</v>
       </c>
       <c r="G86" t="n">
-        <v>-1059.667892195046</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>557.5115</v>
       </c>
       <c r="G87" t="n">
-        <v>-1617.179392195046</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>27.6191</v>
       </c>
       <c r="G88" t="n">
-        <v>-1589.560292195046</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>2.5</v>
       </c>
       <c r="G89" t="n">
-        <v>-1587.060292195046</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>5.483</v>
       </c>
       <c r="G90" t="n">
-        <v>-1592.543292195046</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>6.3906</v>
       </c>
       <c r="G91" t="n">
-        <v>-1598.933892195046</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>23.1929</v>
       </c>
       <c r="G92" t="n">
-        <v>-1575.740992195046</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>0.0001</v>
       </c>
       <c r="G93" t="n">
-        <v>-1575.740992195046</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>28.1455</v>
       </c>
       <c r="G94" t="n">
-        <v>-1547.595492195046</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>8.135199999999999</v>
       </c>
       <c r="G95" t="n">
-        <v>-1555.730692195046</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>11.573</v>
       </c>
       <c r="G96" t="n">
-        <v>-1567.303692195046</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>56.8512</v>
       </c>
       <c r="G97" t="n">
-        <v>-1624.154892195046</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>4.7852</v>
       </c>
       <c r="G98" t="n">
-        <v>-1624.154892195046</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>62.8512</v>
       </c>
       <c r="G99" t="n">
-        <v>-1624.154892195046</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>14.8354</v>
       </c>
       <c r="G100" t="n">
-        <v>-1638.990292195046</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>81.7848</v>
       </c>
       <c r="G101" t="n">
-        <v>-1557.205492195046</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>0.1197</v>
       </c>
       <c r="G102" t="n">
-        <v>-1557.085792195046</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>9.434699999999999</v>
       </c>
       <c r="G103" t="n">
-        <v>-1547.651092195046</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>540.5271</v>
       </c>
       <c r="G104" t="n">
-        <v>-1547.651092195046</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>50</v>
       </c>
       <c r="G105" t="n">
-        <v>-1597.651092195046</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>17.7465</v>
       </c>
       <c r="G106" t="n">
-        <v>-1615.397592195046</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,19 @@
         <v>1</v>
       </c>
       <c r="G107" t="n">
-        <v>-1614.397592195046</v>
+        <v>1</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>9710</v>
+      </c>
+      <c r="I107" t="n">
+        <v>9710</v>
+      </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3627,23 @@
         <v>50</v>
       </c>
       <c r="G108" t="n">
-        <v>-1564.397592195046</v>
+        <v>1</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>9715</v>
+      </c>
+      <c r="I108" t="n">
+        <v>9710</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,22 +3665,23 @@
         <v>0.1</v>
       </c>
       <c r="G109" t="n">
-        <v>-1564.297592195046</v>
+        <v>1</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>9740</v>
       </c>
       <c r="I109" t="n">
-        <v>9740</v>
-      </c>
-      <c r="J109" t="n">
-        <v>9740</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>9710</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4016,104 +3703,93 @@
         <v>6.2155</v>
       </c>
       <c r="G110" t="n">
-        <v>-1570.513092195046</v>
+        <v>1</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>9750</v>
       </c>
       <c r="I110" t="n">
         <v>9750</v>
       </c>
-      <c r="J110" t="n">
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
         <v>9740</v>
       </c>
-      <c r="K110" t="inlineStr">
+      <c r="C111" t="n">
+        <v>9740</v>
+      </c>
+      <c r="D111" t="n">
+        <v>9740</v>
+      </c>
+      <c r="E111" t="n">
+        <v>9740</v>
+      </c>
+      <c r="F111" t="n">
+        <v>10.5956</v>
+      </c>
+      <c r="G111" t="n">
+        <v>1</v>
+      </c>
+      <c r="H111" t="n">
+        <v>9740</v>
+      </c>
+      <c r="I111" t="n">
+        <v>9750</v>
+      </c>
+      <c r="J111" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>9740</v>
-      </c>
-      <c r="C111" t="n">
-        <v>9740</v>
-      </c>
-      <c r="D111" t="n">
-        <v>9740</v>
-      </c>
-      <c r="E111" t="n">
-        <v>9740</v>
-      </c>
-      <c r="F111" t="n">
-        <v>10.5956</v>
-      </c>
-      <c r="G111" t="n">
-        <v>-1570.513092195046</v>
-      </c>
-      <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>9740</v>
-      </c>
-      <c r="J111" t="n">
-        <v>9740</v>
-      </c>
-      <c r="K111" t="inlineStr">
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>9755</v>
+      </c>
+      <c r="C112" t="n">
+        <v>9755</v>
+      </c>
+      <c r="D112" t="n">
+        <v>9755</v>
+      </c>
+      <c r="E112" t="n">
+        <v>9755</v>
+      </c>
+      <c r="F112" t="n">
+        <v>2</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>9750</v>
+      </c>
+      <c r="J112" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>9755</v>
-      </c>
-      <c r="C112" t="n">
-        <v>9755</v>
-      </c>
-      <c r="D112" t="n">
-        <v>9755</v>
-      </c>
-      <c r="E112" t="n">
-        <v>9755</v>
-      </c>
-      <c r="F112" t="n">
-        <v>2</v>
-      </c>
-      <c r="G112" t="n">
-        <v>-1568.513092195046</v>
-      </c>
-      <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>9740</v>
-      </c>
-      <c r="J112" t="n">
-        <v>9740</v>
-      </c>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4135,223 +3811,183 @@
         <v>34.2553</v>
       </c>
       <c r="G113" t="n">
-        <v>-1602.768392195046</v>
-      </c>
-      <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>9755</v>
-      </c>
-      <c r="J113" t="n">
-        <v>9740</v>
-      </c>
-      <c r="K113" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>9765</v>
+      </c>
+      <c r="C114" t="n">
+        <v>9765</v>
+      </c>
+      <c r="D114" t="n">
+        <v>9765</v>
+      </c>
+      <c r="E114" t="n">
+        <v>9765</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.1137</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>9730</v>
+      </c>
+      <c r="C115" t="n">
+        <v>9730</v>
+      </c>
+      <c r="D115" t="n">
+        <v>9730</v>
+      </c>
+      <c r="E115" t="n">
+        <v>9730</v>
+      </c>
+      <c r="F115" t="n">
+        <v>13</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>9770</v>
+      </c>
+      <c r="C116" t="n">
+        <v>9770</v>
+      </c>
+      <c r="D116" t="n">
+        <v>9770</v>
+      </c>
+      <c r="E116" t="n">
+        <v>9770</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1</v>
+      </c>
+      <c r="H116" t="n">
+        <v>9730</v>
+      </c>
+      <c r="I116" t="n">
+        <v>9730</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>9770</v>
+      </c>
+      <c r="C117" t="n">
+        <v>9770</v>
+      </c>
+      <c r="D117" t="n">
+        <v>9770</v>
+      </c>
+      <c r="E117" t="n">
+        <v>9770</v>
+      </c>
+      <c r="F117" t="n">
+        <v>6.0177</v>
+      </c>
+      <c r="G117" t="n">
+        <v>1</v>
+      </c>
+      <c r="H117" t="n">
+        <v>9770</v>
+      </c>
+      <c r="I117" t="n">
+        <v>9730</v>
+      </c>
+      <c r="J117" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>9765</v>
-      </c>
-      <c r="C114" t="n">
-        <v>9765</v>
-      </c>
-      <c r="D114" t="n">
-        <v>9765</v>
-      </c>
-      <c r="E114" t="n">
-        <v>9765</v>
-      </c>
-      <c r="F114" t="n">
-        <v>0.1137</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-1602.654692195046</v>
-      </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>9745</v>
-      </c>
-      <c r="J114" t="n">
-        <v>9740</v>
-      </c>
-      <c r="K114" t="inlineStr">
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>9790</v>
+      </c>
+      <c r="C118" t="n">
+        <v>9790</v>
+      </c>
+      <c r="D118" t="n">
+        <v>9790</v>
+      </c>
+      <c r="E118" t="n">
+        <v>9790</v>
+      </c>
+      <c r="F118" t="n">
+        <v>22.5957</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>9730</v>
+      </c>
+      <c r="J118" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>9730</v>
-      </c>
-      <c r="C115" t="n">
-        <v>9730</v>
-      </c>
-      <c r="D115" t="n">
-        <v>9730</v>
-      </c>
-      <c r="E115" t="n">
-        <v>9730</v>
-      </c>
-      <c r="F115" t="n">
-        <v>13</v>
-      </c>
-      <c r="G115" t="n">
-        <v>-1615.654692195046</v>
-      </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>9765</v>
-      </c>
-      <c r="J115" t="n">
-        <v>9765</v>
-      </c>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>9770</v>
-      </c>
-      <c r="C116" t="n">
-        <v>9770</v>
-      </c>
-      <c r="D116" t="n">
-        <v>9770</v>
-      </c>
-      <c r="E116" t="n">
-        <v>9770</v>
-      </c>
-      <c r="F116" t="n">
-        <v>1</v>
-      </c>
-      <c r="G116" t="n">
-        <v>-1614.654692195046</v>
-      </c>
-      <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>9730</v>
-      </c>
-      <c r="J116" t="n">
-        <v>9765</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>9770</v>
-      </c>
-      <c r="C117" t="n">
-        <v>9770</v>
-      </c>
-      <c r="D117" t="n">
-        <v>9770</v>
-      </c>
-      <c r="E117" t="n">
-        <v>9770</v>
-      </c>
-      <c r="F117" t="n">
-        <v>6.0177</v>
-      </c>
-      <c r="G117" t="n">
-        <v>-1614.654692195046</v>
-      </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>9770</v>
-      </c>
-      <c r="J117" t="n">
-        <v>9765</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>9790</v>
-      </c>
-      <c r="C118" t="n">
-        <v>9790</v>
-      </c>
-      <c r="D118" t="n">
-        <v>9790</v>
-      </c>
-      <c r="E118" t="n">
-        <v>9790</v>
-      </c>
-      <c r="F118" t="n">
-        <v>22.5957</v>
-      </c>
-      <c r="G118" t="n">
-        <v>-1592.058992195046</v>
-      </c>
-      <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>9770</v>
-      </c>
-      <c r="J118" t="n">
-        <v>9770</v>
-      </c>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4373,24 +4009,15 @@
         <v>23.197</v>
       </c>
       <c r="G119" t="n">
-        <v>-1592.058992195046</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>9770</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4412,24 +4039,15 @@
         <v>6.348</v>
       </c>
       <c r="G120" t="n">
-        <v>-1592.058992195046</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>9770</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4451,18 +4069,15 @@
         <v>26.1783</v>
       </c>
       <c r="G121" t="n">
-        <v>-1565.880692195046</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4484,22 +4099,15 @@
         <v>0.3029561671763507</v>
       </c>
       <c r="G122" t="n">
-        <v>-1565.57773602787</v>
-      </c>
-      <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>9800</v>
-      </c>
-      <c r="J122" t="n">
-        <v>9800</v>
-      </c>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4521,26 +4129,15 @@
         <v>85.62260000000001</v>
       </c>
       <c r="G123" t="n">
-        <v>-1651.20033602787</v>
-      </c>
-      <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>9810</v>
-      </c>
-      <c r="J123" t="n">
-        <v>9800</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4562,26 +4159,15 @@
         <v>128.461</v>
       </c>
       <c r="G124" t="n">
-        <v>-1522.73933602787</v>
-      </c>
-      <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>9805</v>
-      </c>
-      <c r="J124" t="n">
-        <v>9800</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4603,26 +4189,15 @@
         <v>0.3029</v>
       </c>
       <c r="G125" t="n">
-        <v>-1523.04223602787</v>
-      </c>
-      <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>9825</v>
-      </c>
-      <c r="J125" t="n">
-        <v>9800</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4644,24 +4219,15 @@
         <v>3.704</v>
       </c>
       <c r="G126" t="n">
-        <v>-1519.33823602787</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>9800</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4683,24 +4249,15 @@
         <v>60.845</v>
       </c>
       <c r="G127" t="n">
-        <v>-1580.18323602787</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>9800</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4722,26 +4279,15 @@
         <v>746.1</v>
       </c>
       <c r="G128" t="n">
-        <v>-834.0832360278697</v>
-      </c>
-      <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>9815</v>
-      </c>
-      <c r="J128" t="n">
-        <v>9800</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4763,24 +4309,15 @@
         <v>52.3079</v>
       </c>
       <c r="G129" t="n">
-        <v>-886.3911360278697</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>9800</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4802,24 +4339,15 @@
         <v>35</v>
       </c>
       <c r="G130" t="n">
-        <v>-921.3911360278697</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>9800</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4841,24 +4369,15 @@
         <v>8.4</v>
       </c>
       <c r="G131" t="n">
-        <v>-912.9911360278697</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>9800</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4880,24 +4399,15 @@
         <v>25.6125</v>
       </c>
       <c r="G132" t="n">
-        <v>-938.6036360278697</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>9800</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4919,24 +4429,15 @@
         <v>50</v>
       </c>
       <c r="G133" t="n">
-        <v>-988.6036360278697</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>9800</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4958,24 +4459,15 @@
         <v>0.1074</v>
       </c>
       <c r="G134" t="n">
-        <v>-988.4962360278697</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>9800</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4997,24 +4489,15 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="G135" t="n">
-        <v>-988.4962360278697</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>9800</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5036,24 +4519,15 @@
         <v>6.8917</v>
       </c>
       <c r="G136" t="n">
-        <v>-995.3879360278697</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>9800</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5075,24 +4549,15 @@
         <v>34.98715954198473</v>
       </c>
       <c r="G137" t="n">
-        <v>-960.400776485885</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>9800</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5114,24 +4579,15 @@
         <v>10</v>
       </c>
       <c r="G138" t="n">
-        <v>-960.400776485885</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>9800</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5153,24 +4609,15 @@
         <v>6.248</v>
       </c>
       <c r="G139" t="n">
-        <v>-954.1527764858849</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>9800</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5192,24 +4639,15 @@
         <v>12.1729</v>
       </c>
       <c r="G140" t="n">
-        <v>-966.325676485885</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>9800</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5231,24 +4669,15 @@
         <v>8.147399999999999</v>
       </c>
       <c r="G141" t="n">
-        <v>-966.325676485885</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>9800</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5270,24 +4699,15 @@
         <v>0.1019</v>
       </c>
       <c r="G142" t="n">
-        <v>-966.223776485885</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>9800</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5309,24 +4729,15 @@
         <v>51.4655</v>
       </c>
       <c r="G143" t="n">
-        <v>-914.7582764858849</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>9800</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5348,24 +4759,15 @@
         <v>17.3</v>
       </c>
       <c r="G144" t="n">
-        <v>-914.7582764858849</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>9800</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5387,24 +4789,15 @@
         <v>9.0861</v>
       </c>
       <c r="G145" t="n">
-        <v>-914.7582764858849</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>9800</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5426,24 +4819,15 @@
         <v>9.242800000000001</v>
       </c>
       <c r="G146" t="n">
-        <v>-924.0010764858849</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>9800</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5465,24 +4849,15 @@
         <v>9.826000000000001</v>
       </c>
       <c r="G147" t="n">
-        <v>-924.0010764858849</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>9800</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5504,24 +4879,15 @@
         <v>8.147</v>
       </c>
       <c r="G148" t="n">
-        <v>-924.0010764858849</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>9800</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5543,24 +4909,15 @@
         <v>13.0202</v>
       </c>
       <c r="G149" t="n">
-        <v>-910.9808764858849</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>9800</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5582,24 +4939,15 @@
         <v>27.8045</v>
       </c>
       <c r="G150" t="n">
-        <v>-938.7853764858849</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>9800</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5621,24 +4969,15 @@
         <v>4.53</v>
       </c>
       <c r="G151" t="n">
-        <v>-938.7853764858849</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>9800</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5660,24 +4999,15 @@
         <v>7.5386</v>
       </c>
       <c r="G152" t="n">
-        <v>-938.7853764858849</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>9800</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5699,24 +5029,15 @@
         <v>59.8086</v>
       </c>
       <c r="G153" t="n">
-        <v>-878.9767764858849</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>9800</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5738,24 +5059,15 @@
         <v>7.2139</v>
       </c>
       <c r="G154" t="n">
-        <v>-878.9767764858849</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>9800</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5777,24 +5089,15 @@
         <v>73.9371</v>
       </c>
       <c r="G155" t="n">
-        <v>-878.9767764858849</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>9800</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5816,24 +5119,15 @@
         <v>11.037</v>
       </c>
       <c r="G156" t="n">
-        <v>-867.9397764858849</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>9800</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5855,24 +5149,15 @@
         <v>119.8529</v>
       </c>
       <c r="G157" t="n">
-        <v>-867.9397764858849</v>
-      </c>
-      <c r="H157" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>9800</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>0.9990816326530613</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5894,18 +5179,15 @@
         <v>34</v>
       </c>
       <c r="G158" t="n">
-        <v>-901.9397764858849</v>
-      </c>
-      <c r="H158" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5927,18 +5209,15 @@
         <v>1</v>
       </c>
       <c r="G159" t="n">
-        <v>-902.9397764858849</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5960,18 +5239,15 @@
         <v>48.0666</v>
       </c>
       <c r="G160" t="n">
-        <v>-951.0063764858849</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5993,18 +5269,15 @@
         <v>1</v>
       </c>
       <c r="G161" t="n">
-        <v>-951.0063764858849</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6026,18 +5299,15 @@
         <v>53.2056</v>
       </c>
       <c r="G162" t="n">
-        <v>-951.0063764858849</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6059,18 +5329,15 @@
         <v>424.407</v>
       </c>
       <c r="G163" t="n">
-        <v>-1375.413376485885</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6092,18 +5359,15 @@
         <v>6.4606</v>
       </c>
       <c r="G164" t="n">
-        <v>-1368.952776485885</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6125,18 +5389,15 @@
         <v>9.99732133741705</v>
       </c>
       <c r="G165" t="n">
-        <v>-1358.955455148468</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6158,18 +5419,15 @@
         <v>3.6579</v>
       </c>
       <c r="G166" t="n">
-        <v>-1362.613355148467</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6191,18 +5449,15 @@
         <v>27.2554</v>
       </c>
       <c r="G167" t="n">
-        <v>-1389.868755148467</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6224,18 +5479,15 @@
         <v>1.1</v>
       </c>
       <c r="G168" t="n">
-        <v>-1389.868755148467</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6257,18 +5509,15 @@
         <v>21.5611</v>
       </c>
       <c r="G169" t="n">
-        <v>-1368.307655148468</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6290,18 +5539,15 @@
         <v>29.6403</v>
       </c>
       <c r="G170" t="n">
-        <v>-1338.667355148468</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6323,18 +5569,15 @@
         <v>96.98260000000001</v>
       </c>
       <c r="G171" t="n">
-        <v>-1435.649955148468</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6356,18 +5599,15 @@
         <v>33.915</v>
       </c>
       <c r="G172" t="n">
-        <v>-1435.649955148468</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6389,22 +5629,15 @@
         <v>0.1</v>
       </c>
       <c r="G173" t="n">
-        <v>-1435.549955148468</v>
-      </c>
-      <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>9720</v>
-      </c>
-      <c r="J173" t="n">
-        <v>9720</v>
-      </c>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6426,24 +5659,15 @@
         <v>0.1</v>
       </c>
       <c r="G174" t="n">
-        <v>-1435.649955148468</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>9720</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6465,24 +5689,15 @@
         <v>49.9999</v>
       </c>
       <c r="G175" t="n">
-        <v>-1435.649955148468</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>9720</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6504,18 +5719,15 @@
         <v>1.1642</v>
       </c>
       <c r="G176" t="n">
-        <v>-1436.814155148468</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6537,18 +5749,15 @@
         <v>102.2360879918242</v>
       </c>
       <c r="G177" t="n">
-        <v>-1334.578067156643</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6570,18 +5779,15 @@
         <v>2.1902</v>
       </c>
       <c r="G178" t="n">
-        <v>-1336.768267156643</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6603,18 +5809,15 @@
         <v>61.2007</v>
       </c>
       <c r="G179" t="n">
-        <v>-1397.968967156643</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6636,18 +5839,15 @@
         <v>35.3545</v>
       </c>
       <c r="G180" t="n">
-        <v>-1397.968967156643</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6669,18 +5869,15 @@
         <v>17.8801</v>
       </c>
       <c r="G181" t="n">
-        <v>-1397.968967156643</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6702,18 +5899,19 @@
         <v>7.0939</v>
       </c>
       <c r="G182" t="n">
-        <v>-1405.062867156644</v>
+        <v>1</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
+        <v>9700</v>
+      </c>
+      <c r="I182" t="n">
+        <v>9700</v>
+      </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
